--- a/Results_Grid_Template.xlsx
+++ b/Results_Grid_Template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20386"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA71D705-B2D6-49AF-BAB3-7B9BAADA1A43}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D88C19C-6DB0-48EC-AB05-6B222401FFFA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -116,9 +116,6 @@
   </si>
   <si>
     <t>Remove engineered input:</t>
-  </si>
-  <si>
-    <t>Feature importance method:</t>
   </si>
   <si>
     <t>Highly correlated features threshold:</t>
@@ -336,6 +333,9 @@
     <t>| Configuration          Data split by feature -&gt;
 V                                                      SVM kernels -&gt;</t>
   </si>
+  <si>
+    <t>Data split by feature:</t>
+  </si>
 </sst>
 </file>
 
@@ -1468,79 +1468,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1592,21 +1526,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1655,44 +1580,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1701,6 +1593,30 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1719,14 +1635,110 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1734,35 +1746,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2047,7 +2047,7 @@
   <dimension ref="A1:AL192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2064,606 +2064,606 @@
   <sheetData>
     <row r="1" spans="5:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="5:38" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E2" s="121" t="s">
+      <c r="E2" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
-      <c r="N2" s="122"/>
-      <c r="O2" s="122"/>
-      <c r="P2" s="122"/>
-      <c r="Q2" s="122"/>
-      <c r="R2" s="122"/>
-      <c r="S2" s="123"/>
-      <c r="Z2" s="106" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA2" s="107"/>
-      <c r="AB2" s="107"/>
-      <c r="AC2" s="107"/>
-      <c r="AD2" s="108"/>
-      <c r="AF2" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG2" s="33"/>
-      <c r="AH2" s="33"/>
-      <c r="AI2" s="33"/>
-      <c r="AJ2" s="33"/>
-      <c r="AK2" s="33"/>
-      <c r="AL2" s="34"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="82"/>
+      <c r="S2" s="83"/>
+      <c r="Z2" s="78" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA2" s="79"/>
+      <c r="AB2" s="79"/>
+      <c r="AC2" s="79"/>
+      <c r="AD2" s="80"/>
+      <c r="AF2" s="99" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG2" s="100"/>
+      <c r="AH2" s="100"/>
+      <c r="AI2" s="100"/>
+      <c r="AJ2" s="100"/>
+      <c r="AK2" s="100"/>
+      <c r="AL2" s="101"/>
     </row>
     <row r="3" spans="5:38" x14ac:dyDescent="0.25">
-      <c r="AF3" s="35"/>
-      <c r="AG3" s="36"/>
-      <c r="AH3" s="36"/>
-      <c r="AI3" s="36"/>
-      <c r="AJ3" s="36"/>
-      <c r="AK3" s="36"/>
-      <c r="AL3" s="37"/>
+      <c r="AF3" s="102"/>
+      <c r="AG3" s="103"/>
+      <c r="AH3" s="103"/>
+      <c r="AI3" s="103"/>
+      <c r="AJ3" s="103"/>
+      <c r="AK3" s="103"/>
+      <c r="AL3" s="104"/>
     </row>
     <row r="4" spans="5:38" x14ac:dyDescent="0.25">
-      <c r="AF4" s="35"/>
-      <c r="AG4" s="36"/>
-      <c r="AH4" s="36"/>
-      <c r="AI4" s="36"/>
-      <c r="AJ4" s="36"/>
-      <c r="AK4" s="36"/>
-      <c r="AL4" s="37"/>
+      <c r="AF4" s="102"/>
+      <c r="AG4" s="103"/>
+      <c r="AH4" s="103"/>
+      <c r="AI4" s="103"/>
+      <c r="AJ4" s="103"/>
+      <c r="AK4" s="103"/>
+      <c r="AL4" s="104"/>
     </row>
     <row r="5" spans="5:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E5" s="109" t="s">
+      <c r="E5" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="AF5" s="35"/>
-      <c r="AG5" s="36"/>
-      <c r="AH5" s="36"/>
-      <c r="AI5" s="36"/>
-      <c r="AJ5" s="36"/>
-      <c r="AK5" s="36"/>
-      <c r="AL5" s="37"/>
+      <c r="AF5" s="102"/>
+      <c r="AG5" s="103"/>
+      <c r="AH5" s="103"/>
+      <c r="AI5" s="103"/>
+      <c r="AJ5" s="103"/>
+      <c r="AK5" s="103"/>
+      <c r="AL5" s="104"/>
     </row>
     <row r="6" spans="5:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E6" s="2"/>
-      <c r="AF6" s="35"/>
-      <c r="AG6" s="36"/>
-      <c r="AH6" s="36"/>
-      <c r="AI6" s="36"/>
-      <c r="AJ6" s="36"/>
-      <c r="AK6" s="36"/>
-      <c r="AL6" s="37"/>
+      <c r="AF6" s="102"/>
+      <c r="AG6" s="103"/>
+      <c r="AH6" s="103"/>
+      <c r="AI6" s="103"/>
+      <c r="AJ6" s="103"/>
+      <c r="AK6" s="103"/>
+      <c r="AL6" s="104"/>
     </row>
     <row r="7" spans="5:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E7" s="110" t="s">
+      <c r="E7" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="AF7" s="35"/>
-      <c r="AG7" s="36"/>
-      <c r="AH7" s="36"/>
-      <c r="AI7" s="36"/>
-      <c r="AJ7" s="36"/>
-      <c r="AK7" s="36"/>
-      <c r="AL7" s="37"/>
+      <c r="AF7" s="102"/>
+      <c r="AG7" s="103"/>
+      <c r="AH7" s="103"/>
+      <c r="AI7" s="103"/>
+      <c r="AJ7" s="103"/>
+      <c r="AK7" s="103"/>
+      <c r="AL7" s="104"/>
     </row>
     <row r="8" spans="5:38" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E8" s="16"/>
-      <c r="AF8" s="35"/>
-      <c r="AG8" s="36"/>
-      <c r="AH8" s="36"/>
-      <c r="AI8" s="36"/>
-      <c r="AJ8" s="36"/>
-      <c r="AK8" s="36"/>
-      <c r="AL8" s="37"/>
+      <c r="AF8" s="102"/>
+      <c r="AG8" s="103"/>
+      <c r="AH8" s="103"/>
+      <c r="AI8" s="103"/>
+      <c r="AJ8" s="103"/>
+      <c r="AK8" s="103"/>
+      <c r="AL8" s="104"/>
     </row>
     <row r="9" spans="5:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E9" s="111" t="s">
+      <c r="E9" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="112"/>
-      <c r="G9" s="112"/>
-      <c r="H9" s="112"/>
-      <c r="I9" s="112"/>
-      <c r="J9" s="112"/>
-      <c r="K9" s="112"/>
-      <c r="L9" s="112"/>
-      <c r="M9" s="112"/>
-      <c r="N9" s="112"/>
-      <c r="O9" s="112"/>
-      <c r="P9" s="112"/>
-      <c r="Q9" s="112"/>
-      <c r="R9" s="112"/>
-      <c r="S9" s="113"/>
-      <c r="T9" s="43"/>
-      <c r="U9" s="43"/>
-      <c r="V9" s="43"/>
-      <c r="W9" s="43"/>
-      <c r="X9" s="43"/>
-      <c r="Y9" s="43"/>
-      <c r="Z9" s="43"/>
-      <c r="AA9" s="43"/>
-      <c r="AB9" s="43"/>
-      <c r="AF9" s="35"/>
-      <c r="AG9" s="36"/>
-      <c r="AH9" s="36"/>
-      <c r="AI9" s="36"/>
-      <c r="AJ9" s="36"/>
-      <c r="AK9" s="36"/>
-      <c r="AL9" s="37"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="116"/>
+      <c r="K9" s="116"/>
+      <c r="L9" s="116"/>
+      <c r="M9" s="116"/>
+      <c r="N9" s="116"/>
+      <c r="O9" s="116"/>
+      <c r="P9" s="116"/>
+      <c r="Q9" s="116"/>
+      <c r="R9" s="116"/>
+      <c r="S9" s="117"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="24"/>
+      <c r="V9" s="24"/>
+      <c r="W9" s="24"/>
+      <c r="X9" s="24"/>
+      <c r="Y9" s="24"/>
+      <c r="Z9" s="24"/>
+      <c r="AA9" s="24"/>
+      <c r="AB9" s="24"/>
+      <c r="AF9" s="102"/>
+      <c r="AG9" s="103"/>
+      <c r="AH9" s="103"/>
+      <c r="AI9" s="103"/>
+      <c r="AJ9" s="103"/>
+      <c r="AK9" s="103"/>
+      <c r="AL9" s="104"/>
     </row>
     <row r="10" spans="5:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E10" s="114" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="115"/>
-      <c r="G10" s="115"/>
-      <c r="H10" s="115"/>
-      <c r="I10" s="115"/>
-      <c r="J10" s="115"/>
-      <c r="K10" s="115"/>
-      <c r="L10" s="115"/>
-      <c r="M10" s="115"/>
-      <c r="N10" s="115"/>
-      <c r="O10" s="115"/>
-      <c r="P10" s="115"/>
-      <c r="Q10" s="115"/>
-      <c r="R10" s="115"/>
-      <c r="S10" s="116"/>
-      <c r="T10" s="43"/>
-      <c r="U10" s="43"/>
-      <c r="V10" s="43"/>
-      <c r="W10" s="43"/>
-      <c r="X10" s="43"/>
-      <c r="Y10" s="43"/>
-      <c r="Z10" s="43"/>
-      <c r="AA10" s="43"/>
-      <c r="AB10" s="43"/>
-      <c r="AF10" s="35"/>
-      <c r="AG10" s="36"/>
-      <c r="AH10" s="36"/>
-      <c r="AI10" s="36"/>
-      <c r="AJ10" s="36"/>
-      <c r="AK10" s="36"/>
-      <c r="AL10" s="37"/>
+      <c r="E10" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="95"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="95"/>
+      <c r="I10" s="95"/>
+      <c r="J10" s="95"/>
+      <c r="K10" s="95"/>
+      <c r="L10" s="95"/>
+      <c r="M10" s="95"/>
+      <c r="N10" s="95"/>
+      <c r="O10" s="95"/>
+      <c r="P10" s="95"/>
+      <c r="Q10" s="95"/>
+      <c r="R10" s="95"/>
+      <c r="S10" s="96"/>
+      <c r="T10" s="24"/>
+      <c r="U10" s="24"/>
+      <c r="V10" s="24"/>
+      <c r="W10" s="24"/>
+      <c r="X10" s="24"/>
+      <c r="Y10" s="24"/>
+      <c r="Z10" s="24"/>
+      <c r="AA10" s="24"/>
+      <c r="AB10" s="24"/>
+      <c r="AF10" s="102"/>
+      <c r="AG10" s="103"/>
+      <c r="AH10" s="103"/>
+      <c r="AI10" s="103"/>
+      <c r="AJ10" s="103"/>
+      <c r="AK10" s="103"/>
+      <c r="AL10" s="104"/>
     </row>
     <row r="11" spans="5:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E11" s="114" t="s">
+      <c r="E11" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="115"/>
-      <c r="G11" s="115"/>
-      <c r="H11" s="115"/>
-      <c r="I11" s="115"/>
-      <c r="J11" s="115"/>
-      <c r="K11" s="115"/>
-      <c r="L11" s="115"/>
-      <c r="M11" s="115"/>
-      <c r="N11" s="115"/>
-      <c r="O11" s="115"/>
-      <c r="P11" s="115"/>
-      <c r="Q11" s="115"/>
-      <c r="R11" s="115"/>
-      <c r="S11" s="116"/>
-      <c r="T11" s="43"/>
-      <c r="U11" s="43"/>
-      <c r="V11" s="43"/>
-      <c r="W11" s="43"/>
-      <c r="X11" s="43"/>
-      <c r="Y11" s="43"/>
-      <c r="Z11" s="43"/>
-      <c r="AA11" s="43"/>
-      <c r="AB11" s="43"/>
-      <c r="AF11" s="35"/>
-      <c r="AG11" s="36"/>
-      <c r="AH11" s="36"/>
-      <c r="AI11" s="36"/>
-      <c r="AJ11" s="36"/>
-      <c r="AK11" s="36"/>
-      <c r="AL11" s="37"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="95"/>
+      <c r="H11" s="95"/>
+      <c r="I11" s="95"/>
+      <c r="J11" s="95"/>
+      <c r="K11" s="95"/>
+      <c r="L11" s="95"/>
+      <c r="M11" s="95"/>
+      <c r="N11" s="95"/>
+      <c r="O11" s="95"/>
+      <c r="P11" s="95"/>
+      <c r="Q11" s="95"/>
+      <c r="R11" s="95"/>
+      <c r="S11" s="96"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="24"/>
+      <c r="V11" s="24"/>
+      <c r="W11" s="24"/>
+      <c r="X11" s="24"/>
+      <c r="Y11" s="24"/>
+      <c r="Z11" s="24"/>
+      <c r="AA11" s="24"/>
+      <c r="AB11" s="24"/>
+      <c r="AF11" s="102"/>
+      <c r="AG11" s="103"/>
+      <c r="AH11" s="103"/>
+      <c r="AI11" s="103"/>
+      <c r="AJ11" s="103"/>
+      <c r="AK11" s="103"/>
+      <c r="AL11" s="104"/>
     </row>
     <row r="12" spans="5:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E12" s="114" t="s">
+      <c r="E12" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="115"/>
-      <c r="G12" s="115"/>
-      <c r="H12" s="115"/>
-      <c r="I12" s="115"/>
-      <c r="J12" s="115"/>
-      <c r="K12" s="115"/>
-      <c r="L12" s="115"/>
-      <c r="M12" s="115"/>
-      <c r="N12" s="115"/>
-      <c r="O12" s="115"/>
-      <c r="P12" s="115"/>
-      <c r="Q12" s="115"/>
-      <c r="R12" s="115"/>
-      <c r="S12" s="116"/>
-      <c r="T12" s="43"/>
-      <c r="U12" s="43"/>
-      <c r="V12" s="43"/>
-      <c r="W12" s="43"/>
-      <c r="X12" s="43"/>
-      <c r="Y12" s="43"/>
-      <c r="Z12" s="43"/>
-      <c r="AA12" s="43"/>
-      <c r="AB12" s="43"/>
-      <c r="AF12" s="35"/>
-      <c r="AG12" s="36"/>
-      <c r="AH12" s="36"/>
-      <c r="AI12" s="36"/>
-      <c r="AJ12" s="36"/>
-      <c r="AK12" s="36"/>
-      <c r="AL12" s="37"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="95"/>
+      <c r="I12" s="95"/>
+      <c r="J12" s="95"/>
+      <c r="K12" s="95"/>
+      <c r="L12" s="95"/>
+      <c r="M12" s="95"/>
+      <c r="N12" s="95"/>
+      <c r="O12" s="95"/>
+      <c r="P12" s="95"/>
+      <c r="Q12" s="95"/>
+      <c r="R12" s="95"/>
+      <c r="S12" s="96"/>
+      <c r="T12" s="24"/>
+      <c r="U12" s="24"/>
+      <c r="V12" s="24"/>
+      <c r="W12" s="24"/>
+      <c r="X12" s="24"/>
+      <c r="Y12" s="24"/>
+      <c r="Z12" s="24"/>
+      <c r="AA12" s="24"/>
+      <c r="AB12" s="24"/>
+      <c r="AF12" s="102"/>
+      <c r="AG12" s="103"/>
+      <c r="AH12" s="103"/>
+      <c r="AI12" s="103"/>
+      <c r="AJ12" s="103"/>
+      <c r="AK12" s="103"/>
+      <c r="AL12" s="104"/>
     </row>
     <row r="13" spans="5:38" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E13" s="117" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="118"/>
-      <c r="G13" s="118"/>
-      <c r="H13" s="118"/>
-      <c r="I13" s="118"/>
-      <c r="J13" s="118"/>
-      <c r="K13" s="118"/>
-      <c r="L13" s="118"/>
-      <c r="M13" s="118"/>
-      <c r="N13" s="118"/>
-      <c r="O13" s="118"/>
-      <c r="P13" s="118"/>
-      <c r="Q13" s="118"/>
-      <c r="R13" s="118"/>
-      <c r="S13" s="119"/>
-      <c r="T13" s="43"/>
-      <c r="U13" s="43"/>
-      <c r="V13" s="43"/>
-      <c r="W13" s="43"/>
-      <c r="X13" s="43"/>
-      <c r="Y13" s="43"/>
-      <c r="Z13" s="43"/>
-      <c r="AA13" s="43"/>
-      <c r="AB13" s="43"/>
-      <c r="AF13" s="35"/>
-      <c r="AG13" s="36"/>
-      <c r="AH13" s="36"/>
-      <c r="AI13" s="36"/>
-      <c r="AJ13" s="36"/>
-      <c r="AK13" s="36"/>
-      <c r="AL13" s="37"/>
+      <c r="E13" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="97"/>
+      <c r="G13" s="97"/>
+      <c r="H13" s="97"/>
+      <c r="I13" s="97"/>
+      <c r="J13" s="97"/>
+      <c r="K13" s="97"/>
+      <c r="L13" s="97"/>
+      <c r="M13" s="97"/>
+      <c r="N13" s="97"/>
+      <c r="O13" s="97"/>
+      <c r="P13" s="97"/>
+      <c r="Q13" s="97"/>
+      <c r="R13" s="97"/>
+      <c r="S13" s="98"/>
+      <c r="T13" s="24"/>
+      <c r="U13" s="24"/>
+      <c r="V13" s="24"/>
+      <c r="W13" s="24"/>
+      <c r="X13" s="24"/>
+      <c r="Y13" s="24"/>
+      <c r="Z13" s="24"/>
+      <c r="AA13" s="24"/>
+      <c r="AB13" s="24"/>
+      <c r="AF13" s="102"/>
+      <c r="AG13" s="103"/>
+      <c r="AH13" s="103"/>
+      <c r="AI13" s="103"/>
+      <c r="AJ13" s="103"/>
+      <c r="AK13" s="103"/>
+      <c r="AL13" s="104"/>
     </row>
     <row r="14" spans="5:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E14" s="16"/>
-      <c r="AF14" s="35"/>
-      <c r="AG14" s="36"/>
-      <c r="AH14" s="36"/>
-      <c r="AI14" s="36"/>
-      <c r="AJ14" s="36"/>
-      <c r="AK14" s="36"/>
-      <c r="AL14" s="37"/>
+      <c r="AF14" s="102"/>
+      <c r="AG14" s="103"/>
+      <c r="AH14" s="103"/>
+      <c r="AI14" s="103"/>
+      <c r="AJ14" s="103"/>
+      <c r="AK14" s="103"/>
+      <c r="AL14" s="104"/>
     </row>
     <row r="15" spans="5:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E15" s="110" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF15" s="35"/>
-      <c r="AG15" s="36"/>
-      <c r="AH15" s="36"/>
-      <c r="AI15" s="36"/>
-      <c r="AJ15" s="36"/>
-      <c r="AK15" s="36"/>
-      <c r="AL15" s="37"/>
+      <c r="E15" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF15" s="102"/>
+      <c r="AG15" s="103"/>
+      <c r="AH15" s="103"/>
+      <c r="AI15" s="103"/>
+      <c r="AJ15" s="103"/>
+      <c r="AK15" s="103"/>
+      <c r="AL15" s="104"/>
     </row>
     <row r="16" spans="5:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E16" s="16"/>
-      <c r="AF16" s="35"/>
-      <c r="AG16" s="36"/>
-      <c r="AH16" s="36"/>
-      <c r="AI16" s="36"/>
-      <c r="AJ16" s="36"/>
-      <c r="AK16" s="36"/>
-      <c r="AL16" s="37"/>
+      <c r="AF16" s="102"/>
+      <c r="AG16" s="103"/>
+      <c r="AH16" s="103"/>
+      <c r="AI16" s="103"/>
+      <c r="AJ16" s="103"/>
+      <c r="AK16" s="103"/>
+      <c r="AL16" s="104"/>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C17" s="1"/>
-      <c r="E17" s="120" t="s">
-        <v>44</v>
+      <c r="E17" s="72" t="s">
+        <v>43</v>
       </c>
       <c r="H17" s="20"/>
-      <c r="AF17" s="35"/>
-      <c r="AG17" s="36"/>
-      <c r="AH17" s="36"/>
-      <c r="AI17" s="36"/>
-      <c r="AJ17" s="36"/>
-      <c r="AK17" s="36"/>
-      <c r="AL17" s="37"/>
+      <c r="AF17" s="102"/>
+      <c r="AG17" s="103"/>
+      <c r="AH17" s="103"/>
+      <c r="AI17" s="103"/>
+      <c r="AJ17" s="103"/>
+      <c r="AK17" s="103"/>
+      <c r="AL17" s="104"/>
     </row>
     <row r="18" spans="1:38" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="1"/>
       <c r="E18" s="16"/>
       <c r="M18" s="20"/>
       <c r="Q18" s="20"/>
-      <c r="AF18" s="35"/>
-      <c r="AG18" s="36"/>
-      <c r="AH18" s="36"/>
-      <c r="AI18" s="36"/>
-      <c r="AJ18" s="36"/>
-      <c r="AK18" s="36"/>
-      <c r="AL18" s="37"/>
+      <c r="AF18" s="102"/>
+      <c r="AG18" s="103"/>
+      <c r="AH18" s="103"/>
+      <c r="AI18" s="103"/>
+      <c r="AJ18" s="103"/>
+      <c r="AK18" s="103"/>
+      <c r="AL18" s="104"/>
     </row>
     <row r="19" spans="1:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="103" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="104"/>
-      <c r="D19" s="104"/>
-      <c r="E19" s="104"/>
-      <c r="F19" s="104"/>
-      <c r="G19" s="104"/>
-      <c r="H19" s="104"/>
-      <c r="I19" s="104"/>
-      <c r="J19" s="104"/>
-      <c r="K19" s="104"/>
-      <c r="L19" s="104"/>
-      <c r="M19" s="104"/>
-      <c r="N19" s="104"/>
-      <c r="O19" s="104"/>
-      <c r="P19" s="104"/>
-      <c r="Q19" s="104"/>
-      <c r="R19" s="104"/>
-      <c r="S19" s="104"/>
-      <c r="T19" s="104"/>
-      <c r="U19" s="104"/>
-      <c r="V19" s="104"/>
-      <c r="W19" s="104"/>
-      <c r="X19" s="104"/>
-      <c r="Y19" s="104"/>
-      <c r="Z19" s="104"/>
-      <c r="AA19" s="104"/>
-      <c r="AB19" s="104"/>
-      <c r="AC19" s="104"/>
-      <c r="AD19" s="105"/>
-      <c r="AF19" s="35"/>
-      <c r="AG19" s="36"/>
-      <c r="AH19" s="36"/>
-      <c r="AI19" s="36"/>
-      <c r="AJ19" s="36"/>
-      <c r="AK19" s="36"/>
-      <c r="AL19" s="37"/>
+      <c r="B19" s="75" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="76"/>
+      <c r="J19" s="76"/>
+      <c r="K19" s="76"/>
+      <c r="L19" s="76"/>
+      <c r="M19" s="76"/>
+      <c r="N19" s="76"/>
+      <c r="O19" s="76"/>
+      <c r="P19" s="76"/>
+      <c r="Q19" s="76"/>
+      <c r="R19" s="76"/>
+      <c r="S19" s="76"/>
+      <c r="T19" s="76"/>
+      <c r="U19" s="76"/>
+      <c r="V19" s="76"/>
+      <c r="W19" s="76"/>
+      <c r="X19" s="76"/>
+      <c r="Y19" s="76"/>
+      <c r="Z19" s="76"/>
+      <c r="AA19" s="76"/>
+      <c r="AB19" s="76"/>
+      <c r="AC19" s="76"/>
+      <c r="AD19" s="77"/>
+      <c r="AF19" s="102"/>
+      <c r="AG19" s="103"/>
+      <c r="AH19" s="103"/>
+      <c r="AI19" s="103"/>
+      <c r="AJ19" s="103"/>
+      <c r="AK19" s="103"/>
+      <c r="AL19" s="104"/>
     </row>
     <row r="20" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AF20" s="35"/>
-      <c r="AG20" s="36"/>
-      <c r="AH20" s="36"/>
-      <c r="AI20" s="36"/>
-      <c r="AJ20" s="36"/>
-      <c r="AK20" s="36"/>
-      <c r="AL20" s="37"/>
+      <c r="AF20" s="102"/>
+      <c r="AG20" s="103"/>
+      <c r="AH20" s="103"/>
+      <c r="AI20" s="103"/>
+      <c r="AJ20" s="103"/>
+      <c r="AK20" s="103"/>
+      <c r="AL20" s="104"/>
     </row>
     <row r="21" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="44"/>
-      <c r="B21" s="101"/>
-      <c r="C21" s="101"/>
-      <c r="D21" s="102"/>
-      <c r="E21" s="100" t="s">
+      <c r="A21" s="25"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="108" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" s="108"/>
+      <c r="H21" s="108"/>
+      <c r="I21" s="108"/>
+      <c r="J21" s="108"/>
+      <c r="K21" s="108"/>
+      <c r="L21" s="108"/>
+      <c r="M21" s="108"/>
+      <c r="N21" s="108"/>
+      <c r="O21" s="108"/>
+      <c r="P21" s="108"/>
+      <c r="Q21" s="108"/>
+      <c r="R21" s="26"/>
+      <c r="S21" s="108" t="s">
+        <v>36</v>
+      </c>
+      <c r="T21" s="108"/>
+      <c r="U21" s="108"/>
+      <c r="V21" s="108"/>
+      <c r="W21" s="108"/>
+      <c r="X21" s="108"/>
+      <c r="Y21" s="108"/>
+      <c r="Z21" s="108"/>
+      <c r="AA21" s="108"/>
+      <c r="AB21" s="108"/>
+      <c r="AC21" s="108"/>
+      <c r="AD21" s="109"/>
+      <c r="AE21" s="23"/>
+      <c r="AF21" s="102"/>
+      <c r="AG21" s="103"/>
+      <c r="AH21" s="103"/>
+      <c r="AI21" s="103"/>
+      <c r="AJ21" s="103"/>
+      <c r="AK21" s="103"/>
+      <c r="AL21" s="104"/>
+    </row>
+    <row r="22" spans="1:38" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="87" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="89" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="91" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="113" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22" s="114"/>
+      <c r="H22" s="114"/>
+      <c r="I22" s="115"/>
+      <c r="J22" s="84" t="s">
+        <v>3</v>
+      </c>
+      <c r="K22" s="85"/>
+      <c r="L22" s="85"/>
+      <c r="M22" s="85"/>
+      <c r="N22" s="113" t="s">
+        <v>4</v>
+      </c>
+      <c r="O22" s="114"/>
+      <c r="P22" s="114"/>
+      <c r="Q22" s="115"/>
+      <c r="R22" s="93" t="s">
+        <v>34</v>
+      </c>
+      <c r="S22" s="85" t="s">
+        <v>2</v>
+      </c>
+      <c r="T22" s="85"/>
+      <c r="U22" s="85"/>
+      <c r="V22" s="86"/>
+      <c r="W22" s="84" t="s">
+        <v>3</v>
+      </c>
+      <c r="X22" s="85"/>
+      <c r="Y22" s="85"/>
+      <c r="Z22" s="86"/>
+      <c r="AA22" s="84" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB22" s="85"/>
+      <c r="AC22" s="85"/>
+      <c r="AD22" s="85"/>
+      <c r="AE22" s="44"/>
+      <c r="AF22" s="102"/>
+      <c r="AG22" s="103"/>
+      <c r="AH22" s="103"/>
+      <c r="AI22" s="103"/>
+      <c r="AJ22" s="103"/>
+      <c r="AK22" s="103"/>
+      <c r="AL22" s="104"/>
+    </row>
+    <row r="23" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="74"/>
+      <c r="C23" s="88"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="F21" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="41"/>
-      <c r="M21" s="41"/>
-      <c r="N21" s="41"/>
-      <c r="O21" s="41"/>
-      <c r="P21" s="41"/>
-      <c r="Q21" s="41"/>
-      <c r="R21" s="46"/>
-      <c r="S21" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="T21" s="41"/>
-      <c r="U21" s="41"/>
-      <c r="V21" s="41"/>
-      <c r="W21" s="41"/>
-      <c r="X21" s="41"/>
-      <c r="Y21" s="41"/>
-      <c r="Z21" s="41"/>
-      <c r="AA21" s="41"/>
-      <c r="AB21" s="41"/>
-      <c r="AC21" s="41"/>
-      <c r="AD21" s="42"/>
-      <c r="AE21" s="23"/>
-      <c r="AF21" s="35"/>
-      <c r="AG21" s="36"/>
-      <c r="AH21" s="36"/>
-      <c r="AI21" s="36"/>
-      <c r="AJ21" s="36"/>
-      <c r="AK21" s="36"/>
-      <c r="AL21" s="37"/>
-    </row>
-    <row r="22" spans="1:38" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="90" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="91" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="92" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="99" t="s">
-        <v>53</v>
-      </c>
-      <c r="F22" s="96" t="s">
-        <v>2</v>
-      </c>
-      <c r="G22" s="97"/>
-      <c r="H22" s="97"/>
-      <c r="I22" s="98"/>
-      <c r="J22" s="94" t="s">
-        <v>3</v>
-      </c>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="96" t="s">
-        <v>4</v>
-      </c>
-      <c r="O22" s="97"/>
-      <c r="P22" s="97"/>
-      <c r="Q22" s="98"/>
-      <c r="R22" s="95" t="s">
-        <v>35</v>
-      </c>
-      <c r="S22" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="T22" s="48"/>
-      <c r="U22" s="48"/>
-      <c r="V22" s="93"/>
-      <c r="W22" s="94" t="s">
-        <v>3</v>
-      </c>
-      <c r="X22" s="48"/>
-      <c r="Y22" s="48"/>
-      <c r="Z22" s="93"/>
-      <c r="AA22" s="94" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB22" s="48"/>
-      <c r="AC22" s="48"/>
-      <c r="AD22" s="48"/>
-      <c r="AE22" s="68"/>
-      <c r="AF22" s="35"/>
-      <c r="AG22" s="36"/>
-      <c r="AH22" s="36"/>
-      <c r="AI22" s="36"/>
-      <c r="AJ22" s="36"/>
-      <c r="AK22" s="36"/>
-      <c r="AL22" s="37"/>
-    </row>
-    <row r="23" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="87"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="55" t="s">
+      <c r="G23" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="G23" s="52" t="s">
+      <c r="H23" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="H23" s="52" t="s">
+      <c r="I23" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="I23" s="53" t="s">
-        <v>50</v>
-      </c>
-      <c r="J23" s="49" t="s">
+      <c r="J23" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="K23" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="K23" s="52" t="s">
+      <c r="L23" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="L23" s="52" t="s">
+      <c r="M23" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="M23" s="53" t="s">
-        <v>50</v>
-      </c>
-      <c r="N23" s="50" t="s">
+      <c r="N23" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="O23" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="O23" s="52" t="s">
+      <c r="P23" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="P23" s="52" t="s">
+      <c r="Q23" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="Q23" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="R23" s="70"/>
-      <c r="S23" s="69" t="s">
+      <c r="R23" s="94"/>
+      <c r="S23" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="T23" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="T23" s="49" t="s">
+      <c r="U23" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="U23" s="54" t="s">
+      <c r="V23" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="V23" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="W23" s="55" t="s">
+      <c r="W23" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="X23" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="X23" s="49" t="s">
+      <c r="Y23" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="Y23" s="52" t="s">
+      <c r="Z23" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="Z23" s="53" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA23" s="50" t="s">
+      <c r="AA23" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB23" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="AB23" s="52" t="s">
+      <c r="AC23" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="AC23" s="52" t="s">
+      <c r="AD23" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="AD23" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE23" s="68"/>
-      <c r="AF23" s="35"/>
-      <c r="AG23" s="36"/>
-      <c r="AH23" s="36"/>
-      <c r="AI23" s="36"/>
-      <c r="AJ23" s="36"/>
-      <c r="AK23" s="36"/>
-      <c r="AL23" s="37"/>
+      <c r="AE23" s="44"/>
+      <c r="AF23" s="102"/>
+      <c r="AG23" s="103"/>
+      <c r="AH23" s="103"/>
+      <c r="AI23" s="103"/>
+      <c r="AJ23" s="103"/>
+      <c r="AK23" s="103"/>
+      <c r="AL23" s="104"/>
     </row>
     <row r="24" spans="1:38" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="44"/>
-      <c r="B24" s="88">
+      <c r="A24" s="25"/>
+      <c r="B24" s="62">
         <v>1</v>
       </c>
-      <c r="C24" s="31" t="s">
+      <c r="C24" s="122" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="25" t="s">
+      <c r="D24" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="82" t="s">
+      <c r="E24" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="F24" s="77"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
       <c r="I24" s="7"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="56"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
       <c r="M24" s="7"/>
-      <c r="N24" s="61"/>
-      <c r="O24" s="56"/>
-      <c r="P24" s="56"/>
-      <c r="Q24" s="71"/>
-      <c r="R24" s="72">
+      <c r="N24" s="39"/>
+      <c r="O24" s="34"/>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="46"/>
+      <c r="R24" s="47">
         <v>163</v>
       </c>
       <c r="S24" s="7"/>
@@ -2679,37 +2679,37 @@
       <c r="AC24" s="7"/>
       <c r="AD24" s="12"/>
       <c r="AE24" s="17"/>
-      <c r="AF24" s="35"/>
-      <c r="AG24" s="36"/>
-      <c r="AH24" s="36"/>
-      <c r="AI24" s="36"/>
-      <c r="AJ24" s="36"/>
-      <c r="AK24" s="36"/>
-      <c r="AL24" s="37"/>
+      <c r="AF24" s="102"/>
+      <c r="AG24" s="103"/>
+      <c r="AH24" s="103"/>
+      <c r="AI24" s="103"/>
+      <c r="AJ24" s="103"/>
+      <c r="AK24" s="103"/>
+      <c r="AL24" s="104"/>
     </row>
     <row r="25" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="44"/>
-      <c r="B25" s="89">
+      <c r="A25" s="25"/>
+      <c r="B25" s="63">
         <v>2</v>
       </c>
-      <c r="C25" s="31"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="83" t="s">
+      <c r="C25" s="122"/>
+      <c r="D25" s="110"/>
+      <c r="E25" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="78"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="57"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
       <c r="I25" s="7"/>
-      <c r="J25" s="62"/>
-      <c r="K25" s="57"/>
-      <c r="L25" s="57"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
       <c r="M25" s="7"/>
-      <c r="N25" s="62"/>
-      <c r="O25" s="57"/>
-      <c r="P25" s="57"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="35"/>
+      <c r="P25" s="35"/>
       <c r="Q25" s="3"/>
-      <c r="R25" s="73">
+      <c r="R25" s="48">
         <v>164</v>
       </c>
       <c r="S25" s="7"/>
@@ -2725,37 +2725,37 @@
       <c r="AC25" s="7"/>
       <c r="AD25" s="12"/>
       <c r="AE25" s="17"/>
-      <c r="AF25" s="35"/>
-      <c r="AG25" s="36"/>
-      <c r="AH25" s="36"/>
-      <c r="AI25" s="36"/>
-      <c r="AJ25" s="36"/>
-      <c r="AK25" s="36"/>
-      <c r="AL25" s="37"/>
+      <c r="AF25" s="102"/>
+      <c r="AG25" s="103"/>
+      <c r="AH25" s="103"/>
+      <c r="AI25" s="103"/>
+      <c r="AJ25" s="103"/>
+      <c r="AK25" s="103"/>
+      <c r="AL25" s="104"/>
     </row>
     <row r="26" spans="1:38" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="44"/>
-      <c r="B26" s="89">
+      <c r="A26" s="25"/>
+      <c r="B26" s="63">
         <v>3</v>
       </c>
-      <c r="C26" s="31"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="84" t="s">
+      <c r="C26" s="122"/>
+      <c r="D26" s="111"/>
+      <c r="E26" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="79"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
       <c r="I26" s="10"/>
-      <c r="J26" s="63"/>
-      <c r="K26" s="58"/>
-      <c r="L26" s="58"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
       <c r="M26" s="10"/>
-      <c r="N26" s="63"/>
-      <c r="O26" s="58"/>
-      <c r="P26" s="58"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="36"/>
       <c r="Q26" s="4"/>
-      <c r="R26" s="74">
+      <c r="R26" s="49">
         <v>165</v>
       </c>
       <c r="S26" s="10"/>
@@ -2771,39 +2771,39 @@
       <c r="AC26" s="10"/>
       <c r="AD26" s="14"/>
       <c r="AE26" s="17"/>
-      <c r="AF26" s="35"/>
-      <c r="AG26" s="36"/>
-      <c r="AH26" s="36"/>
-      <c r="AI26" s="36"/>
-      <c r="AJ26" s="36"/>
-      <c r="AK26" s="36"/>
-      <c r="AL26" s="37"/>
+      <c r="AF26" s="102"/>
+      <c r="AG26" s="103"/>
+      <c r="AH26" s="103"/>
+      <c r="AI26" s="103"/>
+      <c r="AJ26" s="103"/>
+      <c r="AK26" s="103"/>
+      <c r="AL26" s="104"/>
     </row>
     <row r="27" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="44"/>
-      <c r="B27" s="89">
+      <c r="A27" s="25"/>
+      <c r="B27" s="63">
         <v>4</v>
       </c>
-      <c r="C27" s="31"/>
-      <c r="D27" s="24" t="s">
+      <c r="C27" s="122"/>
+      <c r="D27" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="83" t="s">
+      <c r="E27" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="F27" s="80"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
       <c r="I27" s="9"/>
-      <c r="J27" s="64"/>
-      <c r="K27" s="59"/>
-      <c r="L27" s="59"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="37"/>
       <c r="M27" s="9"/>
-      <c r="N27" s="64"/>
-      <c r="O27" s="59"/>
-      <c r="P27" s="59"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="37"/>
+      <c r="P27" s="37"/>
       <c r="Q27" s="5"/>
-      <c r="R27" s="75">
+      <c r="R27" s="50">
         <v>166</v>
       </c>
       <c r="S27" s="9"/>
@@ -2819,37 +2819,37 @@
       <c r="AC27" s="7"/>
       <c r="AD27" s="7"/>
       <c r="AE27" s="17"/>
-      <c r="AF27" s="35"/>
-      <c r="AG27" s="36"/>
-      <c r="AH27" s="36"/>
-      <c r="AI27" s="36"/>
-      <c r="AJ27" s="36"/>
-      <c r="AK27" s="36"/>
-      <c r="AL27" s="37"/>
+      <c r="AF27" s="102"/>
+      <c r="AG27" s="103"/>
+      <c r="AH27" s="103"/>
+      <c r="AI27" s="103"/>
+      <c r="AJ27" s="103"/>
+      <c r="AK27" s="103"/>
+      <c r="AL27" s="104"/>
     </row>
     <row r="28" spans="1:38" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="44"/>
-      <c r="B28" s="89">
+      <c r="A28" s="25"/>
+      <c r="B28" s="63">
         <v>5</v>
       </c>
-      <c r="C28" s="31"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="83" t="s">
+      <c r="C28" s="122"/>
+      <c r="D28" s="110"/>
+      <c r="E28" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="78"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
       <c r="I28" s="7"/>
-      <c r="J28" s="62"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="57"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
       <c r="M28" s="7"/>
-      <c r="N28" s="62"/>
-      <c r="O28" s="57"/>
-      <c r="P28" s="57"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="35"/>
+      <c r="P28" s="35"/>
       <c r="Q28" s="3"/>
-      <c r="R28" s="73">
+      <c r="R28" s="48">
         <v>167</v>
       </c>
       <c r="S28" s="7"/>
@@ -2865,37 +2865,37 @@
       <c r="AC28" s="7"/>
       <c r="AD28" s="7"/>
       <c r="AE28" s="17"/>
-      <c r="AF28" s="38"/>
-      <c r="AG28" s="39"/>
-      <c r="AH28" s="39"/>
-      <c r="AI28" s="39"/>
-      <c r="AJ28" s="39"/>
-      <c r="AK28" s="39"/>
-      <c r="AL28" s="40"/>
+      <c r="AF28" s="105"/>
+      <c r="AG28" s="106"/>
+      <c r="AH28" s="106"/>
+      <c r="AI28" s="106"/>
+      <c r="AJ28" s="106"/>
+      <c r="AK28" s="106"/>
+      <c r="AL28" s="107"/>
     </row>
     <row r="29" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="44"/>
-      <c r="B29" s="89">
+      <c r="A29" s="25"/>
+      <c r="B29" s="63">
         <v>6</v>
       </c>
-      <c r="C29" s="31"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="83" t="s">
+      <c r="C29" s="122"/>
+      <c r="D29" s="110"/>
+      <c r="E29" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="78"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
       <c r="I29" s="7"/>
-      <c r="J29" s="62"/>
-      <c r="K29" s="57"/>
-      <c r="L29" s="57"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
       <c r="M29" s="7"/>
-      <c r="N29" s="62"/>
-      <c r="O29" s="57"/>
-      <c r="P29" s="57"/>
+      <c r="N29" s="40"/>
+      <c r="O29" s="35"/>
+      <c r="P29" s="35"/>
       <c r="Q29" s="3"/>
-      <c r="R29" s="73">
+      <c r="R29" s="48">
         <v>168</v>
       </c>
       <c r="S29" s="7"/>
@@ -2920,28 +2920,28 @@
       <c r="AL29" s="22"/>
     </row>
     <row r="30" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="44"/>
-      <c r="B30" s="89">
+      <c r="A30" s="25"/>
+      <c r="B30" s="63">
         <v>7</v>
       </c>
-      <c r="C30" s="31"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="83" t="s">
+      <c r="C30" s="122"/>
+      <c r="D30" s="110"/>
+      <c r="E30" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="F30" s="78"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="57"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
       <c r="I30" s="7"/>
-      <c r="J30" s="62"/>
-      <c r="K30" s="57"/>
-      <c r="L30" s="57"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="35"/>
       <c r="M30" s="7"/>
-      <c r="N30" s="62"/>
-      <c r="O30" s="57"/>
-      <c r="P30" s="57"/>
+      <c r="N30" s="40"/>
+      <c r="O30" s="35"/>
+      <c r="P30" s="35"/>
       <c r="Q30" s="3"/>
-      <c r="R30" s="73">
+      <c r="R30" s="48">
         <v>169</v>
       </c>
       <c r="S30" s="7"/>
@@ -2966,28 +2966,28 @@
       <c r="AL30" s="22"/>
     </row>
     <row r="31" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="44"/>
-      <c r="B31" s="89">
+      <c r="A31" s="25"/>
+      <c r="B31" s="63">
         <v>8</v>
       </c>
-      <c r="C31" s="31"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="83" t="s">
+      <c r="C31" s="122"/>
+      <c r="D31" s="110"/>
+      <c r="E31" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="F31" s="78"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
       <c r="I31" s="7"/>
-      <c r="J31" s="62"/>
-      <c r="K31" s="57"/>
-      <c r="L31" s="57"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="35"/>
       <c r="M31" s="7"/>
-      <c r="N31" s="62"/>
-      <c r="O31" s="57"/>
-      <c r="P31" s="57"/>
+      <c r="N31" s="40"/>
+      <c r="O31" s="35"/>
+      <c r="P31" s="35"/>
       <c r="Q31" s="3"/>
-      <c r="R31" s="73">
+      <c r="R31" s="48">
         <v>170</v>
       </c>
       <c r="S31" s="7"/>
@@ -3012,28 +3012,28 @@
       <c r="AL31" s="22"/>
     </row>
     <row r="32" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="44"/>
-      <c r="B32" s="89">
+      <c r="A32" s="25"/>
+      <c r="B32" s="63">
         <v>9</v>
       </c>
-      <c r="C32" s="31"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="83" t="s">
+      <c r="C32" s="122"/>
+      <c r="D32" s="110"/>
+      <c r="E32" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="F32" s="78"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="57"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
       <c r="I32" s="7"/>
-      <c r="J32" s="62"/>
-      <c r="K32" s="57"/>
-      <c r="L32" s="57"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
       <c r="M32" s="7"/>
-      <c r="N32" s="62"/>
-      <c r="O32" s="57"/>
-      <c r="P32" s="57"/>
+      <c r="N32" s="40"/>
+      <c r="O32" s="35"/>
+      <c r="P32" s="35"/>
       <c r="Q32" s="3"/>
-      <c r="R32" s="73">
+      <c r="R32" s="48">
         <v>171</v>
       </c>
       <c r="S32" s="7"/>
@@ -3058,28 +3058,28 @@
       <c r="AL32" s="22"/>
     </row>
     <row r="33" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="44"/>
-      <c r="B33" s="89">
+      <c r="A33" s="25"/>
+      <c r="B33" s="63">
         <v>10</v>
       </c>
-      <c r="C33" s="31"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="83" t="s">
+      <c r="C33" s="122"/>
+      <c r="D33" s="110"/>
+      <c r="E33" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="F33" s="78"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="57"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
       <c r="I33" s="7"/>
-      <c r="J33" s="62"/>
-      <c r="K33" s="57"/>
-      <c r="L33" s="57"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="35"/>
       <c r="M33" s="7"/>
-      <c r="N33" s="62"/>
-      <c r="O33" s="57"/>
-      <c r="P33" s="57"/>
+      <c r="N33" s="40"/>
+      <c r="O33" s="35"/>
+      <c r="P33" s="35"/>
       <c r="Q33" s="3"/>
-      <c r="R33" s="73">
+      <c r="R33" s="48">
         <v>172</v>
       </c>
       <c r="S33" s="7"/>
@@ -3104,28 +3104,28 @@
       <c r="AL33" s="22"/>
     </row>
     <row r="34" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="44"/>
-      <c r="B34" s="89">
+      <c r="A34" s="25"/>
+      <c r="B34" s="63">
         <v>11</v>
       </c>
-      <c r="C34" s="31"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="83" t="s">
+      <c r="C34" s="122"/>
+      <c r="D34" s="110"/>
+      <c r="E34" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="F34" s="78"/>
-      <c r="G34" s="57"/>
-      <c r="H34" s="57"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
       <c r="I34" s="7"/>
-      <c r="J34" s="62"/>
-      <c r="K34" s="57"/>
-      <c r="L34" s="57"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="35"/>
       <c r="M34" s="7"/>
-      <c r="N34" s="62"/>
-      <c r="O34" s="57"/>
-      <c r="P34" s="57"/>
+      <c r="N34" s="40"/>
+      <c r="O34" s="35"/>
+      <c r="P34" s="35"/>
       <c r="Q34" s="3"/>
-      <c r="R34" s="73">
+      <c r="R34" s="48">
         <v>173</v>
       </c>
       <c r="S34" s="7"/>
@@ -3143,28 +3143,28 @@
       <c r="AE34" s="17"/>
     </row>
     <row r="35" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="44"/>
-      <c r="B35" s="89">
+      <c r="A35" s="25"/>
+      <c r="B35" s="63">
         <v>12</v>
       </c>
-      <c r="C35" s="31"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="83" t="s">
+      <c r="C35" s="122"/>
+      <c r="D35" s="110"/>
+      <c r="E35" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="F35" s="78"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="57"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
       <c r="I35" s="7"/>
-      <c r="J35" s="62"/>
-      <c r="K35" s="57"/>
-      <c r="L35" s="57"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="35"/>
       <c r="M35" s="7"/>
-      <c r="N35" s="62"/>
-      <c r="O35" s="57"/>
-      <c r="P35" s="57"/>
+      <c r="N35" s="40"/>
+      <c r="O35" s="35"/>
+      <c r="P35" s="35"/>
       <c r="Q35" s="3"/>
-      <c r="R35" s="73">
+      <c r="R35" s="48">
         <v>174</v>
       </c>
       <c r="S35" s="7"/>
@@ -3182,28 +3182,28 @@
       <c r="AE35" s="17"/>
     </row>
     <row r="36" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="44"/>
-      <c r="B36" s="89">
+      <c r="A36" s="25"/>
+      <c r="B36" s="63">
         <v>13</v>
       </c>
-      <c r="C36" s="31"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="83" t="s">
+      <c r="C36" s="122"/>
+      <c r="D36" s="110"/>
+      <c r="E36" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="F36" s="78"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
       <c r="I36" s="7"/>
-      <c r="J36" s="62"/>
-      <c r="K36" s="57"/>
-      <c r="L36" s="57"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="35"/>
       <c r="M36" s="7"/>
-      <c r="N36" s="62"/>
-      <c r="O36" s="57"/>
-      <c r="P36" s="57"/>
+      <c r="N36" s="40"/>
+      <c r="O36" s="35"/>
+      <c r="P36" s="35"/>
       <c r="Q36" s="3"/>
-      <c r="R36" s="73">
+      <c r="R36" s="48">
         <v>175</v>
       </c>
       <c r="S36" s="7"/>
@@ -3222,28 +3222,28 @@
       <c r="AG36" s="20"/>
     </row>
     <row r="37" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="44"/>
-      <c r="B37" s="89">
+      <c r="A37" s="25"/>
+      <c r="B37" s="63">
         <v>14</v>
       </c>
-      <c r="C37" s="31"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="83" t="s">
+      <c r="C37" s="122"/>
+      <c r="D37" s="110"/>
+      <c r="E37" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="F37" s="78"/>
-      <c r="G37" s="57"/>
-      <c r="H37" s="57"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
       <c r="I37" s="7"/>
-      <c r="J37" s="62"/>
-      <c r="K37" s="57"/>
-      <c r="L37" s="57"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="35"/>
       <c r="M37" s="7"/>
-      <c r="N37" s="62"/>
-      <c r="O37" s="57"/>
-      <c r="P37" s="57"/>
+      <c r="N37" s="40"/>
+      <c r="O37" s="35"/>
+      <c r="P37" s="35"/>
       <c r="Q37" s="3"/>
-      <c r="R37" s="73">
+      <c r="R37" s="48">
         <v>176</v>
       </c>
       <c r="S37" s="7"/>
@@ -3261,28 +3261,28 @@
       <c r="AE37" s="17"/>
     </row>
     <row r="38" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="44"/>
-      <c r="B38" s="89">
+      <c r="A38" s="25"/>
+      <c r="B38" s="63">
         <v>15</v>
       </c>
-      <c r="C38" s="31"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="F38" s="78"/>
-      <c r="G38" s="57"/>
-      <c r="H38" s="57"/>
+      <c r="C38" s="122"/>
+      <c r="D38" s="110"/>
+      <c r="E38" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="F38" s="53"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
       <c r="I38" s="7"/>
-      <c r="J38" s="62"/>
-      <c r="K38" s="57"/>
-      <c r="L38" s="57"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="35"/>
       <c r="M38" s="7"/>
-      <c r="N38" s="62"/>
-      <c r="O38" s="57"/>
-      <c r="P38" s="57"/>
+      <c r="N38" s="40"/>
+      <c r="O38" s="35"/>
+      <c r="P38" s="35"/>
       <c r="Q38" s="3"/>
-      <c r="R38" s="73">
+      <c r="R38" s="48">
         <v>177</v>
       </c>
       <c r="S38" s="7"/>
@@ -3300,28 +3300,28 @@
       <c r="AE38" s="17"/>
     </row>
     <row r="39" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="44"/>
-      <c r="B39" s="89">
+      <c r="A39" s="25"/>
+      <c r="B39" s="63">
         <v>16</v>
       </c>
-      <c r="C39" s="31"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="83" t="s">
-        <v>39</v>
-      </c>
-      <c r="F39" s="78"/>
-      <c r="G39" s="57"/>
-      <c r="H39" s="57"/>
+      <c r="C39" s="122"/>
+      <c r="D39" s="110"/>
+      <c r="E39" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="F39" s="53"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
       <c r="I39" s="7"/>
-      <c r="J39" s="62"/>
-      <c r="K39" s="57"/>
-      <c r="L39" s="57"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="35"/>
       <c r="M39" s="7"/>
-      <c r="N39" s="62"/>
-      <c r="O39" s="57"/>
-      <c r="P39" s="57"/>
+      <c r="N39" s="40"/>
+      <c r="O39" s="35"/>
+      <c r="P39" s="35"/>
       <c r="Q39" s="3"/>
-      <c r="R39" s="73">
+      <c r="R39" s="48">
         <v>178</v>
       </c>
       <c r="S39" s="7"/>
@@ -3339,28 +3339,28 @@
       <c r="AE39" s="17"/>
     </row>
     <row r="40" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="44"/>
-      <c r="B40" s="89">
+      <c r="A40" s="25"/>
+      <c r="B40" s="63">
         <v>17</v>
       </c>
-      <c r="C40" s="31"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="83" t="s">
-        <v>40</v>
-      </c>
-      <c r="F40" s="78"/>
-      <c r="G40" s="57"/>
-      <c r="H40" s="57"/>
+      <c r="C40" s="122"/>
+      <c r="D40" s="110"/>
+      <c r="E40" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="F40" s="53"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
       <c r="I40" s="7"/>
-      <c r="J40" s="62"/>
-      <c r="K40" s="57"/>
-      <c r="L40" s="57"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="35"/>
+      <c r="L40" s="35"/>
       <c r="M40" s="7"/>
-      <c r="N40" s="62"/>
-      <c r="O40" s="57"/>
-      <c r="P40" s="57"/>
+      <c r="N40" s="40"/>
+      <c r="O40" s="35"/>
+      <c r="P40" s="35"/>
       <c r="Q40" s="3"/>
-      <c r="R40" s="73">
+      <c r="R40" s="48">
         <v>179</v>
       </c>
       <c r="S40" s="7"/>
@@ -3378,28 +3378,28 @@
       <c r="AE40" s="17"/>
     </row>
     <row r="41" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="44"/>
-      <c r="B41" s="89">
+      <c r="A41" s="25"/>
+      <c r="B41" s="63">
         <v>18</v>
       </c>
-      <c r="C41" s="31"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="83" t="s">
-        <v>41</v>
-      </c>
-      <c r="F41" s="78"/>
-      <c r="G41" s="57"/>
-      <c r="H41" s="57"/>
+      <c r="C41" s="122"/>
+      <c r="D41" s="110"/>
+      <c r="E41" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="F41" s="53"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="35"/>
       <c r="I41" s="7"/>
-      <c r="J41" s="62"/>
-      <c r="K41" s="57"/>
-      <c r="L41" s="57"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="35"/>
+      <c r="L41" s="35"/>
       <c r="M41" s="7"/>
-      <c r="N41" s="62"/>
-      <c r="O41" s="57"/>
-      <c r="P41" s="57"/>
+      <c r="N41" s="40"/>
+      <c r="O41" s="35"/>
+      <c r="P41" s="35"/>
       <c r="Q41" s="3"/>
-      <c r="R41" s="73">
+      <c r="R41" s="48">
         <v>180</v>
       </c>
       <c r="S41" s="7"/>
@@ -3417,28 +3417,28 @@
       <c r="AE41" s="17"/>
     </row>
     <row r="42" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="44"/>
-      <c r="B42" s="89">
+      <c r="A42" s="25"/>
+      <c r="B42" s="63">
         <v>19</v>
       </c>
-      <c r="C42" s="31"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="83" t="s">
-        <v>42</v>
-      </c>
-      <c r="F42" s="78"/>
-      <c r="G42" s="57"/>
-      <c r="H42" s="57"/>
+      <c r="C42" s="122"/>
+      <c r="D42" s="110"/>
+      <c r="E42" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="F42" s="53"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="35"/>
       <c r="I42" s="7"/>
-      <c r="J42" s="62"/>
-      <c r="K42" s="57"/>
-      <c r="L42" s="57"/>
+      <c r="J42" s="40"/>
+      <c r="K42" s="35"/>
+      <c r="L42" s="35"/>
       <c r="M42" s="7"/>
-      <c r="N42" s="62"/>
-      <c r="O42" s="57"/>
-      <c r="P42" s="57"/>
+      <c r="N42" s="40"/>
+      <c r="O42" s="35"/>
+      <c r="P42" s="35"/>
       <c r="Q42" s="3"/>
-      <c r="R42" s="73">
+      <c r="R42" s="48">
         <v>181</v>
       </c>
       <c r="S42" s="7"/>
@@ -3456,28 +3456,28 @@
       <c r="AE42" s="17"/>
     </row>
     <row r="43" spans="1:38" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="44"/>
-      <c r="B43" s="89">
+      <c r="A43" s="25"/>
+      <c r="B43" s="63">
         <v>20</v>
       </c>
-      <c r="C43" s="31"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="83" t="s">
-        <v>43</v>
-      </c>
-      <c r="F43" s="79"/>
-      <c r="G43" s="58"/>
-      <c r="H43" s="58"/>
+      <c r="C43" s="122"/>
+      <c r="D43" s="111"/>
+      <c r="E43" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="F43" s="54"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36"/>
       <c r="I43" s="10"/>
-      <c r="J43" s="63"/>
-      <c r="K43" s="58"/>
-      <c r="L43" s="58"/>
+      <c r="J43" s="41"/>
+      <c r="K43" s="36"/>
+      <c r="L43" s="36"/>
       <c r="M43" s="10"/>
-      <c r="N43" s="63"/>
-      <c r="O43" s="58"/>
-      <c r="P43" s="58"/>
+      <c r="N43" s="41"/>
+      <c r="O43" s="36"/>
+      <c r="P43" s="36"/>
       <c r="Q43" s="4"/>
-      <c r="R43" s="73">
+      <c r="R43" s="48">
         <v>182</v>
       </c>
       <c r="S43" s="7"/>
@@ -3495,30 +3495,30 @@
       <c r="AE43" s="17"/>
     </row>
     <row r="44" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="44"/>
-      <c r="B44" s="89">
+      <c r="A44" s="25"/>
+      <c r="B44" s="63">
         <v>21</v>
       </c>
-      <c r="C44" s="31"/>
-      <c r="D44" s="24" t="s">
+      <c r="C44" s="122"/>
+      <c r="D44" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="E44" s="85" t="s">
+      <c r="E44" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="F44" s="80"/>
-      <c r="G44" s="59"/>
-      <c r="H44" s="59"/>
+      <c r="F44" s="55"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="37"/>
       <c r="I44" s="9"/>
-      <c r="J44" s="64"/>
-      <c r="K44" s="59"/>
-      <c r="L44" s="59"/>
+      <c r="J44" s="42"/>
+      <c r="K44" s="37"/>
+      <c r="L44" s="37"/>
       <c r="M44" s="9"/>
-      <c r="N44" s="64"/>
-      <c r="O44" s="59"/>
-      <c r="P44" s="59"/>
+      <c r="N44" s="42"/>
+      <c r="O44" s="37"/>
+      <c r="P44" s="37"/>
       <c r="Q44" s="5"/>
-      <c r="R44" s="75">
+      <c r="R44" s="50">
         <v>183</v>
       </c>
       <c r="S44" s="9"/>
@@ -3536,28 +3536,28 @@
       <c r="AE44" s="17"/>
     </row>
     <row r="45" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="44"/>
-      <c r="B45" s="89">
+      <c r="A45" s="25"/>
+      <c r="B45" s="63">
         <v>22</v>
       </c>
-      <c r="C45" s="31"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="83" t="s">
+      <c r="C45" s="122"/>
+      <c r="D45" s="110"/>
+      <c r="E45" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="F45" s="78"/>
-      <c r="G45" s="57"/>
-      <c r="H45" s="57"/>
+      <c r="F45" s="53"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="35"/>
       <c r="I45" s="7"/>
-      <c r="J45" s="62"/>
-      <c r="K45" s="57"/>
-      <c r="L45" s="57"/>
+      <c r="J45" s="40"/>
+      <c r="K45" s="35"/>
+      <c r="L45" s="35"/>
       <c r="M45" s="7"/>
-      <c r="N45" s="62"/>
-      <c r="O45" s="57"/>
-      <c r="P45" s="57"/>
+      <c r="N45" s="40"/>
+      <c r="O45" s="35"/>
+      <c r="P45" s="35"/>
       <c r="Q45" s="3"/>
-      <c r="R45" s="73">
+      <c r="R45" s="48">
         <v>184</v>
       </c>
       <c r="S45" s="7"/>
@@ -3575,28 +3575,28 @@
       <c r="AE45" s="17"/>
     </row>
     <row r="46" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="44"/>
-      <c r="B46" s="89">
+      <c r="A46" s="25"/>
+      <c r="B46" s="63">
         <v>23</v>
       </c>
-      <c r="C46" s="31"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="83" t="s">
+      <c r="C46" s="122"/>
+      <c r="D46" s="110"/>
+      <c r="E46" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="F46" s="78"/>
-      <c r="G46" s="57"/>
-      <c r="H46" s="57"/>
+      <c r="F46" s="53"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="35"/>
       <c r="I46" s="7"/>
-      <c r="J46" s="62"/>
-      <c r="K46" s="57"/>
-      <c r="L46" s="57"/>
+      <c r="J46" s="40"/>
+      <c r="K46" s="35"/>
+      <c r="L46" s="35"/>
       <c r="M46" s="7"/>
-      <c r="N46" s="62"/>
-      <c r="O46" s="57"/>
-      <c r="P46" s="57"/>
+      <c r="N46" s="40"/>
+      <c r="O46" s="35"/>
+      <c r="P46" s="35"/>
       <c r="Q46" s="3"/>
-      <c r="R46" s="73">
+      <c r="R46" s="48">
         <v>185</v>
       </c>
       <c r="S46" s="7"/>
@@ -3614,28 +3614,28 @@
       <c r="AE46" s="17"/>
     </row>
     <row r="47" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="44"/>
-      <c r="B47" s="89">
+      <c r="A47" s="25"/>
+      <c r="B47" s="63">
         <v>24</v>
       </c>
-      <c r="C47" s="31"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="83" t="s">
+      <c r="C47" s="122"/>
+      <c r="D47" s="110"/>
+      <c r="E47" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="F47" s="78"/>
-      <c r="G47" s="57"/>
-      <c r="H47" s="57"/>
+      <c r="F47" s="53"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="35"/>
       <c r="I47" s="7"/>
-      <c r="J47" s="62"/>
-      <c r="K47" s="57"/>
-      <c r="L47" s="57"/>
+      <c r="J47" s="40"/>
+      <c r="K47" s="35"/>
+      <c r="L47" s="35"/>
       <c r="M47" s="7"/>
-      <c r="N47" s="62"/>
-      <c r="O47" s="57"/>
-      <c r="P47" s="57"/>
+      <c r="N47" s="40"/>
+      <c r="O47" s="35"/>
+      <c r="P47" s="35"/>
       <c r="Q47" s="3"/>
-      <c r="R47" s="73">
+      <c r="R47" s="48">
         <v>186</v>
       </c>
       <c r="S47" s="7"/>
@@ -3653,28 +3653,28 @@
       <c r="AE47" s="17"/>
     </row>
     <row r="48" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="44"/>
-      <c r="B48" s="89">
+      <c r="A48" s="25"/>
+      <c r="B48" s="63">
         <v>25</v>
       </c>
-      <c r="C48" s="31"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="83" t="s">
+      <c r="C48" s="122"/>
+      <c r="D48" s="110"/>
+      <c r="E48" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="F48" s="78"/>
-      <c r="G48" s="57"/>
-      <c r="H48" s="57"/>
+      <c r="F48" s="53"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="35"/>
       <c r="I48" s="7"/>
-      <c r="J48" s="62"/>
-      <c r="K48" s="57"/>
-      <c r="L48" s="57"/>
+      <c r="J48" s="40"/>
+      <c r="K48" s="35"/>
+      <c r="L48" s="35"/>
       <c r="M48" s="7"/>
-      <c r="N48" s="62"/>
-      <c r="O48" s="57"/>
-      <c r="P48" s="57"/>
+      <c r="N48" s="40"/>
+      <c r="O48" s="35"/>
+      <c r="P48" s="35"/>
       <c r="Q48" s="3"/>
-      <c r="R48" s="73">
+      <c r="R48" s="48">
         <v>187</v>
       </c>
       <c r="S48" s="7"/>
@@ -3692,28 +3692,28 @@
       <c r="AE48" s="17"/>
     </row>
     <row r="49" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="44"/>
-      <c r="B49" s="89">
+      <c r="A49" s="25"/>
+      <c r="B49" s="63">
         <v>26</v>
       </c>
-      <c r="C49" s="31"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="83" t="s">
+      <c r="C49" s="122"/>
+      <c r="D49" s="110"/>
+      <c r="E49" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="F49" s="78"/>
-      <c r="G49" s="57"/>
-      <c r="H49" s="57"/>
+      <c r="F49" s="53"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="35"/>
       <c r="I49" s="7"/>
-      <c r="J49" s="62"/>
-      <c r="K49" s="57"/>
-      <c r="L49" s="57"/>
+      <c r="J49" s="40"/>
+      <c r="K49" s="35"/>
+      <c r="L49" s="35"/>
       <c r="M49" s="7"/>
-      <c r="N49" s="62"/>
-      <c r="O49" s="57"/>
-      <c r="P49" s="57"/>
+      <c r="N49" s="40"/>
+      <c r="O49" s="35"/>
+      <c r="P49" s="35"/>
       <c r="Q49" s="3"/>
-      <c r="R49" s="73">
+      <c r="R49" s="48">
         <v>188</v>
       </c>
       <c r="S49" s="7"/>
@@ -3731,28 +3731,28 @@
       <c r="AE49" s="17"/>
     </row>
     <row r="50" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="44"/>
-      <c r="B50" s="89">
+      <c r="A50" s="25"/>
+      <c r="B50" s="63">
         <v>27</v>
       </c>
-      <c r="C50" s="31"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="83" t="s">
+      <c r="C50" s="122"/>
+      <c r="D50" s="110"/>
+      <c r="E50" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="F50" s="78"/>
-      <c r="G50" s="57"/>
-      <c r="H50" s="57"/>
+      <c r="F50" s="53"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="35"/>
       <c r="I50" s="7"/>
-      <c r="J50" s="62"/>
-      <c r="K50" s="57"/>
-      <c r="L50" s="57"/>
+      <c r="J50" s="40"/>
+      <c r="K50" s="35"/>
+      <c r="L50" s="35"/>
       <c r="M50" s="7"/>
-      <c r="N50" s="62"/>
-      <c r="O50" s="57"/>
-      <c r="P50" s="57"/>
+      <c r="N50" s="40"/>
+      <c r="O50" s="35"/>
+      <c r="P50" s="35"/>
       <c r="Q50" s="3"/>
-      <c r="R50" s="73">
+      <c r="R50" s="48">
         <v>189</v>
       </c>
       <c r="S50" s="7"/>
@@ -3770,28 +3770,28 @@
       <c r="AE50" s="17"/>
     </row>
     <row r="51" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="44"/>
-      <c r="B51" s="89">
+      <c r="A51" s="25"/>
+      <c r="B51" s="63">
         <v>28</v>
       </c>
-      <c r="C51" s="31"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="83" t="s">
+      <c r="C51" s="122"/>
+      <c r="D51" s="110"/>
+      <c r="E51" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="F51" s="78"/>
-      <c r="G51" s="57"/>
-      <c r="H51" s="57"/>
+      <c r="F51" s="53"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="35"/>
       <c r="I51" s="7"/>
-      <c r="J51" s="62"/>
-      <c r="K51" s="57"/>
-      <c r="L51" s="57"/>
+      <c r="J51" s="40"/>
+      <c r="K51" s="35"/>
+      <c r="L51" s="35"/>
       <c r="M51" s="7"/>
-      <c r="N51" s="62"/>
-      <c r="O51" s="57"/>
-      <c r="P51" s="57"/>
+      <c r="N51" s="40"/>
+      <c r="O51" s="35"/>
+      <c r="P51" s="35"/>
       <c r="Q51" s="3"/>
-      <c r="R51" s="73">
+      <c r="R51" s="48">
         <v>190</v>
       </c>
       <c r="S51" s="7"/>
@@ -3809,28 +3809,28 @@
       <c r="AE51" s="17"/>
     </row>
     <row r="52" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="44"/>
-      <c r="B52" s="89">
+      <c r="A52" s="25"/>
+      <c r="B52" s="63">
         <v>29</v>
       </c>
-      <c r="C52" s="31"/>
-      <c r="D52" s="25"/>
-      <c r="E52" s="83" t="s">
+      <c r="C52" s="122"/>
+      <c r="D52" s="110"/>
+      <c r="E52" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="F52" s="78"/>
-      <c r="G52" s="57"/>
-      <c r="H52" s="57"/>
+      <c r="F52" s="53"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="35"/>
       <c r="I52" s="7"/>
-      <c r="J52" s="62"/>
-      <c r="K52" s="57"/>
-      <c r="L52" s="57"/>
+      <c r="J52" s="40"/>
+      <c r="K52" s="35"/>
+      <c r="L52" s="35"/>
       <c r="M52" s="7"/>
-      <c r="N52" s="62"/>
-      <c r="O52" s="57"/>
-      <c r="P52" s="57"/>
+      <c r="N52" s="40"/>
+      <c r="O52" s="35"/>
+      <c r="P52" s="35"/>
       <c r="Q52" s="3"/>
-      <c r="R52" s="73">
+      <c r="R52" s="48">
         <v>191</v>
       </c>
       <c r="S52" s="7"/>
@@ -3848,28 +3848,28 @@
       <c r="AE52" s="17"/>
     </row>
     <row r="53" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="44"/>
-      <c r="B53" s="89">
+      <c r="A53" s="25"/>
+      <c r="B53" s="63">
         <v>30</v>
       </c>
-      <c r="C53" s="31"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="83" t="s">
+      <c r="C53" s="122"/>
+      <c r="D53" s="110"/>
+      <c r="E53" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="F53" s="78"/>
-      <c r="G53" s="57"/>
-      <c r="H53" s="57"/>
+      <c r="F53" s="53"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="35"/>
       <c r="I53" s="7"/>
-      <c r="J53" s="62"/>
-      <c r="K53" s="57"/>
-      <c r="L53" s="57"/>
+      <c r="J53" s="40"/>
+      <c r="K53" s="35"/>
+      <c r="L53" s="35"/>
       <c r="M53" s="7"/>
-      <c r="N53" s="62"/>
-      <c r="O53" s="57"/>
-      <c r="P53" s="57"/>
+      <c r="N53" s="40"/>
+      <c r="O53" s="35"/>
+      <c r="P53" s="35"/>
       <c r="Q53" s="3"/>
-      <c r="R53" s="73">
+      <c r="R53" s="48">
         <v>192</v>
       </c>
       <c r="S53" s="7"/>
@@ -3887,28 +3887,28 @@
       <c r="AE53" s="17"/>
     </row>
     <row r="54" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="44"/>
-      <c r="B54" s="89">
+      <c r="A54" s="25"/>
+      <c r="B54" s="63">
         <v>31</v>
       </c>
-      <c r="C54" s="31"/>
-      <c r="D54" s="25"/>
-      <c r="E54" s="83" t="s">
+      <c r="C54" s="122"/>
+      <c r="D54" s="110"/>
+      <c r="E54" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="F54" s="78"/>
-      <c r="G54" s="57"/>
-      <c r="H54" s="57"/>
+      <c r="F54" s="53"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="35"/>
       <c r="I54" s="7"/>
-      <c r="J54" s="62"/>
-      <c r="K54" s="57"/>
-      <c r="L54" s="57"/>
+      <c r="J54" s="40"/>
+      <c r="K54" s="35"/>
+      <c r="L54" s="35"/>
       <c r="M54" s="7"/>
-      <c r="N54" s="62"/>
-      <c r="O54" s="57"/>
-      <c r="P54" s="57"/>
+      <c r="N54" s="40"/>
+      <c r="O54" s="35"/>
+      <c r="P54" s="35"/>
       <c r="Q54" s="3"/>
-      <c r="R54" s="73">
+      <c r="R54" s="48">
         <v>193</v>
       </c>
       <c r="S54" s="7"/>
@@ -3926,28 +3926,28 @@
       <c r="AE54" s="17"/>
     </row>
     <row r="55" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="44"/>
-      <c r="B55" s="89">
+      <c r="A55" s="25"/>
+      <c r="B55" s="63">
         <v>32</v>
       </c>
-      <c r="C55" s="31"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="F55" s="78"/>
-      <c r="G55" s="57"/>
-      <c r="H55" s="57"/>
+      <c r="C55" s="122"/>
+      <c r="D55" s="110"/>
+      <c r="E55" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="F55" s="53"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="35"/>
       <c r="I55" s="7"/>
-      <c r="J55" s="62"/>
-      <c r="K55" s="57"/>
-      <c r="L55" s="57"/>
+      <c r="J55" s="40"/>
+      <c r="K55" s="35"/>
+      <c r="L55" s="35"/>
       <c r="M55" s="7"/>
-      <c r="N55" s="62"/>
-      <c r="O55" s="57"/>
-      <c r="P55" s="57"/>
+      <c r="N55" s="40"/>
+      <c r="O55" s="35"/>
+      <c r="P55" s="35"/>
       <c r="Q55" s="3"/>
-      <c r="R55" s="73">
+      <c r="R55" s="48">
         <v>194</v>
       </c>
       <c r="S55" s="7"/>
@@ -3965,28 +3965,28 @@
       <c r="AE55" s="17"/>
     </row>
     <row r="56" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="44"/>
-      <c r="B56" s="89">
+      <c r="A56" s="25"/>
+      <c r="B56" s="63">
         <v>33</v>
       </c>
-      <c r="C56" s="31"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="83" t="s">
-        <v>39</v>
-      </c>
-      <c r="F56" s="78"/>
-      <c r="G56" s="57"/>
-      <c r="H56" s="57"/>
+      <c r="C56" s="122"/>
+      <c r="D56" s="110"/>
+      <c r="E56" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="F56" s="53"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="35"/>
       <c r="I56" s="7"/>
-      <c r="J56" s="62"/>
-      <c r="K56" s="57"/>
-      <c r="L56" s="57"/>
+      <c r="J56" s="40"/>
+      <c r="K56" s="35"/>
+      <c r="L56" s="35"/>
       <c r="M56" s="7"/>
-      <c r="N56" s="62"/>
-      <c r="O56" s="57"/>
-      <c r="P56" s="57"/>
+      <c r="N56" s="40"/>
+      <c r="O56" s="35"/>
+      <c r="P56" s="35"/>
       <c r="Q56" s="3"/>
-      <c r="R56" s="73">
+      <c r="R56" s="48">
         <v>195</v>
       </c>
       <c r="S56" s="7"/>
@@ -4004,28 +4004,28 @@
       <c r="AE56" s="17"/>
     </row>
     <row r="57" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="44"/>
-      <c r="B57" s="89">
+      <c r="A57" s="25"/>
+      <c r="B57" s="63">
         <v>34</v>
       </c>
-      <c r="C57" s="31"/>
-      <c r="D57" s="25"/>
-      <c r="E57" s="83" t="s">
-        <v>40</v>
-      </c>
-      <c r="F57" s="78"/>
-      <c r="G57" s="57"/>
-      <c r="H57" s="57"/>
+      <c r="C57" s="122"/>
+      <c r="D57" s="110"/>
+      <c r="E57" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="F57" s="53"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="35"/>
       <c r="I57" s="7"/>
-      <c r="J57" s="62"/>
-      <c r="K57" s="57"/>
-      <c r="L57" s="57"/>
+      <c r="J57" s="40"/>
+      <c r="K57" s="35"/>
+      <c r="L57" s="35"/>
       <c r="M57" s="7"/>
-      <c r="N57" s="62"/>
-      <c r="O57" s="57"/>
-      <c r="P57" s="57"/>
+      <c r="N57" s="40"/>
+      <c r="O57" s="35"/>
+      <c r="P57" s="35"/>
       <c r="Q57" s="3"/>
-      <c r="R57" s="73">
+      <c r="R57" s="48">
         <v>196</v>
       </c>
       <c r="S57" s="7"/>
@@ -4043,28 +4043,28 @@
       <c r="AE57" s="17"/>
     </row>
     <row r="58" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="44"/>
-      <c r="B58" s="89">
+      <c r="A58" s="25"/>
+      <c r="B58" s="63">
         <v>35</v>
       </c>
-      <c r="C58" s="31"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="83" t="s">
-        <v>41</v>
-      </c>
-      <c r="F58" s="78"/>
-      <c r="G58" s="57"/>
-      <c r="H58" s="57"/>
+      <c r="C58" s="122"/>
+      <c r="D58" s="110"/>
+      <c r="E58" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="F58" s="53"/>
+      <c r="G58" s="35"/>
+      <c r="H58" s="35"/>
       <c r="I58" s="7"/>
-      <c r="J58" s="62"/>
-      <c r="K58" s="57"/>
-      <c r="L58" s="57"/>
+      <c r="J58" s="40"/>
+      <c r="K58" s="35"/>
+      <c r="L58" s="35"/>
       <c r="M58" s="7"/>
-      <c r="N58" s="62"/>
-      <c r="O58" s="57"/>
-      <c r="P58" s="57"/>
+      <c r="N58" s="40"/>
+      <c r="O58" s="35"/>
+      <c r="P58" s="35"/>
       <c r="Q58" s="3"/>
-      <c r="R58" s="73">
+      <c r="R58" s="48">
         <v>197</v>
       </c>
       <c r="S58" s="7"/>
@@ -4082,28 +4082,28 @@
       <c r="AE58" s="17"/>
     </row>
     <row r="59" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="44"/>
-      <c r="B59" s="89">
+      <c r="A59" s="25"/>
+      <c r="B59" s="63">
         <v>36</v>
       </c>
-      <c r="C59" s="31"/>
-      <c r="D59" s="25"/>
-      <c r="E59" s="83" t="s">
-        <v>42</v>
-      </c>
-      <c r="F59" s="78"/>
-      <c r="G59" s="57"/>
-      <c r="H59" s="57"/>
+      <c r="C59" s="122"/>
+      <c r="D59" s="110"/>
+      <c r="E59" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="F59" s="53"/>
+      <c r="G59" s="35"/>
+      <c r="H59" s="35"/>
       <c r="I59" s="7"/>
-      <c r="J59" s="62"/>
-      <c r="K59" s="57"/>
-      <c r="L59" s="57"/>
+      <c r="J59" s="40"/>
+      <c r="K59" s="35"/>
+      <c r="L59" s="35"/>
       <c r="M59" s="7"/>
-      <c r="N59" s="62"/>
-      <c r="O59" s="57"/>
-      <c r="P59" s="57"/>
+      <c r="N59" s="40"/>
+      <c r="O59" s="35"/>
+      <c r="P59" s="35"/>
       <c r="Q59" s="3"/>
-      <c r="R59" s="73">
+      <c r="R59" s="48">
         <v>198</v>
       </c>
       <c r="S59" s="7"/>
@@ -4121,28 +4121,28 @@
       <c r="AE59" s="17"/>
     </row>
     <row r="60" spans="1:31" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="44"/>
-      <c r="B60" s="89">
+      <c r="A60" s="25"/>
+      <c r="B60" s="63">
         <v>37</v>
       </c>
-      <c r="C60" s="31"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="83" t="s">
-        <v>43</v>
-      </c>
-      <c r="F60" s="79"/>
-      <c r="G60" s="58"/>
-      <c r="H60" s="58"/>
+      <c r="C60" s="122"/>
+      <c r="D60" s="111"/>
+      <c r="E60" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="F60" s="54"/>
+      <c r="G60" s="36"/>
+      <c r="H60" s="36"/>
       <c r="I60" s="10"/>
-      <c r="J60" s="63"/>
-      <c r="K60" s="58"/>
-      <c r="L60" s="58"/>
+      <c r="J60" s="41"/>
+      <c r="K60" s="36"/>
+      <c r="L60" s="36"/>
       <c r="M60" s="10"/>
-      <c r="N60" s="63"/>
-      <c r="O60" s="58"/>
-      <c r="P60" s="58"/>
+      <c r="N60" s="41"/>
+      <c r="O60" s="36"/>
+      <c r="P60" s="36"/>
       <c r="Q60" s="4"/>
-      <c r="R60" s="73">
+      <c r="R60" s="48">
         <v>199</v>
       </c>
       <c r="S60" s="10"/>
@@ -4160,30 +4160,30 @@
       <c r="AE60" s="17"/>
     </row>
     <row r="61" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="44"/>
-      <c r="B61" s="89">
+      <c r="A61" s="25"/>
+      <c r="B61" s="63">
         <v>38</v>
       </c>
-      <c r="C61" s="31"/>
-      <c r="D61" s="24" t="s">
+      <c r="C61" s="122"/>
+      <c r="D61" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="E61" s="85" t="s">
+      <c r="E61" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="F61" s="80"/>
-      <c r="G61" s="59"/>
-      <c r="H61" s="59"/>
+      <c r="F61" s="55"/>
+      <c r="G61" s="37"/>
+      <c r="H61" s="37"/>
       <c r="I61" s="9"/>
-      <c r="J61" s="64"/>
-      <c r="K61" s="59"/>
-      <c r="L61" s="59"/>
+      <c r="J61" s="42"/>
+      <c r="K61" s="37"/>
+      <c r="L61" s="37"/>
       <c r="M61" s="9"/>
-      <c r="N61" s="64"/>
-      <c r="O61" s="59"/>
-      <c r="P61" s="59"/>
+      <c r="N61" s="42"/>
+      <c r="O61" s="37"/>
+      <c r="P61" s="37"/>
       <c r="Q61" s="5"/>
-      <c r="R61" s="75">
+      <c r="R61" s="50">
         <v>200</v>
       </c>
       <c r="S61" s="9"/>
@@ -4201,28 +4201,28 @@
       <c r="AE61" s="17"/>
     </row>
     <row r="62" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="44"/>
-      <c r="B62" s="89">
+      <c r="A62" s="25"/>
+      <c r="B62" s="63">
         <v>39</v>
       </c>
-      <c r="C62" s="31"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="83" t="s">
+      <c r="C62" s="122"/>
+      <c r="D62" s="110"/>
+      <c r="E62" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="F62" s="78"/>
-      <c r="G62" s="57"/>
-      <c r="H62" s="57"/>
+      <c r="F62" s="53"/>
+      <c r="G62" s="35"/>
+      <c r="H62" s="35"/>
       <c r="I62" s="7"/>
-      <c r="J62" s="62"/>
-      <c r="K62" s="57"/>
-      <c r="L62" s="57"/>
+      <c r="J62" s="40"/>
+      <c r="K62" s="35"/>
+      <c r="L62" s="35"/>
       <c r="M62" s="7"/>
-      <c r="N62" s="62"/>
-      <c r="O62" s="57"/>
-      <c r="P62" s="57"/>
+      <c r="N62" s="40"/>
+      <c r="O62" s="35"/>
+      <c r="P62" s="35"/>
       <c r="Q62" s="3"/>
-      <c r="R62" s="73">
+      <c r="R62" s="48">
         <v>201</v>
       </c>
       <c r="S62" s="7"/>
@@ -4240,28 +4240,28 @@
       <c r="AE62" s="17"/>
     </row>
     <row r="63" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="44"/>
-      <c r="B63" s="89">
+      <c r="A63" s="25"/>
+      <c r="B63" s="63">
         <v>40</v>
       </c>
-      <c r="C63" s="31"/>
-      <c r="D63" s="25"/>
-      <c r="E63" s="83" t="s">
+      <c r="C63" s="122"/>
+      <c r="D63" s="110"/>
+      <c r="E63" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="F63" s="78"/>
-      <c r="G63" s="57"/>
-      <c r="H63" s="57"/>
+      <c r="F63" s="53"/>
+      <c r="G63" s="35"/>
+      <c r="H63" s="35"/>
       <c r="I63" s="7"/>
-      <c r="J63" s="62"/>
-      <c r="K63" s="57"/>
-      <c r="L63" s="57"/>
+      <c r="J63" s="40"/>
+      <c r="K63" s="35"/>
+      <c r="L63" s="35"/>
       <c r="M63" s="7"/>
-      <c r="N63" s="62"/>
-      <c r="O63" s="57"/>
-      <c r="P63" s="57"/>
+      <c r="N63" s="40"/>
+      <c r="O63" s="35"/>
+      <c r="P63" s="35"/>
       <c r="Q63" s="3"/>
-      <c r="R63" s="73">
+      <c r="R63" s="48">
         <v>202</v>
       </c>
       <c r="S63" s="7"/>
@@ -4279,28 +4279,28 @@
       <c r="AE63" s="17"/>
     </row>
     <row r="64" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="44"/>
-      <c r="B64" s="89">
+      <c r="A64" s="25"/>
+      <c r="B64" s="63">
         <v>41</v>
       </c>
-      <c r="C64" s="31"/>
-      <c r="D64" s="25"/>
-      <c r="E64" s="83" t="s">
+      <c r="C64" s="122"/>
+      <c r="D64" s="110"/>
+      <c r="E64" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="F64" s="78"/>
-      <c r="G64" s="57"/>
-      <c r="H64" s="57"/>
+      <c r="F64" s="53"/>
+      <c r="G64" s="35"/>
+      <c r="H64" s="35"/>
       <c r="I64" s="7"/>
-      <c r="J64" s="62"/>
-      <c r="K64" s="57"/>
-      <c r="L64" s="57"/>
+      <c r="J64" s="40"/>
+      <c r="K64" s="35"/>
+      <c r="L64" s="35"/>
       <c r="M64" s="7"/>
-      <c r="N64" s="62"/>
-      <c r="O64" s="57"/>
-      <c r="P64" s="57"/>
+      <c r="N64" s="40"/>
+      <c r="O64" s="35"/>
+      <c r="P64" s="35"/>
       <c r="Q64" s="3"/>
-      <c r="R64" s="73">
+      <c r="R64" s="48">
         <v>203</v>
       </c>
       <c r="S64" s="7"/>
@@ -4318,28 +4318,28 @@
       <c r="AE64" s="17"/>
     </row>
     <row r="65" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="44"/>
-      <c r="B65" s="89">
+      <c r="A65" s="25"/>
+      <c r="B65" s="63">
         <v>42</v>
       </c>
-      <c r="C65" s="31"/>
-      <c r="D65" s="25"/>
-      <c r="E65" s="83" t="s">
+      <c r="C65" s="122"/>
+      <c r="D65" s="110"/>
+      <c r="E65" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="F65" s="78"/>
-      <c r="G65" s="57"/>
-      <c r="H65" s="57"/>
+      <c r="F65" s="53"/>
+      <c r="G65" s="35"/>
+      <c r="H65" s="35"/>
       <c r="I65" s="7"/>
-      <c r="J65" s="62"/>
-      <c r="K65" s="57"/>
-      <c r="L65" s="57"/>
+      <c r="J65" s="40"/>
+      <c r="K65" s="35"/>
+      <c r="L65" s="35"/>
       <c r="M65" s="7"/>
-      <c r="N65" s="62"/>
-      <c r="O65" s="57"/>
-      <c r="P65" s="57"/>
+      <c r="N65" s="40"/>
+      <c r="O65" s="35"/>
+      <c r="P65" s="35"/>
       <c r="Q65" s="3"/>
-      <c r="R65" s="73">
+      <c r="R65" s="48">
         <v>204</v>
       </c>
       <c r="S65" s="7"/>
@@ -4357,28 +4357,28 @@
       <c r="AE65" s="17"/>
     </row>
     <row r="66" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="44"/>
-      <c r="B66" s="89">
+      <c r="A66" s="25"/>
+      <c r="B66" s="63">
         <v>43</v>
       </c>
-      <c r="C66" s="31"/>
-      <c r="D66" s="25"/>
-      <c r="E66" s="83" t="s">
+      <c r="C66" s="122"/>
+      <c r="D66" s="110"/>
+      <c r="E66" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="F66" s="78"/>
-      <c r="G66" s="57"/>
-      <c r="H66" s="57"/>
+      <c r="F66" s="53"/>
+      <c r="G66" s="35"/>
+      <c r="H66" s="35"/>
       <c r="I66" s="7"/>
-      <c r="J66" s="62"/>
-      <c r="K66" s="57"/>
-      <c r="L66" s="57"/>
+      <c r="J66" s="40"/>
+      <c r="K66" s="35"/>
+      <c r="L66" s="35"/>
       <c r="M66" s="7"/>
-      <c r="N66" s="62"/>
-      <c r="O66" s="57"/>
-      <c r="P66" s="57"/>
+      <c r="N66" s="40"/>
+      <c r="O66" s="35"/>
+      <c r="P66" s="35"/>
       <c r="Q66" s="3"/>
-      <c r="R66" s="73">
+      <c r="R66" s="48">
         <v>205</v>
       </c>
       <c r="S66" s="7"/>
@@ -4396,28 +4396,28 @@
       <c r="AE66" s="17"/>
     </row>
     <row r="67" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="44"/>
-      <c r="B67" s="89">
+      <c r="A67" s="25"/>
+      <c r="B67" s="63">
         <v>44</v>
       </c>
-      <c r="C67" s="31"/>
-      <c r="D67" s="25"/>
-      <c r="E67" s="83" t="s">
+      <c r="C67" s="122"/>
+      <c r="D67" s="110"/>
+      <c r="E67" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="F67" s="78"/>
-      <c r="G67" s="57"/>
-      <c r="H67" s="57"/>
+      <c r="F67" s="53"/>
+      <c r="G67" s="35"/>
+      <c r="H67" s="35"/>
       <c r="I67" s="7"/>
-      <c r="J67" s="62"/>
-      <c r="K67" s="57"/>
-      <c r="L67" s="57"/>
+      <c r="J67" s="40"/>
+      <c r="K67" s="35"/>
+      <c r="L67" s="35"/>
       <c r="M67" s="7"/>
-      <c r="N67" s="62"/>
-      <c r="O67" s="57"/>
-      <c r="P67" s="57"/>
+      <c r="N67" s="40"/>
+      <c r="O67" s="35"/>
+      <c r="P67" s="35"/>
       <c r="Q67" s="3"/>
-      <c r="R67" s="73">
+      <c r="R67" s="48">
         <v>206</v>
       </c>
       <c r="S67" s="7"/>
@@ -4435,28 +4435,28 @@
       <c r="AE67" s="17"/>
     </row>
     <row r="68" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="44"/>
-      <c r="B68" s="89">
+      <c r="A68" s="25"/>
+      <c r="B68" s="63">
         <v>45</v>
       </c>
-      <c r="C68" s="31"/>
-      <c r="D68" s="25"/>
-      <c r="E68" s="83" t="s">
+      <c r="C68" s="122"/>
+      <c r="D68" s="110"/>
+      <c r="E68" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="F68" s="78"/>
-      <c r="G68" s="57"/>
-      <c r="H68" s="57"/>
+      <c r="F68" s="53"/>
+      <c r="G68" s="35"/>
+      <c r="H68" s="35"/>
       <c r="I68" s="7"/>
-      <c r="J68" s="62"/>
-      <c r="K68" s="57"/>
-      <c r="L68" s="57"/>
+      <c r="J68" s="40"/>
+      <c r="K68" s="35"/>
+      <c r="L68" s="35"/>
       <c r="M68" s="7"/>
-      <c r="N68" s="62"/>
-      <c r="O68" s="57"/>
-      <c r="P68" s="57"/>
+      <c r="N68" s="40"/>
+      <c r="O68" s="35"/>
+      <c r="P68" s="35"/>
       <c r="Q68" s="3"/>
-      <c r="R68" s="73">
+      <c r="R68" s="48">
         <v>207</v>
       </c>
       <c r="S68" s="7"/>
@@ -4474,28 +4474,28 @@
       <c r="AE68" s="17"/>
     </row>
     <row r="69" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="44"/>
-      <c r="B69" s="89">
+      <c r="A69" s="25"/>
+      <c r="B69" s="63">
         <v>46</v>
       </c>
-      <c r="C69" s="31"/>
-      <c r="D69" s="25"/>
-      <c r="E69" s="83" t="s">
+      <c r="C69" s="122"/>
+      <c r="D69" s="110"/>
+      <c r="E69" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="F69" s="78"/>
-      <c r="G69" s="57"/>
-      <c r="H69" s="57"/>
+      <c r="F69" s="53"/>
+      <c r="G69" s="35"/>
+      <c r="H69" s="35"/>
       <c r="I69" s="7"/>
-      <c r="J69" s="62"/>
-      <c r="K69" s="57"/>
-      <c r="L69" s="57"/>
+      <c r="J69" s="40"/>
+      <c r="K69" s="35"/>
+      <c r="L69" s="35"/>
       <c r="M69" s="7"/>
-      <c r="N69" s="62"/>
-      <c r="O69" s="57"/>
-      <c r="P69" s="57"/>
+      <c r="N69" s="40"/>
+      <c r="O69" s="35"/>
+      <c r="P69" s="35"/>
       <c r="Q69" s="3"/>
-      <c r="R69" s="73">
+      <c r="R69" s="48">
         <v>208</v>
       </c>
       <c r="S69" s="7"/>
@@ -4513,28 +4513,28 @@
       <c r="AE69" s="17"/>
     </row>
     <row r="70" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="44"/>
-      <c r="B70" s="89">
+      <c r="A70" s="25"/>
+      <c r="B70" s="63">
         <v>47</v>
       </c>
-      <c r="C70" s="31"/>
-      <c r="D70" s="25"/>
-      <c r="E70" s="83" t="s">
+      <c r="C70" s="122"/>
+      <c r="D70" s="110"/>
+      <c r="E70" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="F70" s="78"/>
-      <c r="G70" s="57"/>
-      <c r="H70" s="57"/>
+      <c r="F70" s="53"/>
+      <c r="G70" s="35"/>
+      <c r="H70" s="35"/>
       <c r="I70" s="7"/>
-      <c r="J70" s="62"/>
-      <c r="K70" s="57"/>
-      <c r="L70" s="57"/>
+      <c r="J70" s="40"/>
+      <c r="K70" s="35"/>
+      <c r="L70" s="35"/>
       <c r="M70" s="7"/>
-      <c r="N70" s="62"/>
-      <c r="O70" s="57"/>
-      <c r="P70" s="57"/>
+      <c r="N70" s="40"/>
+      <c r="O70" s="35"/>
+      <c r="P70" s="35"/>
       <c r="Q70" s="3"/>
-      <c r="R70" s="73">
+      <c r="R70" s="48">
         <v>209</v>
       </c>
       <c r="S70" s="7"/>
@@ -4553,28 +4553,28 @@
       <c r="AG70" s="20"/>
     </row>
     <row r="71" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="44"/>
-      <c r="B71" s="89">
+      <c r="A71" s="25"/>
+      <c r="B71" s="63">
         <v>48</v>
       </c>
-      <c r="C71" s="31"/>
-      <c r="D71" s="25"/>
-      <c r="E71" s="83" t="s">
+      <c r="C71" s="122"/>
+      <c r="D71" s="110"/>
+      <c r="E71" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="F71" s="78"/>
-      <c r="G71" s="57"/>
-      <c r="H71" s="57"/>
+      <c r="F71" s="53"/>
+      <c r="G71" s="35"/>
+      <c r="H71" s="35"/>
       <c r="I71" s="7"/>
-      <c r="J71" s="62"/>
-      <c r="K71" s="57"/>
-      <c r="L71" s="57"/>
+      <c r="J71" s="40"/>
+      <c r="K71" s="35"/>
+      <c r="L71" s="35"/>
       <c r="M71" s="7"/>
-      <c r="N71" s="62"/>
-      <c r="O71" s="57"/>
-      <c r="P71" s="57"/>
+      <c r="N71" s="40"/>
+      <c r="O71" s="35"/>
+      <c r="P71" s="35"/>
       <c r="Q71" s="3"/>
-      <c r="R71" s="73">
+      <c r="R71" s="48">
         <v>210</v>
       </c>
       <c r="S71" s="7"/>
@@ -4592,28 +4592,28 @@
       <c r="AE71" s="17"/>
     </row>
     <row r="72" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="44"/>
-      <c r="B72" s="89">
+      <c r="A72" s="25"/>
+      <c r="B72" s="63">
         <v>49</v>
       </c>
-      <c r="C72" s="31"/>
-      <c r="D72" s="25"/>
-      <c r="E72" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="F72" s="78"/>
-      <c r="G72" s="57"/>
-      <c r="H72" s="57"/>
+      <c r="C72" s="122"/>
+      <c r="D72" s="110"/>
+      <c r="E72" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="F72" s="53"/>
+      <c r="G72" s="35"/>
+      <c r="H72" s="35"/>
       <c r="I72" s="7"/>
-      <c r="J72" s="62"/>
-      <c r="K72" s="57"/>
-      <c r="L72" s="57"/>
+      <c r="J72" s="40"/>
+      <c r="K72" s="35"/>
+      <c r="L72" s="35"/>
       <c r="M72" s="7"/>
-      <c r="N72" s="62"/>
-      <c r="O72" s="57"/>
-      <c r="P72" s="57"/>
+      <c r="N72" s="40"/>
+      <c r="O72" s="35"/>
+      <c r="P72" s="35"/>
       <c r="Q72" s="3"/>
-      <c r="R72" s="73">
+      <c r="R72" s="48">
         <v>211</v>
       </c>
       <c r="S72" s="7"/>
@@ -4631,28 +4631,28 @@
       <c r="AE72" s="17"/>
     </row>
     <row r="73" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="44"/>
-      <c r="B73" s="89">
+      <c r="A73" s="25"/>
+      <c r="B73" s="63">
         <v>50</v>
       </c>
-      <c r="C73" s="31"/>
-      <c r="D73" s="25"/>
-      <c r="E73" s="83" t="s">
-        <v>39</v>
-      </c>
-      <c r="F73" s="78"/>
-      <c r="G73" s="57"/>
-      <c r="H73" s="57"/>
+      <c r="C73" s="122"/>
+      <c r="D73" s="110"/>
+      <c r="E73" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="F73" s="53"/>
+      <c r="G73" s="35"/>
+      <c r="H73" s="35"/>
       <c r="I73" s="7"/>
-      <c r="J73" s="62"/>
-      <c r="K73" s="57"/>
-      <c r="L73" s="57"/>
+      <c r="J73" s="40"/>
+      <c r="K73" s="35"/>
+      <c r="L73" s="35"/>
       <c r="M73" s="7"/>
-      <c r="N73" s="62"/>
-      <c r="O73" s="57"/>
-      <c r="P73" s="57"/>
+      <c r="N73" s="40"/>
+      <c r="O73" s="35"/>
+      <c r="P73" s="35"/>
       <c r="Q73" s="3"/>
-      <c r="R73" s="73">
+      <c r="R73" s="48">
         <v>212</v>
       </c>
       <c r="S73" s="7"/>
@@ -4670,28 +4670,28 @@
       <c r="AE73" s="17"/>
     </row>
     <row r="74" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="44"/>
-      <c r="B74" s="89">
+      <c r="A74" s="25"/>
+      <c r="B74" s="63">
         <v>51</v>
       </c>
-      <c r="C74" s="31"/>
-      <c r="D74" s="25"/>
-      <c r="E74" s="83" t="s">
-        <v>40</v>
-      </c>
-      <c r="F74" s="78"/>
-      <c r="G74" s="57"/>
-      <c r="H74" s="57"/>
+      <c r="C74" s="122"/>
+      <c r="D74" s="110"/>
+      <c r="E74" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="F74" s="53"/>
+      <c r="G74" s="35"/>
+      <c r="H74" s="35"/>
       <c r="I74" s="7"/>
-      <c r="J74" s="62"/>
-      <c r="K74" s="57"/>
-      <c r="L74" s="57"/>
+      <c r="J74" s="40"/>
+      <c r="K74" s="35"/>
+      <c r="L74" s="35"/>
       <c r="M74" s="7"/>
-      <c r="N74" s="62"/>
-      <c r="O74" s="57"/>
-      <c r="P74" s="57"/>
+      <c r="N74" s="40"/>
+      <c r="O74" s="35"/>
+      <c r="P74" s="35"/>
       <c r="Q74" s="3"/>
-      <c r="R74" s="73">
+      <c r="R74" s="48">
         <v>213</v>
       </c>
       <c r="S74" s="7"/>
@@ -4709,28 +4709,28 @@
       <c r="AE74" s="17"/>
     </row>
     <row r="75" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="44"/>
-      <c r="B75" s="89">
+      <c r="A75" s="25"/>
+      <c r="B75" s="63">
         <v>52</v>
       </c>
-      <c r="C75" s="31"/>
-      <c r="D75" s="25"/>
-      <c r="E75" s="83" t="s">
-        <v>41</v>
-      </c>
-      <c r="F75" s="78"/>
-      <c r="G75" s="57"/>
-      <c r="H75" s="57"/>
+      <c r="C75" s="122"/>
+      <c r="D75" s="110"/>
+      <c r="E75" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="F75" s="53"/>
+      <c r="G75" s="35"/>
+      <c r="H75" s="35"/>
       <c r="I75" s="7"/>
-      <c r="J75" s="62"/>
-      <c r="K75" s="57"/>
-      <c r="L75" s="57"/>
+      <c r="J75" s="40"/>
+      <c r="K75" s="35"/>
+      <c r="L75" s="35"/>
       <c r="M75" s="7"/>
-      <c r="N75" s="62"/>
-      <c r="O75" s="57"/>
-      <c r="P75" s="57"/>
+      <c r="N75" s="40"/>
+      <c r="O75" s="35"/>
+      <c r="P75" s="35"/>
       <c r="Q75" s="3"/>
-      <c r="R75" s="73">
+      <c r="R75" s="48">
         <v>214</v>
       </c>
       <c r="S75" s="7"/>
@@ -4748,28 +4748,28 @@
       <c r="AE75" s="17"/>
     </row>
     <row r="76" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="44"/>
-      <c r="B76" s="89">
+      <c r="A76" s="25"/>
+      <c r="B76" s="63">
         <v>53</v>
       </c>
-      <c r="C76" s="31"/>
-      <c r="D76" s="25"/>
-      <c r="E76" s="83" t="s">
-        <v>42</v>
-      </c>
-      <c r="F76" s="78"/>
-      <c r="G76" s="57"/>
-      <c r="H76" s="57"/>
+      <c r="C76" s="122"/>
+      <c r="D76" s="110"/>
+      <c r="E76" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="F76" s="53"/>
+      <c r="G76" s="35"/>
+      <c r="H76" s="35"/>
       <c r="I76" s="7"/>
-      <c r="J76" s="62"/>
-      <c r="K76" s="57"/>
-      <c r="L76" s="57"/>
+      <c r="J76" s="40"/>
+      <c r="K76" s="35"/>
+      <c r="L76" s="35"/>
       <c r="M76" s="7"/>
-      <c r="N76" s="62"/>
-      <c r="O76" s="57"/>
-      <c r="P76" s="57"/>
+      <c r="N76" s="40"/>
+      <c r="O76" s="35"/>
+      <c r="P76" s="35"/>
       <c r="Q76" s="3"/>
-      <c r="R76" s="73">
+      <c r="R76" s="48">
         <v>215</v>
       </c>
       <c r="S76" s="7"/>
@@ -4787,28 +4787,28 @@
       <c r="AE76" s="17"/>
     </row>
     <row r="77" spans="1:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="44"/>
-      <c r="B77" s="89">
+      <c r="A77" s="25"/>
+      <c r="B77" s="63">
         <v>54</v>
       </c>
-      <c r="C77" s="45"/>
-      <c r="D77" s="27"/>
-      <c r="E77" s="83" t="s">
-        <v>43</v>
-      </c>
-      <c r="F77" s="81"/>
-      <c r="G77" s="60"/>
-      <c r="H77" s="60"/>
+      <c r="C77" s="123"/>
+      <c r="D77" s="118"/>
+      <c r="E77" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="F77" s="56"/>
+      <c r="G77" s="38"/>
+      <c r="H77" s="38"/>
       <c r="I77" s="18"/>
-      <c r="J77" s="65"/>
-      <c r="K77" s="60"/>
-      <c r="L77" s="60"/>
+      <c r="J77" s="43"/>
+      <c r="K77" s="38"/>
+      <c r="L77" s="38"/>
       <c r="M77" s="8"/>
-      <c r="N77" s="65"/>
-      <c r="O77" s="60"/>
-      <c r="P77" s="60"/>
+      <c r="N77" s="43"/>
+      <c r="O77" s="38"/>
+      <c r="P77" s="38"/>
       <c r="Q77" s="6"/>
-      <c r="R77" s="73">
+      <c r="R77" s="48">
         <v>216</v>
       </c>
       <c r="S77" s="8"/>
@@ -4826,32 +4826,32 @@
       <c r="AE77" s="17"/>
     </row>
     <row r="78" spans="1:33" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="44"/>
-      <c r="B78" s="88">
+      <c r="A78" s="25"/>
+      <c r="B78" s="62">
         <v>55</v>
       </c>
-      <c r="C78" s="28" t="s">
+      <c r="C78" s="119" t="s">
         <v>25</v>
       </c>
-      <c r="D78" s="25" t="s">
+      <c r="D78" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="E78" s="82" t="s">
+      <c r="E78" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="F78" s="77"/>
-      <c r="G78" s="56"/>
-      <c r="H78" s="56"/>
+      <c r="F78" s="52"/>
+      <c r="G78" s="34"/>
+      <c r="H78" s="34"/>
       <c r="I78" s="19"/>
-      <c r="J78" s="61"/>
-      <c r="K78" s="56"/>
-      <c r="L78" s="56"/>
+      <c r="J78" s="39"/>
+      <c r="K78" s="34"/>
+      <c r="L78" s="34"/>
       <c r="M78" s="19"/>
-      <c r="N78" s="61"/>
-      <c r="O78" s="56"/>
-      <c r="P78" s="56"/>
+      <c r="N78" s="39"/>
+      <c r="O78" s="34"/>
+      <c r="P78" s="34"/>
       <c r="Q78" s="3"/>
-      <c r="R78" s="72">
+      <c r="R78" s="47">
         <v>217</v>
       </c>
       <c r="S78" s="19"/>
@@ -4869,28 +4869,28 @@
       <c r="AE78" s="17"/>
     </row>
     <row r="79" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="44"/>
-      <c r="B79" s="88">
+      <c r="A79" s="25"/>
+      <c r="B79" s="62">
         <v>56</v>
       </c>
-      <c r="C79" s="29"/>
-      <c r="D79" s="25"/>
-      <c r="E79" s="83" t="s">
+      <c r="C79" s="120"/>
+      <c r="D79" s="110"/>
+      <c r="E79" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="F79" s="78"/>
-      <c r="G79" s="57"/>
-      <c r="H79" s="57"/>
+      <c r="F79" s="53"/>
+      <c r="G79" s="35"/>
+      <c r="H79" s="35"/>
       <c r="I79" s="7"/>
-      <c r="J79" s="62"/>
-      <c r="K79" s="57"/>
-      <c r="L79" s="57"/>
+      <c r="J79" s="40"/>
+      <c r="K79" s="35"/>
+      <c r="L79" s="35"/>
       <c r="M79" s="7"/>
-      <c r="N79" s="62"/>
-      <c r="O79" s="57"/>
-      <c r="P79" s="57"/>
+      <c r="N79" s="40"/>
+      <c r="O79" s="35"/>
+      <c r="P79" s="35"/>
       <c r="Q79" s="3"/>
-      <c r="R79" s="73">
+      <c r="R79" s="48">
         <v>218</v>
       </c>
       <c r="S79" s="7"/>
@@ -4909,28 +4909,28 @@
       <c r="AF79" s="20"/>
     </row>
     <row r="80" spans="1:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="44"/>
-      <c r="B80" s="88">
+      <c r="A80" s="25"/>
+      <c r="B80" s="62">
         <v>57</v>
       </c>
-      <c r="C80" s="29"/>
-      <c r="D80" s="26"/>
-      <c r="E80" s="83" t="s">
+      <c r="C80" s="120"/>
+      <c r="D80" s="111"/>
+      <c r="E80" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="F80" s="78"/>
-      <c r="G80" s="57"/>
-      <c r="H80" s="57"/>
+      <c r="F80" s="53"/>
+      <c r="G80" s="35"/>
+      <c r="H80" s="35"/>
       <c r="I80" s="7"/>
-      <c r="J80" s="62"/>
-      <c r="K80" s="57"/>
-      <c r="L80" s="57"/>
+      <c r="J80" s="40"/>
+      <c r="K80" s="35"/>
+      <c r="L80" s="35"/>
       <c r="M80" s="7"/>
-      <c r="N80" s="62"/>
-      <c r="O80" s="57"/>
-      <c r="P80" s="57"/>
+      <c r="N80" s="40"/>
+      <c r="O80" s="35"/>
+      <c r="P80" s="35"/>
       <c r="Q80" s="3"/>
-      <c r="R80" s="73">
+      <c r="R80" s="48">
         <v>219</v>
       </c>
       <c r="S80" s="7"/>
@@ -4949,30 +4949,30 @@
       <c r="AF80" s="20"/>
     </row>
     <row r="81" spans="1:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="44"/>
-      <c r="B81" s="88">
+      <c r="A81" s="25"/>
+      <c r="B81" s="62">
         <v>58</v>
       </c>
-      <c r="C81" s="29"/>
-      <c r="D81" s="24" t="s">
+      <c r="C81" s="120"/>
+      <c r="D81" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="E81" s="85" t="s">
+      <c r="E81" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="F81" s="80"/>
-      <c r="G81" s="59"/>
-      <c r="H81" s="59"/>
+      <c r="F81" s="55"/>
+      <c r="G81" s="37"/>
+      <c r="H81" s="37"/>
       <c r="I81" s="9"/>
-      <c r="J81" s="64"/>
-      <c r="K81" s="59"/>
-      <c r="L81" s="59"/>
+      <c r="J81" s="42"/>
+      <c r="K81" s="37"/>
+      <c r="L81" s="37"/>
       <c r="M81" s="9"/>
-      <c r="N81" s="64"/>
-      <c r="O81" s="59"/>
-      <c r="P81" s="59"/>
+      <c r="N81" s="42"/>
+      <c r="O81" s="37"/>
+      <c r="P81" s="37"/>
       <c r="Q81" s="5"/>
-      <c r="R81" s="75">
+      <c r="R81" s="50">
         <v>220</v>
       </c>
       <c r="S81" s="9"/>
@@ -4991,28 +4991,28 @@
       <c r="AF81" s="20"/>
     </row>
     <row r="82" spans="1:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="44"/>
-      <c r="B82" s="88">
+      <c r="A82" s="25"/>
+      <c r="B82" s="62">
         <v>59</v>
       </c>
-      <c r="C82" s="29"/>
-      <c r="D82" s="25"/>
-      <c r="E82" s="83" t="s">
+      <c r="C82" s="120"/>
+      <c r="D82" s="110"/>
+      <c r="E82" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="F82" s="78"/>
-      <c r="G82" s="57"/>
-      <c r="H82" s="57"/>
+      <c r="F82" s="53"/>
+      <c r="G82" s="35"/>
+      <c r="H82" s="35"/>
       <c r="I82" s="7"/>
-      <c r="J82" s="62"/>
-      <c r="K82" s="57"/>
-      <c r="L82" s="57"/>
+      <c r="J82" s="40"/>
+      <c r="K82" s="35"/>
+      <c r="L82" s="35"/>
       <c r="M82" s="7"/>
-      <c r="N82" s="62"/>
-      <c r="O82" s="57"/>
-      <c r="P82" s="57"/>
+      <c r="N82" s="40"/>
+      <c r="O82" s="35"/>
+      <c r="P82" s="35"/>
       <c r="Q82" s="3"/>
-      <c r="R82" s="73">
+      <c r="R82" s="48">
         <v>221</v>
       </c>
       <c r="S82" s="7"/>
@@ -5031,28 +5031,28 @@
       <c r="AF82" s="20"/>
     </row>
     <row r="83" spans="1:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="44"/>
-      <c r="B83" s="88">
+      <c r="A83" s="25"/>
+      <c r="B83" s="62">
         <v>60</v>
       </c>
-      <c r="C83" s="29"/>
-      <c r="D83" s="25"/>
-      <c r="E83" s="83" t="s">
+      <c r="C83" s="120"/>
+      <c r="D83" s="110"/>
+      <c r="E83" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="F83" s="78"/>
-      <c r="G83" s="57"/>
-      <c r="H83" s="57"/>
+      <c r="F83" s="53"/>
+      <c r="G83" s="35"/>
+      <c r="H83" s="35"/>
       <c r="I83" s="7"/>
-      <c r="J83" s="62"/>
-      <c r="K83" s="57"/>
-      <c r="L83" s="57"/>
+      <c r="J83" s="40"/>
+      <c r="K83" s="35"/>
+      <c r="L83" s="35"/>
       <c r="M83" s="7"/>
-      <c r="N83" s="62"/>
-      <c r="O83" s="57"/>
-      <c r="P83" s="57"/>
+      <c r="N83" s="40"/>
+      <c r="O83" s="35"/>
+      <c r="P83" s="35"/>
       <c r="Q83" s="3"/>
-      <c r="R83" s="73">
+      <c r="R83" s="48">
         <v>222</v>
       </c>
       <c r="S83" s="7"/>
@@ -5070,28 +5070,28 @@
       <c r="AE83" s="17"/>
     </row>
     <row r="84" spans="1:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="44"/>
-      <c r="B84" s="88">
+      <c r="A84" s="25"/>
+      <c r="B84" s="62">
         <v>61</v>
       </c>
-      <c r="C84" s="29"/>
-      <c r="D84" s="25"/>
-      <c r="E84" s="83" t="s">
+      <c r="C84" s="120"/>
+      <c r="D84" s="110"/>
+      <c r="E84" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="F84" s="78"/>
-      <c r="G84" s="57"/>
-      <c r="H84" s="57"/>
+      <c r="F84" s="53"/>
+      <c r="G84" s="35"/>
+      <c r="H84" s="35"/>
       <c r="I84" s="7"/>
-      <c r="J84" s="62"/>
-      <c r="K84" s="57"/>
-      <c r="L84" s="57"/>
+      <c r="J84" s="40"/>
+      <c r="K84" s="35"/>
+      <c r="L84" s="35"/>
       <c r="M84" s="7"/>
-      <c r="N84" s="62"/>
-      <c r="O84" s="57"/>
-      <c r="P84" s="57"/>
+      <c r="N84" s="40"/>
+      <c r="O84" s="35"/>
+      <c r="P84" s="35"/>
       <c r="Q84" s="3"/>
-      <c r="R84" s="73">
+      <c r="R84" s="48">
         <v>223</v>
       </c>
       <c r="S84" s="7"/>
@@ -5109,28 +5109,28 @@
       <c r="AE84" s="17"/>
     </row>
     <row r="85" spans="1:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="44"/>
-      <c r="B85" s="88">
+      <c r="A85" s="25"/>
+      <c r="B85" s="62">
         <v>62</v>
       </c>
-      <c r="C85" s="29"/>
-      <c r="D85" s="25"/>
-      <c r="E85" s="83" t="s">
+      <c r="C85" s="120"/>
+      <c r="D85" s="110"/>
+      <c r="E85" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="F85" s="78"/>
-      <c r="G85" s="57"/>
-      <c r="H85" s="57"/>
+      <c r="F85" s="53"/>
+      <c r="G85" s="35"/>
+      <c r="H85" s="35"/>
       <c r="I85" s="7"/>
-      <c r="J85" s="62"/>
-      <c r="K85" s="57"/>
-      <c r="L85" s="57"/>
+      <c r="J85" s="40"/>
+      <c r="K85" s="35"/>
+      <c r="L85" s="35"/>
       <c r="M85" s="7"/>
-      <c r="N85" s="62"/>
-      <c r="O85" s="57"/>
-      <c r="P85" s="57"/>
+      <c r="N85" s="40"/>
+      <c r="O85" s="35"/>
+      <c r="P85" s="35"/>
       <c r="Q85" s="3"/>
-      <c r="R85" s="73">
+      <c r="R85" s="48">
         <v>224</v>
       </c>
       <c r="S85" s="7"/>
@@ -5148,28 +5148,28 @@
       <c r="AE85" s="17"/>
     </row>
     <row r="86" spans="1:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="44"/>
-      <c r="B86" s="88">
+      <c r="A86" s="25"/>
+      <c r="B86" s="62">
         <v>63</v>
       </c>
-      <c r="C86" s="29"/>
-      <c r="D86" s="25"/>
-      <c r="E86" s="83" t="s">
+      <c r="C86" s="120"/>
+      <c r="D86" s="110"/>
+      <c r="E86" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="F86" s="78"/>
-      <c r="G86" s="57"/>
-      <c r="H86" s="57"/>
+      <c r="F86" s="53"/>
+      <c r="G86" s="35"/>
+      <c r="H86" s="35"/>
       <c r="I86" s="7"/>
-      <c r="J86" s="62"/>
-      <c r="K86" s="57"/>
-      <c r="L86" s="57"/>
+      <c r="J86" s="40"/>
+      <c r="K86" s="35"/>
+      <c r="L86" s="35"/>
       <c r="M86" s="7"/>
-      <c r="N86" s="62"/>
-      <c r="O86" s="57"/>
-      <c r="P86" s="57"/>
+      <c r="N86" s="40"/>
+      <c r="O86" s="35"/>
+      <c r="P86" s="35"/>
       <c r="Q86" s="3"/>
-      <c r="R86" s="73">
+      <c r="R86" s="48">
         <v>225</v>
       </c>
       <c r="S86" s="7"/>
@@ -5187,28 +5187,28 @@
       <c r="AE86" s="17"/>
     </row>
     <row r="87" spans="1:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="44"/>
-      <c r="B87" s="88">
+      <c r="A87" s="25"/>
+      <c r="B87" s="62">
         <v>64</v>
       </c>
-      <c r="C87" s="29"/>
-      <c r="D87" s="25"/>
-      <c r="E87" s="83" t="s">
+      <c r="C87" s="120"/>
+      <c r="D87" s="110"/>
+      <c r="E87" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="F87" s="78"/>
-      <c r="G87" s="57"/>
-      <c r="H87" s="57"/>
+      <c r="F87" s="53"/>
+      <c r="G87" s="35"/>
+      <c r="H87" s="35"/>
       <c r="I87" s="7"/>
-      <c r="J87" s="62"/>
-      <c r="K87" s="57"/>
-      <c r="L87" s="57"/>
+      <c r="J87" s="40"/>
+      <c r="K87" s="35"/>
+      <c r="L87" s="35"/>
       <c r="M87" s="7"/>
-      <c r="N87" s="62"/>
-      <c r="O87" s="57"/>
-      <c r="P87" s="57"/>
+      <c r="N87" s="40"/>
+      <c r="O87" s="35"/>
+      <c r="P87" s="35"/>
       <c r="Q87" s="3"/>
-      <c r="R87" s="73">
+      <c r="R87" s="48">
         <v>226</v>
       </c>
       <c r="S87" s="7"/>
@@ -5226,28 +5226,28 @@
       <c r="AE87" s="17"/>
     </row>
     <row r="88" spans="1:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="44"/>
-      <c r="B88" s="88">
+      <c r="A88" s="25"/>
+      <c r="B88" s="62">
         <v>65</v>
       </c>
-      <c r="C88" s="29"/>
-      <c r="D88" s="25"/>
-      <c r="E88" s="83" t="s">
+      <c r="C88" s="120"/>
+      <c r="D88" s="110"/>
+      <c r="E88" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="F88" s="78"/>
-      <c r="G88" s="57"/>
-      <c r="H88" s="57"/>
+      <c r="F88" s="53"/>
+      <c r="G88" s="35"/>
+      <c r="H88" s="35"/>
       <c r="I88" s="7"/>
-      <c r="J88" s="62"/>
-      <c r="K88" s="57"/>
-      <c r="L88" s="57"/>
+      <c r="J88" s="40"/>
+      <c r="K88" s="35"/>
+      <c r="L88" s="35"/>
       <c r="M88" s="7"/>
-      <c r="N88" s="62"/>
-      <c r="O88" s="57"/>
-      <c r="P88" s="57"/>
+      <c r="N88" s="40"/>
+      <c r="O88" s="35"/>
+      <c r="P88" s="35"/>
       <c r="Q88" s="3"/>
-      <c r="R88" s="73">
+      <c r="R88" s="48">
         <v>227</v>
       </c>
       <c r="S88" s="7"/>
@@ -5265,28 +5265,28 @@
       <c r="AE88" s="17"/>
     </row>
     <row r="89" spans="1:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="44"/>
-      <c r="B89" s="88">
+      <c r="A89" s="25"/>
+      <c r="B89" s="62">
         <v>66</v>
       </c>
-      <c r="C89" s="29"/>
-      <c r="D89" s="25"/>
-      <c r="E89" s="83" t="s">
+      <c r="C89" s="120"/>
+      <c r="D89" s="110"/>
+      <c r="E89" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="F89" s="78"/>
-      <c r="G89" s="57"/>
-      <c r="H89" s="57"/>
+      <c r="F89" s="53"/>
+      <c r="G89" s="35"/>
+      <c r="H89" s="35"/>
       <c r="I89" s="7"/>
-      <c r="J89" s="62"/>
-      <c r="K89" s="57"/>
-      <c r="L89" s="57"/>
+      <c r="J89" s="40"/>
+      <c r="K89" s="35"/>
+      <c r="L89" s="35"/>
       <c r="M89" s="7"/>
-      <c r="N89" s="62"/>
-      <c r="O89" s="57"/>
-      <c r="P89" s="57"/>
+      <c r="N89" s="40"/>
+      <c r="O89" s="35"/>
+      <c r="P89" s="35"/>
       <c r="Q89" s="3"/>
-      <c r="R89" s="73">
+      <c r="R89" s="48">
         <v>228</v>
       </c>
       <c r="S89" s="7"/>
@@ -5304,28 +5304,28 @@
       <c r="AE89" s="17"/>
     </row>
     <row r="90" spans="1:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="44"/>
-      <c r="B90" s="88">
+      <c r="A90" s="25"/>
+      <c r="B90" s="62">
         <v>67</v>
       </c>
-      <c r="C90" s="29"/>
-      <c r="D90" s="25"/>
-      <c r="E90" s="83" t="s">
+      <c r="C90" s="120"/>
+      <c r="D90" s="110"/>
+      <c r="E90" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="F90" s="78"/>
-      <c r="G90" s="57"/>
-      <c r="H90" s="57"/>
+      <c r="F90" s="53"/>
+      <c r="G90" s="35"/>
+      <c r="H90" s="35"/>
       <c r="I90" s="7"/>
-      <c r="J90" s="62"/>
-      <c r="K90" s="57"/>
-      <c r="L90" s="57"/>
+      <c r="J90" s="40"/>
+      <c r="K90" s="35"/>
+      <c r="L90" s="35"/>
       <c r="M90" s="7"/>
-      <c r="N90" s="62"/>
-      <c r="O90" s="57"/>
-      <c r="P90" s="57"/>
+      <c r="N90" s="40"/>
+      <c r="O90" s="35"/>
+      <c r="P90" s="35"/>
       <c r="Q90" s="3"/>
-      <c r="R90" s="73">
+      <c r="R90" s="48">
         <v>229</v>
       </c>
       <c r="S90" s="7"/>
@@ -5343,28 +5343,28 @@
       <c r="AE90" s="17"/>
     </row>
     <row r="91" spans="1:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="44"/>
-      <c r="B91" s="88">
+      <c r="A91" s="25"/>
+      <c r="B91" s="62">
         <v>68</v>
       </c>
-      <c r="C91" s="29"/>
-      <c r="D91" s="25"/>
-      <c r="E91" s="83" t="s">
+      <c r="C91" s="120"/>
+      <c r="D91" s="110"/>
+      <c r="E91" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="F91" s="78"/>
-      <c r="G91" s="57"/>
-      <c r="H91" s="57"/>
+      <c r="F91" s="53"/>
+      <c r="G91" s="35"/>
+      <c r="H91" s="35"/>
       <c r="I91" s="7"/>
-      <c r="J91" s="62"/>
-      <c r="K91" s="57"/>
-      <c r="L91" s="57"/>
+      <c r="J91" s="40"/>
+      <c r="K91" s="35"/>
+      <c r="L91" s="35"/>
       <c r="M91" s="7"/>
-      <c r="N91" s="62"/>
-      <c r="O91" s="57"/>
-      <c r="P91" s="57"/>
+      <c r="N91" s="40"/>
+      <c r="O91" s="35"/>
+      <c r="P91" s="35"/>
       <c r="Q91" s="3"/>
-      <c r="R91" s="73">
+      <c r="R91" s="48">
         <v>230</v>
       </c>
       <c r="S91" s="7"/>
@@ -5382,28 +5382,28 @@
       <c r="AE91" s="17"/>
     </row>
     <row r="92" spans="1:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="44"/>
-      <c r="B92" s="88">
+      <c r="A92" s="25"/>
+      <c r="B92" s="62">
         <v>69</v>
       </c>
-      <c r="C92" s="29"/>
-      <c r="D92" s="25"/>
-      <c r="E92" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="F92" s="78"/>
-      <c r="G92" s="57"/>
-      <c r="H92" s="57"/>
+      <c r="C92" s="120"/>
+      <c r="D92" s="110"/>
+      <c r="E92" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="F92" s="53"/>
+      <c r="G92" s="35"/>
+      <c r="H92" s="35"/>
       <c r="I92" s="7"/>
-      <c r="J92" s="62"/>
-      <c r="K92" s="57"/>
-      <c r="L92" s="57"/>
+      <c r="J92" s="40"/>
+      <c r="K92" s="35"/>
+      <c r="L92" s="35"/>
       <c r="M92" s="7"/>
-      <c r="N92" s="62"/>
-      <c r="O92" s="57"/>
-      <c r="P92" s="57"/>
+      <c r="N92" s="40"/>
+      <c r="O92" s="35"/>
+      <c r="P92" s="35"/>
       <c r="Q92" s="3"/>
-      <c r="R92" s="73">
+      <c r="R92" s="48">
         <v>231</v>
       </c>
       <c r="S92" s="7"/>
@@ -5421,28 +5421,28 @@
       <c r="AE92" s="17"/>
     </row>
     <row r="93" spans="1:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="44"/>
-      <c r="B93" s="88">
+      <c r="A93" s="25"/>
+      <c r="B93" s="62">
         <v>70</v>
       </c>
-      <c r="C93" s="29"/>
-      <c r="D93" s="25"/>
-      <c r="E93" s="83" t="s">
-        <v>39</v>
-      </c>
-      <c r="F93" s="78"/>
-      <c r="G93" s="57"/>
-      <c r="H93" s="57"/>
+      <c r="C93" s="120"/>
+      <c r="D93" s="110"/>
+      <c r="E93" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="F93" s="53"/>
+      <c r="G93" s="35"/>
+      <c r="H93" s="35"/>
       <c r="I93" s="7"/>
-      <c r="J93" s="62"/>
-      <c r="K93" s="57"/>
-      <c r="L93" s="57"/>
+      <c r="J93" s="40"/>
+      <c r="K93" s="35"/>
+      <c r="L93" s="35"/>
       <c r="M93" s="7"/>
-      <c r="N93" s="62"/>
-      <c r="O93" s="57"/>
-      <c r="P93" s="57"/>
+      <c r="N93" s="40"/>
+      <c r="O93" s="35"/>
+      <c r="P93" s="35"/>
       <c r="Q93" s="3"/>
-      <c r="R93" s="73">
+      <c r="R93" s="48">
         <v>232</v>
       </c>
       <c r="S93" s="7"/>
@@ -5460,28 +5460,28 @@
       <c r="AE93" s="17"/>
     </row>
     <row r="94" spans="1:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="44"/>
-      <c r="B94" s="88">
+      <c r="A94" s="25"/>
+      <c r="B94" s="62">
         <v>71</v>
       </c>
-      <c r="C94" s="29"/>
-      <c r="D94" s="25"/>
-      <c r="E94" s="83" t="s">
-        <v>40</v>
-      </c>
-      <c r="F94" s="78"/>
-      <c r="G94" s="57"/>
-      <c r="H94" s="57"/>
+      <c r="C94" s="120"/>
+      <c r="D94" s="110"/>
+      <c r="E94" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="F94" s="53"/>
+      <c r="G94" s="35"/>
+      <c r="H94" s="35"/>
       <c r="I94" s="7"/>
-      <c r="J94" s="62"/>
-      <c r="K94" s="57"/>
-      <c r="L94" s="57"/>
+      <c r="J94" s="40"/>
+      <c r="K94" s="35"/>
+      <c r="L94" s="35"/>
       <c r="M94" s="7"/>
-      <c r="N94" s="62"/>
-      <c r="O94" s="57"/>
-      <c r="P94" s="57"/>
+      <c r="N94" s="40"/>
+      <c r="O94" s="35"/>
+      <c r="P94" s="35"/>
       <c r="Q94" s="3"/>
-      <c r="R94" s="73">
+      <c r="R94" s="48">
         <v>233</v>
       </c>
       <c r="S94" s="7"/>
@@ -5499,28 +5499,28 @@
       <c r="AE94" s="17"/>
     </row>
     <row r="95" spans="1:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="44"/>
-      <c r="B95" s="88">
+      <c r="A95" s="25"/>
+      <c r="B95" s="62">
         <v>72</v>
       </c>
-      <c r="C95" s="29"/>
-      <c r="D95" s="25"/>
-      <c r="E95" s="83" t="s">
-        <v>41</v>
-      </c>
-      <c r="F95" s="78"/>
-      <c r="G95" s="57"/>
-      <c r="H95" s="57"/>
+      <c r="C95" s="120"/>
+      <c r="D95" s="110"/>
+      <c r="E95" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="F95" s="53"/>
+      <c r="G95" s="35"/>
+      <c r="H95" s="35"/>
       <c r="I95" s="7"/>
-      <c r="J95" s="62"/>
-      <c r="K95" s="57"/>
-      <c r="L95" s="57"/>
+      <c r="J95" s="40"/>
+      <c r="K95" s="35"/>
+      <c r="L95" s="35"/>
       <c r="M95" s="7"/>
-      <c r="N95" s="62"/>
-      <c r="O95" s="57"/>
-      <c r="P95" s="57"/>
+      <c r="N95" s="40"/>
+      <c r="O95" s="35"/>
+      <c r="P95" s="35"/>
       <c r="Q95" s="3"/>
-      <c r="R95" s="73">
+      <c r="R95" s="48">
         <v>234</v>
       </c>
       <c r="S95" s="7"/>
@@ -5538,28 +5538,28 @@
       <c r="AE95" s="17"/>
     </row>
     <row r="96" spans="1:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="44"/>
-      <c r="B96" s="88">
+      <c r="A96" s="25"/>
+      <c r="B96" s="62">
         <v>73</v>
       </c>
-      <c r="C96" s="29"/>
-      <c r="D96" s="25"/>
-      <c r="E96" s="83" t="s">
-        <v>42</v>
-      </c>
-      <c r="F96" s="78"/>
-      <c r="G96" s="57"/>
-      <c r="H96" s="57"/>
+      <c r="C96" s="120"/>
+      <c r="D96" s="110"/>
+      <c r="E96" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="F96" s="53"/>
+      <c r="G96" s="35"/>
+      <c r="H96" s="35"/>
       <c r="I96" s="7"/>
-      <c r="J96" s="62"/>
-      <c r="K96" s="57"/>
-      <c r="L96" s="57"/>
+      <c r="J96" s="40"/>
+      <c r="K96" s="35"/>
+      <c r="L96" s="35"/>
       <c r="M96" s="7"/>
-      <c r="N96" s="62"/>
-      <c r="O96" s="57"/>
-      <c r="P96" s="57"/>
+      <c r="N96" s="40"/>
+      <c r="O96" s="35"/>
+      <c r="P96" s="35"/>
       <c r="Q96" s="3"/>
-      <c r="R96" s="73">
+      <c r="R96" s="48">
         <v>235</v>
       </c>
       <c r="S96" s="7"/>
@@ -5577,28 +5577,28 @@
       <c r="AE96" s="17"/>
     </row>
     <row r="97" spans="1:31" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="44"/>
-      <c r="B97" s="88">
+      <c r="A97" s="25"/>
+      <c r="B97" s="62">
         <v>74</v>
       </c>
-      <c r="C97" s="29"/>
-      <c r="D97" s="26"/>
-      <c r="E97" s="84" t="s">
-        <v>43</v>
-      </c>
-      <c r="F97" s="79"/>
-      <c r="G97" s="58"/>
-      <c r="H97" s="58"/>
+      <c r="C97" s="120"/>
+      <c r="D97" s="111"/>
+      <c r="E97" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="F97" s="54"/>
+      <c r="G97" s="36"/>
+      <c r="H97" s="36"/>
       <c r="I97" s="10"/>
-      <c r="J97" s="63"/>
-      <c r="K97" s="58"/>
-      <c r="L97" s="58"/>
+      <c r="J97" s="41"/>
+      <c r="K97" s="36"/>
+      <c r="L97" s="36"/>
       <c r="M97" s="10"/>
-      <c r="N97" s="63"/>
-      <c r="O97" s="58"/>
-      <c r="P97" s="58"/>
+      <c r="N97" s="41"/>
+      <c r="O97" s="36"/>
+      <c r="P97" s="36"/>
       <c r="Q97" s="4"/>
-      <c r="R97" s="73">
+      <c r="R97" s="48">
         <v>236</v>
       </c>
       <c r="S97" s="10"/>
@@ -5616,30 +5616,30 @@
       <c r="AE97" s="17"/>
     </row>
     <row r="98" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="44"/>
-      <c r="B98" s="88">
+      <c r="A98" s="25"/>
+      <c r="B98" s="62">
         <v>75</v>
       </c>
-      <c r="C98" s="29"/>
-      <c r="D98" s="24" t="s">
+      <c r="C98" s="120"/>
+      <c r="D98" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="E98" s="85" t="s">
+      <c r="E98" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="F98" s="80"/>
-      <c r="G98" s="59"/>
-      <c r="H98" s="59"/>
+      <c r="F98" s="55"/>
+      <c r="G98" s="37"/>
+      <c r="H98" s="37"/>
       <c r="I98" s="9"/>
-      <c r="J98" s="64"/>
-      <c r="K98" s="59"/>
-      <c r="L98" s="59"/>
+      <c r="J98" s="42"/>
+      <c r="K98" s="37"/>
+      <c r="L98" s="37"/>
       <c r="M98" s="9"/>
-      <c r="N98" s="64"/>
-      <c r="O98" s="59"/>
-      <c r="P98" s="59"/>
+      <c r="N98" s="42"/>
+      <c r="O98" s="37"/>
+      <c r="P98" s="37"/>
       <c r="Q98" s="5"/>
-      <c r="R98" s="75">
+      <c r="R98" s="50">
         <v>237</v>
       </c>
       <c r="S98" s="9"/>
@@ -5657,28 +5657,28 @@
       <c r="AE98" s="17"/>
     </row>
     <row r="99" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="44"/>
-      <c r="B99" s="88">
+      <c r="A99" s="25"/>
+      <c r="B99" s="62">
         <v>76</v>
       </c>
-      <c r="C99" s="29"/>
-      <c r="D99" s="25"/>
-      <c r="E99" s="83" t="s">
+      <c r="C99" s="120"/>
+      <c r="D99" s="110"/>
+      <c r="E99" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="F99" s="78"/>
-      <c r="G99" s="57"/>
-      <c r="H99" s="57"/>
+      <c r="F99" s="53"/>
+      <c r="G99" s="35"/>
+      <c r="H99" s="35"/>
       <c r="I99" s="7"/>
-      <c r="J99" s="62"/>
-      <c r="K99" s="57"/>
-      <c r="L99" s="57"/>
+      <c r="J99" s="40"/>
+      <c r="K99" s="35"/>
+      <c r="L99" s="35"/>
       <c r="M99" s="7"/>
-      <c r="N99" s="62"/>
-      <c r="O99" s="57"/>
-      <c r="P99" s="57"/>
+      <c r="N99" s="40"/>
+      <c r="O99" s="35"/>
+      <c r="P99" s="35"/>
       <c r="Q99" s="3"/>
-      <c r="R99" s="73">
+      <c r="R99" s="48">
         <v>238</v>
       </c>
       <c r="S99" s="7"/>
@@ -5696,28 +5696,28 @@
       <c r="AE99" s="17"/>
     </row>
     <row r="100" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="44"/>
-      <c r="B100" s="88">
+      <c r="A100" s="25"/>
+      <c r="B100" s="62">
         <v>77</v>
       </c>
-      <c r="C100" s="29"/>
-      <c r="D100" s="25"/>
-      <c r="E100" s="83" t="s">
+      <c r="C100" s="120"/>
+      <c r="D100" s="110"/>
+      <c r="E100" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="F100" s="78"/>
-      <c r="G100" s="57"/>
-      <c r="H100" s="57"/>
+      <c r="F100" s="53"/>
+      <c r="G100" s="35"/>
+      <c r="H100" s="35"/>
       <c r="I100" s="7"/>
-      <c r="J100" s="62"/>
-      <c r="K100" s="57"/>
-      <c r="L100" s="57"/>
+      <c r="J100" s="40"/>
+      <c r="K100" s="35"/>
+      <c r="L100" s="35"/>
       <c r="M100" s="7"/>
-      <c r="N100" s="62"/>
-      <c r="O100" s="57"/>
-      <c r="P100" s="57"/>
+      <c r="N100" s="40"/>
+      <c r="O100" s="35"/>
+      <c r="P100" s="35"/>
       <c r="Q100" s="3"/>
-      <c r="R100" s="73">
+      <c r="R100" s="48">
         <v>239</v>
       </c>
       <c r="S100" s="7"/>
@@ -5735,28 +5735,28 @@
       <c r="AE100" s="17"/>
     </row>
     <row r="101" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="44"/>
-      <c r="B101" s="88">
+      <c r="A101" s="25"/>
+      <c r="B101" s="62">
         <v>78</v>
       </c>
-      <c r="C101" s="29"/>
-      <c r="D101" s="25"/>
-      <c r="E101" s="83" t="s">
+      <c r="C101" s="120"/>
+      <c r="D101" s="110"/>
+      <c r="E101" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="F101" s="78"/>
-      <c r="G101" s="57"/>
-      <c r="H101" s="57"/>
+      <c r="F101" s="53"/>
+      <c r="G101" s="35"/>
+      <c r="H101" s="35"/>
       <c r="I101" s="7"/>
-      <c r="J101" s="62"/>
-      <c r="K101" s="57"/>
-      <c r="L101" s="57"/>
+      <c r="J101" s="40"/>
+      <c r="K101" s="35"/>
+      <c r="L101" s="35"/>
       <c r="M101" s="7"/>
-      <c r="N101" s="62"/>
-      <c r="O101" s="57"/>
-      <c r="P101" s="57"/>
+      <c r="N101" s="40"/>
+      <c r="O101" s="35"/>
+      <c r="P101" s="35"/>
       <c r="Q101" s="3"/>
-      <c r="R101" s="73">
+      <c r="R101" s="48">
         <v>240</v>
       </c>
       <c r="S101" s="7"/>
@@ -5774,28 +5774,28 @@
       <c r="AE101" s="17"/>
     </row>
     <row r="102" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="44"/>
-      <c r="B102" s="88">
+      <c r="A102" s="25"/>
+      <c r="B102" s="62">
         <v>79</v>
       </c>
-      <c r="C102" s="29"/>
-      <c r="D102" s="25"/>
-      <c r="E102" s="83" t="s">
+      <c r="C102" s="120"/>
+      <c r="D102" s="110"/>
+      <c r="E102" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="F102" s="78"/>
-      <c r="G102" s="57"/>
-      <c r="H102" s="57"/>
+      <c r="F102" s="53"/>
+      <c r="G102" s="35"/>
+      <c r="H102" s="35"/>
       <c r="I102" s="7"/>
-      <c r="J102" s="62"/>
-      <c r="K102" s="57"/>
-      <c r="L102" s="57"/>
+      <c r="J102" s="40"/>
+      <c r="K102" s="35"/>
+      <c r="L102" s="35"/>
       <c r="M102" s="7"/>
-      <c r="N102" s="62"/>
-      <c r="O102" s="57"/>
-      <c r="P102" s="57"/>
+      <c r="N102" s="40"/>
+      <c r="O102" s="35"/>
+      <c r="P102" s="35"/>
       <c r="Q102" s="3"/>
-      <c r="R102" s="73">
+      <c r="R102" s="48">
         <v>241</v>
       </c>
       <c r="S102" s="7"/>
@@ -5813,28 +5813,28 @@
       <c r="AE102" s="17"/>
     </row>
     <row r="103" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="44"/>
-      <c r="B103" s="88">
+      <c r="A103" s="25"/>
+      <c r="B103" s="62">
         <v>80</v>
       </c>
-      <c r="C103" s="29"/>
-      <c r="D103" s="25"/>
-      <c r="E103" s="83" t="s">
+      <c r="C103" s="120"/>
+      <c r="D103" s="110"/>
+      <c r="E103" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="F103" s="78"/>
-      <c r="G103" s="57"/>
-      <c r="H103" s="57"/>
+      <c r="F103" s="53"/>
+      <c r="G103" s="35"/>
+      <c r="H103" s="35"/>
       <c r="I103" s="7"/>
-      <c r="J103" s="62"/>
-      <c r="K103" s="57"/>
-      <c r="L103" s="57"/>
+      <c r="J103" s="40"/>
+      <c r="K103" s="35"/>
+      <c r="L103" s="35"/>
       <c r="M103" s="7"/>
-      <c r="N103" s="62"/>
-      <c r="O103" s="57"/>
-      <c r="P103" s="57"/>
+      <c r="N103" s="40"/>
+      <c r="O103" s="35"/>
+      <c r="P103" s="35"/>
       <c r="Q103" s="3"/>
-      <c r="R103" s="73">
+      <c r="R103" s="48">
         <v>242</v>
       </c>
       <c r="S103" s="7"/>
@@ -5852,28 +5852,28 @@
       <c r="AE103" s="17"/>
     </row>
     <row r="104" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="44"/>
-      <c r="B104" s="88">
+      <c r="A104" s="25"/>
+      <c r="B104" s="62">
         <v>81</v>
       </c>
-      <c r="C104" s="29"/>
-      <c r="D104" s="25"/>
-      <c r="E104" s="83" t="s">
+      <c r="C104" s="120"/>
+      <c r="D104" s="110"/>
+      <c r="E104" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="F104" s="78"/>
-      <c r="G104" s="57"/>
-      <c r="H104" s="57"/>
+      <c r="F104" s="53"/>
+      <c r="G104" s="35"/>
+      <c r="H104" s="35"/>
       <c r="I104" s="7"/>
-      <c r="J104" s="62"/>
-      <c r="K104" s="57"/>
-      <c r="L104" s="57"/>
+      <c r="J104" s="40"/>
+      <c r="K104" s="35"/>
+      <c r="L104" s="35"/>
       <c r="M104" s="7"/>
-      <c r="N104" s="62"/>
-      <c r="O104" s="57"/>
-      <c r="P104" s="57"/>
+      <c r="N104" s="40"/>
+      <c r="O104" s="35"/>
+      <c r="P104" s="35"/>
       <c r="Q104" s="3"/>
-      <c r="R104" s="73">
+      <c r="R104" s="48">
         <v>243</v>
       </c>
       <c r="S104" s="7"/>
@@ -5891,28 +5891,28 @@
       <c r="AE104" s="17"/>
     </row>
     <row r="105" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="44"/>
-      <c r="B105" s="88">
+      <c r="A105" s="25"/>
+      <c r="B105" s="62">
         <v>82</v>
       </c>
-      <c r="C105" s="29"/>
-      <c r="D105" s="25"/>
-      <c r="E105" s="83" t="s">
+      <c r="C105" s="120"/>
+      <c r="D105" s="110"/>
+      <c r="E105" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="F105" s="78"/>
-      <c r="G105" s="57"/>
-      <c r="H105" s="57"/>
+      <c r="F105" s="53"/>
+      <c r="G105" s="35"/>
+      <c r="H105" s="35"/>
       <c r="I105" s="7"/>
-      <c r="J105" s="62"/>
-      <c r="K105" s="57"/>
-      <c r="L105" s="57"/>
+      <c r="J105" s="40"/>
+      <c r="K105" s="35"/>
+      <c r="L105" s="35"/>
       <c r="M105" s="7"/>
-      <c r="N105" s="62"/>
-      <c r="O105" s="57"/>
-      <c r="P105" s="57"/>
+      <c r="N105" s="40"/>
+      <c r="O105" s="35"/>
+      <c r="P105" s="35"/>
       <c r="Q105" s="3"/>
-      <c r="R105" s="73">
+      <c r="R105" s="48">
         <v>244</v>
       </c>
       <c r="S105" s="7"/>
@@ -5930,28 +5930,28 @@
       <c r="AE105" s="17"/>
     </row>
     <row r="106" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="44"/>
-      <c r="B106" s="88">
+      <c r="A106" s="25"/>
+      <c r="B106" s="62">
         <v>83</v>
       </c>
-      <c r="C106" s="29"/>
-      <c r="D106" s="25"/>
-      <c r="E106" s="83" t="s">
+      <c r="C106" s="120"/>
+      <c r="D106" s="110"/>
+      <c r="E106" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="F106" s="78"/>
-      <c r="G106" s="57"/>
-      <c r="H106" s="57"/>
+      <c r="F106" s="53"/>
+      <c r="G106" s="35"/>
+      <c r="H106" s="35"/>
       <c r="I106" s="7"/>
-      <c r="J106" s="62"/>
-      <c r="K106" s="57"/>
-      <c r="L106" s="57"/>
+      <c r="J106" s="40"/>
+      <c r="K106" s="35"/>
+      <c r="L106" s="35"/>
       <c r="M106" s="7"/>
-      <c r="N106" s="62"/>
-      <c r="O106" s="57"/>
-      <c r="P106" s="57"/>
+      <c r="N106" s="40"/>
+      <c r="O106" s="35"/>
+      <c r="P106" s="35"/>
       <c r="Q106" s="3"/>
-      <c r="R106" s="73">
+      <c r="R106" s="48">
         <v>245</v>
       </c>
       <c r="S106" s="7"/>
@@ -5969,28 +5969,28 @@
       <c r="AE106" s="17"/>
     </row>
     <row r="107" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="44"/>
-      <c r="B107" s="88">
+      <c r="A107" s="25"/>
+      <c r="B107" s="62">
         <v>84</v>
       </c>
-      <c r="C107" s="29"/>
-      <c r="D107" s="25"/>
-      <c r="E107" s="83" t="s">
+      <c r="C107" s="120"/>
+      <c r="D107" s="110"/>
+      <c r="E107" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="F107" s="78"/>
-      <c r="G107" s="57"/>
-      <c r="H107" s="57"/>
+      <c r="F107" s="53"/>
+      <c r="G107" s="35"/>
+      <c r="H107" s="35"/>
       <c r="I107" s="7"/>
-      <c r="J107" s="62"/>
-      <c r="K107" s="57"/>
-      <c r="L107" s="57"/>
+      <c r="J107" s="40"/>
+      <c r="K107" s="35"/>
+      <c r="L107" s="35"/>
       <c r="M107" s="7"/>
-      <c r="N107" s="62"/>
-      <c r="O107" s="57"/>
-      <c r="P107" s="57"/>
+      <c r="N107" s="40"/>
+      <c r="O107" s="35"/>
+      <c r="P107" s="35"/>
       <c r="Q107" s="3"/>
-      <c r="R107" s="73">
+      <c r="R107" s="48">
         <v>246</v>
       </c>
       <c r="S107" s="7"/>
@@ -6008,28 +6008,28 @@
       <c r="AE107" s="17"/>
     </row>
     <row r="108" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="44"/>
-      <c r="B108" s="88">
+      <c r="A108" s="25"/>
+      <c r="B108" s="62">
         <v>85</v>
       </c>
-      <c r="C108" s="29"/>
-      <c r="D108" s="25"/>
-      <c r="E108" s="83" t="s">
+      <c r="C108" s="120"/>
+      <c r="D108" s="110"/>
+      <c r="E108" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="F108" s="78"/>
-      <c r="G108" s="57"/>
-      <c r="H108" s="57"/>
+      <c r="F108" s="53"/>
+      <c r="G108" s="35"/>
+      <c r="H108" s="35"/>
       <c r="I108" s="7"/>
-      <c r="J108" s="62"/>
-      <c r="K108" s="57"/>
-      <c r="L108" s="57"/>
+      <c r="J108" s="40"/>
+      <c r="K108" s="35"/>
+      <c r="L108" s="35"/>
       <c r="M108" s="7"/>
-      <c r="N108" s="62"/>
-      <c r="O108" s="57"/>
-      <c r="P108" s="57"/>
+      <c r="N108" s="40"/>
+      <c r="O108" s="35"/>
+      <c r="P108" s="35"/>
       <c r="Q108" s="3"/>
-      <c r="R108" s="73">
+      <c r="R108" s="48">
         <v>247</v>
       </c>
       <c r="S108" s="7"/>
@@ -6047,28 +6047,28 @@
       <c r="AE108" s="17"/>
     </row>
     <row r="109" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="44"/>
-      <c r="B109" s="88">
+      <c r="A109" s="25"/>
+      <c r="B109" s="62">
         <v>86</v>
       </c>
-      <c r="C109" s="29"/>
-      <c r="D109" s="25"/>
-      <c r="E109" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="F109" s="78"/>
-      <c r="G109" s="57"/>
-      <c r="H109" s="57"/>
+      <c r="C109" s="120"/>
+      <c r="D109" s="110"/>
+      <c r="E109" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="F109" s="53"/>
+      <c r="G109" s="35"/>
+      <c r="H109" s="35"/>
       <c r="I109" s="7"/>
-      <c r="J109" s="62"/>
-      <c r="K109" s="57"/>
-      <c r="L109" s="57"/>
+      <c r="J109" s="40"/>
+      <c r="K109" s="35"/>
+      <c r="L109" s="35"/>
       <c r="M109" s="7"/>
-      <c r="N109" s="62"/>
-      <c r="O109" s="57"/>
-      <c r="P109" s="57"/>
+      <c r="N109" s="40"/>
+      <c r="O109" s="35"/>
+      <c r="P109" s="35"/>
       <c r="Q109" s="3"/>
-      <c r="R109" s="73">
+      <c r="R109" s="48">
         <v>248</v>
       </c>
       <c r="S109" s="7"/>
@@ -6086,28 +6086,28 @@
       <c r="AE109" s="17"/>
     </row>
     <row r="110" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="44"/>
-      <c r="B110" s="88">
+      <c r="A110" s="25"/>
+      <c r="B110" s="62">
         <v>87</v>
       </c>
-      <c r="C110" s="29"/>
-      <c r="D110" s="25"/>
-      <c r="E110" s="83" t="s">
-        <v>39</v>
-      </c>
-      <c r="F110" s="78"/>
-      <c r="G110" s="57"/>
-      <c r="H110" s="57"/>
+      <c r="C110" s="120"/>
+      <c r="D110" s="110"/>
+      <c r="E110" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="F110" s="53"/>
+      <c r="G110" s="35"/>
+      <c r="H110" s="35"/>
       <c r="I110" s="7"/>
-      <c r="J110" s="62"/>
-      <c r="K110" s="57"/>
-      <c r="L110" s="57"/>
+      <c r="J110" s="40"/>
+      <c r="K110" s="35"/>
+      <c r="L110" s="35"/>
       <c r="M110" s="7"/>
-      <c r="N110" s="62"/>
-      <c r="O110" s="57"/>
-      <c r="P110" s="57"/>
+      <c r="N110" s="40"/>
+      <c r="O110" s="35"/>
+      <c r="P110" s="35"/>
       <c r="Q110" s="3"/>
-      <c r="R110" s="73">
+      <c r="R110" s="48">
         <v>249</v>
       </c>
       <c r="S110" s="7"/>
@@ -6125,28 +6125,28 @@
       <c r="AE110" s="17"/>
     </row>
     <row r="111" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="44"/>
-      <c r="B111" s="88">
+      <c r="A111" s="25"/>
+      <c r="B111" s="62">
         <v>88</v>
       </c>
-      <c r="C111" s="29"/>
-      <c r="D111" s="25"/>
-      <c r="E111" s="83" t="s">
-        <v>40</v>
-      </c>
-      <c r="F111" s="78"/>
-      <c r="G111" s="57"/>
-      <c r="H111" s="57"/>
+      <c r="C111" s="120"/>
+      <c r="D111" s="110"/>
+      <c r="E111" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="F111" s="53"/>
+      <c r="G111" s="35"/>
+      <c r="H111" s="35"/>
       <c r="I111" s="7"/>
-      <c r="J111" s="62"/>
-      <c r="K111" s="57"/>
-      <c r="L111" s="57"/>
+      <c r="J111" s="40"/>
+      <c r="K111" s="35"/>
+      <c r="L111" s="35"/>
       <c r="M111" s="7"/>
-      <c r="N111" s="62"/>
-      <c r="O111" s="57"/>
-      <c r="P111" s="57"/>
+      <c r="N111" s="40"/>
+      <c r="O111" s="35"/>
+      <c r="P111" s="35"/>
       <c r="Q111" s="3"/>
-      <c r="R111" s="73">
+      <c r="R111" s="48">
         <v>250</v>
       </c>
       <c r="S111" s="7"/>
@@ -6164,28 +6164,28 @@
       <c r="AE111" s="17"/>
     </row>
     <row r="112" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="44"/>
-      <c r="B112" s="88">
+      <c r="A112" s="25"/>
+      <c r="B112" s="62">
         <v>89</v>
       </c>
-      <c r="C112" s="29"/>
-      <c r="D112" s="25"/>
-      <c r="E112" s="83" t="s">
-        <v>41</v>
-      </c>
-      <c r="F112" s="78"/>
-      <c r="G112" s="57"/>
-      <c r="H112" s="57"/>
+      <c r="C112" s="120"/>
+      <c r="D112" s="110"/>
+      <c r="E112" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="F112" s="53"/>
+      <c r="G112" s="35"/>
+      <c r="H112" s="35"/>
       <c r="I112" s="7"/>
-      <c r="J112" s="62"/>
-      <c r="K112" s="57"/>
-      <c r="L112" s="57"/>
+      <c r="J112" s="40"/>
+      <c r="K112" s="35"/>
+      <c r="L112" s="35"/>
       <c r="M112" s="7"/>
-      <c r="N112" s="62"/>
-      <c r="O112" s="57"/>
-      <c r="P112" s="57"/>
+      <c r="N112" s="40"/>
+      <c r="O112" s="35"/>
+      <c r="P112" s="35"/>
       <c r="Q112" s="3"/>
-      <c r="R112" s="73">
+      <c r="R112" s="48">
         <v>251</v>
       </c>
       <c r="S112" s="7"/>
@@ -6203,28 +6203,28 @@
       <c r="AE112" s="17"/>
     </row>
     <row r="113" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="44"/>
-      <c r="B113" s="88">
+      <c r="A113" s="25"/>
+      <c r="B113" s="62">
         <v>90</v>
       </c>
-      <c r="C113" s="29"/>
-      <c r="D113" s="25"/>
-      <c r="E113" s="83" t="s">
-        <v>42</v>
-      </c>
-      <c r="F113" s="78"/>
-      <c r="G113" s="57"/>
-      <c r="H113" s="57"/>
+      <c r="C113" s="120"/>
+      <c r="D113" s="110"/>
+      <c r="E113" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="F113" s="53"/>
+      <c r="G113" s="35"/>
+      <c r="H113" s="35"/>
       <c r="I113" s="7"/>
-      <c r="J113" s="62"/>
-      <c r="K113" s="57"/>
-      <c r="L113" s="57"/>
+      <c r="J113" s="40"/>
+      <c r="K113" s="35"/>
+      <c r="L113" s="35"/>
       <c r="M113" s="7"/>
-      <c r="N113" s="62"/>
-      <c r="O113" s="57"/>
-      <c r="P113" s="57"/>
+      <c r="N113" s="40"/>
+      <c r="O113" s="35"/>
+      <c r="P113" s="35"/>
       <c r="Q113" s="3"/>
-      <c r="R113" s="73">
+      <c r="R113" s="48">
         <v>252</v>
       </c>
       <c r="S113" s="7"/>
@@ -6242,28 +6242,28 @@
       <c r="AE113" s="17"/>
     </row>
     <row r="114" spans="1:31" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="44"/>
-      <c r="B114" s="88">
+      <c r="A114" s="25"/>
+      <c r="B114" s="62">
         <v>91</v>
       </c>
-      <c r="C114" s="29"/>
-      <c r="D114" s="26"/>
-      <c r="E114" s="84" t="s">
-        <v>43</v>
-      </c>
-      <c r="F114" s="79"/>
-      <c r="G114" s="58"/>
-      <c r="H114" s="58"/>
+      <c r="C114" s="120"/>
+      <c r="D114" s="111"/>
+      <c r="E114" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="F114" s="54"/>
+      <c r="G114" s="36"/>
+      <c r="H114" s="36"/>
       <c r="I114" s="10"/>
-      <c r="J114" s="63"/>
-      <c r="K114" s="58"/>
-      <c r="L114" s="58"/>
+      <c r="J114" s="41"/>
+      <c r="K114" s="36"/>
+      <c r="L114" s="36"/>
       <c r="M114" s="10"/>
-      <c r="N114" s="63"/>
-      <c r="O114" s="58"/>
-      <c r="P114" s="58"/>
+      <c r="N114" s="41"/>
+      <c r="O114" s="36"/>
+      <c r="P114" s="36"/>
       <c r="Q114" s="4"/>
-      <c r="R114" s="73">
+      <c r="R114" s="48">
         <v>253</v>
       </c>
       <c r="S114" s="10"/>
@@ -6281,30 +6281,30 @@
       <c r="AE114" s="17"/>
     </row>
     <row r="115" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="44"/>
-      <c r="B115" s="88">
+      <c r="A115" s="25"/>
+      <c r="B115" s="62">
         <v>92</v>
       </c>
-      <c r="C115" s="29"/>
-      <c r="D115" s="24" t="s">
+      <c r="C115" s="120"/>
+      <c r="D115" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="E115" s="83" t="s">
+      <c r="E115" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="F115" s="78"/>
-      <c r="G115" s="57"/>
-      <c r="H115" s="57"/>
+      <c r="F115" s="53"/>
+      <c r="G115" s="35"/>
+      <c r="H115" s="35"/>
       <c r="I115" s="7"/>
-      <c r="J115" s="62"/>
-      <c r="K115" s="57"/>
-      <c r="L115" s="57"/>
+      <c r="J115" s="40"/>
+      <c r="K115" s="35"/>
+      <c r="L115" s="35"/>
       <c r="M115" s="7"/>
-      <c r="N115" s="62"/>
-      <c r="O115" s="57"/>
-      <c r="P115" s="57"/>
+      <c r="N115" s="40"/>
+      <c r="O115" s="35"/>
+      <c r="P115" s="35"/>
       <c r="Q115" s="3"/>
-      <c r="R115" s="75">
+      <c r="R115" s="50">
         <v>254</v>
       </c>
       <c r="S115" s="7"/>
@@ -6322,28 +6322,28 @@
       <c r="AE115" s="17"/>
     </row>
     <row r="116" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="44"/>
-      <c r="B116" s="88">
+      <c r="A116" s="25"/>
+      <c r="B116" s="62">
         <v>93</v>
       </c>
-      <c r="C116" s="29"/>
-      <c r="D116" s="25"/>
-      <c r="E116" s="83" t="s">
+      <c r="C116" s="120"/>
+      <c r="D116" s="110"/>
+      <c r="E116" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="F116" s="78"/>
-      <c r="G116" s="57"/>
-      <c r="H116" s="57"/>
+      <c r="F116" s="53"/>
+      <c r="G116" s="35"/>
+      <c r="H116" s="35"/>
       <c r="I116" s="7"/>
-      <c r="J116" s="62"/>
-      <c r="K116" s="57"/>
-      <c r="L116" s="57"/>
+      <c r="J116" s="40"/>
+      <c r="K116" s="35"/>
+      <c r="L116" s="35"/>
       <c r="M116" s="7"/>
-      <c r="N116" s="62"/>
-      <c r="O116" s="57"/>
-      <c r="P116" s="57"/>
+      <c r="N116" s="40"/>
+      <c r="O116" s="35"/>
+      <c r="P116" s="35"/>
       <c r="Q116" s="3"/>
-      <c r="R116" s="73">
+      <c r="R116" s="48">
         <v>255</v>
       </c>
       <c r="S116" s="7"/>
@@ -6361,28 +6361,28 @@
       <c r="AE116" s="17"/>
     </row>
     <row r="117" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="44"/>
-      <c r="B117" s="88">
+      <c r="A117" s="25"/>
+      <c r="B117" s="62">
         <v>94</v>
       </c>
-      <c r="C117" s="29"/>
-      <c r="D117" s="25"/>
-      <c r="E117" s="83" t="s">
+      <c r="C117" s="120"/>
+      <c r="D117" s="110"/>
+      <c r="E117" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="F117" s="78"/>
-      <c r="G117" s="57"/>
-      <c r="H117" s="57"/>
+      <c r="F117" s="53"/>
+      <c r="G117" s="35"/>
+      <c r="H117" s="35"/>
       <c r="I117" s="7"/>
-      <c r="J117" s="62"/>
-      <c r="K117" s="57"/>
-      <c r="L117" s="57"/>
+      <c r="J117" s="40"/>
+      <c r="K117" s="35"/>
+      <c r="L117" s="35"/>
       <c r="M117" s="7"/>
-      <c r="N117" s="62"/>
-      <c r="O117" s="57"/>
-      <c r="P117" s="57"/>
+      <c r="N117" s="40"/>
+      <c r="O117" s="35"/>
+      <c r="P117" s="35"/>
       <c r="Q117" s="3"/>
-      <c r="R117" s="73">
+      <c r="R117" s="48">
         <v>256</v>
       </c>
       <c r="S117" s="7"/>
@@ -6400,28 +6400,28 @@
       <c r="AE117" s="17"/>
     </row>
     <row r="118" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="44"/>
-      <c r="B118" s="88">
+      <c r="A118" s="25"/>
+      <c r="B118" s="62">
         <v>95</v>
       </c>
-      <c r="C118" s="29"/>
-      <c r="D118" s="25"/>
-      <c r="E118" s="83" t="s">
+      <c r="C118" s="120"/>
+      <c r="D118" s="110"/>
+      <c r="E118" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="F118" s="78"/>
-      <c r="G118" s="57"/>
-      <c r="H118" s="57"/>
+      <c r="F118" s="53"/>
+      <c r="G118" s="35"/>
+      <c r="H118" s="35"/>
       <c r="I118" s="7"/>
-      <c r="J118" s="62"/>
-      <c r="K118" s="57"/>
-      <c r="L118" s="57"/>
+      <c r="J118" s="40"/>
+      <c r="K118" s="35"/>
+      <c r="L118" s="35"/>
       <c r="M118" s="7"/>
-      <c r="N118" s="62"/>
-      <c r="O118" s="57"/>
-      <c r="P118" s="57"/>
+      <c r="N118" s="40"/>
+      <c r="O118" s="35"/>
+      <c r="P118" s="35"/>
       <c r="Q118" s="3"/>
-      <c r="R118" s="73">
+      <c r="R118" s="48">
         <v>257</v>
       </c>
       <c r="S118" s="7"/>
@@ -6439,28 +6439,28 @@
       <c r="AE118" s="17"/>
     </row>
     <row r="119" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="44"/>
-      <c r="B119" s="88">
+      <c r="A119" s="25"/>
+      <c r="B119" s="62">
         <v>96</v>
       </c>
-      <c r="C119" s="29"/>
-      <c r="D119" s="25"/>
-      <c r="E119" s="83" t="s">
+      <c r="C119" s="120"/>
+      <c r="D119" s="110"/>
+      <c r="E119" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="F119" s="78"/>
-      <c r="G119" s="57"/>
-      <c r="H119" s="57"/>
+      <c r="F119" s="53"/>
+      <c r="G119" s="35"/>
+      <c r="H119" s="35"/>
       <c r="I119" s="7"/>
-      <c r="J119" s="62"/>
-      <c r="K119" s="57"/>
-      <c r="L119" s="57"/>
+      <c r="J119" s="40"/>
+      <c r="K119" s="35"/>
+      <c r="L119" s="35"/>
       <c r="M119" s="7"/>
-      <c r="N119" s="62"/>
-      <c r="O119" s="57"/>
-      <c r="P119" s="57"/>
+      <c r="N119" s="40"/>
+      <c r="O119" s="35"/>
+      <c r="P119" s="35"/>
       <c r="Q119" s="3"/>
-      <c r="R119" s="73">
+      <c r="R119" s="48">
         <v>258</v>
       </c>
       <c r="S119" s="7"/>
@@ -6478,28 +6478,28 @@
       <c r="AE119" s="17"/>
     </row>
     <row r="120" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="44"/>
-      <c r="B120" s="88">
+      <c r="A120" s="25"/>
+      <c r="B120" s="62">
         <v>97</v>
       </c>
-      <c r="C120" s="29"/>
-      <c r="D120" s="25"/>
-      <c r="E120" s="83" t="s">
+      <c r="C120" s="120"/>
+      <c r="D120" s="110"/>
+      <c r="E120" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="F120" s="78"/>
-      <c r="G120" s="57"/>
-      <c r="H120" s="57"/>
+      <c r="F120" s="53"/>
+      <c r="G120" s="35"/>
+      <c r="H120" s="35"/>
       <c r="I120" s="7"/>
-      <c r="J120" s="62"/>
-      <c r="K120" s="57"/>
-      <c r="L120" s="57"/>
+      <c r="J120" s="40"/>
+      <c r="K120" s="35"/>
+      <c r="L120" s="35"/>
       <c r="M120" s="7"/>
-      <c r="N120" s="62"/>
-      <c r="O120" s="57"/>
-      <c r="P120" s="57"/>
+      <c r="N120" s="40"/>
+      <c r="O120" s="35"/>
+      <c r="P120" s="35"/>
       <c r="Q120" s="3"/>
-      <c r="R120" s="73">
+      <c r="R120" s="48">
         <v>259</v>
       </c>
       <c r="S120" s="7"/>
@@ -6517,28 +6517,28 @@
       <c r="AE120" s="17"/>
     </row>
     <row r="121" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="44"/>
-      <c r="B121" s="88">
+      <c r="A121" s="25"/>
+      <c r="B121" s="62">
         <v>98</v>
       </c>
-      <c r="C121" s="29"/>
-      <c r="D121" s="25"/>
-      <c r="E121" s="83" t="s">
+      <c r="C121" s="120"/>
+      <c r="D121" s="110"/>
+      <c r="E121" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="F121" s="78"/>
-      <c r="G121" s="57"/>
-      <c r="H121" s="57"/>
+      <c r="F121" s="53"/>
+      <c r="G121" s="35"/>
+      <c r="H121" s="35"/>
       <c r="I121" s="7"/>
-      <c r="J121" s="62"/>
-      <c r="K121" s="57"/>
-      <c r="L121" s="57"/>
+      <c r="J121" s="40"/>
+      <c r="K121" s="35"/>
+      <c r="L121" s="35"/>
       <c r="M121" s="7"/>
-      <c r="N121" s="62"/>
-      <c r="O121" s="57"/>
-      <c r="P121" s="57"/>
+      <c r="N121" s="40"/>
+      <c r="O121" s="35"/>
+      <c r="P121" s="35"/>
       <c r="Q121" s="3"/>
-      <c r="R121" s="73">
+      <c r="R121" s="48">
         <v>260</v>
       </c>
       <c r="S121" s="7"/>
@@ -6556,28 +6556,28 @@
       <c r="AE121" s="17"/>
     </row>
     <row r="122" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="44"/>
-      <c r="B122" s="88">
+      <c r="A122" s="25"/>
+      <c r="B122" s="62">
         <v>99</v>
       </c>
-      <c r="C122" s="29"/>
-      <c r="D122" s="25"/>
-      <c r="E122" s="83" t="s">
+      <c r="C122" s="120"/>
+      <c r="D122" s="110"/>
+      <c r="E122" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="F122" s="78"/>
-      <c r="G122" s="57"/>
-      <c r="H122" s="57"/>
+      <c r="F122" s="53"/>
+      <c r="G122" s="35"/>
+      <c r="H122" s="35"/>
       <c r="I122" s="7"/>
-      <c r="J122" s="62"/>
-      <c r="K122" s="57"/>
-      <c r="L122" s="57"/>
+      <c r="J122" s="40"/>
+      <c r="K122" s="35"/>
+      <c r="L122" s="35"/>
       <c r="M122" s="7"/>
-      <c r="N122" s="62"/>
-      <c r="O122" s="57"/>
-      <c r="P122" s="57"/>
+      <c r="N122" s="40"/>
+      <c r="O122" s="35"/>
+      <c r="P122" s="35"/>
       <c r="Q122" s="3"/>
-      <c r="R122" s="73">
+      <c r="R122" s="48">
         <v>261</v>
       </c>
       <c r="S122" s="7"/>
@@ -6595,28 +6595,28 @@
       <c r="AE122" s="17"/>
     </row>
     <row r="123" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="44"/>
-      <c r="B123" s="88">
+      <c r="A123" s="25"/>
+      <c r="B123" s="62">
         <v>100</v>
       </c>
-      <c r="C123" s="29"/>
-      <c r="D123" s="25"/>
-      <c r="E123" s="83" t="s">
+      <c r="C123" s="120"/>
+      <c r="D123" s="110"/>
+      <c r="E123" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="F123" s="78"/>
-      <c r="G123" s="57"/>
-      <c r="H123" s="57"/>
+      <c r="F123" s="53"/>
+      <c r="G123" s="35"/>
+      <c r="H123" s="35"/>
       <c r="I123" s="7"/>
-      <c r="J123" s="62"/>
-      <c r="K123" s="57"/>
-      <c r="L123" s="57"/>
+      <c r="J123" s="40"/>
+      <c r="K123" s="35"/>
+      <c r="L123" s="35"/>
       <c r="M123" s="7"/>
-      <c r="N123" s="62"/>
-      <c r="O123" s="57"/>
-      <c r="P123" s="57"/>
+      <c r="N123" s="40"/>
+      <c r="O123" s="35"/>
+      <c r="P123" s="35"/>
       <c r="Q123" s="3"/>
-      <c r="R123" s="73">
+      <c r="R123" s="48">
         <v>262</v>
       </c>
       <c r="S123" s="7"/>
@@ -6634,28 +6634,28 @@
       <c r="AE123" s="17"/>
     </row>
     <row r="124" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="44"/>
-      <c r="B124" s="88">
+      <c r="A124" s="25"/>
+      <c r="B124" s="62">
         <v>101</v>
       </c>
-      <c r="C124" s="29"/>
-      <c r="D124" s="25"/>
-      <c r="E124" s="83" t="s">
+      <c r="C124" s="120"/>
+      <c r="D124" s="110"/>
+      <c r="E124" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="F124" s="78"/>
-      <c r="G124" s="57"/>
-      <c r="H124" s="57"/>
+      <c r="F124" s="53"/>
+      <c r="G124" s="35"/>
+      <c r="H124" s="35"/>
       <c r="I124" s="7"/>
-      <c r="J124" s="62"/>
-      <c r="K124" s="57"/>
-      <c r="L124" s="57"/>
+      <c r="J124" s="40"/>
+      <c r="K124" s="35"/>
+      <c r="L124" s="35"/>
       <c r="M124" s="7"/>
-      <c r="N124" s="62"/>
-      <c r="O124" s="57"/>
-      <c r="P124" s="57"/>
+      <c r="N124" s="40"/>
+      <c r="O124" s="35"/>
+      <c r="P124" s="35"/>
       <c r="Q124" s="3"/>
-      <c r="R124" s="73">
+      <c r="R124" s="48">
         <v>263</v>
       </c>
       <c r="S124" s="7"/>
@@ -6673,28 +6673,28 @@
       <c r="AE124" s="17"/>
     </row>
     <row r="125" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="44"/>
-      <c r="B125" s="88">
+      <c r="A125" s="25"/>
+      <c r="B125" s="62">
         <v>102</v>
       </c>
-      <c r="C125" s="29"/>
-      <c r="D125" s="25"/>
-      <c r="E125" s="83" t="s">
+      <c r="C125" s="120"/>
+      <c r="D125" s="110"/>
+      <c r="E125" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="F125" s="78"/>
-      <c r="G125" s="57"/>
-      <c r="H125" s="57"/>
+      <c r="F125" s="53"/>
+      <c r="G125" s="35"/>
+      <c r="H125" s="35"/>
       <c r="I125" s="7"/>
-      <c r="J125" s="62"/>
-      <c r="K125" s="57"/>
-      <c r="L125" s="57"/>
+      <c r="J125" s="40"/>
+      <c r="K125" s="35"/>
+      <c r="L125" s="35"/>
       <c r="M125" s="7"/>
-      <c r="N125" s="62"/>
-      <c r="O125" s="57"/>
-      <c r="P125" s="57"/>
+      <c r="N125" s="40"/>
+      <c r="O125" s="35"/>
+      <c r="P125" s="35"/>
       <c r="Q125" s="3"/>
-      <c r="R125" s="73">
+      <c r="R125" s="48">
         <v>264</v>
       </c>
       <c r="S125" s="7"/>
@@ -6712,28 +6712,28 @@
       <c r="AE125" s="17"/>
     </row>
     <row r="126" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="44"/>
-      <c r="B126" s="88">
+      <c r="A126" s="25"/>
+      <c r="B126" s="62">
         <v>103</v>
       </c>
-      <c r="C126" s="29"/>
-      <c r="D126" s="25"/>
-      <c r="E126" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="F126" s="78"/>
-      <c r="G126" s="57"/>
-      <c r="H126" s="57"/>
+      <c r="C126" s="120"/>
+      <c r="D126" s="110"/>
+      <c r="E126" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="F126" s="53"/>
+      <c r="G126" s="35"/>
+      <c r="H126" s="35"/>
       <c r="I126" s="7"/>
-      <c r="J126" s="62"/>
-      <c r="K126" s="57"/>
-      <c r="L126" s="57"/>
+      <c r="J126" s="40"/>
+      <c r="K126" s="35"/>
+      <c r="L126" s="35"/>
       <c r="M126" s="7"/>
-      <c r="N126" s="62"/>
-      <c r="O126" s="57"/>
-      <c r="P126" s="57"/>
+      <c r="N126" s="40"/>
+      <c r="O126" s="35"/>
+      <c r="P126" s="35"/>
       <c r="Q126" s="3"/>
-      <c r="R126" s="73">
+      <c r="R126" s="48">
         <v>265</v>
       </c>
       <c r="S126" s="7"/>
@@ -6751,28 +6751,28 @@
       <c r="AE126" s="17"/>
     </row>
     <row r="127" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="44"/>
-      <c r="B127" s="88">
+      <c r="A127" s="25"/>
+      <c r="B127" s="62">
         <v>104</v>
       </c>
-      <c r="C127" s="29"/>
-      <c r="D127" s="25"/>
-      <c r="E127" s="83" t="s">
-        <v>39</v>
-      </c>
-      <c r="F127" s="78"/>
-      <c r="G127" s="57"/>
-      <c r="H127" s="57"/>
+      <c r="C127" s="120"/>
+      <c r="D127" s="110"/>
+      <c r="E127" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="F127" s="53"/>
+      <c r="G127" s="35"/>
+      <c r="H127" s="35"/>
       <c r="I127" s="7"/>
-      <c r="J127" s="62"/>
-      <c r="K127" s="57"/>
-      <c r="L127" s="57"/>
+      <c r="J127" s="40"/>
+      <c r="K127" s="35"/>
+      <c r="L127" s="35"/>
       <c r="M127" s="7"/>
-      <c r="N127" s="62"/>
-      <c r="O127" s="57"/>
-      <c r="P127" s="57"/>
+      <c r="N127" s="40"/>
+      <c r="O127" s="35"/>
+      <c r="P127" s="35"/>
       <c r="Q127" s="3"/>
-      <c r="R127" s="73">
+      <c r="R127" s="48">
         <v>266</v>
       </c>
       <c r="S127" s="7"/>
@@ -6790,28 +6790,28 @@
       <c r="AE127" s="17"/>
     </row>
     <row r="128" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="44"/>
-      <c r="B128" s="88">
+      <c r="A128" s="25"/>
+      <c r="B128" s="62">
         <v>105</v>
       </c>
-      <c r="C128" s="29"/>
-      <c r="D128" s="25"/>
-      <c r="E128" s="83" t="s">
-        <v>40</v>
-      </c>
-      <c r="F128" s="78"/>
-      <c r="G128" s="57"/>
-      <c r="H128" s="57"/>
+      <c r="C128" s="120"/>
+      <c r="D128" s="110"/>
+      <c r="E128" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="F128" s="53"/>
+      <c r="G128" s="35"/>
+      <c r="H128" s="35"/>
       <c r="I128" s="7"/>
-      <c r="J128" s="62"/>
-      <c r="K128" s="57"/>
-      <c r="L128" s="57"/>
+      <c r="J128" s="40"/>
+      <c r="K128" s="35"/>
+      <c r="L128" s="35"/>
       <c r="M128" s="7"/>
-      <c r="N128" s="62"/>
-      <c r="O128" s="57"/>
-      <c r="P128" s="57"/>
+      <c r="N128" s="40"/>
+      <c r="O128" s="35"/>
+      <c r="P128" s="35"/>
       <c r="Q128" s="3"/>
-      <c r="R128" s="73">
+      <c r="R128" s="48">
         <v>267</v>
       </c>
       <c r="S128" s="7"/>
@@ -6829,28 +6829,28 @@
       <c r="AE128" s="17"/>
     </row>
     <row r="129" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="44"/>
-      <c r="B129" s="88">
+      <c r="A129" s="25"/>
+      <c r="B129" s="62">
         <v>106</v>
       </c>
-      <c r="C129" s="29"/>
-      <c r="D129" s="25"/>
-      <c r="E129" s="83" t="s">
-        <v>41</v>
-      </c>
-      <c r="F129" s="78"/>
-      <c r="G129" s="57"/>
-      <c r="H129" s="57"/>
+      <c r="C129" s="120"/>
+      <c r="D129" s="110"/>
+      <c r="E129" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="F129" s="53"/>
+      <c r="G129" s="35"/>
+      <c r="H129" s="35"/>
       <c r="I129" s="7"/>
-      <c r="J129" s="62"/>
-      <c r="K129" s="57"/>
-      <c r="L129" s="57"/>
+      <c r="J129" s="40"/>
+      <c r="K129" s="35"/>
+      <c r="L129" s="35"/>
       <c r="M129" s="7"/>
-      <c r="N129" s="62"/>
-      <c r="O129" s="57"/>
-      <c r="P129" s="57"/>
+      <c r="N129" s="40"/>
+      <c r="O129" s="35"/>
+      <c r="P129" s="35"/>
       <c r="Q129" s="3"/>
-      <c r="R129" s="73">
+      <c r="R129" s="48">
         <v>268</v>
       </c>
       <c r="S129" s="7"/>
@@ -6868,28 +6868,28 @@
       <c r="AE129" s="17"/>
     </row>
     <row r="130" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="44"/>
-      <c r="B130" s="88">
+      <c r="A130" s="25"/>
+      <c r="B130" s="62">
         <v>107</v>
       </c>
-      <c r="C130" s="29"/>
-      <c r="D130" s="25"/>
-      <c r="E130" s="83" t="s">
-        <v>42</v>
-      </c>
-      <c r="F130" s="78"/>
-      <c r="G130" s="57"/>
-      <c r="H130" s="57"/>
+      <c r="C130" s="120"/>
+      <c r="D130" s="110"/>
+      <c r="E130" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="F130" s="53"/>
+      <c r="G130" s="35"/>
+      <c r="H130" s="35"/>
       <c r="I130" s="7"/>
-      <c r="J130" s="62"/>
-      <c r="K130" s="57"/>
-      <c r="L130" s="57"/>
+      <c r="J130" s="40"/>
+      <c r="K130" s="35"/>
+      <c r="L130" s="35"/>
       <c r="M130" s="7"/>
-      <c r="N130" s="62"/>
-      <c r="O130" s="57"/>
-      <c r="P130" s="57"/>
+      <c r="N130" s="40"/>
+      <c r="O130" s="35"/>
+      <c r="P130" s="35"/>
       <c r="Q130" s="3"/>
-      <c r="R130" s="73">
+      <c r="R130" s="48">
         <v>269</v>
       </c>
       <c r="S130" s="7"/>
@@ -6907,28 +6907,28 @@
       <c r="AE130" s="17"/>
     </row>
     <row r="131" spans="1:31" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="44"/>
-      <c r="B131" s="88">
+      <c r="A131" s="25"/>
+      <c r="B131" s="62">
         <v>108</v>
       </c>
-      <c r="C131" s="30"/>
-      <c r="D131" s="27"/>
-      <c r="E131" s="86" t="s">
-        <v>43</v>
-      </c>
-      <c r="F131" s="81"/>
-      <c r="G131" s="60"/>
-      <c r="H131" s="60"/>
+      <c r="C131" s="121"/>
+      <c r="D131" s="118"/>
+      <c r="E131" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="F131" s="56"/>
+      <c r="G131" s="38"/>
+      <c r="H131" s="38"/>
       <c r="I131" s="8"/>
-      <c r="J131" s="65"/>
-      <c r="K131" s="60"/>
-      <c r="L131" s="60"/>
+      <c r="J131" s="43"/>
+      <c r="K131" s="38"/>
+      <c r="L131" s="38"/>
       <c r="M131" s="8"/>
-      <c r="N131" s="65"/>
-      <c r="O131" s="60"/>
-      <c r="P131" s="60"/>
+      <c r="N131" s="43"/>
+      <c r="O131" s="38"/>
+      <c r="P131" s="38"/>
       <c r="Q131" s="6"/>
-      <c r="R131" s="73">
+      <c r="R131" s="48">
         <v>270</v>
       </c>
       <c r="S131" s="8"/>
@@ -6946,32 +6946,32 @@
       <c r="AE131" s="17"/>
     </row>
     <row r="132" spans="1:31" ht="24.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="44"/>
-      <c r="B132" s="88">
+      <c r="A132" s="25"/>
+      <c r="B132" s="62">
         <v>109</v>
       </c>
-      <c r="C132" s="29" t="s">
+      <c r="C132" s="120" t="s">
         <v>26</v>
       </c>
-      <c r="D132" s="25" t="s">
+      <c r="D132" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="E132" s="83" t="s">
+      <c r="E132" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="F132" s="78"/>
-      <c r="G132" s="57"/>
-      <c r="H132" s="57"/>
+      <c r="F132" s="53"/>
+      <c r="G132" s="35"/>
+      <c r="H132" s="35"/>
       <c r="I132" s="7"/>
-      <c r="J132" s="62"/>
-      <c r="K132" s="57"/>
-      <c r="L132" s="57"/>
+      <c r="J132" s="40"/>
+      <c r="K132" s="35"/>
+      <c r="L132" s="35"/>
       <c r="M132" s="7"/>
-      <c r="N132" s="62"/>
-      <c r="O132" s="57"/>
-      <c r="P132" s="57"/>
+      <c r="N132" s="40"/>
+      <c r="O132" s="35"/>
+      <c r="P132" s="35"/>
       <c r="Q132" s="3"/>
-      <c r="R132" s="72">
+      <c r="R132" s="47">
         <v>271</v>
       </c>
       <c r="S132" s="7"/>
@@ -6989,28 +6989,28 @@
       <c r="AE132" s="17"/>
     </row>
     <row r="133" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="44"/>
-      <c r="B133" s="88">
+      <c r="A133" s="25"/>
+      <c r="B133" s="62">
         <v>110</v>
       </c>
-      <c r="C133" s="29"/>
-      <c r="D133" s="25"/>
-      <c r="E133" s="83" t="s">
+      <c r="C133" s="120"/>
+      <c r="D133" s="110"/>
+      <c r="E133" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="F133" s="78"/>
-      <c r="G133" s="57"/>
-      <c r="H133" s="57"/>
+      <c r="F133" s="53"/>
+      <c r="G133" s="35"/>
+      <c r="H133" s="35"/>
       <c r="I133" s="7"/>
-      <c r="J133" s="62"/>
-      <c r="K133" s="57"/>
-      <c r="L133" s="57"/>
+      <c r="J133" s="40"/>
+      <c r="K133" s="35"/>
+      <c r="L133" s="35"/>
       <c r="M133" s="7"/>
-      <c r="N133" s="62"/>
-      <c r="O133" s="57"/>
-      <c r="P133" s="57"/>
+      <c r="N133" s="40"/>
+      <c r="O133" s="35"/>
+      <c r="P133" s="35"/>
       <c r="Q133" s="3"/>
-      <c r="R133" s="73">
+      <c r="R133" s="48">
         <v>272</v>
       </c>
       <c r="S133" s="7"/>
@@ -7028,28 +7028,28 @@
       <c r="AE133" s="17"/>
     </row>
     <row r="134" spans="1:31" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="44"/>
-      <c r="B134" s="88">
+      <c r="A134" s="25"/>
+      <c r="B134" s="62">
         <v>111</v>
       </c>
-      <c r="C134" s="29"/>
-      <c r="D134" s="26"/>
-      <c r="E134" s="83" t="s">
+      <c r="C134" s="120"/>
+      <c r="D134" s="111"/>
+      <c r="E134" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="F134" s="78"/>
-      <c r="G134" s="57"/>
-      <c r="H134" s="57"/>
+      <c r="F134" s="53"/>
+      <c r="G134" s="35"/>
+      <c r="H134" s="35"/>
       <c r="I134" s="7"/>
-      <c r="J134" s="62"/>
-      <c r="K134" s="57"/>
-      <c r="L134" s="57"/>
+      <c r="J134" s="40"/>
+      <c r="K134" s="35"/>
+      <c r="L134" s="35"/>
       <c r="M134" s="7"/>
-      <c r="N134" s="62"/>
-      <c r="O134" s="57"/>
-      <c r="P134" s="57"/>
+      <c r="N134" s="40"/>
+      <c r="O134" s="35"/>
+      <c r="P134" s="35"/>
       <c r="Q134" s="3"/>
-      <c r="R134" s="73">
+      <c r="R134" s="48">
         <v>273</v>
       </c>
       <c r="S134" s="7"/>
@@ -7067,30 +7067,30 @@
       <c r="AE134" s="17"/>
     </row>
     <row r="135" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="44"/>
-      <c r="B135" s="88">
+      <c r="A135" s="25"/>
+      <c r="B135" s="62">
         <v>112</v>
       </c>
-      <c r="C135" s="29"/>
-      <c r="D135" s="24" t="s">
+      <c r="C135" s="120"/>
+      <c r="D135" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="E135" s="85" t="s">
+      <c r="E135" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="F135" s="80"/>
-      <c r="G135" s="59"/>
-      <c r="H135" s="59"/>
+      <c r="F135" s="55"/>
+      <c r="G135" s="37"/>
+      <c r="H135" s="37"/>
       <c r="I135" s="9"/>
-      <c r="J135" s="64"/>
-      <c r="K135" s="59"/>
-      <c r="L135" s="59"/>
+      <c r="J135" s="42"/>
+      <c r="K135" s="37"/>
+      <c r="L135" s="37"/>
       <c r="M135" s="9"/>
-      <c r="N135" s="64"/>
-      <c r="O135" s="59"/>
-      <c r="P135" s="59"/>
+      <c r="N135" s="42"/>
+      <c r="O135" s="37"/>
+      <c r="P135" s="37"/>
       <c r="Q135" s="5"/>
-      <c r="R135" s="75">
+      <c r="R135" s="50">
         <v>274</v>
       </c>
       <c r="S135" s="9"/>
@@ -7108,28 +7108,28 @@
       <c r="AE135" s="17"/>
     </row>
     <row r="136" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="44"/>
-      <c r="B136" s="88">
+      <c r="A136" s="25"/>
+      <c r="B136" s="62">
         <v>113</v>
       </c>
-      <c r="C136" s="29"/>
-      <c r="D136" s="25"/>
-      <c r="E136" s="83" t="s">
+      <c r="C136" s="120"/>
+      <c r="D136" s="110"/>
+      <c r="E136" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="F136" s="78"/>
-      <c r="G136" s="57"/>
-      <c r="H136" s="57"/>
+      <c r="F136" s="53"/>
+      <c r="G136" s="35"/>
+      <c r="H136" s="35"/>
       <c r="I136" s="7"/>
-      <c r="J136" s="62"/>
-      <c r="K136" s="57"/>
-      <c r="L136" s="57"/>
+      <c r="J136" s="40"/>
+      <c r="K136" s="35"/>
+      <c r="L136" s="35"/>
       <c r="M136" s="7"/>
-      <c r="N136" s="62"/>
-      <c r="O136" s="57"/>
-      <c r="P136" s="57"/>
+      <c r="N136" s="40"/>
+      <c r="O136" s="35"/>
+      <c r="P136" s="35"/>
       <c r="Q136" s="3"/>
-      <c r="R136" s="73">
+      <c r="R136" s="48">
         <v>275</v>
       </c>
       <c r="S136" s="7"/>
@@ -7147,28 +7147,28 @@
       <c r="AE136" s="17"/>
     </row>
     <row r="137" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="44"/>
-      <c r="B137" s="88">
+      <c r="A137" s="25"/>
+      <c r="B137" s="62">
         <v>114</v>
       </c>
-      <c r="C137" s="29"/>
-      <c r="D137" s="25"/>
-      <c r="E137" s="83" t="s">
+      <c r="C137" s="120"/>
+      <c r="D137" s="110"/>
+      <c r="E137" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="F137" s="78"/>
-      <c r="G137" s="57"/>
-      <c r="H137" s="57"/>
+      <c r="F137" s="53"/>
+      <c r="G137" s="35"/>
+      <c r="H137" s="35"/>
       <c r="I137" s="7"/>
-      <c r="J137" s="62"/>
-      <c r="K137" s="57"/>
-      <c r="L137" s="57"/>
+      <c r="J137" s="40"/>
+      <c r="K137" s="35"/>
+      <c r="L137" s="35"/>
       <c r="M137" s="7"/>
-      <c r="N137" s="62"/>
-      <c r="O137" s="57"/>
-      <c r="P137" s="57"/>
+      <c r="N137" s="40"/>
+      <c r="O137" s="35"/>
+      <c r="P137" s="35"/>
       <c r="Q137" s="3"/>
-      <c r="R137" s="73">
+      <c r="R137" s="48">
         <v>276</v>
       </c>
       <c r="S137" s="7"/>
@@ -7186,28 +7186,28 @@
       <c r="AE137" s="17"/>
     </row>
     <row r="138" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="44"/>
-      <c r="B138" s="88">
+      <c r="A138" s="25"/>
+      <c r="B138" s="62">
         <v>115</v>
       </c>
-      <c r="C138" s="29"/>
-      <c r="D138" s="25"/>
-      <c r="E138" s="83" t="s">
+      <c r="C138" s="120"/>
+      <c r="D138" s="110"/>
+      <c r="E138" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="F138" s="78"/>
-      <c r="G138" s="57"/>
-      <c r="H138" s="57"/>
+      <c r="F138" s="53"/>
+      <c r="G138" s="35"/>
+      <c r="H138" s="35"/>
       <c r="I138" s="7"/>
-      <c r="J138" s="62"/>
-      <c r="K138" s="57"/>
-      <c r="L138" s="57"/>
+      <c r="J138" s="40"/>
+      <c r="K138" s="35"/>
+      <c r="L138" s="35"/>
       <c r="M138" s="7"/>
-      <c r="N138" s="62"/>
-      <c r="O138" s="57"/>
-      <c r="P138" s="57"/>
+      <c r="N138" s="40"/>
+      <c r="O138" s="35"/>
+      <c r="P138" s="35"/>
       <c r="Q138" s="3"/>
-      <c r="R138" s="73">
+      <c r="R138" s="48">
         <v>277</v>
       </c>
       <c r="S138" s="7"/>
@@ -7225,28 +7225,28 @@
       <c r="AE138" s="17"/>
     </row>
     <row r="139" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="44"/>
-      <c r="B139" s="88">
+      <c r="A139" s="25"/>
+      <c r="B139" s="62">
         <v>116</v>
       </c>
-      <c r="C139" s="29"/>
-      <c r="D139" s="25"/>
-      <c r="E139" s="83" t="s">
+      <c r="C139" s="120"/>
+      <c r="D139" s="110"/>
+      <c r="E139" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="F139" s="78"/>
-      <c r="G139" s="57"/>
-      <c r="H139" s="57"/>
+      <c r="F139" s="53"/>
+      <c r="G139" s="35"/>
+      <c r="H139" s="35"/>
       <c r="I139" s="7"/>
-      <c r="J139" s="62"/>
-      <c r="K139" s="57"/>
-      <c r="L139" s="57"/>
+      <c r="J139" s="40"/>
+      <c r="K139" s="35"/>
+      <c r="L139" s="35"/>
       <c r="M139" s="7"/>
-      <c r="N139" s="62"/>
-      <c r="O139" s="57"/>
-      <c r="P139" s="57"/>
+      <c r="N139" s="40"/>
+      <c r="O139" s="35"/>
+      <c r="P139" s="35"/>
       <c r="Q139" s="3"/>
-      <c r="R139" s="73">
+      <c r="R139" s="48">
         <v>278</v>
       </c>
       <c r="S139" s="7"/>
@@ -7264,28 +7264,28 @@
       <c r="AE139" s="17"/>
     </row>
     <row r="140" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="44"/>
-      <c r="B140" s="88">
+      <c r="A140" s="25"/>
+      <c r="B140" s="62">
         <v>117</v>
       </c>
-      <c r="C140" s="29"/>
-      <c r="D140" s="25"/>
-      <c r="E140" s="83" t="s">
+      <c r="C140" s="120"/>
+      <c r="D140" s="110"/>
+      <c r="E140" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="F140" s="78"/>
-      <c r="G140" s="57"/>
-      <c r="H140" s="57"/>
+      <c r="F140" s="53"/>
+      <c r="G140" s="35"/>
+      <c r="H140" s="35"/>
       <c r="I140" s="7"/>
-      <c r="J140" s="62"/>
-      <c r="K140" s="57"/>
-      <c r="L140" s="57"/>
+      <c r="J140" s="40"/>
+      <c r="K140" s="35"/>
+      <c r="L140" s="35"/>
       <c r="M140" s="7"/>
-      <c r="N140" s="62"/>
-      <c r="O140" s="57"/>
-      <c r="P140" s="57"/>
+      <c r="N140" s="40"/>
+      <c r="O140" s="35"/>
+      <c r="P140" s="35"/>
       <c r="Q140" s="3"/>
-      <c r="R140" s="73">
+      <c r="R140" s="48">
         <v>279</v>
       </c>
       <c r="S140" s="7"/>
@@ -7303,28 +7303,28 @@
       <c r="AE140" s="17"/>
     </row>
     <row r="141" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="44"/>
-      <c r="B141" s="88">
+      <c r="A141" s="25"/>
+      <c r="B141" s="62">
         <v>118</v>
       </c>
-      <c r="C141" s="29"/>
-      <c r="D141" s="25"/>
-      <c r="E141" s="83" t="s">
+      <c r="C141" s="120"/>
+      <c r="D141" s="110"/>
+      <c r="E141" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="F141" s="78"/>
-      <c r="G141" s="57"/>
-      <c r="H141" s="57"/>
+      <c r="F141" s="53"/>
+      <c r="G141" s="35"/>
+      <c r="H141" s="35"/>
       <c r="I141" s="7"/>
-      <c r="J141" s="62"/>
-      <c r="K141" s="57"/>
-      <c r="L141" s="57"/>
+      <c r="J141" s="40"/>
+      <c r="K141" s="35"/>
+      <c r="L141" s="35"/>
       <c r="M141" s="7"/>
-      <c r="N141" s="62"/>
-      <c r="O141" s="57"/>
-      <c r="P141" s="57"/>
+      <c r="N141" s="40"/>
+      <c r="O141" s="35"/>
+      <c r="P141" s="35"/>
       <c r="Q141" s="3"/>
-      <c r="R141" s="73">
+      <c r="R141" s="48">
         <v>280</v>
       </c>
       <c r="S141" s="7"/>
@@ -7342,28 +7342,28 @@
       <c r="AE141" s="17"/>
     </row>
     <row r="142" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="44"/>
-      <c r="B142" s="88">
+      <c r="A142" s="25"/>
+      <c r="B142" s="62">
         <v>119</v>
       </c>
-      <c r="C142" s="29"/>
-      <c r="D142" s="25"/>
-      <c r="E142" s="83" t="s">
+      <c r="C142" s="120"/>
+      <c r="D142" s="110"/>
+      <c r="E142" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="F142" s="78"/>
-      <c r="G142" s="57"/>
-      <c r="H142" s="57"/>
+      <c r="F142" s="53"/>
+      <c r="G142" s="35"/>
+      <c r="H142" s="35"/>
       <c r="I142" s="7"/>
-      <c r="J142" s="62"/>
-      <c r="K142" s="57"/>
-      <c r="L142" s="57"/>
+      <c r="J142" s="40"/>
+      <c r="K142" s="35"/>
+      <c r="L142" s="35"/>
       <c r="M142" s="7"/>
-      <c r="N142" s="62"/>
-      <c r="O142" s="57"/>
-      <c r="P142" s="57"/>
+      <c r="N142" s="40"/>
+      <c r="O142" s="35"/>
+      <c r="P142" s="35"/>
       <c r="Q142" s="3"/>
-      <c r="R142" s="73">
+      <c r="R142" s="48">
         <v>281</v>
       </c>
       <c r="S142" s="7"/>
@@ -7381,28 +7381,28 @@
       <c r="AE142" s="17"/>
     </row>
     <row r="143" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="44"/>
-      <c r="B143" s="88">
+      <c r="A143" s="25"/>
+      <c r="B143" s="62">
         <v>120</v>
       </c>
-      <c r="C143" s="29"/>
-      <c r="D143" s="25"/>
-      <c r="E143" s="83" t="s">
+      <c r="C143" s="120"/>
+      <c r="D143" s="110"/>
+      <c r="E143" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="F143" s="78"/>
-      <c r="G143" s="57"/>
-      <c r="H143" s="57"/>
+      <c r="F143" s="53"/>
+      <c r="G143" s="35"/>
+      <c r="H143" s="35"/>
       <c r="I143" s="7"/>
-      <c r="J143" s="62"/>
-      <c r="K143" s="57"/>
-      <c r="L143" s="57"/>
+      <c r="J143" s="40"/>
+      <c r="K143" s="35"/>
+      <c r="L143" s="35"/>
       <c r="M143" s="7"/>
-      <c r="N143" s="62"/>
-      <c r="O143" s="57"/>
-      <c r="P143" s="57"/>
+      <c r="N143" s="40"/>
+      <c r="O143" s="35"/>
+      <c r="P143" s="35"/>
       <c r="Q143" s="3"/>
-      <c r="R143" s="73">
+      <c r="R143" s="48">
         <v>282</v>
       </c>
       <c r="S143" s="7"/>
@@ -7420,28 +7420,28 @@
       <c r="AE143" s="17"/>
     </row>
     <row r="144" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="44"/>
-      <c r="B144" s="88">
+      <c r="A144" s="25"/>
+      <c r="B144" s="62">
         <v>121</v>
       </c>
-      <c r="C144" s="29"/>
-      <c r="D144" s="25"/>
-      <c r="E144" s="83" t="s">
+      <c r="C144" s="120"/>
+      <c r="D144" s="110"/>
+      <c r="E144" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="F144" s="78"/>
-      <c r="G144" s="57"/>
-      <c r="H144" s="57"/>
+      <c r="F144" s="53"/>
+      <c r="G144" s="35"/>
+      <c r="H144" s="35"/>
       <c r="I144" s="7"/>
-      <c r="J144" s="62"/>
-      <c r="K144" s="57"/>
-      <c r="L144" s="57"/>
+      <c r="J144" s="40"/>
+      <c r="K144" s="35"/>
+      <c r="L144" s="35"/>
       <c r="M144" s="7"/>
-      <c r="N144" s="62"/>
-      <c r="O144" s="57"/>
-      <c r="P144" s="57"/>
+      <c r="N144" s="40"/>
+      <c r="O144" s="35"/>
+      <c r="P144" s="35"/>
       <c r="Q144" s="3"/>
-      <c r="R144" s="73">
+      <c r="R144" s="48">
         <v>283</v>
       </c>
       <c r="S144" s="7"/>
@@ -7459,28 +7459,28 @@
       <c r="AE144" s="17"/>
     </row>
     <row r="145" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="44"/>
-      <c r="B145" s="88">
+      <c r="A145" s="25"/>
+      <c r="B145" s="62">
         <v>122</v>
       </c>
-      <c r="C145" s="29"/>
-      <c r="D145" s="25"/>
-      <c r="E145" s="83" t="s">
+      <c r="C145" s="120"/>
+      <c r="D145" s="110"/>
+      <c r="E145" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="F145" s="78"/>
-      <c r="G145" s="57"/>
-      <c r="H145" s="57"/>
+      <c r="F145" s="53"/>
+      <c r="G145" s="35"/>
+      <c r="H145" s="35"/>
       <c r="I145" s="7"/>
-      <c r="J145" s="62"/>
-      <c r="K145" s="57"/>
-      <c r="L145" s="57"/>
+      <c r="J145" s="40"/>
+      <c r="K145" s="35"/>
+      <c r="L145" s="35"/>
       <c r="M145" s="7"/>
-      <c r="N145" s="62"/>
-      <c r="O145" s="57"/>
-      <c r="P145" s="57"/>
+      <c r="N145" s="40"/>
+      <c r="O145" s="35"/>
+      <c r="P145" s="35"/>
       <c r="Q145" s="3"/>
-      <c r="R145" s="73">
+      <c r="R145" s="48">
         <v>284</v>
       </c>
       <c r="S145" s="7"/>
@@ -7498,28 +7498,28 @@
       <c r="AE145" s="17"/>
     </row>
     <row r="146" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="44"/>
-      <c r="B146" s="88">
+      <c r="A146" s="25"/>
+      <c r="B146" s="62">
         <v>123</v>
       </c>
-      <c r="C146" s="29"/>
-      <c r="D146" s="25"/>
-      <c r="E146" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="F146" s="78"/>
-      <c r="G146" s="57"/>
-      <c r="H146" s="57"/>
+      <c r="C146" s="120"/>
+      <c r="D146" s="110"/>
+      <c r="E146" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="F146" s="53"/>
+      <c r="G146" s="35"/>
+      <c r="H146" s="35"/>
       <c r="I146" s="7"/>
-      <c r="J146" s="62"/>
-      <c r="K146" s="57"/>
-      <c r="L146" s="57"/>
+      <c r="J146" s="40"/>
+      <c r="K146" s="35"/>
+      <c r="L146" s="35"/>
       <c r="M146" s="7"/>
-      <c r="N146" s="62"/>
-      <c r="O146" s="57"/>
-      <c r="P146" s="57"/>
+      <c r="N146" s="40"/>
+      <c r="O146" s="35"/>
+      <c r="P146" s="35"/>
       <c r="Q146" s="3"/>
-      <c r="R146" s="73">
+      <c r="R146" s="48">
         <v>285</v>
       </c>
       <c r="S146" s="7"/>
@@ -7537,28 +7537,28 @@
       <c r="AE146" s="17"/>
     </row>
     <row r="147" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="44"/>
-      <c r="B147" s="88">
+      <c r="A147" s="25"/>
+      <c r="B147" s="62">
         <v>124</v>
       </c>
-      <c r="C147" s="29"/>
-      <c r="D147" s="25"/>
-      <c r="E147" s="83" t="s">
-        <v>39</v>
-      </c>
-      <c r="F147" s="78"/>
-      <c r="G147" s="57"/>
-      <c r="H147" s="57"/>
+      <c r="C147" s="120"/>
+      <c r="D147" s="110"/>
+      <c r="E147" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="F147" s="53"/>
+      <c r="G147" s="35"/>
+      <c r="H147" s="35"/>
       <c r="I147" s="7"/>
-      <c r="J147" s="62"/>
-      <c r="K147" s="57"/>
-      <c r="L147" s="57"/>
+      <c r="J147" s="40"/>
+      <c r="K147" s="35"/>
+      <c r="L147" s="35"/>
       <c r="M147" s="7"/>
-      <c r="N147" s="62"/>
-      <c r="O147" s="57"/>
-      <c r="P147" s="57"/>
+      <c r="N147" s="40"/>
+      <c r="O147" s="35"/>
+      <c r="P147" s="35"/>
       <c r="Q147" s="3"/>
-      <c r="R147" s="73">
+      <c r="R147" s="48">
         <v>286</v>
       </c>
       <c r="S147" s="7"/>
@@ -7576,28 +7576,28 @@
       <c r="AE147" s="17"/>
     </row>
     <row r="148" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="44"/>
-      <c r="B148" s="88">
+      <c r="A148" s="25"/>
+      <c r="B148" s="62">
         <v>125</v>
       </c>
-      <c r="C148" s="29"/>
-      <c r="D148" s="25"/>
-      <c r="E148" s="83" t="s">
-        <v>40</v>
-      </c>
-      <c r="F148" s="78"/>
-      <c r="G148" s="57"/>
-      <c r="H148" s="57"/>
+      <c r="C148" s="120"/>
+      <c r="D148" s="110"/>
+      <c r="E148" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="F148" s="53"/>
+      <c r="G148" s="35"/>
+      <c r="H148" s="35"/>
       <c r="I148" s="7"/>
-      <c r="J148" s="62"/>
-      <c r="K148" s="57"/>
-      <c r="L148" s="57"/>
+      <c r="J148" s="40"/>
+      <c r="K148" s="35"/>
+      <c r="L148" s="35"/>
       <c r="M148" s="7"/>
-      <c r="N148" s="62"/>
-      <c r="O148" s="57"/>
-      <c r="P148" s="57"/>
+      <c r="N148" s="40"/>
+      <c r="O148" s="35"/>
+      <c r="P148" s="35"/>
       <c r="Q148" s="3"/>
-      <c r="R148" s="73">
+      <c r="R148" s="48">
         <v>287</v>
       </c>
       <c r="S148" s="7"/>
@@ -7615,28 +7615,28 @@
       <c r="AE148" s="17"/>
     </row>
     <row r="149" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="44"/>
-      <c r="B149" s="88">
+      <c r="A149" s="25"/>
+      <c r="B149" s="62">
         <v>126</v>
       </c>
-      <c r="C149" s="29"/>
-      <c r="D149" s="25"/>
-      <c r="E149" s="83" t="s">
-        <v>41</v>
-      </c>
-      <c r="F149" s="78"/>
-      <c r="G149" s="57"/>
-      <c r="H149" s="57"/>
+      <c r="C149" s="120"/>
+      <c r="D149" s="110"/>
+      <c r="E149" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="F149" s="53"/>
+      <c r="G149" s="35"/>
+      <c r="H149" s="35"/>
       <c r="I149" s="7"/>
-      <c r="J149" s="62"/>
-      <c r="K149" s="57"/>
-      <c r="L149" s="57"/>
+      <c r="J149" s="40"/>
+      <c r="K149" s="35"/>
+      <c r="L149" s="35"/>
       <c r="M149" s="7"/>
-      <c r="N149" s="62"/>
-      <c r="O149" s="57"/>
-      <c r="P149" s="57"/>
+      <c r="N149" s="40"/>
+      <c r="O149" s="35"/>
+      <c r="P149" s="35"/>
       <c r="Q149" s="3"/>
-      <c r="R149" s="73">
+      <c r="R149" s="48">
         <v>288</v>
       </c>
       <c r="S149" s="7"/>
@@ -7654,28 +7654,28 @@
       <c r="AE149" s="17"/>
     </row>
     <row r="150" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="44"/>
-      <c r="B150" s="88">
+      <c r="A150" s="25"/>
+      <c r="B150" s="62">
         <v>127</v>
       </c>
-      <c r="C150" s="29"/>
-      <c r="D150" s="25"/>
-      <c r="E150" s="83" t="s">
-        <v>42</v>
-      </c>
-      <c r="F150" s="78"/>
-      <c r="G150" s="57"/>
-      <c r="H150" s="57"/>
+      <c r="C150" s="120"/>
+      <c r="D150" s="110"/>
+      <c r="E150" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="F150" s="53"/>
+      <c r="G150" s="35"/>
+      <c r="H150" s="35"/>
       <c r="I150" s="7"/>
-      <c r="J150" s="62"/>
-      <c r="K150" s="57"/>
-      <c r="L150" s="57"/>
+      <c r="J150" s="40"/>
+      <c r="K150" s="35"/>
+      <c r="L150" s="35"/>
       <c r="M150" s="7"/>
-      <c r="N150" s="62"/>
-      <c r="O150" s="57"/>
-      <c r="P150" s="57"/>
+      <c r="N150" s="40"/>
+      <c r="O150" s="35"/>
+      <c r="P150" s="35"/>
       <c r="Q150" s="3"/>
-      <c r="R150" s="73">
+      <c r="R150" s="48">
         <v>289</v>
       </c>
       <c r="S150" s="7"/>
@@ -7693,28 +7693,28 @@
       <c r="AE150" s="17"/>
     </row>
     <row r="151" spans="1:31" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="44"/>
-      <c r="B151" s="88">
+      <c r="A151" s="25"/>
+      <c r="B151" s="62">
         <v>128</v>
       </c>
-      <c r="C151" s="29"/>
-      <c r="D151" s="26"/>
-      <c r="E151" s="84" t="s">
-        <v>43</v>
-      </c>
-      <c r="F151" s="79"/>
-      <c r="G151" s="58"/>
-      <c r="H151" s="58"/>
+      <c r="C151" s="120"/>
+      <c r="D151" s="111"/>
+      <c r="E151" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="F151" s="54"/>
+      <c r="G151" s="36"/>
+      <c r="H151" s="36"/>
       <c r="I151" s="10"/>
-      <c r="J151" s="63"/>
-      <c r="K151" s="58"/>
-      <c r="L151" s="58"/>
+      <c r="J151" s="41"/>
+      <c r="K151" s="36"/>
+      <c r="L151" s="36"/>
       <c r="M151" s="10"/>
-      <c r="N151" s="63"/>
-      <c r="O151" s="58"/>
-      <c r="P151" s="58"/>
+      <c r="N151" s="41"/>
+      <c r="O151" s="36"/>
+      <c r="P151" s="36"/>
       <c r="Q151" s="4"/>
-      <c r="R151" s="73">
+      <c r="R151" s="48">
         <v>290</v>
       </c>
       <c r="S151" s="10"/>
@@ -7732,30 +7732,30 @@
       <c r="AE151" s="17"/>
     </row>
     <row r="152" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="44"/>
-      <c r="B152" s="88">
+      <c r="A152" s="25"/>
+      <c r="B152" s="62">
         <v>129</v>
       </c>
-      <c r="C152" s="29"/>
-      <c r="D152" s="24" t="s">
+      <c r="C152" s="120"/>
+      <c r="D152" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="E152" s="83" t="s">
+      <c r="E152" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="F152" s="80"/>
-      <c r="G152" s="59"/>
-      <c r="H152" s="59"/>
+      <c r="F152" s="55"/>
+      <c r="G152" s="37"/>
+      <c r="H152" s="37"/>
       <c r="I152" s="9"/>
-      <c r="J152" s="64"/>
-      <c r="K152" s="59"/>
-      <c r="L152" s="59"/>
+      <c r="J152" s="42"/>
+      <c r="K152" s="37"/>
+      <c r="L152" s="37"/>
       <c r="M152" s="9"/>
-      <c r="N152" s="64"/>
-      <c r="O152" s="59"/>
-      <c r="P152" s="59"/>
+      <c r="N152" s="42"/>
+      <c r="O152" s="37"/>
+      <c r="P152" s="37"/>
       <c r="Q152" s="5"/>
-      <c r="R152" s="75">
+      <c r="R152" s="50">
         <v>291</v>
       </c>
       <c r="S152" s="9"/>
@@ -7773,28 +7773,28 @@
       <c r="AE152" s="17"/>
     </row>
     <row r="153" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="44"/>
-      <c r="B153" s="88">
+      <c r="A153" s="25"/>
+      <c r="B153" s="62">
         <v>130</v>
       </c>
-      <c r="C153" s="29"/>
-      <c r="D153" s="25"/>
-      <c r="E153" s="83" t="s">
+      <c r="C153" s="120"/>
+      <c r="D153" s="110"/>
+      <c r="E153" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="F153" s="78"/>
-      <c r="G153" s="57"/>
-      <c r="H153" s="57"/>
+      <c r="F153" s="53"/>
+      <c r="G153" s="35"/>
+      <c r="H153" s="35"/>
       <c r="I153" s="7"/>
-      <c r="J153" s="62"/>
-      <c r="K153" s="57"/>
-      <c r="L153" s="57"/>
+      <c r="J153" s="40"/>
+      <c r="K153" s="35"/>
+      <c r="L153" s="35"/>
       <c r="M153" s="7"/>
-      <c r="N153" s="62"/>
-      <c r="O153" s="57"/>
-      <c r="P153" s="57"/>
+      <c r="N153" s="40"/>
+      <c r="O153" s="35"/>
+      <c r="P153" s="35"/>
       <c r="Q153" s="3"/>
-      <c r="R153" s="73">
+      <c r="R153" s="48">
         <v>292</v>
       </c>
       <c r="S153" s="7"/>
@@ -7812,28 +7812,28 @@
       <c r="AE153" s="17"/>
     </row>
     <row r="154" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="44"/>
-      <c r="B154" s="88">
+      <c r="A154" s="25"/>
+      <c r="B154" s="62">
         <v>131</v>
       </c>
-      <c r="C154" s="29"/>
-      <c r="D154" s="25"/>
-      <c r="E154" s="83" t="s">
+      <c r="C154" s="120"/>
+      <c r="D154" s="110"/>
+      <c r="E154" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="F154" s="78"/>
-      <c r="G154" s="57"/>
-      <c r="H154" s="57"/>
+      <c r="F154" s="53"/>
+      <c r="G154" s="35"/>
+      <c r="H154" s="35"/>
       <c r="I154" s="7"/>
-      <c r="J154" s="62"/>
-      <c r="K154" s="57"/>
-      <c r="L154" s="57"/>
+      <c r="J154" s="40"/>
+      <c r="K154" s="35"/>
+      <c r="L154" s="35"/>
       <c r="M154" s="7"/>
-      <c r="N154" s="62"/>
-      <c r="O154" s="57"/>
-      <c r="P154" s="57"/>
+      <c r="N154" s="40"/>
+      <c r="O154" s="35"/>
+      <c r="P154" s="35"/>
       <c r="Q154" s="3"/>
-      <c r="R154" s="73">
+      <c r="R154" s="48">
         <v>293</v>
       </c>
       <c r="S154" s="7"/>
@@ -7851,28 +7851,28 @@
       <c r="AE154" s="17"/>
     </row>
     <row r="155" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="44"/>
-      <c r="B155" s="88">
+      <c r="A155" s="25"/>
+      <c r="B155" s="62">
         <v>132</v>
       </c>
-      <c r="C155" s="29"/>
-      <c r="D155" s="25"/>
-      <c r="E155" s="83" t="s">
+      <c r="C155" s="120"/>
+      <c r="D155" s="110"/>
+      <c r="E155" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="F155" s="78"/>
-      <c r="G155" s="57"/>
-      <c r="H155" s="57"/>
+      <c r="F155" s="53"/>
+      <c r="G155" s="35"/>
+      <c r="H155" s="35"/>
       <c r="I155" s="7"/>
-      <c r="J155" s="62"/>
-      <c r="K155" s="57"/>
-      <c r="L155" s="57"/>
+      <c r="J155" s="40"/>
+      <c r="K155" s="35"/>
+      <c r="L155" s="35"/>
       <c r="M155" s="7"/>
-      <c r="N155" s="62"/>
-      <c r="O155" s="57"/>
-      <c r="P155" s="57"/>
+      <c r="N155" s="40"/>
+      <c r="O155" s="35"/>
+      <c r="P155" s="35"/>
       <c r="Q155" s="3"/>
-      <c r="R155" s="73">
+      <c r="R155" s="48">
         <v>294</v>
       </c>
       <c r="S155" s="7"/>
@@ -7890,28 +7890,28 @@
       <c r="AE155" s="17"/>
     </row>
     <row r="156" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="44"/>
-      <c r="B156" s="88">
+      <c r="A156" s="25"/>
+      <c r="B156" s="62">
         <v>133</v>
       </c>
-      <c r="C156" s="29"/>
-      <c r="D156" s="25"/>
-      <c r="E156" s="83" t="s">
+      <c r="C156" s="120"/>
+      <c r="D156" s="110"/>
+      <c r="E156" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="F156" s="78"/>
-      <c r="G156" s="57"/>
-      <c r="H156" s="57"/>
+      <c r="F156" s="53"/>
+      <c r="G156" s="35"/>
+      <c r="H156" s="35"/>
       <c r="I156" s="7"/>
-      <c r="J156" s="62"/>
-      <c r="K156" s="57"/>
-      <c r="L156" s="57"/>
+      <c r="J156" s="40"/>
+      <c r="K156" s="35"/>
+      <c r="L156" s="35"/>
       <c r="M156" s="7"/>
-      <c r="N156" s="62"/>
-      <c r="O156" s="57"/>
-      <c r="P156" s="57"/>
+      <c r="N156" s="40"/>
+      <c r="O156" s="35"/>
+      <c r="P156" s="35"/>
       <c r="Q156" s="3"/>
-      <c r="R156" s="73">
+      <c r="R156" s="48">
         <v>295</v>
       </c>
       <c r="S156" s="7"/>
@@ -7929,28 +7929,28 @@
       <c r="AE156" s="17"/>
     </row>
     <row r="157" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="44"/>
-      <c r="B157" s="88">
+      <c r="A157" s="25"/>
+      <c r="B157" s="62">
         <v>134</v>
       </c>
-      <c r="C157" s="29"/>
-      <c r="D157" s="25"/>
-      <c r="E157" s="83" t="s">
+      <c r="C157" s="120"/>
+      <c r="D157" s="110"/>
+      <c r="E157" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="F157" s="78"/>
-      <c r="G157" s="57"/>
-      <c r="H157" s="57"/>
+      <c r="F157" s="53"/>
+      <c r="G157" s="35"/>
+      <c r="H157" s="35"/>
       <c r="I157" s="7"/>
-      <c r="J157" s="62"/>
-      <c r="K157" s="57"/>
-      <c r="L157" s="57"/>
+      <c r="J157" s="40"/>
+      <c r="K157" s="35"/>
+      <c r="L157" s="35"/>
       <c r="M157" s="7"/>
-      <c r="N157" s="62"/>
-      <c r="O157" s="57"/>
-      <c r="P157" s="57"/>
+      <c r="N157" s="40"/>
+      <c r="O157" s="35"/>
+      <c r="P157" s="35"/>
       <c r="Q157" s="3"/>
-      <c r="R157" s="73">
+      <c r="R157" s="48">
         <v>296</v>
       </c>
       <c r="S157" s="7"/>
@@ -7968,28 +7968,28 @@
       <c r="AE157" s="17"/>
     </row>
     <row r="158" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="44"/>
-      <c r="B158" s="88">
+      <c r="A158" s="25"/>
+      <c r="B158" s="62">
         <v>135</v>
       </c>
-      <c r="C158" s="29"/>
-      <c r="D158" s="25"/>
-      <c r="E158" s="83" t="s">
+      <c r="C158" s="120"/>
+      <c r="D158" s="110"/>
+      <c r="E158" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="F158" s="78"/>
-      <c r="G158" s="57"/>
-      <c r="H158" s="57"/>
+      <c r="F158" s="53"/>
+      <c r="G158" s="35"/>
+      <c r="H158" s="35"/>
       <c r="I158" s="7"/>
-      <c r="J158" s="62"/>
-      <c r="K158" s="57"/>
-      <c r="L158" s="57"/>
+      <c r="J158" s="40"/>
+      <c r="K158" s="35"/>
+      <c r="L158" s="35"/>
       <c r="M158" s="7"/>
-      <c r="N158" s="62"/>
-      <c r="O158" s="57"/>
-      <c r="P158" s="57"/>
+      <c r="N158" s="40"/>
+      <c r="O158" s="35"/>
+      <c r="P158" s="35"/>
       <c r="Q158" s="3"/>
-      <c r="R158" s="73">
+      <c r="R158" s="48">
         <v>297</v>
       </c>
       <c r="S158" s="7"/>
@@ -8007,28 +8007,28 @@
       <c r="AE158" s="17"/>
     </row>
     <row r="159" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="44"/>
-      <c r="B159" s="88">
+      <c r="A159" s="25"/>
+      <c r="B159" s="62">
         <v>136</v>
       </c>
-      <c r="C159" s="29"/>
-      <c r="D159" s="25"/>
-      <c r="E159" s="83" t="s">
+      <c r="C159" s="120"/>
+      <c r="D159" s="110"/>
+      <c r="E159" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="F159" s="78"/>
-      <c r="G159" s="57"/>
-      <c r="H159" s="57"/>
+      <c r="F159" s="53"/>
+      <c r="G159" s="35"/>
+      <c r="H159" s="35"/>
       <c r="I159" s="7"/>
-      <c r="J159" s="62"/>
-      <c r="K159" s="57"/>
-      <c r="L159" s="57"/>
+      <c r="J159" s="40"/>
+      <c r="K159" s="35"/>
+      <c r="L159" s="35"/>
       <c r="M159" s="7"/>
-      <c r="N159" s="62"/>
-      <c r="O159" s="57"/>
-      <c r="P159" s="57"/>
+      <c r="N159" s="40"/>
+      <c r="O159" s="35"/>
+      <c r="P159" s="35"/>
       <c r="Q159" s="3"/>
-      <c r="R159" s="73">
+      <c r="R159" s="48">
         <v>298</v>
       </c>
       <c r="S159" s="7"/>
@@ -8046,28 +8046,28 @@
       <c r="AE159" s="17"/>
     </row>
     <row r="160" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="44"/>
-      <c r="B160" s="88">
+      <c r="A160" s="25"/>
+      <c r="B160" s="62">
         <v>137</v>
       </c>
-      <c r="C160" s="29"/>
-      <c r="D160" s="25"/>
-      <c r="E160" s="83" t="s">
+      <c r="C160" s="120"/>
+      <c r="D160" s="110"/>
+      <c r="E160" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="F160" s="78"/>
-      <c r="G160" s="57"/>
-      <c r="H160" s="57"/>
+      <c r="F160" s="53"/>
+      <c r="G160" s="35"/>
+      <c r="H160" s="35"/>
       <c r="I160" s="7"/>
-      <c r="J160" s="62"/>
-      <c r="K160" s="57"/>
-      <c r="L160" s="57"/>
+      <c r="J160" s="40"/>
+      <c r="K160" s="35"/>
+      <c r="L160" s="35"/>
       <c r="M160" s="7"/>
-      <c r="N160" s="62"/>
-      <c r="O160" s="57"/>
-      <c r="P160" s="57"/>
+      <c r="N160" s="40"/>
+      <c r="O160" s="35"/>
+      <c r="P160" s="35"/>
       <c r="Q160" s="3"/>
-      <c r="R160" s="73">
+      <c r="R160" s="48">
         <v>299</v>
       </c>
       <c r="S160" s="7"/>
@@ -8085,28 +8085,28 @@
       <c r="AE160" s="17"/>
     </row>
     <row r="161" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="44"/>
-      <c r="B161" s="88">
+      <c r="A161" s="25"/>
+      <c r="B161" s="62">
         <v>138</v>
       </c>
-      <c r="C161" s="29"/>
-      <c r="D161" s="25"/>
-      <c r="E161" s="83" t="s">
+      <c r="C161" s="120"/>
+      <c r="D161" s="110"/>
+      <c r="E161" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="F161" s="78"/>
-      <c r="G161" s="57"/>
-      <c r="H161" s="57"/>
+      <c r="F161" s="53"/>
+      <c r="G161" s="35"/>
+      <c r="H161" s="35"/>
       <c r="I161" s="7"/>
-      <c r="J161" s="62"/>
-      <c r="K161" s="57"/>
-      <c r="L161" s="57"/>
+      <c r="J161" s="40"/>
+      <c r="K161" s="35"/>
+      <c r="L161" s="35"/>
       <c r="M161" s="7"/>
-      <c r="N161" s="62"/>
-      <c r="O161" s="57"/>
-      <c r="P161" s="57"/>
+      <c r="N161" s="40"/>
+      <c r="O161" s="35"/>
+      <c r="P161" s="35"/>
       <c r="Q161" s="3"/>
-      <c r="R161" s="73">
+      <c r="R161" s="48">
         <v>300</v>
       </c>
       <c r="S161" s="7"/>
@@ -8124,28 +8124,28 @@
       <c r="AE161" s="17"/>
     </row>
     <row r="162" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="44"/>
-      <c r="B162" s="88">
+      <c r="A162" s="25"/>
+      <c r="B162" s="62">
         <v>139</v>
       </c>
-      <c r="C162" s="29"/>
-      <c r="D162" s="25"/>
-      <c r="E162" s="83" t="s">
+      <c r="C162" s="120"/>
+      <c r="D162" s="110"/>
+      <c r="E162" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="F162" s="78"/>
-      <c r="G162" s="57"/>
-      <c r="H162" s="57"/>
+      <c r="F162" s="53"/>
+      <c r="G162" s="35"/>
+      <c r="H162" s="35"/>
       <c r="I162" s="7"/>
-      <c r="J162" s="62"/>
-      <c r="K162" s="57"/>
-      <c r="L162" s="57"/>
+      <c r="J162" s="40"/>
+      <c r="K162" s="35"/>
+      <c r="L162" s="35"/>
       <c r="M162" s="7"/>
-      <c r="N162" s="62"/>
-      <c r="O162" s="57"/>
-      <c r="P162" s="57"/>
+      <c r="N162" s="40"/>
+      <c r="O162" s="35"/>
+      <c r="P162" s="35"/>
       <c r="Q162" s="3"/>
-      <c r="R162" s="73">
+      <c r="R162" s="48">
         <v>301</v>
       </c>
       <c r="S162" s="7"/>
@@ -8163,28 +8163,28 @@
       <c r="AE162" s="17"/>
     </row>
     <row r="163" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="44"/>
-      <c r="B163" s="88">
+      <c r="A163" s="25"/>
+      <c r="B163" s="62">
         <v>140</v>
       </c>
-      <c r="C163" s="29"/>
-      <c r="D163" s="25"/>
-      <c r="E163" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="F163" s="78"/>
-      <c r="G163" s="57"/>
-      <c r="H163" s="57"/>
+      <c r="C163" s="120"/>
+      <c r="D163" s="110"/>
+      <c r="E163" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="F163" s="53"/>
+      <c r="G163" s="35"/>
+      <c r="H163" s="35"/>
       <c r="I163" s="7"/>
-      <c r="J163" s="62"/>
-      <c r="K163" s="57"/>
-      <c r="L163" s="57"/>
+      <c r="J163" s="40"/>
+      <c r="K163" s="35"/>
+      <c r="L163" s="35"/>
       <c r="M163" s="7"/>
-      <c r="N163" s="62"/>
-      <c r="O163" s="57"/>
-      <c r="P163" s="57"/>
+      <c r="N163" s="40"/>
+      <c r="O163" s="35"/>
+      <c r="P163" s="35"/>
       <c r="Q163" s="3"/>
-      <c r="R163" s="73">
+      <c r="R163" s="48">
         <v>302</v>
       </c>
       <c r="S163" s="7"/>
@@ -8202,28 +8202,28 @@
       <c r="AE163" s="17"/>
     </row>
     <row r="164" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="44"/>
-      <c r="B164" s="88">
+      <c r="A164" s="25"/>
+      <c r="B164" s="62">
         <v>141</v>
       </c>
-      <c r="C164" s="29"/>
-      <c r="D164" s="25"/>
-      <c r="E164" s="83" t="s">
-        <v>39</v>
-      </c>
-      <c r="F164" s="78"/>
-      <c r="G164" s="57"/>
-      <c r="H164" s="57"/>
+      <c r="C164" s="120"/>
+      <c r="D164" s="110"/>
+      <c r="E164" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="F164" s="53"/>
+      <c r="G164" s="35"/>
+      <c r="H164" s="35"/>
       <c r="I164" s="7"/>
-      <c r="J164" s="62"/>
-      <c r="K164" s="57"/>
-      <c r="L164" s="57"/>
+      <c r="J164" s="40"/>
+      <c r="K164" s="35"/>
+      <c r="L164" s="35"/>
       <c r="M164" s="7"/>
-      <c r="N164" s="62"/>
-      <c r="O164" s="57"/>
-      <c r="P164" s="57"/>
+      <c r="N164" s="40"/>
+      <c r="O164" s="35"/>
+      <c r="P164" s="35"/>
       <c r="Q164" s="3"/>
-      <c r="R164" s="73">
+      <c r="R164" s="48">
         <v>303</v>
       </c>
       <c r="S164" s="7"/>
@@ -8241,28 +8241,28 @@
       <c r="AE164" s="17"/>
     </row>
     <row r="165" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="44"/>
-      <c r="B165" s="88">
+      <c r="A165" s="25"/>
+      <c r="B165" s="62">
         <v>142</v>
       </c>
-      <c r="C165" s="29"/>
-      <c r="D165" s="25"/>
-      <c r="E165" s="83" t="s">
-        <v>40</v>
-      </c>
-      <c r="F165" s="78"/>
-      <c r="G165" s="57"/>
-      <c r="H165" s="57"/>
+      <c r="C165" s="120"/>
+      <c r="D165" s="110"/>
+      <c r="E165" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="F165" s="53"/>
+      <c r="G165" s="35"/>
+      <c r="H165" s="35"/>
       <c r="I165" s="7"/>
-      <c r="J165" s="62"/>
-      <c r="K165" s="57"/>
-      <c r="L165" s="57"/>
+      <c r="J165" s="40"/>
+      <c r="K165" s="35"/>
+      <c r="L165" s="35"/>
       <c r="M165" s="7"/>
-      <c r="N165" s="62"/>
-      <c r="O165" s="57"/>
-      <c r="P165" s="57"/>
+      <c r="N165" s="40"/>
+      <c r="O165" s="35"/>
+      <c r="P165" s="35"/>
       <c r="Q165" s="3"/>
-      <c r="R165" s="73">
+      <c r="R165" s="48">
         <v>304</v>
       </c>
       <c r="S165" s="7"/>
@@ -8280,28 +8280,28 @@
       <c r="AE165" s="17"/>
     </row>
     <row r="166" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="44"/>
-      <c r="B166" s="88">
+      <c r="A166" s="25"/>
+      <c r="B166" s="62">
         <v>143</v>
       </c>
-      <c r="C166" s="29"/>
-      <c r="D166" s="25"/>
-      <c r="E166" s="83" t="s">
-        <v>41</v>
-      </c>
-      <c r="F166" s="78"/>
-      <c r="G166" s="57"/>
-      <c r="H166" s="57"/>
+      <c r="C166" s="120"/>
+      <c r="D166" s="110"/>
+      <c r="E166" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="F166" s="53"/>
+      <c r="G166" s="35"/>
+      <c r="H166" s="35"/>
       <c r="I166" s="7"/>
-      <c r="J166" s="62"/>
-      <c r="K166" s="57"/>
-      <c r="L166" s="57"/>
+      <c r="J166" s="40"/>
+      <c r="K166" s="35"/>
+      <c r="L166" s="35"/>
       <c r="M166" s="7"/>
-      <c r="N166" s="62"/>
-      <c r="O166" s="57"/>
-      <c r="P166" s="57"/>
+      <c r="N166" s="40"/>
+      <c r="O166" s="35"/>
+      <c r="P166" s="35"/>
       <c r="Q166" s="3"/>
-      <c r="R166" s="73">
+      <c r="R166" s="48">
         <v>305</v>
       </c>
       <c r="S166" s="7"/>
@@ -8319,28 +8319,28 @@
       <c r="AE166" s="17"/>
     </row>
     <row r="167" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="44"/>
-      <c r="B167" s="88">
+      <c r="A167" s="25"/>
+      <c r="B167" s="62">
         <v>144</v>
       </c>
-      <c r="C167" s="29"/>
-      <c r="D167" s="25"/>
-      <c r="E167" s="83" t="s">
-        <v>42</v>
-      </c>
-      <c r="F167" s="78"/>
-      <c r="G167" s="57"/>
-      <c r="H167" s="57"/>
+      <c r="C167" s="120"/>
+      <c r="D167" s="110"/>
+      <c r="E167" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="F167" s="53"/>
+      <c r="G167" s="35"/>
+      <c r="H167" s="35"/>
       <c r="I167" s="7"/>
-      <c r="J167" s="62"/>
-      <c r="K167" s="57"/>
-      <c r="L167" s="57"/>
+      <c r="J167" s="40"/>
+      <c r="K167" s="35"/>
+      <c r="L167" s="35"/>
       <c r="M167" s="7"/>
-      <c r="N167" s="62"/>
-      <c r="O167" s="57"/>
-      <c r="P167" s="57"/>
+      <c r="N167" s="40"/>
+      <c r="O167" s="35"/>
+      <c r="P167" s="35"/>
       <c r="Q167" s="3"/>
-      <c r="R167" s="73">
+      <c r="R167" s="48">
         <v>306</v>
       </c>
       <c r="S167" s="7"/>
@@ -8358,28 +8358,28 @@
       <c r="AE167" s="17"/>
     </row>
     <row r="168" spans="1:31" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="44"/>
-      <c r="B168" s="88">
+      <c r="A168" s="25"/>
+      <c r="B168" s="62">
         <v>145</v>
       </c>
-      <c r="C168" s="29"/>
-      <c r="D168" s="26"/>
-      <c r="E168" s="84" t="s">
-        <v>43</v>
-      </c>
-      <c r="F168" s="79"/>
-      <c r="G168" s="58"/>
-      <c r="H168" s="58"/>
+      <c r="C168" s="120"/>
+      <c r="D168" s="111"/>
+      <c r="E168" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="F168" s="54"/>
+      <c r="G168" s="36"/>
+      <c r="H168" s="36"/>
       <c r="I168" s="10"/>
-      <c r="J168" s="63"/>
-      <c r="K168" s="58"/>
-      <c r="L168" s="58"/>
+      <c r="J168" s="41"/>
+      <c r="K168" s="36"/>
+      <c r="L168" s="36"/>
       <c r="M168" s="10"/>
-      <c r="N168" s="63"/>
-      <c r="O168" s="58"/>
-      <c r="P168" s="58"/>
+      <c r="N168" s="41"/>
+      <c r="O168" s="36"/>
+      <c r="P168" s="36"/>
       <c r="Q168" s="4"/>
-      <c r="R168" s="73">
+      <c r="R168" s="48">
         <v>307</v>
       </c>
       <c r="S168" s="10"/>
@@ -8397,30 +8397,30 @@
       <c r="AE168" s="17"/>
     </row>
     <row r="169" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="44"/>
-      <c r="B169" s="88">
+      <c r="A169" s="25"/>
+      <c r="B169" s="62">
         <v>146</v>
       </c>
-      <c r="C169" s="29"/>
-      <c r="D169" s="24" t="s">
+      <c r="C169" s="120"/>
+      <c r="D169" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="E169" s="83" t="s">
+      <c r="E169" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="F169" s="78"/>
-      <c r="G169" s="57"/>
-      <c r="H169" s="57"/>
+      <c r="F169" s="53"/>
+      <c r="G169" s="35"/>
+      <c r="H169" s="35"/>
       <c r="I169" s="7"/>
-      <c r="J169" s="62"/>
-      <c r="K169" s="57"/>
-      <c r="L169" s="57"/>
+      <c r="J169" s="40"/>
+      <c r="K169" s="35"/>
+      <c r="L169" s="35"/>
       <c r="M169" s="7"/>
-      <c r="N169" s="62"/>
-      <c r="O169" s="57"/>
-      <c r="P169" s="57"/>
+      <c r="N169" s="40"/>
+      <c r="O169" s="35"/>
+      <c r="P169" s="35"/>
       <c r="Q169" s="3"/>
-      <c r="R169" s="75">
+      <c r="R169" s="50">
         <v>308</v>
       </c>
       <c r="S169" s="7"/>
@@ -8438,28 +8438,28 @@
       <c r="AE169" s="17"/>
     </row>
     <row r="170" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="44"/>
-      <c r="B170" s="88">
+      <c r="A170" s="25"/>
+      <c r="B170" s="62">
         <v>147</v>
       </c>
-      <c r="C170" s="29"/>
-      <c r="D170" s="25"/>
-      <c r="E170" s="83" t="s">
+      <c r="C170" s="120"/>
+      <c r="D170" s="110"/>
+      <c r="E170" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="F170" s="78"/>
-      <c r="G170" s="57"/>
-      <c r="H170" s="57"/>
+      <c r="F170" s="53"/>
+      <c r="G170" s="35"/>
+      <c r="H170" s="35"/>
       <c r="I170" s="7"/>
-      <c r="J170" s="62"/>
-      <c r="K170" s="57"/>
-      <c r="L170" s="57"/>
+      <c r="J170" s="40"/>
+      <c r="K170" s="35"/>
+      <c r="L170" s="35"/>
       <c r="M170" s="7"/>
-      <c r="N170" s="62"/>
-      <c r="O170" s="57"/>
-      <c r="P170" s="57"/>
+      <c r="N170" s="40"/>
+      <c r="O170" s="35"/>
+      <c r="P170" s="35"/>
       <c r="Q170" s="3"/>
-      <c r="R170" s="73">
+      <c r="R170" s="48">
         <v>309</v>
       </c>
       <c r="S170" s="7"/>
@@ -8477,28 +8477,28 @@
       <c r="AE170" s="17"/>
     </row>
     <row r="171" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="44"/>
-      <c r="B171" s="88">
+      <c r="A171" s="25"/>
+      <c r="B171" s="62">
         <v>148</v>
       </c>
-      <c r="C171" s="29"/>
-      <c r="D171" s="25"/>
-      <c r="E171" s="83" t="s">
+      <c r="C171" s="120"/>
+      <c r="D171" s="110"/>
+      <c r="E171" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="F171" s="78"/>
-      <c r="G171" s="57"/>
-      <c r="H171" s="57"/>
+      <c r="F171" s="53"/>
+      <c r="G171" s="35"/>
+      <c r="H171" s="35"/>
       <c r="I171" s="7"/>
-      <c r="J171" s="62"/>
-      <c r="K171" s="57"/>
-      <c r="L171" s="57"/>
+      <c r="J171" s="40"/>
+      <c r="K171" s="35"/>
+      <c r="L171" s="35"/>
       <c r="M171" s="7"/>
-      <c r="N171" s="62"/>
-      <c r="O171" s="57"/>
-      <c r="P171" s="57"/>
+      <c r="N171" s="40"/>
+      <c r="O171" s="35"/>
+      <c r="P171" s="35"/>
       <c r="Q171" s="3"/>
-      <c r="R171" s="73">
+      <c r="R171" s="48">
         <v>310</v>
       </c>
       <c r="S171" s="7"/>
@@ -8516,28 +8516,28 @@
       <c r="AE171" s="17"/>
     </row>
     <row r="172" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="44"/>
-      <c r="B172" s="88">
+      <c r="A172" s="25"/>
+      <c r="B172" s="62">
         <v>149</v>
       </c>
-      <c r="C172" s="29"/>
-      <c r="D172" s="25"/>
-      <c r="E172" s="83" t="s">
+      <c r="C172" s="120"/>
+      <c r="D172" s="110"/>
+      <c r="E172" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="F172" s="78"/>
-      <c r="G172" s="57"/>
-      <c r="H172" s="57"/>
+      <c r="F172" s="53"/>
+      <c r="G172" s="35"/>
+      <c r="H172" s="35"/>
       <c r="I172" s="7"/>
-      <c r="J172" s="62"/>
-      <c r="K172" s="57"/>
-      <c r="L172" s="57"/>
+      <c r="J172" s="40"/>
+      <c r="K172" s="35"/>
+      <c r="L172" s="35"/>
       <c r="M172" s="7"/>
-      <c r="N172" s="62"/>
-      <c r="O172" s="57"/>
-      <c r="P172" s="57"/>
+      <c r="N172" s="40"/>
+      <c r="O172" s="35"/>
+      <c r="P172" s="35"/>
       <c r="Q172" s="3"/>
-      <c r="R172" s="73">
+      <c r="R172" s="48">
         <v>311</v>
       </c>
       <c r="S172" s="7"/>
@@ -8555,28 +8555,28 @@
       <c r="AE172" s="17"/>
     </row>
     <row r="173" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="44"/>
-      <c r="B173" s="88">
+      <c r="A173" s="25"/>
+      <c r="B173" s="62">
         <v>150</v>
       </c>
-      <c r="C173" s="29"/>
-      <c r="D173" s="25"/>
-      <c r="E173" s="83" t="s">
+      <c r="C173" s="120"/>
+      <c r="D173" s="110"/>
+      <c r="E173" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="F173" s="78"/>
-      <c r="G173" s="57"/>
-      <c r="H173" s="57"/>
+      <c r="F173" s="53"/>
+      <c r="G173" s="35"/>
+      <c r="H173" s="35"/>
       <c r="I173" s="7"/>
-      <c r="J173" s="62"/>
-      <c r="K173" s="57"/>
-      <c r="L173" s="57"/>
+      <c r="J173" s="40"/>
+      <c r="K173" s="35"/>
+      <c r="L173" s="35"/>
       <c r="M173" s="7"/>
-      <c r="N173" s="62"/>
-      <c r="O173" s="57"/>
-      <c r="P173" s="57"/>
+      <c r="N173" s="40"/>
+      <c r="O173" s="35"/>
+      <c r="P173" s="35"/>
       <c r="Q173" s="3"/>
-      <c r="R173" s="73">
+      <c r="R173" s="48">
         <v>312</v>
       </c>
       <c r="S173" s="7"/>
@@ -8594,28 +8594,28 @@
       <c r="AE173" s="17"/>
     </row>
     <row r="174" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="44"/>
-      <c r="B174" s="88">
+      <c r="A174" s="25"/>
+      <c r="B174" s="62">
         <v>151</v>
       </c>
-      <c r="C174" s="29"/>
-      <c r="D174" s="25"/>
-      <c r="E174" s="83" t="s">
+      <c r="C174" s="120"/>
+      <c r="D174" s="110"/>
+      <c r="E174" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="F174" s="78"/>
-      <c r="G174" s="57"/>
-      <c r="H174" s="57"/>
+      <c r="F174" s="53"/>
+      <c r="G174" s="35"/>
+      <c r="H174" s="35"/>
       <c r="I174" s="7"/>
-      <c r="J174" s="62"/>
-      <c r="K174" s="57"/>
-      <c r="L174" s="57"/>
+      <c r="J174" s="40"/>
+      <c r="K174" s="35"/>
+      <c r="L174" s="35"/>
       <c r="M174" s="7"/>
-      <c r="N174" s="62"/>
-      <c r="O174" s="57"/>
-      <c r="P174" s="57"/>
+      <c r="N174" s="40"/>
+      <c r="O174" s="35"/>
+      <c r="P174" s="35"/>
       <c r="Q174" s="3"/>
-      <c r="R174" s="73">
+      <c r="R174" s="48">
         <v>313</v>
       </c>
       <c r="S174" s="7"/>
@@ -8633,28 +8633,28 @@
       <c r="AE174" s="17"/>
     </row>
     <row r="175" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="44"/>
-      <c r="B175" s="88">
+      <c r="A175" s="25"/>
+      <c r="B175" s="62">
         <v>152</v>
       </c>
-      <c r="C175" s="29"/>
-      <c r="D175" s="25"/>
-      <c r="E175" s="83" t="s">
+      <c r="C175" s="120"/>
+      <c r="D175" s="110"/>
+      <c r="E175" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="F175" s="78"/>
-      <c r="G175" s="57"/>
-      <c r="H175" s="57"/>
+      <c r="F175" s="53"/>
+      <c r="G175" s="35"/>
+      <c r="H175" s="35"/>
       <c r="I175" s="7"/>
-      <c r="J175" s="62"/>
-      <c r="K175" s="57"/>
-      <c r="L175" s="57"/>
+      <c r="J175" s="40"/>
+      <c r="K175" s="35"/>
+      <c r="L175" s="35"/>
       <c r="M175" s="7"/>
-      <c r="N175" s="62"/>
-      <c r="O175" s="57"/>
-      <c r="P175" s="57"/>
+      <c r="N175" s="40"/>
+      <c r="O175" s="35"/>
+      <c r="P175" s="35"/>
       <c r="Q175" s="3"/>
-      <c r="R175" s="73">
+      <c r="R175" s="48">
         <v>314</v>
       </c>
       <c r="S175" s="7"/>
@@ -8672,28 +8672,28 @@
       <c r="AE175" s="17"/>
     </row>
     <row r="176" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="44"/>
-      <c r="B176" s="88">
+      <c r="A176" s="25"/>
+      <c r="B176" s="62">
         <v>153</v>
       </c>
-      <c r="C176" s="29"/>
-      <c r="D176" s="25"/>
-      <c r="E176" s="83" t="s">
+      <c r="C176" s="120"/>
+      <c r="D176" s="110"/>
+      <c r="E176" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="F176" s="78"/>
-      <c r="G176" s="57"/>
-      <c r="H176" s="57"/>
+      <c r="F176" s="53"/>
+      <c r="G176" s="35"/>
+      <c r="H176" s="35"/>
       <c r="I176" s="7"/>
-      <c r="J176" s="62"/>
-      <c r="K176" s="57"/>
-      <c r="L176" s="57"/>
+      <c r="J176" s="40"/>
+      <c r="K176" s="35"/>
+      <c r="L176" s="35"/>
       <c r="M176" s="7"/>
-      <c r="N176" s="62"/>
-      <c r="O176" s="57"/>
-      <c r="P176" s="57"/>
+      <c r="N176" s="40"/>
+      <c r="O176" s="35"/>
+      <c r="P176" s="35"/>
       <c r="Q176" s="3"/>
-      <c r="R176" s="73">
+      <c r="R176" s="48">
         <v>315</v>
       </c>
       <c r="S176" s="7"/>
@@ -8711,28 +8711,28 @@
       <c r="AE176" s="17"/>
     </row>
     <row r="177" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="44"/>
-      <c r="B177" s="88">
+      <c r="A177" s="25"/>
+      <c r="B177" s="62">
         <v>154</v>
       </c>
-      <c r="C177" s="29"/>
-      <c r="D177" s="25"/>
-      <c r="E177" s="83" t="s">
+      <c r="C177" s="120"/>
+      <c r="D177" s="110"/>
+      <c r="E177" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="F177" s="78"/>
-      <c r="G177" s="57"/>
-      <c r="H177" s="57"/>
+      <c r="F177" s="53"/>
+      <c r="G177" s="35"/>
+      <c r="H177" s="35"/>
       <c r="I177" s="7"/>
-      <c r="J177" s="62"/>
-      <c r="K177" s="57"/>
-      <c r="L177" s="57"/>
+      <c r="J177" s="40"/>
+      <c r="K177" s="35"/>
+      <c r="L177" s="35"/>
       <c r="M177" s="7"/>
-      <c r="N177" s="62"/>
-      <c r="O177" s="57"/>
-      <c r="P177" s="57"/>
+      <c r="N177" s="40"/>
+      <c r="O177" s="35"/>
+      <c r="P177" s="35"/>
       <c r="Q177" s="3"/>
-      <c r="R177" s="73">
+      <c r="R177" s="48">
         <v>316</v>
       </c>
       <c r="S177" s="7"/>
@@ -8750,28 +8750,28 @@
       <c r="AE177" s="17"/>
     </row>
     <row r="178" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="44"/>
-      <c r="B178" s="88">
+      <c r="A178" s="25"/>
+      <c r="B178" s="62">
         <v>155</v>
       </c>
-      <c r="C178" s="29"/>
-      <c r="D178" s="25"/>
-      <c r="E178" s="83" t="s">
+      <c r="C178" s="120"/>
+      <c r="D178" s="110"/>
+      <c r="E178" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="F178" s="78"/>
-      <c r="G178" s="57"/>
-      <c r="H178" s="57"/>
+      <c r="F178" s="53"/>
+      <c r="G178" s="35"/>
+      <c r="H178" s="35"/>
       <c r="I178" s="7"/>
-      <c r="J178" s="62"/>
-      <c r="K178" s="57"/>
-      <c r="L178" s="57"/>
+      <c r="J178" s="40"/>
+      <c r="K178" s="35"/>
+      <c r="L178" s="35"/>
       <c r="M178" s="7"/>
-      <c r="N178" s="62"/>
-      <c r="O178" s="57"/>
-      <c r="P178" s="57"/>
+      <c r="N178" s="40"/>
+      <c r="O178" s="35"/>
+      <c r="P178" s="35"/>
       <c r="Q178" s="3"/>
-      <c r="R178" s="73">
+      <c r="R178" s="48">
         <v>317</v>
       </c>
       <c r="S178" s="7"/>
@@ -8789,28 +8789,28 @@
       <c r="AE178" s="17"/>
     </row>
     <row r="179" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="44"/>
-      <c r="B179" s="88">
+      <c r="A179" s="25"/>
+      <c r="B179" s="62">
         <v>156</v>
       </c>
-      <c r="C179" s="29"/>
-      <c r="D179" s="25"/>
-      <c r="E179" s="83" t="s">
+      <c r="C179" s="120"/>
+      <c r="D179" s="110"/>
+      <c r="E179" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="F179" s="78"/>
-      <c r="G179" s="57"/>
-      <c r="H179" s="57"/>
+      <c r="F179" s="53"/>
+      <c r="G179" s="35"/>
+      <c r="H179" s="35"/>
       <c r="I179" s="7"/>
-      <c r="J179" s="62"/>
-      <c r="K179" s="57"/>
-      <c r="L179" s="57"/>
+      <c r="J179" s="40"/>
+      <c r="K179" s="35"/>
+      <c r="L179" s="35"/>
       <c r="M179" s="7"/>
-      <c r="N179" s="62"/>
-      <c r="O179" s="57"/>
-      <c r="P179" s="57"/>
+      <c r="N179" s="40"/>
+      <c r="O179" s="35"/>
+      <c r="P179" s="35"/>
       <c r="Q179" s="3"/>
-      <c r="R179" s="73">
+      <c r="R179" s="48">
         <v>318</v>
       </c>
       <c r="S179" s="7"/>
@@ -8828,28 +8828,28 @@
       <c r="AE179" s="17"/>
     </row>
     <row r="180" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="44"/>
-      <c r="B180" s="88">
+      <c r="A180" s="25"/>
+      <c r="B180" s="62">
         <v>157</v>
       </c>
-      <c r="C180" s="29"/>
-      <c r="D180" s="25"/>
-      <c r="E180" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="F180" s="78"/>
-      <c r="G180" s="57"/>
-      <c r="H180" s="57"/>
+      <c r="C180" s="120"/>
+      <c r="D180" s="110"/>
+      <c r="E180" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="F180" s="53"/>
+      <c r="G180" s="35"/>
+      <c r="H180" s="35"/>
       <c r="I180" s="7"/>
-      <c r="J180" s="62"/>
-      <c r="K180" s="57"/>
-      <c r="L180" s="57"/>
+      <c r="J180" s="40"/>
+      <c r="K180" s="35"/>
+      <c r="L180" s="35"/>
       <c r="M180" s="7"/>
-      <c r="N180" s="62"/>
-      <c r="O180" s="57"/>
-      <c r="P180" s="57"/>
+      <c r="N180" s="40"/>
+      <c r="O180" s="35"/>
+      <c r="P180" s="35"/>
       <c r="Q180" s="3"/>
-      <c r="R180" s="73">
+      <c r="R180" s="48">
         <v>319</v>
       </c>
       <c r="S180" s="7"/>
@@ -8867,28 +8867,28 @@
       <c r="AE180" s="17"/>
     </row>
     <row r="181" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="44"/>
-      <c r="B181" s="88">
+      <c r="A181" s="25"/>
+      <c r="B181" s="62">
         <v>158</v>
       </c>
-      <c r="C181" s="29"/>
-      <c r="D181" s="25"/>
-      <c r="E181" s="83" t="s">
-        <v>39</v>
-      </c>
-      <c r="F181" s="78"/>
-      <c r="G181" s="57"/>
-      <c r="H181" s="57"/>
+      <c r="C181" s="120"/>
+      <c r="D181" s="110"/>
+      <c r="E181" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="F181" s="53"/>
+      <c r="G181" s="35"/>
+      <c r="H181" s="35"/>
       <c r="I181" s="7"/>
-      <c r="J181" s="62"/>
-      <c r="K181" s="57"/>
-      <c r="L181" s="57"/>
+      <c r="J181" s="40"/>
+      <c r="K181" s="35"/>
+      <c r="L181" s="35"/>
       <c r="M181" s="7"/>
-      <c r="N181" s="62"/>
-      <c r="O181" s="57"/>
-      <c r="P181" s="57"/>
+      <c r="N181" s="40"/>
+      <c r="O181" s="35"/>
+      <c r="P181" s="35"/>
       <c r="Q181" s="3"/>
-      <c r="R181" s="73">
+      <c r="R181" s="48">
         <v>320</v>
       </c>
       <c r="S181" s="7"/>
@@ -8906,28 +8906,28 @@
       <c r="AE181" s="17"/>
     </row>
     <row r="182" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="44"/>
-      <c r="B182" s="88">
+      <c r="A182" s="25"/>
+      <c r="B182" s="62">
         <v>159</v>
       </c>
-      <c r="C182" s="29"/>
-      <c r="D182" s="25"/>
-      <c r="E182" s="83" t="s">
-        <v>40</v>
-      </c>
-      <c r="F182" s="78"/>
-      <c r="G182" s="57"/>
-      <c r="H182" s="57"/>
+      <c r="C182" s="120"/>
+      <c r="D182" s="110"/>
+      <c r="E182" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="F182" s="53"/>
+      <c r="G182" s="35"/>
+      <c r="H182" s="35"/>
       <c r="I182" s="7"/>
-      <c r="J182" s="62"/>
-      <c r="K182" s="57"/>
-      <c r="L182" s="57"/>
+      <c r="J182" s="40"/>
+      <c r="K182" s="35"/>
+      <c r="L182" s="35"/>
       <c r="M182" s="7"/>
-      <c r="N182" s="62"/>
-      <c r="O182" s="57"/>
-      <c r="P182" s="57"/>
+      <c r="N182" s="40"/>
+      <c r="O182" s="35"/>
+      <c r="P182" s="35"/>
       <c r="Q182" s="3"/>
-      <c r="R182" s="73">
+      <c r="R182" s="48">
         <v>321</v>
       </c>
       <c r="S182" s="7"/>
@@ -8945,28 +8945,28 @@
       <c r="AE182" s="17"/>
     </row>
     <row r="183" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="44"/>
-      <c r="B183" s="88">
+      <c r="A183" s="25"/>
+      <c r="B183" s="62">
         <v>160</v>
       </c>
-      <c r="C183" s="29"/>
-      <c r="D183" s="25"/>
-      <c r="E183" s="83" t="s">
-        <v>41</v>
-      </c>
-      <c r="F183" s="78"/>
-      <c r="G183" s="57"/>
-      <c r="H183" s="57"/>
+      <c r="C183" s="120"/>
+      <c r="D183" s="110"/>
+      <c r="E183" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="F183" s="53"/>
+      <c r="G183" s="35"/>
+      <c r="H183" s="35"/>
       <c r="I183" s="7"/>
-      <c r="J183" s="62"/>
-      <c r="K183" s="57"/>
-      <c r="L183" s="57"/>
+      <c r="J183" s="40"/>
+      <c r="K183" s="35"/>
+      <c r="L183" s="35"/>
       <c r="M183" s="7"/>
-      <c r="N183" s="62"/>
-      <c r="O183" s="57"/>
-      <c r="P183" s="57"/>
+      <c r="N183" s="40"/>
+      <c r="O183" s="35"/>
+      <c r="P183" s="35"/>
       <c r="Q183" s="3"/>
-      <c r="R183" s="73">
+      <c r="R183" s="48">
         <v>322</v>
       </c>
       <c r="S183" s="7"/>
@@ -8984,28 +8984,28 @@
       <c r="AE183" s="17"/>
     </row>
     <row r="184" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="44"/>
-      <c r="B184" s="88">
+      <c r="A184" s="25"/>
+      <c r="B184" s="62">
         <v>161</v>
       </c>
-      <c r="C184" s="29"/>
-      <c r="D184" s="25"/>
-      <c r="E184" s="83" t="s">
-        <v>42</v>
-      </c>
-      <c r="F184" s="78"/>
-      <c r="G184" s="57"/>
-      <c r="H184" s="57"/>
+      <c r="C184" s="120"/>
+      <c r="D184" s="110"/>
+      <c r="E184" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="F184" s="53"/>
+      <c r="G184" s="35"/>
+      <c r="H184" s="35"/>
       <c r="I184" s="7"/>
-      <c r="J184" s="62"/>
-      <c r="K184" s="57"/>
-      <c r="L184" s="57"/>
+      <c r="J184" s="40"/>
+      <c r="K184" s="35"/>
+      <c r="L184" s="35"/>
       <c r="M184" s="7"/>
-      <c r="N184" s="62"/>
-      <c r="O184" s="57"/>
-      <c r="P184" s="57"/>
+      <c r="N184" s="40"/>
+      <c r="O184" s="35"/>
+      <c r="P184" s="35"/>
       <c r="Q184" s="3"/>
-      <c r="R184" s="73">
+      <c r="R184" s="48">
         <v>323</v>
       </c>
       <c r="S184" s="7"/>
@@ -9023,28 +9023,28 @@
       <c r="AE184" s="17"/>
     </row>
     <row r="185" spans="1:31" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="44"/>
-      <c r="B185" s="88">
+      <c r="A185" s="25"/>
+      <c r="B185" s="62">
         <v>162</v>
       </c>
-      <c r="C185" s="30"/>
-      <c r="D185" s="27"/>
-      <c r="E185" s="86" t="s">
-        <v>43</v>
-      </c>
-      <c r="F185" s="81"/>
-      <c r="G185" s="60"/>
-      <c r="H185" s="60"/>
+      <c r="C185" s="121"/>
+      <c r="D185" s="118"/>
+      <c r="E185" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="F185" s="56"/>
+      <c r="G185" s="38"/>
+      <c r="H185" s="38"/>
       <c r="I185" s="8"/>
-      <c r="J185" s="65"/>
-      <c r="K185" s="60"/>
-      <c r="L185" s="60"/>
+      <c r="J185" s="43"/>
+      <c r="K185" s="38"/>
+      <c r="L185" s="38"/>
       <c r="M185" s="8"/>
-      <c r="N185" s="65"/>
-      <c r="O185" s="60"/>
-      <c r="P185" s="60"/>
+      <c r="N185" s="43"/>
+      <c r="O185" s="38"/>
+      <c r="P185" s="38"/>
       <c r="Q185" s="6"/>
-      <c r="R185" s="76">
+      <c r="R185" s="51">
         <v>324</v>
       </c>
       <c r="S185" s="8"/>
@@ -9078,6 +9078,28 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="D152:D168"/>
+    <mergeCell ref="D169:D185"/>
+    <mergeCell ref="C78:C131"/>
+    <mergeCell ref="C132:C185"/>
+    <mergeCell ref="D44:D60"/>
+    <mergeCell ref="D61:D77"/>
+    <mergeCell ref="C24:C77"/>
+    <mergeCell ref="D78:D80"/>
+    <mergeCell ref="D81:D97"/>
+    <mergeCell ref="D98:D114"/>
+    <mergeCell ref="D115:D131"/>
+    <mergeCell ref="D132:D134"/>
+    <mergeCell ref="D135:D151"/>
+    <mergeCell ref="AF2:AL28"/>
+    <mergeCell ref="S21:AD21"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="D27:D43"/>
+    <mergeCell ref="F21:Q21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="N22:Q22"/>
+    <mergeCell ref="F9:S9"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="B19:AD19"/>
     <mergeCell ref="Z2:AD2"/>
@@ -9093,28 +9115,6 @@
     <mergeCell ref="F12:S12"/>
     <mergeCell ref="F13:S13"/>
     <mergeCell ref="S22:V22"/>
-    <mergeCell ref="AF2:AL28"/>
-    <mergeCell ref="S21:AD21"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="D27:D43"/>
-    <mergeCell ref="F21:Q21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="N22:Q22"/>
-    <mergeCell ref="F9:S9"/>
-    <mergeCell ref="D152:D168"/>
-    <mergeCell ref="D169:D185"/>
-    <mergeCell ref="C78:C131"/>
-    <mergeCell ref="C132:C185"/>
-    <mergeCell ref="D44:D60"/>
-    <mergeCell ref="D61:D77"/>
-    <mergeCell ref="C24:C77"/>
-    <mergeCell ref="D78:D80"/>
-    <mergeCell ref="D81:D97"/>
-    <mergeCell ref="D98:D114"/>
-    <mergeCell ref="D115:D131"/>
-    <mergeCell ref="D132:D134"/>
-    <mergeCell ref="D135:D151"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Results_Grid_Template.xlsx
+++ b/Results_Grid_Template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20386"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72C5E54-8FCA-4F9F-9AF9-B896F432E513}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B987FCA-1E40-4BE1-9E8D-FAB7536BB2DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="56">
   <si>
     <t>Clinical Biomarker Detection Pipeline Results Grid Template to Overview A Complete Analysis</t>
   </si>
@@ -339,6 +339,9 @@
   <si>
     <t>Near-constant continuous threshold:</t>
   </si>
+  <si>
+    <t>Target feature:</t>
+  </si>
 </sst>
 </file>
 
@@ -407,7 +410,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -426,8 +429,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="79">
+  <borders count="80">
     <border>
       <left/>
       <right/>
@@ -1389,11 +1398,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1564,14 +1588,173 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="77" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="78" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -1591,164 +1774,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="77" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="78" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2030,10 +2069,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL192"/>
+  <dimension ref="A1:AL194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="U16" sqref="U16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2050,120 +2089,120 @@
   <sheetData>
     <row r="1" spans="5:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="5:38" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E2" s="97" t="s">
+      <c r="E2" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="98"/>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="98"/>
-      <c r="S2" s="99"/>
-      <c r="Z2" s="94" t="s">
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="80"/>
+      <c r="Z2" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="AA2" s="95"/>
-      <c r="AB2" s="95"/>
-      <c r="AC2" s="95"/>
-      <c r="AD2" s="96"/>
-      <c r="AF2" s="71" t="s">
+      <c r="AA2" s="76"/>
+      <c r="AB2" s="76"/>
+      <c r="AC2" s="76"/>
+      <c r="AD2" s="77"/>
+      <c r="AF2" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="AG2" s="72"/>
-      <c r="AH2" s="72"/>
-      <c r="AI2" s="72"/>
-      <c r="AJ2" s="72"/>
-      <c r="AK2" s="72"/>
-      <c r="AL2" s="73"/>
+      <c r="AG2" s="100"/>
+      <c r="AH2" s="100"/>
+      <c r="AI2" s="100"/>
+      <c r="AJ2" s="100"/>
+      <c r="AK2" s="100"/>
+      <c r="AL2" s="101"/>
     </row>
     <row r="3" spans="5:38" x14ac:dyDescent="0.25">
-      <c r="AF3" s="74"/>
-      <c r="AG3" s="75"/>
-      <c r="AH3" s="75"/>
-      <c r="AI3" s="75"/>
-      <c r="AJ3" s="75"/>
-      <c r="AK3" s="75"/>
-      <c r="AL3" s="76"/>
+      <c r="AF3" s="102"/>
+      <c r="AG3" s="103"/>
+      <c r="AH3" s="103"/>
+      <c r="AI3" s="103"/>
+      <c r="AJ3" s="103"/>
+      <c r="AK3" s="103"/>
+      <c r="AL3" s="104"/>
     </row>
     <row r="4" spans="5:38" x14ac:dyDescent="0.25">
-      <c r="AF4" s="74"/>
-      <c r="AG4" s="75"/>
-      <c r="AH4" s="75"/>
-      <c r="AI4" s="75"/>
-      <c r="AJ4" s="75"/>
-      <c r="AK4" s="75"/>
-      <c r="AL4" s="76"/>
+      <c r="AF4" s="102"/>
+      <c r="AG4" s="103"/>
+      <c r="AH4" s="103"/>
+      <c r="AI4" s="103"/>
+      <c r="AJ4" s="103"/>
+      <c r="AK4" s="103"/>
+      <c r="AL4" s="104"/>
     </row>
     <row r="5" spans="5:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E5" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="AF5" s="74"/>
-      <c r="AG5" s="75"/>
-      <c r="AH5" s="75"/>
-      <c r="AI5" s="75"/>
-      <c r="AJ5" s="75"/>
-      <c r="AK5" s="75"/>
-      <c r="AL5" s="76"/>
+      <c r="AF5" s="102"/>
+      <c r="AG5" s="103"/>
+      <c r="AH5" s="103"/>
+      <c r="AI5" s="103"/>
+      <c r="AJ5" s="103"/>
+      <c r="AK5" s="103"/>
+      <c r="AL5" s="104"/>
     </row>
     <row r="6" spans="5:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E6" s="2"/>
-      <c r="AF6" s="74"/>
-      <c r="AG6" s="75"/>
-      <c r="AH6" s="75"/>
-      <c r="AI6" s="75"/>
-      <c r="AJ6" s="75"/>
-      <c r="AK6" s="75"/>
-      <c r="AL6" s="76"/>
+      <c r="AF6" s="102"/>
+      <c r="AG6" s="103"/>
+      <c r="AH6" s="103"/>
+      <c r="AI6" s="103"/>
+      <c r="AJ6" s="103"/>
+      <c r="AK6" s="103"/>
+      <c r="AL6" s="104"/>
     </row>
     <row r="7" spans="5:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E7" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="AF7" s="74"/>
-      <c r="AG7" s="75"/>
-      <c r="AH7" s="75"/>
-      <c r="AI7" s="75"/>
-      <c r="AJ7" s="75"/>
-      <c r="AK7" s="75"/>
-      <c r="AL7" s="76"/>
+      <c r="AF7" s="102"/>
+      <c r="AG7" s="103"/>
+      <c r="AH7" s="103"/>
+      <c r="AI7" s="103"/>
+      <c r="AJ7" s="103"/>
+      <c r="AK7" s="103"/>
+      <c r="AL7" s="104"/>
     </row>
     <row r="8" spans="5:38" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E8" s="9"/>
-      <c r="AF8" s="74"/>
-      <c r="AG8" s="75"/>
-      <c r="AH8" s="75"/>
-      <c r="AI8" s="75"/>
-      <c r="AJ8" s="75"/>
-      <c r="AK8" s="75"/>
-      <c r="AL8" s="76"/>
+      <c r="AF8" s="102"/>
+      <c r="AG8" s="103"/>
+      <c r="AH8" s="103"/>
+      <c r="AI8" s="103"/>
+      <c r="AJ8" s="103"/>
+      <c r="AK8" s="103"/>
+      <c r="AL8" s="104"/>
     </row>
     <row r="9" spans="5:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E9" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="87"/>
-      <c r="I9" s="87"/>
-      <c r="J9" s="87"/>
-      <c r="K9" s="87"/>
-      <c r="L9" s="87"/>
-      <c r="M9" s="87"/>
-      <c r="N9" s="87"/>
-      <c r="O9" s="87"/>
-      <c r="P9" s="87"/>
-      <c r="Q9" s="87"/>
-      <c r="R9" s="87"/>
-      <c r="S9" s="88"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="116"/>
+      <c r="K9" s="116"/>
+      <c r="L9" s="116"/>
+      <c r="M9" s="116"/>
+      <c r="N9" s="116"/>
+      <c r="O9" s="116"/>
+      <c r="P9" s="116"/>
+      <c r="Q9" s="116"/>
+      <c r="R9" s="116"/>
+      <c r="S9" s="117"/>
       <c r="T9" s="16"/>
       <c r="U9" s="16"/>
       <c r="V9" s="16"/>
@@ -2173,32 +2212,32 @@
       <c r="Z9" s="16"/>
       <c r="AA9" s="16"/>
       <c r="AB9" s="16"/>
-      <c r="AF9" s="74"/>
-      <c r="AG9" s="75"/>
-      <c r="AH9" s="75"/>
-      <c r="AI9" s="75"/>
-      <c r="AJ9" s="75"/>
-      <c r="AK9" s="75"/>
-      <c r="AL9" s="76"/>
+      <c r="AF9" s="102"/>
+      <c r="AG9" s="103"/>
+      <c r="AH9" s="103"/>
+      <c r="AI9" s="103"/>
+      <c r="AJ9" s="103"/>
+      <c r="AK9" s="103"/>
+      <c r="AL9" s="104"/>
     </row>
     <row r="10" spans="5:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E10" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="109"/>
-      <c r="G10" s="109"/>
-      <c r="H10" s="109"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="109"/>
-      <c r="K10" s="109"/>
-      <c r="L10" s="109"/>
-      <c r="M10" s="109"/>
-      <c r="N10" s="109"/>
-      <c r="O10" s="109"/>
-      <c r="P10" s="109"/>
-      <c r="Q10" s="109"/>
-      <c r="R10" s="109"/>
-      <c r="S10" s="110"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="92"/>
+      <c r="J10" s="92"/>
+      <c r="K10" s="92"/>
+      <c r="L10" s="92"/>
+      <c r="M10" s="92"/>
+      <c r="N10" s="92"/>
+      <c r="O10" s="92"/>
+      <c r="P10" s="92"/>
+      <c r="Q10" s="92"/>
+      <c r="R10" s="92"/>
+      <c r="S10" s="93"/>
       <c r="T10" s="16"/>
       <c r="U10" s="16"/>
       <c r="V10" s="16"/>
@@ -2208,32 +2247,32 @@
       <c r="Z10" s="16"/>
       <c r="AA10" s="16"/>
       <c r="AB10" s="16"/>
-      <c r="AF10" s="74"/>
-      <c r="AG10" s="75"/>
-      <c r="AH10" s="75"/>
-      <c r="AI10" s="75"/>
-      <c r="AJ10" s="75"/>
-      <c r="AK10" s="75"/>
-      <c r="AL10" s="76"/>
+      <c r="AF10" s="102"/>
+      <c r="AG10" s="103"/>
+      <c r="AH10" s="103"/>
+      <c r="AI10" s="103"/>
+      <c r="AJ10" s="103"/>
+      <c r="AK10" s="103"/>
+      <c r="AL10" s="104"/>
     </row>
     <row r="11" spans="5:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E11" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="109"/>
-      <c r="G11" s="109"/>
-      <c r="H11" s="109"/>
-      <c r="I11" s="109"/>
-      <c r="J11" s="109"/>
-      <c r="K11" s="109"/>
-      <c r="L11" s="109"/>
-      <c r="M11" s="109"/>
-      <c r="N11" s="109"/>
-      <c r="O11" s="109"/>
-      <c r="P11" s="109"/>
-      <c r="Q11" s="109"/>
-      <c r="R11" s="109"/>
-      <c r="S11" s="110"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="92"/>
+      <c r="J11" s="92"/>
+      <c r="K11" s="92"/>
+      <c r="L11" s="92"/>
+      <c r="M11" s="92"/>
+      <c r="N11" s="92"/>
+      <c r="O11" s="92"/>
+      <c r="P11" s="92"/>
+      <c r="Q11" s="92"/>
+      <c r="R11" s="92"/>
+      <c r="S11" s="93"/>
       <c r="T11" s="16"/>
       <c r="U11" s="16"/>
       <c r="V11" s="16"/>
@@ -2243,32 +2282,32 @@
       <c r="Z11" s="16"/>
       <c r="AA11" s="16"/>
       <c r="AB11" s="16"/>
-      <c r="AF11" s="74"/>
-      <c r="AG11" s="75"/>
-      <c r="AH11" s="75"/>
-      <c r="AI11" s="75"/>
-      <c r="AJ11" s="75"/>
-      <c r="AK11" s="75"/>
-      <c r="AL11" s="76"/>
+      <c r="AF11" s="102"/>
+      <c r="AG11" s="103"/>
+      <c r="AH11" s="103"/>
+      <c r="AI11" s="103"/>
+      <c r="AJ11" s="103"/>
+      <c r="AK11" s="103"/>
+      <c r="AL11" s="104"/>
     </row>
     <row r="12" spans="5:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E12" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="109"/>
-      <c r="G12" s="109"/>
-      <c r="H12" s="109"/>
-      <c r="I12" s="109"/>
-      <c r="J12" s="109"/>
-      <c r="K12" s="109"/>
-      <c r="L12" s="109"/>
-      <c r="M12" s="109"/>
-      <c r="N12" s="109"/>
-      <c r="O12" s="109"/>
-      <c r="P12" s="109"/>
-      <c r="Q12" s="109"/>
-      <c r="R12" s="109"/>
-      <c r="S12" s="110"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="92"/>
+      <c r="J12" s="92"/>
+      <c r="K12" s="92"/>
+      <c r="L12" s="92"/>
+      <c r="M12" s="92"/>
+      <c r="N12" s="92"/>
+      <c r="O12" s="92"/>
+      <c r="P12" s="92"/>
+      <c r="Q12" s="92"/>
+      <c r="R12" s="92"/>
+      <c r="S12" s="93"/>
       <c r="T12" s="16"/>
       <c r="U12" s="16"/>
       <c r="V12" s="16"/>
@@ -2278,32 +2317,32 @@
       <c r="Z12" s="16"/>
       <c r="AA12" s="16"/>
       <c r="AB12" s="16"/>
-      <c r="AF12" s="74"/>
-      <c r="AG12" s="75"/>
-      <c r="AH12" s="75"/>
-      <c r="AI12" s="75"/>
-      <c r="AJ12" s="75"/>
-      <c r="AK12" s="75"/>
-      <c r="AL12" s="76"/>
+      <c r="AF12" s="102"/>
+      <c r="AG12" s="103"/>
+      <c r="AH12" s="103"/>
+      <c r="AI12" s="103"/>
+      <c r="AJ12" s="103"/>
+      <c r="AK12" s="103"/>
+      <c r="AL12" s="104"/>
     </row>
     <row r="13" spans="5:38" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E13" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="111"/>
-      <c r="G13" s="111"/>
-      <c r="H13" s="111"/>
-      <c r="I13" s="111"/>
-      <c r="J13" s="111"/>
-      <c r="K13" s="111"/>
-      <c r="L13" s="111"/>
-      <c r="M13" s="111"/>
-      <c r="N13" s="111"/>
-      <c r="O13" s="111"/>
-      <c r="P13" s="111"/>
-      <c r="Q13" s="111"/>
-      <c r="R13" s="111"/>
-      <c r="S13" s="112"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="94"/>
+      <c r="I13" s="94"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="94"/>
+      <c r="L13" s="94"/>
+      <c r="M13" s="94"/>
+      <c r="N13" s="94"/>
+      <c r="O13" s="94"/>
+      <c r="P13" s="94"/>
+      <c r="Q13" s="94"/>
+      <c r="R13" s="94"/>
+      <c r="S13" s="95"/>
       <c r="T13" s="16"/>
       <c r="U13" s="16"/>
       <c r="V13" s="16"/>
@@ -2313,490 +2352,464 @@
       <c r="Z13" s="16"/>
       <c r="AA13" s="16"/>
       <c r="AB13" s="16"/>
-      <c r="AF13" s="74"/>
-      <c r="AG13" s="75"/>
-      <c r="AH13" s="75"/>
-      <c r="AI13" s="75"/>
-      <c r="AJ13" s="75"/>
-      <c r="AK13" s="75"/>
-      <c r="AL13" s="76"/>
-    </row>
-    <row r="14" spans="5:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E14" s="9"/>
-      <c r="AF14" s="74"/>
-      <c r="AG14" s="75"/>
-      <c r="AH14" s="75"/>
-      <c r="AI14" s="75"/>
-      <c r="AJ14" s="75"/>
-      <c r="AK14" s="75"/>
-      <c r="AL14" s="76"/>
-    </row>
-    <row r="15" spans="5:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E15" s="58" t="s">
+      <c r="AF13" s="102"/>
+      <c r="AG13" s="103"/>
+      <c r="AH13" s="103"/>
+      <c r="AI13" s="103"/>
+      <c r="AJ13" s="103"/>
+      <c r="AK13" s="103"/>
+      <c r="AL13" s="104"/>
+    </row>
+    <row r="14" spans="5:38" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E14" s="124"/>
+      <c r="F14" s="125"/>
+      <c r="G14" s="125"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="125"/>
+      <c r="J14" s="125"/>
+      <c r="K14" s="125"/>
+      <c r="L14" s="125"/>
+      <c r="M14" s="125"/>
+      <c r="N14" s="125"/>
+      <c r="O14" s="125"/>
+      <c r="P14" s="125"/>
+      <c r="Q14" s="125"/>
+      <c r="R14" s="125"/>
+      <c r="S14" s="125"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="16"/>
+      <c r="W14" s="16"/>
+      <c r="X14" s="16"/>
+      <c r="Y14" s="16"/>
+      <c r="Z14" s="16"/>
+      <c r="AA14" s="16"/>
+      <c r="AB14" s="16"/>
+      <c r="AF14" s="102"/>
+      <c r="AG14" s="103"/>
+      <c r="AH14" s="103"/>
+      <c r="AI14" s="103"/>
+      <c r="AJ14" s="103"/>
+      <c r="AK14" s="103"/>
+      <c r="AL14" s="104"/>
+    </row>
+    <row r="15" spans="5:38" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E15" s="126" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="127"/>
+      <c r="G15" s="127"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="127"/>
+      <c r="J15" s="127"/>
+      <c r="K15" s="128"/>
+      <c r="L15" s="125"/>
+      <c r="M15" s="125"/>
+      <c r="N15" s="125"/>
+      <c r="O15" s="125"/>
+      <c r="P15" s="125"/>
+      <c r="Q15" s="125"/>
+      <c r="R15" s="125"/>
+      <c r="S15" s="125"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="16"/>
+      <c r="W15" s="16"/>
+      <c r="X15" s="16"/>
+      <c r="Y15" s="16"/>
+      <c r="Z15" s="16"/>
+      <c r="AA15" s="16"/>
+      <c r="AB15" s="16"/>
+      <c r="AF15" s="102"/>
+      <c r="AG15" s="103"/>
+      <c r="AH15" s="103"/>
+      <c r="AI15" s="103"/>
+      <c r="AJ15" s="103"/>
+      <c r="AK15" s="103"/>
+      <c r="AL15" s="104"/>
+    </row>
+    <row r="16" spans="5:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E16" s="9"/>
+      <c r="AF16" s="102"/>
+      <c r="AG16" s="103"/>
+      <c r="AH16" s="103"/>
+      <c r="AI16" s="103"/>
+      <c r="AJ16" s="103"/>
+      <c r="AK16" s="103"/>
+      <c r="AL16" s="104"/>
+    </row>
+    <row r="17" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E17" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="AF15" s="74"/>
-      <c r="AG15" s="75"/>
-      <c r="AH15" s="75"/>
-      <c r="AI15" s="75"/>
-      <c r="AJ15" s="75"/>
-      <c r="AK15" s="75"/>
-      <c r="AL15" s="76"/>
-    </row>
-    <row r="16" spans="5:38" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E16" s="9"/>
-      <c r="AF16" s="74"/>
-      <c r="AG16" s="75"/>
-      <c r="AH16" s="75"/>
-      <c r="AI16" s="75"/>
-      <c r="AJ16" s="75"/>
-      <c r="AK16" s="75"/>
-      <c r="AL16" s="76"/>
-    </row>
-    <row r="17" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="1"/>
-      <c r="E17" s="121" t="s">
+      <c r="AF17" s="102"/>
+      <c r="AG17" s="103"/>
+      <c r="AH17" s="103"/>
+      <c r="AI17" s="103"/>
+      <c r="AJ17" s="103"/>
+      <c r="AK17" s="103"/>
+      <c r="AL17" s="104"/>
+    </row>
+    <row r="18" spans="1:38" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="9"/>
+      <c r="AF18" s="102"/>
+      <c r="AG18" s="103"/>
+      <c r="AH18" s="103"/>
+      <c r="AI18" s="103"/>
+      <c r="AJ18" s="103"/>
+      <c r="AK18" s="103"/>
+      <c r="AL18" s="104"/>
+    </row>
+    <row r="19" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="1"/>
+      <c r="E19" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="F17" s="122"/>
-      <c r="G17" s="122"/>
-      <c r="H17" s="122"/>
-      <c r="I17" s="122"/>
-      <c r="J17" s="123"/>
-      <c r="AF17" s="74"/>
-      <c r="AG17" s="75"/>
-      <c r="AH17" s="75"/>
-      <c r="AI17" s="75"/>
-      <c r="AJ17" s="75"/>
-      <c r="AK17" s="75"/>
-      <c r="AL17" s="76"/>
-    </row>
-    <row r="18" spans="1:38" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="1"/>
-      <c r="E18" s="9"/>
-      <c r="M18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="AF18" s="74"/>
-      <c r="AG18" s="75"/>
-      <c r="AH18" s="75"/>
-      <c r="AI18" s="75"/>
-      <c r="AJ18" s="75"/>
-      <c r="AK18" s="75"/>
-      <c r="AL18" s="76"/>
-    </row>
-    <row r="19" spans="1:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="91" t="s">
+      <c r="F19" s="97"/>
+      <c r="G19" s="97"/>
+      <c r="H19" s="97"/>
+      <c r="I19" s="97"/>
+      <c r="J19" s="98"/>
+      <c r="AF19" s="102"/>
+      <c r="AG19" s="103"/>
+      <c r="AH19" s="103"/>
+      <c r="AI19" s="103"/>
+      <c r="AJ19" s="103"/>
+      <c r="AK19" s="103"/>
+      <c r="AL19" s="104"/>
+    </row>
+    <row r="20" spans="1:38" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="1"/>
+      <c r="E20" s="9"/>
+      <c r="M20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="AF20" s="102"/>
+      <c r="AG20" s="103"/>
+      <c r="AH20" s="103"/>
+      <c r="AI20" s="103"/>
+      <c r="AJ20" s="103"/>
+      <c r="AK20" s="103"/>
+      <c r="AL20" s="104"/>
+    </row>
+    <row r="21" spans="1:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="92"/>
-      <c r="D19" s="92"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="92"/>
-      <c r="G19" s="92"/>
-      <c r="H19" s="92"/>
-      <c r="I19" s="92"/>
-      <c r="J19" s="92"/>
-      <c r="K19" s="92"/>
-      <c r="L19" s="92"/>
-      <c r="M19" s="92"/>
-      <c r="N19" s="92"/>
-      <c r="O19" s="92"/>
-      <c r="P19" s="92"/>
-      <c r="Q19" s="92"/>
-      <c r="R19" s="92"/>
-      <c r="S19" s="92"/>
-      <c r="T19" s="92"/>
-      <c r="U19" s="92"/>
-      <c r="V19" s="92"/>
-      <c r="W19" s="92"/>
-      <c r="X19" s="92"/>
-      <c r="Y19" s="92"/>
-      <c r="Z19" s="92"/>
-      <c r="AA19" s="92"/>
-      <c r="AB19" s="92"/>
-      <c r="AC19" s="92"/>
-      <c r="AD19" s="93"/>
-      <c r="AF19" s="74"/>
-      <c r="AG19" s="75"/>
-      <c r="AH19" s="75"/>
-      <c r="AI19" s="75"/>
-      <c r="AJ19" s="75"/>
-      <c r="AK19" s="75"/>
-      <c r="AL19" s="76"/>
-    </row>
-    <row r="20" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AF20" s="74"/>
-      <c r="AG20" s="75"/>
-      <c r="AH20" s="75"/>
-      <c r="AI20" s="75"/>
-      <c r="AJ20" s="75"/>
-      <c r="AK20" s="75"/>
-      <c r="AL20" s="76"/>
-    </row>
-    <row r="21" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="17"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="54" t="s">
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="73"/>
+      <c r="I21" s="73"/>
+      <c r="J21" s="73"/>
+      <c r="K21" s="73"/>
+      <c r="L21" s="73"/>
+      <c r="M21" s="73"/>
+      <c r="N21" s="73"/>
+      <c r="O21" s="73"/>
+      <c r="P21" s="73"/>
+      <c r="Q21" s="73"/>
+      <c r="R21" s="73"/>
+      <c r="S21" s="73"/>
+      <c r="T21" s="73"/>
+      <c r="U21" s="73"/>
+      <c r="V21" s="73"/>
+      <c r="W21" s="73"/>
+      <c r="X21" s="73"/>
+      <c r="Y21" s="73"/>
+      <c r="Z21" s="73"/>
+      <c r="AA21" s="73"/>
+      <c r="AB21" s="73"/>
+      <c r="AC21" s="73"/>
+      <c r="AD21" s="74"/>
+      <c r="AF21" s="102"/>
+      <c r="AG21" s="103"/>
+      <c r="AH21" s="103"/>
+      <c r="AI21" s="103"/>
+      <c r="AJ21" s="103"/>
+      <c r="AK21" s="103"/>
+      <c r="AL21" s="104"/>
+    </row>
+    <row r="22" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF22" s="102"/>
+      <c r="AG22" s="103"/>
+      <c r="AH22" s="103"/>
+      <c r="AI22" s="103"/>
+      <c r="AJ22" s="103"/>
+      <c r="AK22" s="103"/>
+      <c r="AL22" s="104"/>
+    </row>
+    <row r="23" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="17"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="80" t="s">
+      <c r="F23" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="G21" s="80"/>
-      <c r="H21" s="80"/>
-      <c r="I21" s="80"/>
-      <c r="J21" s="80"/>
-      <c r="K21" s="80"/>
-      <c r="L21" s="80"/>
-      <c r="M21" s="80"/>
-      <c r="N21" s="80"/>
-      <c r="O21" s="80"/>
-      <c r="P21" s="80"/>
-      <c r="Q21" s="80"/>
-      <c r="R21" s="113"/>
-      <c r="S21" s="80" t="s">
+      <c r="G23" s="108"/>
+      <c r="H23" s="108"/>
+      <c r="I23" s="108"/>
+      <c r="J23" s="108"/>
+      <c r="K23" s="108"/>
+      <c r="L23" s="108"/>
+      <c r="M23" s="108"/>
+      <c r="N23" s="108"/>
+      <c r="O23" s="108"/>
+      <c r="P23" s="108"/>
+      <c r="Q23" s="108"/>
+      <c r="R23" s="62"/>
+      <c r="S23" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="T21" s="80"/>
-      <c r="U21" s="80"/>
-      <c r="V21" s="80"/>
-      <c r="W21" s="80"/>
-      <c r="X21" s="80"/>
-      <c r="Y21" s="80"/>
-      <c r="Z21" s="80"/>
-      <c r="AA21" s="80"/>
-      <c r="AB21" s="80"/>
-      <c r="AC21" s="80"/>
-      <c r="AD21" s="81"/>
-      <c r="AE21" s="15"/>
-      <c r="AF21" s="74"/>
-      <c r="AG21" s="75"/>
-      <c r="AH21" s="75"/>
-      <c r="AI21" s="75"/>
-      <c r="AJ21" s="75"/>
-      <c r="AK21" s="75"/>
-      <c r="AL21" s="76"/>
-    </row>
-    <row r="22" spans="1:38" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="89" t="s">
+      <c r="T23" s="108"/>
+      <c r="U23" s="108"/>
+      <c r="V23" s="108"/>
+      <c r="W23" s="108"/>
+      <c r="X23" s="108"/>
+      <c r="Y23" s="108"/>
+      <c r="Z23" s="108"/>
+      <c r="AA23" s="108"/>
+      <c r="AB23" s="108"/>
+      <c r="AC23" s="108"/>
+      <c r="AD23" s="109"/>
+      <c r="AE23" s="15"/>
+      <c r="AF23" s="102"/>
+      <c r="AG23" s="103"/>
+      <c r="AH23" s="103"/>
+      <c r="AI23" s="103"/>
+      <c r="AJ23" s="103"/>
+      <c r="AK23" s="103"/>
+      <c r="AL23" s="104"/>
+    </row>
+    <row r="24" spans="1:38" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="101" t="s">
+      <c r="C24" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="103" t="s">
+      <c r="D24" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="105" t="s">
+      <c r="E24" s="88" t="s">
         <v>50</v>
       </c>
-      <c r="F22" s="82" t="s">
+      <c r="F24" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="G22" s="83"/>
-      <c r="H22" s="83"/>
-      <c r="I22" s="84"/>
-      <c r="J22" s="85" t="s">
+      <c r="G24" s="114"/>
+      <c r="H24" s="114"/>
+      <c r="I24" s="115"/>
+      <c r="J24" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="86"/>
-      <c r="L22" s="86"/>
-      <c r="M22" s="86"/>
-      <c r="N22" s="82" t="s">
+      <c r="K24" s="82"/>
+      <c r="L24" s="82"/>
+      <c r="M24" s="82"/>
+      <c r="N24" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="O22" s="83"/>
-      <c r="P22" s="83"/>
-      <c r="Q22" s="84"/>
-      <c r="R22" s="107" t="s">
+      <c r="O24" s="114"/>
+      <c r="P24" s="114"/>
+      <c r="Q24" s="115"/>
+      <c r="R24" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="S22" s="86" t="s">
+      <c r="S24" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="T22" s="86"/>
-      <c r="U22" s="86"/>
-      <c r="V22" s="100"/>
-      <c r="W22" s="85" t="s">
+      <c r="T24" s="82"/>
+      <c r="U24" s="82"/>
+      <c r="V24" s="83"/>
+      <c r="W24" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="X22" s="86"/>
-      <c r="Y22" s="86"/>
-      <c r="Z22" s="100"/>
-      <c r="AA22" s="85" t="s">
+      <c r="X24" s="82"/>
+      <c r="Y24" s="82"/>
+      <c r="Z24" s="83"/>
+      <c r="AA24" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="AB22" s="86"/>
-      <c r="AC22" s="86"/>
-      <c r="AD22" s="86"/>
-      <c r="AE22" s="34"/>
-      <c r="AF22" s="74"/>
-      <c r="AG22" s="75"/>
-      <c r="AH22" s="75"/>
-      <c r="AI22" s="75"/>
-      <c r="AJ22" s="75"/>
-      <c r="AK22" s="75"/>
-      <c r="AL22" s="76"/>
-    </row>
-    <row r="23" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="90"/>
-      <c r="C23" s="102"/>
-      <c r="D23" s="104"/>
-      <c r="E23" s="106"/>
-      <c r="F23" s="24" t="s">
+      <c r="AB24" s="82"/>
+      <c r="AC24" s="82"/>
+      <c r="AD24" s="82"/>
+      <c r="AE24" s="34"/>
+      <c r="AF24" s="102"/>
+      <c r="AG24" s="103"/>
+      <c r="AH24" s="103"/>
+      <c r="AI24" s="103"/>
+      <c r="AJ24" s="103"/>
+      <c r="AK24" s="103"/>
+      <c r="AL24" s="104"/>
+    </row>
+    <row r="25" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="71"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="89"/>
+      <c r="F25" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="G23" s="21" t="s">
+      <c r="G25" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="H23" s="21" t="s">
+      <c r="H25" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="I23" s="22" t="s">
+      <c r="I25" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="J23" s="18" t="s">
+      <c r="J25" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="K23" s="21" t="s">
+      <c r="K25" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="L23" s="21" t="s">
+      <c r="L25" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="M23" s="22" t="s">
+      <c r="M25" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="N23" s="19" t="s">
+      <c r="N25" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="O23" s="21" t="s">
+      <c r="O25" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="P23" s="21" t="s">
+      <c r="P25" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="Q23" s="21" t="s">
+      <c r="Q25" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="R23" s="108"/>
-      <c r="S23" s="35" t="s">
+      <c r="R25" s="91"/>
+      <c r="S25" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="T23" s="18" t="s">
+      <c r="T25" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="U23" s="23" t="s">
+      <c r="U25" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="V23" s="20" t="s">
+      <c r="V25" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="W23" s="24" t="s">
+      <c r="W25" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="X23" s="18" t="s">
+      <c r="X25" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="Y23" s="21" t="s">
+      <c r="Y25" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="Z23" s="22" t="s">
+      <c r="Z25" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="AA23" s="19" t="s">
+      <c r="AA25" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="AB23" s="21" t="s">
+      <c r="AB25" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="AC23" s="21" t="s">
+      <c r="AC25" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="AD23" s="21" t="s">
+      <c r="AD25" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="AE23" s="34"/>
-      <c r="AF23" s="74"/>
-      <c r="AG23" s="75"/>
-      <c r="AH23" s="75"/>
-      <c r="AI23" s="75"/>
-      <c r="AJ23" s="75"/>
-      <c r="AK23" s="75"/>
-      <c r="AL23" s="76"/>
-    </row>
-    <row r="24" spans="1:38" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
-      <c r="B24" s="52">
+      <c r="AE25" s="34"/>
+      <c r="AF25" s="102"/>
+      <c r="AG25" s="103"/>
+      <c r="AH25" s="103"/>
+      <c r="AI25" s="103"/>
+      <c r="AJ25" s="103"/>
+      <c r="AK25" s="103"/>
+      <c r="AL25" s="104"/>
+    </row>
+    <row r="26" spans="1:38" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="17"/>
+      <c r="B26" s="52">
         <v>1</v>
       </c>
-      <c r="C24" s="69" t="s">
+      <c r="C26" s="122" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="63" t="s">
+      <c r="D26" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="47" t="s">
+      <c r="E26" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="F24" s="42"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="36"/>
-      <c r="R24" s="37">
+      <c r="F26" s="42"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="36"/>
+      <c r="R26" s="37">
         <v>163</v>
       </c>
-      <c r="S24" s="29"/>
-      <c r="T24" s="25"/>
-      <c r="U24" s="25"/>
-      <c r="V24" s="6"/>
-      <c r="W24" s="29"/>
-      <c r="X24" s="25"/>
-      <c r="Y24" s="25"/>
-      <c r="Z24" s="6"/>
-      <c r="AA24" s="29"/>
-      <c r="AB24" s="25"/>
-      <c r="AC24" s="25"/>
-      <c r="AD24" s="6"/>
-      <c r="AE24" s="10"/>
-      <c r="AF24" s="74"/>
-      <c r="AG24" s="75"/>
-      <c r="AH24" s="75"/>
-      <c r="AI24" s="75"/>
-      <c r="AJ24" s="75"/>
-      <c r="AK24" s="75"/>
-      <c r="AL24" s="76"/>
-    </row>
-    <row r="25" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
-      <c r="B25" s="53">
-        <v>2</v>
-      </c>
-      <c r="C25" s="69"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" s="43"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="30"/>
-      <c r="O25" s="26"/>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="38">
-        <v>164</v>
-      </c>
-      <c r="S25" s="30"/>
-      <c r="T25" s="26"/>
-      <c r="U25" s="26"/>
-      <c r="V25" s="6"/>
-      <c r="W25" s="30"/>
-      <c r="X25" s="26"/>
-      <c r="Y25" s="26"/>
-      <c r="Z25" s="6"/>
-      <c r="AA25" s="30"/>
-      <c r="AB25" s="26"/>
-      <c r="AC25" s="26"/>
-      <c r="AD25" s="6"/>
-      <c r="AE25" s="10"/>
-      <c r="AF25" s="74"/>
-      <c r="AG25" s="75"/>
-      <c r="AH25" s="75"/>
-      <c r="AI25" s="75"/>
-      <c r="AJ25" s="75"/>
-      <c r="AK25" s="75"/>
-      <c r="AL25" s="76"/>
-    </row>
-    <row r="26" spans="1:38" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="17"/>
-      <c r="B26" s="53">
-        <v>3</v>
-      </c>
-      <c r="C26" s="69"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="44"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="31"/>
-      <c r="O26" s="27"/>
-      <c r="P26" s="27"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="39">
-        <v>165</v>
-      </c>
-      <c r="S26" s="31"/>
-      <c r="T26" s="27"/>
-      <c r="U26" s="27"/>
-      <c r="V26" s="8"/>
-      <c r="W26" s="31"/>
-      <c r="X26" s="27"/>
-      <c r="Y26" s="27"/>
-      <c r="Z26" s="8"/>
-      <c r="AA26" s="31"/>
-      <c r="AB26" s="27"/>
-      <c r="AC26" s="27"/>
-      <c r="AD26" s="8"/>
+      <c r="S26" s="29"/>
+      <c r="T26" s="25"/>
+      <c r="U26" s="25"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="29"/>
+      <c r="X26" s="25"/>
+      <c r="Y26" s="25"/>
+      <c r="Z26" s="6"/>
+      <c r="AA26" s="29"/>
+      <c r="AB26" s="25"/>
+      <c r="AC26" s="25"/>
+      <c r="AD26" s="6"/>
       <c r="AE26" s="10"/>
-      <c r="AF26" s="74"/>
-      <c r="AG26" s="75"/>
-      <c r="AH26" s="75"/>
-      <c r="AI26" s="75"/>
-      <c r="AJ26" s="75"/>
-      <c r="AK26" s="75"/>
-      <c r="AL26" s="76"/>
+      <c r="AF26" s="102"/>
+      <c r="AG26" s="103"/>
+      <c r="AH26" s="103"/>
+      <c r="AI26" s="103"/>
+      <c r="AJ26" s="103"/>
+      <c r="AK26" s="103"/>
+      <c r="AL26" s="104"/>
     </row>
     <row r="27" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17"/>
       <c r="B27" s="53">
-        <v>4</v>
-      </c>
-      <c r="C27" s="69"/>
-      <c r="D27" s="62" t="s">
-        <v>18</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C27" s="122"/>
+      <c r="D27" s="110"/>
       <c r="E27" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="45"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="32"/>
-      <c r="O27" s="28"/>
-      <c r="P27" s="28"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="40">
-        <v>166</v>
-      </c>
-      <c r="S27" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="F27" s="43"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="38">
+        <v>164</v>
+      </c>
+      <c r="S27" s="30"/>
       <c r="T27" s="26"/>
       <c r="U27" s="26"/>
       <c r="V27" s="6"/>
@@ -2809,86 +2822,88 @@
       <c r="AC27" s="26"/>
       <c r="AD27" s="6"/>
       <c r="AE27" s="10"/>
-      <c r="AF27" s="74"/>
-      <c r="AG27" s="75"/>
-      <c r="AH27" s="75"/>
-      <c r="AI27" s="75"/>
-      <c r="AJ27" s="75"/>
-      <c r="AK27" s="75"/>
-      <c r="AL27" s="76"/>
+      <c r="AF27" s="102"/>
+      <c r="AG27" s="103"/>
+      <c r="AH27" s="103"/>
+      <c r="AI27" s="103"/>
+      <c r="AJ27" s="103"/>
+      <c r="AK27" s="103"/>
+      <c r="AL27" s="104"/>
     </row>
     <row r="28" spans="1:38" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="17"/>
       <c r="B28" s="53">
-        <v>5</v>
-      </c>
-      <c r="C28" s="69"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="43"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="26"/>
-      <c r="P28" s="26"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="38">
-        <v>167</v>
-      </c>
-      <c r="S28" s="30"/>
-      <c r="T28" s="26"/>
-      <c r="U28" s="26"/>
-      <c r="V28" s="6"/>
-      <c r="W28" s="30"/>
-      <c r="X28" s="26"/>
-      <c r="Y28" s="26"/>
-      <c r="Z28" s="6"/>
-      <c r="AA28" s="30"/>
-      <c r="AB28" s="26"/>
-      <c r="AC28" s="26"/>
-      <c r="AD28" s="6"/>
+        <v>3</v>
+      </c>
+      <c r="C28" s="122"/>
+      <c r="D28" s="111"/>
+      <c r="E28" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="44"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="27"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="39">
+        <v>165</v>
+      </c>
+      <c r="S28" s="31"/>
+      <c r="T28" s="27"/>
+      <c r="U28" s="27"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="31"/>
+      <c r="X28" s="27"/>
+      <c r="Y28" s="27"/>
+      <c r="Z28" s="8"/>
+      <c r="AA28" s="31"/>
+      <c r="AB28" s="27"/>
+      <c r="AC28" s="27"/>
+      <c r="AD28" s="8"/>
       <c r="AE28" s="10"/>
-      <c r="AF28" s="77"/>
-      <c r="AG28" s="78"/>
-      <c r="AH28" s="78"/>
-      <c r="AI28" s="78"/>
-      <c r="AJ28" s="78"/>
-      <c r="AK28" s="78"/>
-      <c r="AL28" s="79"/>
+      <c r="AF28" s="102"/>
+      <c r="AG28" s="103"/>
+      <c r="AH28" s="103"/>
+      <c r="AI28" s="103"/>
+      <c r="AJ28" s="103"/>
+      <c r="AK28" s="103"/>
+      <c r="AL28" s="104"/>
     </row>
     <row r="29" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17"/>
       <c r="B29" s="53">
-        <v>6</v>
-      </c>
-      <c r="C29" s="69"/>
-      <c r="D29" s="63"/>
+        <v>4</v>
+      </c>
+      <c r="C29" s="122"/>
+      <c r="D29" s="112" t="s">
+        <v>18</v>
+      </c>
       <c r="E29" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="43"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="30"/>
-      <c r="O29" s="26"/>
-      <c r="P29" s="26"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="38">
-        <v>168</v>
-      </c>
-      <c r="S29" s="30"/>
+        <v>12</v>
+      </c>
+      <c r="F29" s="45"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="28"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="40">
+        <v>166</v>
+      </c>
+      <c r="S29" s="32"/>
       <c r="T29" s="26"/>
       <c r="U29" s="26"/>
       <c r="V29" s="6"/>
@@ -2901,23 +2916,23 @@
       <c r="AC29" s="26"/>
       <c r="AD29" s="6"/>
       <c r="AE29" s="10"/>
-      <c r="AF29" s="14"/>
-      <c r="AG29" s="14"/>
-      <c r="AH29" s="14"/>
-      <c r="AI29" s="14"/>
-      <c r="AJ29" s="14"/>
-      <c r="AK29" s="14"/>
-      <c r="AL29" s="14"/>
-    </row>
-    <row r="30" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF29" s="102"/>
+      <c r="AG29" s="103"/>
+      <c r="AH29" s="103"/>
+      <c r="AI29" s="103"/>
+      <c r="AJ29" s="103"/>
+      <c r="AK29" s="103"/>
+      <c r="AL29" s="104"/>
+    </row>
+    <row r="30" spans="1:38" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="17"/>
       <c r="B30" s="53">
-        <v>7</v>
-      </c>
-      <c r="C30" s="69"/>
-      <c r="D30" s="63"/>
+        <v>5</v>
+      </c>
+      <c r="C30" s="122"/>
+      <c r="D30" s="110"/>
       <c r="E30" s="48" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F30" s="43"/>
       <c r="G30" s="26"/>
@@ -2932,7 +2947,7 @@
       <c r="P30" s="26"/>
       <c r="Q30" s="3"/>
       <c r="R30" s="38">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="S30" s="30"/>
       <c r="T30" s="26"/>
@@ -2947,23 +2962,23 @@
       <c r="AC30" s="26"/>
       <c r="AD30" s="6"/>
       <c r="AE30" s="10"/>
-      <c r="AF30" s="14"/>
-      <c r="AG30" s="14"/>
-      <c r="AH30" s="14"/>
-      <c r="AI30" s="14"/>
-      <c r="AJ30" s="14"/>
-      <c r="AK30" s="14"/>
-      <c r="AL30" s="14"/>
+      <c r="AF30" s="105"/>
+      <c r="AG30" s="106"/>
+      <c r="AH30" s="106"/>
+      <c r="AI30" s="106"/>
+      <c r="AJ30" s="106"/>
+      <c r="AK30" s="106"/>
+      <c r="AL30" s="107"/>
     </row>
     <row r="31" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="17"/>
       <c r="B31" s="53">
-        <v>8</v>
-      </c>
-      <c r="C31" s="69"/>
-      <c r="D31" s="63"/>
+        <v>6</v>
+      </c>
+      <c r="C31" s="122"/>
+      <c r="D31" s="110"/>
       <c r="E31" s="48" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F31" s="43"/>
       <c r="G31" s="26"/>
@@ -2978,7 +2993,7 @@
       <c r="P31" s="26"/>
       <c r="Q31" s="3"/>
       <c r="R31" s="38">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="S31" s="30"/>
       <c r="T31" s="26"/>
@@ -3004,12 +3019,12 @@
     <row r="32" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="17"/>
       <c r="B32" s="53">
-        <v>9</v>
-      </c>
-      <c r="C32" s="69"/>
-      <c r="D32" s="63"/>
+        <v>7</v>
+      </c>
+      <c r="C32" s="122"/>
+      <c r="D32" s="110"/>
       <c r="E32" s="48" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F32" s="43"/>
       <c r="G32" s="26"/>
@@ -3024,7 +3039,7 @@
       <c r="P32" s="26"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="38">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="S32" s="30"/>
       <c r="T32" s="26"/>
@@ -3050,12 +3065,12 @@
     <row r="33" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="17"/>
       <c r="B33" s="53">
-        <v>10</v>
-      </c>
-      <c r="C33" s="69"/>
-      <c r="D33" s="63"/>
+        <v>8</v>
+      </c>
+      <c r="C33" s="122"/>
+      <c r="D33" s="110"/>
       <c r="E33" s="48" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F33" s="43"/>
       <c r="G33" s="26"/>
@@ -3070,7 +3085,7 @@
       <c r="P33" s="26"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="38">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="S33" s="30"/>
       <c r="T33" s="26"/>
@@ -3096,12 +3111,12 @@
     <row r="34" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="17"/>
       <c r="B34" s="53">
-        <v>11</v>
-      </c>
-      <c r="C34" s="69"/>
-      <c r="D34" s="63"/>
+        <v>9</v>
+      </c>
+      <c r="C34" s="122"/>
+      <c r="D34" s="110"/>
       <c r="E34" s="48" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F34" s="43"/>
       <c r="G34" s="26"/>
@@ -3116,7 +3131,7 @@
       <c r="P34" s="26"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="38">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="S34" s="30"/>
       <c r="T34" s="26"/>
@@ -3131,16 +3146,23 @@
       <c r="AC34" s="26"/>
       <c r="AD34" s="6"/>
       <c r="AE34" s="10"/>
+      <c r="AF34" s="14"/>
+      <c r="AG34" s="14"/>
+      <c r="AH34" s="14"/>
+      <c r="AI34" s="14"/>
+      <c r="AJ34" s="14"/>
+      <c r="AK34" s="14"/>
+      <c r="AL34" s="14"/>
     </row>
     <row r="35" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="17"/>
       <c r="B35" s="53">
-        <v>12</v>
-      </c>
-      <c r="C35" s="69"/>
-      <c r="D35" s="63"/>
+        <v>10</v>
+      </c>
+      <c r="C35" s="122"/>
+      <c r="D35" s="110"/>
       <c r="E35" s="48" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F35" s="43"/>
       <c r="G35" s="26"/>
@@ -3155,7 +3177,7 @@
       <c r="P35" s="26"/>
       <c r="Q35" s="3"/>
       <c r="R35" s="38">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="S35" s="30"/>
       <c r="T35" s="26"/>
@@ -3170,16 +3192,23 @@
       <c r="AC35" s="26"/>
       <c r="AD35" s="6"/>
       <c r="AE35" s="10"/>
+      <c r="AF35" s="14"/>
+      <c r="AG35" s="14"/>
+      <c r="AH35" s="14"/>
+      <c r="AI35" s="14"/>
+      <c r="AJ35" s="14"/>
+      <c r="AK35" s="14"/>
+      <c r="AL35" s="14"/>
     </row>
     <row r="36" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="17"/>
       <c r="B36" s="53">
-        <v>13</v>
-      </c>
-      <c r="C36" s="69"/>
-      <c r="D36" s="63"/>
+        <v>11</v>
+      </c>
+      <c r="C36" s="122"/>
+      <c r="D36" s="110"/>
       <c r="E36" s="48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F36" s="43"/>
       <c r="G36" s="26"/>
@@ -3194,7 +3223,7 @@
       <c r="P36" s="26"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="38">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="S36" s="30"/>
       <c r="T36" s="26"/>
@@ -3209,17 +3238,16 @@
       <c r="AC36" s="26"/>
       <c r="AD36" s="6"/>
       <c r="AE36" s="10"/>
-      <c r="AG36" s="12"/>
     </row>
     <row r="37" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="17"/>
       <c r="B37" s="53">
-        <v>14</v>
-      </c>
-      <c r="C37" s="69"/>
-      <c r="D37" s="63"/>
+        <v>12</v>
+      </c>
+      <c r="C37" s="122"/>
+      <c r="D37" s="110"/>
       <c r="E37" s="48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F37" s="43"/>
       <c r="G37" s="26"/>
@@ -3234,7 +3262,7 @@
       <c r="P37" s="26"/>
       <c r="Q37" s="3"/>
       <c r="R37" s="38">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="S37" s="30"/>
       <c r="T37" s="26"/>
@@ -3253,377 +3281,378 @@
     <row r="38" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="17"/>
       <c r="B38" s="53">
+        <v>13</v>
+      </c>
+      <c r="C38" s="122"/>
+      <c r="D38" s="110"/>
+      <c r="E38" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="69"/>
-      <c r="D38" s="63"/>
-      <c r="E38" s="48" t="s">
-        <v>36</v>
-      </c>
       <c r="F38" s="43"/>
-      <c r="G38" s="114" t="s">
-        <v>52</v>
-      </c>
-      <c r="H38" s="115"/>
-      <c r="I38" s="116"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="6"/>
       <c r="J38" s="30"/>
-      <c r="K38" s="114" t="s">
-        <v>52</v>
-      </c>
-      <c r="L38" s="115"/>
-      <c r="M38" s="116"/>
+      <c r="K38" s="26"/>
+      <c r="L38" s="26"/>
+      <c r="M38" s="6"/>
       <c r="N38" s="30"/>
-      <c r="O38" s="114" t="s">
-        <v>52</v>
-      </c>
-      <c r="P38" s="115"/>
-      <c r="Q38" s="116"/>
+      <c r="O38" s="26"/>
+      <c r="P38" s="26"/>
+      <c r="Q38" s="3"/>
       <c r="R38" s="38">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="S38" s="30"/>
-      <c r="T38" s="114" t="s">
-        <v>52</v>
-      </c>
-      <c r="U38" s="115"/>
-      <c r="V38" s="116"/>
+      <c r="T38" s="26"/>
+      <c r="U38" s="26"/>
+      <c r="V38" s="6"/>
       <c r="W38" s="30"/>
-      <c r="X38" s="114" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y38" s="115"/>
-      <c r="Z38" s="116"/>
+      <c r="X38" s="26"/>
+      <c r="Y38" s="26"/>
+      <c r="Z38" s="6"/>
       <c r="AA38" s="30"/>
-      <c r="AB38" s="114" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC38" s="115"/>
-      <c r="AD38" s="116"/>
+      <c r="AB38" s="26"/>
+      <c r="AC38" s="26"/>
+      <c r="AD38" s="6"/>
       <c r="AE38" s="10"/>
+      <c r="AG38" s="12"/>
     </row>
     <row r="39" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="17"/>
       <c r="B39" s="53">
-        <v>16</v>
-      </c>
-      <c r="C39" s="69"/>
-      <c r="D39" s="63"/>
+        <v>14</v>
+      </c>
+      <c r="C39" s="122"/>
+      <c r="D39" s="110"/>
       <c r="E39" s="48" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="F39" s="43"/>
-      <c r="G39" s="117"/>
-      <c r="H39" s="115"/>
-      <c r="I39" s="116"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="6"/>
       <c r="J39" s="30"/>
-      <c r="K39" s="117"/>
-      <c r="L39" s="115"/>
-      <c r="M39" s="116"/>
+      <c r="K39" s="26"/>
+      <c r="L39" s="26"/>
+      <c r="M39" s="6"/>
       <c r="N39" s="30"/>
-      <c r="O39" s="117"/>
-      <c r="P39" s="115"/>
-      <c r="Q39" s="116"/>
+      <c r="O39" s="26"/>
+      <c r="P39" s="26"/>
+      <c r="Q39" s="3"/>
       <c r="R39" s="38">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="S39" s="30"/>
-      <c r="T39" s="117"/>
-      <c r="U39" s="115"/>
-      <c r="V39" s="116"/>
+      <c r="T39" s="26"/>
+      <c r="U39" s="26"/>
+      <c r="V39" s="6"/>
       <c r="W39" s="30"/>
-      <c r="X39" s="117"/>
-      <c r="Y39" s="115"/>
-      <c r="Z39" s="116"/>
+      <c r="X39" s="26"/>
+      <c r="Y39" s="26"/>
+      <c r="Z39" s="6"/>
       <c r="AA39" s="30"/>
-      <c r="AB39" s="117"/>
-      <c r="AC39" s="115"/>
-      <c r="AD39" s="116"/>
+      <c r="AB39" s="26"/>
+      <c r="AC39" s="26"/>
+      <c r="AD39" s="6"/>
       <c r="AE39" s="10"/>
     </row>
     <row r="40" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="17"/>
       <c r="B40" s="53">
-        <v>17</v>
-      </c>
-      <c r="C40" s="69"/>
-      <c r="D40" s="63"/>
+        <v>15</v>
+      </c>
+      <c r="C40" s="122"/>
+      <c r="D40" s="110"/>
       <c r="E40" s="48" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F40" s="43"/>
-      <c r="G40" s="117"/>
-      <c r="H40" s="115"/>
-      <c r="I40" s="116"/>
+      <c r="G40" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="H40" s="64"/>
+      <c r="I40" s="65"/>
       <c r="J40" s="30"/>
-      <c r="K40" s="117"/>
-      <c r="L40" s="115"/>
-      <c r="M40" s="116"/>
+      <c r="K40" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="L40" s="64"/>
+      <c r="M40" s="65"/>
       <c r="N40" s="30"/>
-      <c r="O40" s="117"/>
-      <c r="P40" s="115"/>
-      <c r="Q40" s="116"/>
+      <c r="O40" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="P40" s="64"/>
+      <c r="Q40" s="65"/>
       <c r="R40" s="38">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="S40" s="30"/>
-      <c r="T40" s="117"/>
-      <c r="U40" s="115"/>
-      <c r="V40" s="116"/>
+      <c r="T40" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="U40" s="64"/>
+      <c r="V40" s="65"/>
       <c r="W40" s="30"/>
-      <c r="X40" s="117"/>
-      <c r="Y40" s="115"/>
-      <c r="Z40" s="116"/>
+      <c r="X40" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y40" s="64"/>
+      <c r="Z40" s="65"/>
       <c r="AA40" s="30"/>
-      <c r="AB40" s="117"/>
-      <c r="AC40" s="115"/>
-      <c r="AD40" s="116"/>
+      <c r="AB40" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC40" s="64"/>
+      <c r="AD40" s="65"/>
       <c r="AE40" s="10"/>
     </row>
     <row r="41" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="17"/>
       <c r="B41" s="53">
-        <v>18</v>
-      </c>
-      <c r="C41" s="69"/>
-      <c r="D41" s="63"/>
+        <v>16</v>
+      </c>
+      <c r="C41" s="122"/>
+      <c r="D41" s="110"/>
       <c r="E41" s="48" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F41" s="43"/>
-      <c r="G41" s="117"/>
-      <c r="H41" s="115"/>
-      <c r="I41" s="116"/>
+      <c r="G41" s="66"/>
+      <c r="H41" s="64"/>
+      <c r="I41" s="65"/>
       <c r="J41" s="30"/>
-      <c r="K41" s="117"/>
-      <c r="L41" s="115"/>
-      <c r="M41" s="116"/>
+      <c r="K41" s="66"/>
+      <c r="L41" s="64"/>
+      <c r="M41" s="65"/>
       <c r="N41" s="30"/>
-      <c r="O41" s="117"/>
-      <c r="P41" s="115"/>
-      <c r="Q41" s="116"/>
+      <c r="O41" s="66"/>
+      <c r="P41" s="64"/>
+      <c r="Q41" s="65"/>
       <c r="R41" s="38">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="S41" s="30"/>
-      <c r="T41" s="117"/>
-      <c r="U41" s="115"/>
-      <c r="V41" s="116"/>
+      <c r="T41" s="66"/>
+      <c r="U41" s="64"/>
+      <c r="V41" s="65"/>
       <c r="W41" s="30"/>
-      <c r="X41" s="117"/>
-      <c r="Y41" s="115"/>
-      <c r="Z41" s="116"/>
+      <c r="X41" s="66"/>
+      <c r="Y41" s="64"/>
+      <c r="Z41" s="65"/>
       <c r="AA41" s="30"/>
-      <c r="AB41" s="117"/>
-      <c r="AC41" s="115"/>
-      <c r="AD41" s="116"/>
+      <c r="AB41" s="66"/>
+      <c r="AC41" s="64"/>
+      <c r="AD41" s="65"/>
       <c r="AE41" s="10"/>
     </row>
     <row r="42" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="17"/>
       <c r="B42" s="53">
-        <v>19</v>
-      </c>
-      <c r="C42" s="69"/>
-      <c r="D42" s="63"/>
+        <v>17</v>
+      </c>
+      <c r="C42" s="122"/>
+      <c r="D42" s="110"/>
       <c r="E42" s="48" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F42" s="43"/>
-      <c r="G42" s="117"/>
-      <c r="H42" s="115"/>
-      <c r="I42" s="116"/>
+      <c r="G42" s="66"/>
+      <c r="H42" s="64"/>
+      <c r="I42" s="65"/>
       <c r="J42" s="30"/>
-      <c r="K42" s="117"/>
-      <c r="L42" s="115"/>
-      <c r="M42" s="116"/>
+      <c r="K42" s="66"/>
+      <c r="L42" s="64"/>
+      <c r="M42" s="65"/>
       <c r="N42" s="30"/>
-      <c r="O42" s="117"/>
-      <c r="P42" s="115"/>
-      <c r="Q42" s="116"/>
+      <c r="O42" s="66"/>
+      <c r="P42" s="64"/>
+      <c r="Q42" s="65"/>
       <c r="R42" s="38">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="S42" s="30"/>
-      <c r="T42" s="117"/>
-      <c r="U42" s="115"/>
-      <c r="V42" s="116"/>
+      <c r="T42" s="66"/>
+      <c r="U42" s="64"/>
+      <c r="V42" s="65"/>
       <c r="W42" s="30"/>
-      <c r="X42" s="117"/>
-      <c r="Y42" s="115"/>
-      <c r="Z42" s="116"/>
+      <c r="X42" s="66"/>
+      <c r="Y42" s="64"/>
+      <c r="Z42" s="65"/>
       <c r="AA42" s="30"/>
-      <c r="AB42" s="117"/>
-      <c r="AC42" s="115"/>
-      <c r="AD42" s="116"/>
+      <c r="AB42" s="66"/>
+      <c r="AC42" s="64"/>
+      <c r="AD42" s="65"/>
       <c r="AE42" s="10"/>
     </row>
-    <row r="43" spans="1:38" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="17"/>
       <c r="B43" s="53">
-        <v>20</v>
-      </c>
-      <c r="C43" s="69"/>
-      <c r="D43" s="64"/>
+        <v>18</v>
+      </c>
+      <c r="C43" s="122"/>
+      <c r="D43" s="110"/>
       <c r="E43" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="F43" s="44"/>
-      <c r="G43" s="118"/>
-      <c r="H43" s="119"/>
-      <c r="I43" s="120"/>
-      <c r="J43" s="31"/>
-      <c r="K43" s="118"/>
-      <c r="L43" s="119"/>
-      <c r="M43" s="120"/>
-      <c r="N43" s="31"/>
-      <c r="O43" s="118"/>
-      <c r="P43" s="119"/>
-      <c r="Q43" s="120"/>
+        <v>39</v>
+      </c>
+      <c r="F43" s="43"/>
+      <c r="G43" s="66"/>
+      <c r="H43" s="64"/>
+      <c r="I43" s="65"/>
+      <c r="J43" s="30"/>
+      <c r="K43" s="66"/>
+      <c r="L43" s="64"/>
+      <c r="M43" s="65"/>
+      <c r="N43" s="30"/>
+      <c r="O43" s="66"/>
+      <c r="P43" s="64"/>
+      <c r="Q43" s="65"/>
       <c r="R43" s="38">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="S43" s="30"/>
-      <c r="T43" s="118"/>
-      <c r="U43" s="119"/>
-      <c r="V43" s="120"/>
+      <c r="T43" s="66"/>
+      <c r="U43" s="64"/>
+      <c r="V43" s="65"/>
       <c r="W43" s="30"/>
-      <c r="X43" s="118"/>
-      <c r="Y43" s="119"/>
-      <c r="Z43" s="120"/>
+      <c r="X43" s="66"/>
+      <c r="Y43" s="64"/>
+      <c r="Z43" s="65"/>
       <c r="AA43" s="30"/>
-      <c r="AB43" s="118"/>
-      <c r="AC43" s="119"/>
-      <c r="AD43" s="120"/>
+      <c r="AB43" s="66"/>
+      <c r="AC43" s="64"/>
+      <c r="AD43" s="65"/>
       <c r="AE43" s="10"/>
     </row>
     <row r="44" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="17"/>
       <c r="B44" s="53">
-        <v>21</v>
-      </c>
-      <c r="C44" s="69"/>
-      <c r="D44" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="E44" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" s="45"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="32"/>
-      <c r="K44" s="28"/>
-      <c r="L44" s="28"/>
-      <c r="M44" s="7"/>
-      <c r="N44" s="32"/>
-      <c r="O44" s="28"/>
-      <c r="P44" s="28"/>
-      <c r="Q44" s="5"/>
-      <c r="R44" s="40">
-        <v>183</v>
-      </c>
-      <c r="S44" s="32"/>
-      <c r="T44" s="28"/>
-      <c r="U44" s="28"/>
-      <c r="V44" s="7"/>
-      <c r="W44" s="32"/>
-      <c r="X44" s="28"/>
-      <c r="Y44" s="28"/>
-      <c r="Z44" s="7"/>
-      <c r="AA44" s="32"/>
-      <c r="AB44" s="28"/>
-      <c r="AC44" s="28"/>
-      <c r="AD44" s="7"/>
+      <c r="C44" s="122"/>
+      <c r="D44" s="110"/>
+      <c r="E44" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="F44" s="43"/>
+      <c r="G44" s="66"/>
+      <c r="H44" s="64"/>
+      <c r="I44" s="65"/>
+      <c r="J44" s="30"/>
+      <c r="K44" s="66"/>
+      <c r="L44" s="64"/>
+      <c r="M44" s="65"/>
+      <c r="N44" s="30"/>
+      <c r="O44" s="66"/>
+      <c r="P44" s="64"/>
+      <c r="Q44" s="65"/>
+      <c r="R44" s="38">
+        <v>181</v>
+      </c>
+      <c r="S44" s="30"/>
+      <c r="T44" s="66"/>
+      <c r="U44" s="64"/>
+      <c r="V44" s="65"/>
+      <c r="W44" s="30"/>
+      <c r="X44" s="66"/>
+      <c r="Y44" s="64"/>
+      <c r="Z44" s="65"/>
+      <c r="AA44" s="30"/>
+      <c r="AB44" s="66"/>
+      <c r="AC44" s="64"/>
+      <c r="AD44" s="65"/>
       <c r="AE44" s="10"/>
     </row>
-    <row r="45" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:38" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="17"/>
       <c r="B45" s="53">
-        <v>22</v>
-      </c>
-      <c r="C45" s="69"/>
-      <c r="D45" s="63"/>
+        <v>20</v>
+      </c>
+      <c r="C45" s="122"/>
+      <c r="D45" s="111"/>
       <c r="E45" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="F45" s="43"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="30"/>
-      <c r="K45" s="26"/>
-      <c r="L45" s="26"/>
-      <c r="M45" s="6"/>
-      <c r="N45" s="30"/>
-      <c r="O45" s="26"/>
-      <c r="P45" s="26"/>
-      <c r="Q45" s="3"/>
+        <v>41</v>
+      </c>
+      <c r="F45" s="44"/>
+      <c r="G45" s="67"/>
+      <c r="H45" s="68"/>
+      <c r="I45" s="69"/>
+      <c r="J45" s="31"/>
+      <c r="K45" s="67"/>
+      <c r="L45" s="68"/>
+      <c r="M45" s="69"/>
+      <c r="N45" s="31"/>
+      <c r="O45" s="67"/>
+      <c r="P45" s="68"/>
+      <c r="Q45" s="69"/>
       <c r="R45" s="38">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="S45" s="30"/>
-      <c r="T45" s="26"/>
-      <c r="U45" s="26"/>
-      <c r="V45" s="6"/>
+      <c r="T45" s="67"/>
+      <c r="U45" s="68"/>
+      <c r="V45" s="69"/>
       <c r="W45" s="30"/>
-      <c r="X45" s="26"/>
-      <c r="Y45" s="26"/>
-      <c r="Z45" s="6"/>
+      <c r="X45" s="67"/>
+      <c r="Y45" s="68"/>
+      <c r="Z45" s="69"/>
       <c r="AA45" s="30"/>
-      <c r="AB45" s="26"/>
-      <c r="AC45" s="26"/>
-      <c r="AD45" s="6"/>
+      <c r="AB45" s="67"/>
+      <c r="AC45" s="68"/>
+      <c r="AD45" s="69"/>
       <c r="AE45" s="10"/>
     </row>
     <row r="46" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="17"/>
       <c r="B46" s="53">
-        <v>23</v>
-      </c>
-      <c r="C46" s="69"/>
-      <c r="D46" s="63"/>
-      <c r="E46" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="F46" s="43"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="26"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="30"/>
-      <c r="K46" s="26"/>
-      <c r="L46" s="26"/>
-      <c r="M46" s="6"/>
-      <c r="N46" s="30"/>
-      <c r="O46" s="26"/>
-      <c r="P46" s="26"/>
-      <c r="Q46" s="3"/>
-      <c r="R46" s="38">
-        <v>185</v>
-      </c>
-      <c r="S46" s="30"/>
-      <c r="T46" s="26"/>
-      <c r="U46" s="26"/>
-      <c r="V46" s="6"/>
-      <c r="W46" s="30"/>
-      <c r="X46" s="26"/>
-      <c r="Y46" s="26"/>
-      <c r="Z46" s="6"/>
-      <c r="AA46" s="30"/>
-      <c r="AB46" s="26"/>
-      <c r="AC46" s="26"/>
-      <c r="AD46" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="C46" s="122"/>
+      <c r="D46" s="112" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="45"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="32"/>
+      <c r="K46" s="28"/>
+      <c r="L46" s="28"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="32"/>
+      <c r="O46" s="28"/>
+      <c r="P46" s="28"/>
+      <c r="Q46" s="5"/>
+      <c r="R46" s="40">
+        <v>183</v>
+      </c>
+      <c r="S46" s="32"/>
+      <c r="T46" s="28"/>
+      <c r="U46" s="28"/>
+      <c r="V46" s="7"/>
+      <c r="W46" s="32"/>
+      <c r="X46" s="28"/>
+      <c r="Y46" s="28"/>
+      <c r="Z46" s="7"/>
+      <c r="AA46" s="32"/>
+      <c r="AB46" s="28"/>
+      <c r="AC46" s="28"/>
+      <c r="AD46" s="7"/>
       <c r="AE46" s="10"/>
     </row>
     <row r="47" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="17"/>
       <c r="B47" s="53">
-        <v>24</v>
-      </c>
-      <c r="C47" s="69"/>
-      <c r="D47" s="63"/>
+        <v>22</v>
+      </c>
+      <c r="C47" s="122"/>
+      <c r="D47" s="110"/>
       <c r="E47" s="48" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F47" s="43"/>
       <c r="G47" s="26"/>
@@ -3638,7 +3667,7 @@
       <c r="P47" s="26"/>
       <c r="Q47" s="3"/>
       <c r="R47" s="38">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="S47" s="30"/>
       <c r="T47" s="26"/>
@@ -3657,12 +3686,12 @@
     <row r="48" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="17"/>
       <c r="B48" s="53">
-        <v>25</v>
-      </c>
-      <c r="C48" s="69"/>
-      <c r="D48" s="63"/>
+        <v>23</v>
+      </c>
+      <c r="C48" s="122"/>
+      <c r="D48" s="110"/>
       <c r="E48" s="48" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F48" s="43"/>
       <c r="G48" s="26"/>
@@ -3677,7 +3706,7 @@
       <c r="P48" s="26"/>
       <c r="Q48" s="3"/>
       <c r="R48" s="38">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="S48" s="30"/>
       <c r="T48" s="26"/>
@@ -3696,12 +3725,12 @@
     <row r="49" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="17"/>
       <c r="B49" s="53">
-        <v>26</v>
-      </c>
-      <c r="C49" s="69"/>
-      <c r="D49" s="63"/>
+        <v>24</v>
+      </c>
+      <c r="C49" s="122"/>
+      <c r="D49" s="110"/>
       <c r="E49" s="48" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F49" s="43"/>
       <c r="G49" s="26"/>
@@ -3716,7 +3745,7 @@
       <c r="P49" s="26"/>
       <c r="Q49" s="3"/>
       <c r="R49" s="38">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="S49" s="30"/>
       <c r="T49" s="26"/>
@@ -3735,12 +3764,12 @@
     <row r="50" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="17"/>
       <c r="B50" s="53">
-        <v>27</v>
-      </c>
-      <c r="C50" s="69"/>
-      <c r="D50" s="63"/>
+        <v>25</v>
+      </c>
+      <c r="C50" s="122"/>
+      <c r="D50" s="110"/>
       <c r="E50" s="48" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F50" s="43"/>
       <c r="G50" s="26"/>
@@ -3755,7 +3784,7 @@
       <c r="P50" s="26"/>
       <c r="Q50" s="3"/>
       <c r="R50" s="38">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="S50" s="30"/>
       <c r="T50" s="26"/>
@@ -3774,12 +3803,12 @@
     <row r="51" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="17"/>
       <c r="B51" s="53">
-        <v>28</v>
-      </c>
-      <c r="C51" s="69"/>
-      <c r="D51" s="63"/>
+        <v>26</v>
+      </c>
+      <c r="C51" s="122"/>
+      <c r="D51" s="110"/>
       <c r="E51" s="48" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F51" s="43"/>
       <c r="G51" s="26"/>
@@ -3794,7 +3823,7 @@
       <c r="P51" s="26"/>
       <c r="Q51" s="3"/>
       <c r="R51" s="38">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="S51" s="30"/>
       <c r="T51" s="26"/>
@@ -3813,12 +3842,12 @@
     <row r="52" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="17"/>
       <c r="B52" s="53">
-        <v>29</v>
-      </c>
-      <c r="C52" s="69"/>
-      <c r="D52" s="63"/>
+        <v>27</v>
+      </c>
+      <c r="C52" s="122"/>
+      <c r="D52" s="110"/>
       <c r="E52" s="48" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F52" s="43"/>
       <c r="G52" s="26"/>
@@ -3833,7 +3862,7 @@
       <c r="P52" s="26"/>
       <c r="Q52" s="3"/>
       <c r="R52" s="38">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="S52" s="30"/>
       <c r="T52" s="26"/>
@@ -3852,12 +3881,12 @@
     <row r="53" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="17"/>
       <c r="B53" s="53">
-        <v>30</v>
-      </c>
-      <c r="C53" s="69"/>
-      <c r="D53" s="63"/>
+        <v>28</v>
+      </c>
+      <c r="C53" s="122"/>
+      <c r="D53" s="110"/>
       <c r="E53" s="48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F53" s="43"/>
       <c r="G53" s="26"/>
@@ -3872,7 +3901,7 @@
       <c r="P53" s="26"/>
       <c r="Q53" s="3"/>
       <c r="R53" s="38">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="S53" s="30"/>
       <c r="T53" s="26"/>
@@ -3891,12 +3920,12 @@
     <row r="54" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="17"/>
       <c r="B54" s="53">
-        <v>31</v>
-      </c>
-      <c r="C54" s="69"/>
-      <c r="D54" s="63"/>
+        <v>29</v>
+      </c>
+      <c r="C54" s="122"/>
+      <c r="D54" s="110"/>
       <c r="E54" s="48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F54" s="43"/>
       <c r="G54" s="26"/>
@@ -3911,7 +3940,7 @@
       <c r="P54" s="26"/>
       <c r="Q54" s="3"/>
       <c r="R54" s="38">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="S54" s="30"/>
       <c r="T54" s="26"/>
@@ -3930,377 +3959,377 @@
     <row r="55" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="17"/>
       <c r="B55" s="53">
-        <v>32</v>
-      </c>
-      <c r="C55" s="69"/>
-      <c r="D55" s="63"/>
+        <v>30</v>
+      </c>
+      <c r="C55" s="122"/>
+      <c r="D55" s="110"/>
       <c r="E55" s="48" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="F55" s="43"/>
-      <c r="G55" s="114" t="s">
-        <v>52</v>
-      </c>
-      <c r="H55" s="115"/>
-      <c r="I55" s="116"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="26"/>
+      <c r="I55" s="6"/>
       <c r="J55" s="30"/>
-      <c r="K55" s="114" t="s">
-        <v>52</v>
-      </c>
-      <c r="L55" s="115"/>
-      <c r="M55" s="116"/>
+      <c r="K55" s="26"/>
+      <c r="L55" s="26"/>
+      <c r="M55" s="6"/>
       <c r="N55" s="30"/>
-      <c r="O55" s="114" t="s">
-        <v>52</v>
-      </c>
-      <c r="P55" s="115"/>
-      <c r="Q55" s="116"/>
+      <c r="O55" s="26"/>
+      <c r="P55" s="26"/>
+      <c r="Q55" s="3"/>
       <c r="R55" s="38">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="S55" s="30"/>
-      <c r="T55" s="114" t="s">
-        <v>52</v>
-      </c>
-      <c r="U55" s="115"/>
-      <c r="V55" s="116"/>
+      <c r="T55" s="26"/>
+      <c r="U55" s="26"/>
+      <c r="V55" s="6"/>
       <c r="W55" s="30"/>
-      <c r="X55" s="114" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y55" s="115"/>
-      <c r="Z55" s="116"/>
+      <c r="X55" s="26"/>
+      <c r="Y55" s="26"/>
+      <c r="Z55" s="6"/>
       <c r="AA55" s="30"/>
-      <c r="AB55" s="114" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC55" s="115"/>
-      <c r="AD55" s="116"/>
+      <c r="AB55" s="26"/>
+      <c r="AC55" s="26"/>
+      <c r="AD55" s="6"/>
       <c r="AE55" s="10"/>
     </row>
     <row r="56" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="17"/>
       <c r="B56" s="53">
-        <v>33</v>
-      </c>
-      <c r="C56" s="69"/>
-      <c r="D56" s="63"/>
+        <v>31</v>
+      </c>
+      <c r="C56" s="122"/>
+      <c r="D56" s="110"/>
       <c r="E56" s="48" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="F56" s="43"/>
-      <c r="G56" s="117"/>
-      <c r="H56" s="115"/>
-      <c r="I56" s="116"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="26"/>
+      <c r="I56" s="6"/>
       <c r="J56" s="30"/>
-      <c r="K56" s="117"/>
-      <c r="L56" s="115"/>
-      <c r="M56" s="116"/>
+      <c r="K56" s="26"/>
+      <c r="L56" s="26"/>
+      <c r="M56" s="6"/>
       <c r="N56" s="30"/>
-      <c r="O56" s="117"/>
-      <c r="P56" s="115"/>
-      <c r="Q56" s="116"/>
+      <c r="O56" s="26"/>
+      <c r="P56" s="26"/>
+      <c r="Q56" s="3"/>
       <c r="R56" s="38">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="S56" s="30"/>
-      <c r="T56" s="117"/>
-      <c r="U56" s="115"/>
-      <c r="V56" s="116"/>
+      <c r="T56" s="26"/>
+      <c r="U56" s="26"/>
+      <c r="V56" s="6"/>
       <c r="W56" s="30"/>
-      <c r="X56" s="117"/>
-      <c r="Y56" s="115"/>
-      <c r="Z56" s="116"/>
+      <c r="X56" s="26"/>
+      <c r="Y56" s="26"/>
+      <c r="Z56" s="6"/>
       <c r="AA56" s="30"/>
-      <c r="AB56" s="117"/>
-      <c r="AC56" s="115"/>
-      <c r="AD56" s="116"/>
+      <c r="AB56" s="26"/>
+      <c r="AC56" s="26"/>
+      <c r="AD56" s="6"/>
       <c r="AE56" s="10"/>
     </row>
     <row r="57" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="17"/>
       <c r="B57" s="53">
-        <v>34</v>
-      </c>
-      <c r="C57" s="69"/>
-      <c r="D57" s="63"/>
+        <v>32</v>
+      </c>
+      <c r="C57" s="122"/>
+      <c r="D57" s="110"/>
       <c r="E57" s="48" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F57" s="43"/>
-      <c r="G57" s="117"/>
-      <c r="H57" s="115"/>
-      <c r="I57" s="116"/>
+      <c r="G57" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="H57" s="64"/>
+      <c r="I57" s="65"/>
       <c r="J57" s="30"/>
-      <c r="K57" s="117"/>
-      <c r="L57" s="115"/>
-      <c r="M57" s="116"/>
+      <c r="K57" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="L57" s="64"/>
+      <c r="M57" s="65"/>
       <c r="N57" s="30"/>
-      <c r="O57" s="117"/>
-      <c r="P57" s="115"/>
-      <c r="Q57" s="116"/>
+      <c r="O57" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="P57" s="64"/>
+      <c r="Q57" s="65"/>
       <c r="R57" s="38">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="S57" s="30"/>
-      <c r="T57" s="117"/>
-      <c r="U57" s="115"/>
-      <c r="V57" s="116"/>
+      <c r="T57" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="U57" s="64"/>
+      <c r="V57" s="65"/>
       <c r="W57" s="30"/>
-      <c r="X57" s="117"/>
-      <c r="Y57" s="115"/>
-      <c r="Z57" s="116"/>
+      <c r="X57" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y57" s="64"/>
+      <c r="Z57" s="65"/>
       <c r="AA57" s="30"/>
-      <c r="AB57" s="117"/>
-      <c r="AC57" s="115"/>
-      <c r="AD57" s="116"/>
+      <c r="AB57" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC57" s="64"/>
+      <c r="AD57" s="65"/>
       <c r="AE57" s="10"/>
     </row>
     <row r="58" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="17"/>
       <c r="B58" s="53">
-        <v>35</v>
-      </c>
-      <c r="C58" s="69"/>
-      <c r="D58" s="63"/>
+        <v>33</v>
+      </c>
+      <c r="C58" s="122"/>
+      <c r="D58" s="110"/>
       <c r="E58" s="48" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F58" s="43"/>
-      <c r="G58" s="117"/>
-      <c r="H58" s="115"/>
-      <c r="I58" s="116"/>
+      <c r="G58" s="66"/>
+      <c r="H58" s="64"/>
+      <c r="I58" s="65"/>
       <c r="J58" s="30"/>
-      <c r="K58" s="117"/>
-      <c r="L58" s="115"/>
-      <c r="M58" s="116"/>
+      <c r="K58" s="66"/>
+      <c r="L58" s="64"/>
+      <c r="M58" s="65"/>
       <c r="N58" s="30"/>
-      <c r="O58" s="117"/>
-      <c r="P58" s="115"/>
-      <c r="Q58" s="116"/>
+      <c r="O58" s="66"/>
+      <c r="P58" s="64"/>
+      <c r="Q58" s="65"/>
       <c r="R58" s="38">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="S58" s="30"/>
-      <c r="T58" s="117"/>
-      <c r="U58" s="115"/>
-      <c r="V58" s="116"/>
+      <c r="T58" s="66"/>
+      <c r="U58" s="64"/>
+      <c r="V58" s="65"/>
       <c r="W58" s="30"/>
-      <c r="X58" s="117"/>
-      <c r="Y58" s="115"/>
-      <c r="Z58" s="116"/>
+      <c r="X58" s="66"/>
+      <c r="Y58" s="64"/>
+      <c r="Z58" s="65"/>
       <c r="AA58" s="30"/>
-      <c r="AB58" s="117"/>
-      <c r="AC58" s="115"/>
-      <c r="AD58" s="116"/>
+      <c r="AB58" s="66"/>
+      <c r="AC58" s="64"/>
+      <c r="AD58" s="65"/>
       <c r="AE58" s="10"/>
     </row>
     <row r="59" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="17"/>
       <c r="B59" s="53">
-        <v>36</v>
-      </c>
-      <c r="C59" s="69"/>
-      <c r="D59" s="63"/>
+        <v>34</v>
+      </c>
+      <c r="C59" s="122"/>
+      <c r="D59" s="110"/>
       <c r="E59" s="48" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F59" s="43"/>
-      <c r="G59" s="117"/>
-      <c r="H59" s="115"/>
-      <c r="I59" s="116"/>
+      <c r="G59" s="66"/>
+      <c r="H59" s="64"/>
+      <c r="I59" s="65"/>
       <c r="J59" s="30"/>
-      <c r="K59" s="117"/>
-      <c r="L59" s="115"/>
-      <c r="M59" s="116"/>
+      <c r="K59" s="66"/>
+      <c r="L59" s="64"/>
+      <c r="M59" s="65"/>
       <c r="N59" s="30"/>
-      <c r="O59" s="117"/>
-      <c r="P59" s="115"/>
-      <c r="Q59" s="116"/>
+      <c r="O59" s="66"/>
+      <c r="P59" s="64"/>
+      <c r="Q59" s="65"/>
       <c r="R59" s="38">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="S59" s="30"/>
-      <c r="T59" s="117"/>
-      <c r="U59" s="115"/>
-      <c r="V59" s="116"/>
+      <c r="T59" s="66"/>
+      <c r="U59" s="64"/>
+      <c r="V59" s="65"/>
       <c r="W59" s="30"/>
-      <c r="X59" s="117"/>
-      <c r="Y59" s="115"/>
-      <c r="Z59" s="116"/>
+      <c r="X59" s="66"/>
+      <c r="Y59" s="64"/>
+      <c r="Z59" s="65"/>
       <c r="AA59" s="30"/>
-      <c r="AB59" s="117"/>
-      <c r="AC59" s="115"/>
-      <c r="AD59" s="116"/>
+      <c r="AB59" s="66"/>
+      <c r="AC59" s="64"/>
+      <c r="AD59" s="65"/>
       <c r="AE59" s="10"/>
     </row>
-    <row r="60" spans="1:31" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="17"/>
       <c r="B60" s="53">
-        <v>37</v>
-      </c>
-      <c r="C60" s="69"/>
-      <c r="D60" s="64"/>
+        <v>35</v>
+      </c>
+      <c r="C60" s="122"/>
+      <c r="D60" s="110"/>
       <c r="E60" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="F60" s="44"/>
-      <c r="G60" s="118"/>
-      <c r="H60" s="119"/>
-      <c r="I60" s="120"/>
-      <c r="J60" s="31"/>
-      <c r="K60" s="118"/>
-      <c r="L60" s="119"/>
-      <c r="M60" s="120"/>
-      <c r="N60" s="31"/>
-      <c r="O60" s="118"/>
-      <c r="P60" s="119"/>
-      <c r="Q60" s="120"/>
+        <v>39</v>
+      </c>
+      <c r="F60" s="43"/>
+      <c r="G60" s="66"/>
+      <c r="H60" s="64"/>
+      <c r="I60" s="65"/>
+      <c r="J60" s="30"/>
+      <c r="K60" s="66"/>
+      <c r="L60" s="64"/>
+      <c r="M60" s="65"/>
+      <c r="N60" s="30"/>
+      <c r="O60" s="66"/>
+      <c r="P60" s="64"/>
+      <c r="Q60" s="65"/>
       <c r="R60" s="38">
-        <v>199</v>
-      </c>
-      <c r="S60" s="31"/>
-      <c r="T60" s="118"/>
-      <c r="U60" s="119"/>
-      <c r="V60" s="120"/>
-      <c r="W60" s="31"/>
-      <c r="X60" s="118"/>
-      <c r="Y60" s="119"/>
-      <c r="Z60" s="120"/>
-      <c r="AA60" s="31"/>
-      <c r="AB60" s="118"/>
-      <c r="AC60" s="119"/>
-      <c r="AD60" s="120"/>
+        <v>197</v>
+      </c>
+      <c r="S60" s="30"/>
+      <c r="T60" s="66"/>
+      <c r="U60" s="64"/>
+      <c r="V60" s="65"/>
+      <c r="W60" s="30"/>
+      <c r="X60" s="66"/>
+      <c r="Y60" s="64"/>
+      <c r="Z60" s="65"/>
+      <c r="AA60" s="30"/>
+      <c r="AB60" s="66"/>
+      <c r="AC60" s="64"/>
+      <c r="AD60" s="65"/>
       <c r="AE60" s="10"/>
     </row>
     <row r="61" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="17"/>
       <c r="B61" s="53">
-        <v>38</v>
-      </c>
-      <c r="C61" s="69"/>
-      <c r="D61" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="E61" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="F61" s="45"/>
-      <c r="G61" s="28"/>
-      <c r="H61" s="28"/>
-      <c r="I61" s="7"/>
-      <c r="J61" s="32"/>
-      <c r="K61" s="28"/>
-      <c r="L61" s="28"/>
-      <c r="M61" s="7"/>
-      <c r="N61" s="32"/>
-      <c r="O61" s="28"/>
-      <c r="P61" s="28"/>
-      <c r="Q61" s="5"/>
-      <c r="R61" s="40">
-        <v>200</v>
-      </c>
-      <c r="S61" s="32"/>
-      <c r="T61" s="28"/>
-      <c r="U61" s="28"/>
-      <c r="V61" s="7"/>
-      <c r="W61" s="32"/>
-      <c r="X61" s="28"/>
-      <c r="Y61" s="28"/>
-      <c r="Z61" s="7"/>
-      <c r="AA61" s="32"/>
-      <c r="AB61" s="28"/>
-      <c r="AC61" s="28"/>
-      <c r="AD61" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="C61" s="122"/>
+      <c r="D61" s="110"/>
+      <c r="E61" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="F61" s="43"/>
+      <c r="G61" s="66"/>
+      <c r="H61" s="64"/>
+      <c r="I61" s="65"/>
+      <c r="J61" s="30"/>
+      <c r="K61" s="66"/>
+      <c r="L61" s="64"/>
+      <c r="M61" s="65"/>
+      <c r="N61" s="30"/>
+      <c r="O61" s="66"/>
+      <c r="P61" s="64"/>
+      <c r="Q61" s="65"/>
+      <c r="R61" s="38">
+        <v>198</v>
+      </c>
+      <c r="S61" s="30"/>
+      <c r="T61" s="66"/>
+      <c r="U61" s="64"/>
+      <c r="V61" s="65"/>
+      <c r="W61" s="30"/>
+      <c r="X61" s="66"/>
+      <c r="Y61" s="64"/>
+      <c r="Z61" s="65"/>
+      <c r="AA61" s="30"/>
+      <c r="AB61" s="66"/>
+      <c r="AC61" s="64"/>
+      <c r="AD61" s="65"/>
       <c r="AE61" s="10"/>
     </row>
-    <row r="62" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:31" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="17"/>
       <c r="B62" s="53">
-        <v>39</v>
-      </c>
-      <c r="C62" s="69"/>
-      <c r="D62" s="63"/>
+        <v>37</v>
+      </c>
+      <c r="C62" s="122"/>
+      <c r="D62" s="111"/>
       <c r="E62" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="F62" s="43"/>
-      <c r="G62" s="26"/>
-      <c r="H62" s="26"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="30"/>
-      <c r="K62" s="26"/>
-      <c r="L62" s="26"/>
-      <c r="M62" s="6"/>
-      <c r="N62" s="30"/>
-      <c r="O62" s="26"/>
-      <c r="P62" s="26"/>
-      <c r="Q62" s="3"/>
+        <v>41</v>
+      </c>
+      <c r="F62" s="44"/>
+      <c r="G62" s="67"/>
+      <c r="H62" s="68"/>
+      <c r="I62" s="69"/>
+      <c r="J62" s="31"/>
+      <c r="K62" s="67"/>
+      <c r="L62" s="68"/>
+      <c r="M62" s="69"/>
+      <c r="N62" s="31"/>
+      <c r="O62" s="67"/>
+      <c r="P62" s="68"/>
+      <c r="Q62" s="69"/>
       <c r="R62" s="38">
-        <v>201</v>
-      </c>
-      <c r="S62" s="30"/>
-      <c r="T62" s="26"/>
-      <c r="U62" s="26"/>
-      <c r="V62" s="6"/>
-      <c r="W62" s="30"/>
-      <c r="X62" s="26"/>
-      <c r="Y62" s="26"/>
-      <c r="Z62" s="6"/>
-      <c r="AA62" s="30"/>
-      <c r="AB62" s="26"/>
-      <c r="AC62" s="26"/>
-      <c r="AD62" s="6"/>
+        <v>199</v>
+      </c>
+      <c r="S62" s="31"/>
+      <c r="T62" s="67"/>
+      <c r="U62" s="68"/>
+      <c r="V62" s="69"/>
+      <c r="W62" s="31"/>
+      <c r="X62" s="67"/>
+      <c r="Y62" s="68"/>
+      <c r="Z62" s="69"/>
+      <c r="AA62" s="31"/>
+      <c r="AB62" s="67"/>
+      <c r="AC62" s="68"/>
+      <c r="AD62" s="69"/>
       <c r="AE62" s="10"/>
     </row>
     <row r="63" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="17"/>
       <c r="B63" s="53">
-        <v>40</v>
-      </c>
-      <c r="C63" s="69"/>
-      <c r="D63" s="63"/>
-      <c r="E63" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="F63" s="43"/>
-      <c r="G63" s="26"/>
-      <c r="H63" s="26"/>
-      <c r="I63" s="6"/>
-      <c r="J63" s="30"/>
-      <c r="K63" s="26"/>
-      <c r="L63" s="26"/>
-      <c r="M63" s="6"/>
-      <c r="N63" s="30"/>
-      <c r="O63" s="26"/>
-      <c r="P63" s="26"/>
-      <c r="Q63" s="3"/>
-      <c r="R63" s="38">
-        <v>202</v>
-      </c>
-      <c r="S63" s="30"/>
-      <c r="T63" s="26"/>
-      <c r="U63" s="26"/>
-      <c r="V63" s="6"/>
-      <c r="W63" s="30"/>
-      <c r="X63" s="26"/>
-      <c r="Y63" s="26"/>
-      <c r="Z63" s="6"/>
-      <c r="AA63" s="30"/>
-      <c r="AB63" s="26"/>
-      <c r="AC63" s="26"/>
-      <c r="AD63" s="6"/>
+        <v>38</v>
+      </c>
+      <c r="C63" s="122"/>
+      <c r="D63" s="112" t="s">
+        <v>20</v>
+      </c>
+      <c r="E63" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" s="45"/>
+      <c r="G63" s="28"/>
+      <c r="H63" s="28"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="32"/>
+      <c r="K63" s="28"/>
+      <c r="L63" s="28"/>
+      <c r="M63" s="7"/>
+      <c r="N63" s="32"/>
+      <c r="O63" s="28"/>
+      <c r="P63" s="28"/>
+      <c r="Q63" s="5"/>
+      <c r="R63" s="40">
+        <v>200</v>
+      </c>
+      <c r="S63" s="32"/>
+      <c r="T63" s="28"/>
+      <c r="U63" s="28"/>
+      <c r="V63" s="7"/>
+      <c r="W63" s="32"/>
+      <c r="X63" s="28"/>
+      <c r="Y63" s="28"/>
+      <c r="Z63" s="7"/>
+      <c r="AA63" s="32"/>
+      <c r="AB63" s="28"/>
+      <c r="AC63" s="28"/>
+      <c r="AD63" s="7"/>
       <c r="AE63" s="10"/>
     </row>
     <row r="64" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="17"/>
       <c r="B64" s="53">
-        <v>41</v>
-      </c>
-      <c r="C64" s="69"/>
-      <c r="D64" s="63"/>
+        <v>39</v>
+      </c>
+      <c r="C64" s="122"/>
+      <c r="D64" s="110"/>
       <c r="E64" s="48" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F64" s="43"/>
       <c r="G64" s="26"/>
@@ -4315,7 +4344,7 @@
       <c r="P64" s="26"/>
       <c r="Q64" s="3"/>
       <c r="R64" s="38">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="S64" s="30"/>
       <c r="T64" s="26"/>
@@ -4334,12 +4363,12 @@
     <row r="65" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="17"/>
       <c r="B65" s="53">
-        <v>42</v>
-      </c>
-      <c r="C65" s="69"/>
-      <c r="D65" s="63"/>
+        <v>40</v>
+      </c>
+      <c r="C65" s="122"/>
+      <c r="D65" s="110"/>
       <c r="E65" s="48" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F65" s="43"/>
       <c r="G65" s="26"/>
@@ -4354,7 +4383,7 @@
       <c r="P65" s="26"/>
       <c r="Q65" s="3"/>
       <c r="R65" s="38">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="S65" s="30"/>
       <c r="T65" s="26"/>
@@ -4373,12 +4402,12 @@
     <row r="66" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="17"/>
       <c r="B66" s="53">
-        <v>43</v>
-      </c>
-      <c r="C66" s="69"/>
-      <c r="D66" s="63"/>
+        <v>41</v>
+      </c>
+      <c r="C66" s="122"/>
+      <c r="D66" s="110"/>
       <c r="E66" s="48" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F66" s="43"/>
       <c r="G66" s="26"/>
@@ -4393,7 +4422,7 @@
       <c r="P66" s="26"/>
       <c r="Q66" s="3"/>
       <c r="R66" s="38">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="S66" s="30"/>
       <c r="T66" s="26"/>
@@ -4412,12 +4441,12 @@
     <row r="67" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="17"/>
       <c r="B67" s="53">
-        <v>44</v>
-      </c>
-      <c r="C67" s="69"/>
-      <c r="D67" s="63"/>
+        <v>42</v>
+      </c>
+      <c r="C67" s="122"/>
+      <c r="D67" s="110"/>
       <c r="E67" s="48" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F67" s="43"/>
       <c r="G67" s="26"/>
@@ -4432,7 +4461,7 @@
       <c r="P67" s="26"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="38">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="S67" s="30"/>
       <c r="T67" s="26"/>
@@ -4451,12 +4480,12 @@
     <row r="68" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="17"/>
       <c r="B68" s="53">
-        <v>45</v>
-      </c>
-      <c r="C68" s="69"/>
-      <c r="D68" s="63"/>
+        <v>43</v>
+      </c>
+      <c r="C68" s="122"/>
+      <c r="D68" s="110"/>
       <c r="E68" s="48" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F68" s="43"/>
       <c r="G68" s="26"/>
@@ -4471,7 +4500,7 @@
       <c r="P68" s="26"/>
       <c r="Q68" s="3"/>
       <c r="R68" s="38">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="S68" s="30"/>
       <c r="T68" s="26"/>
@@ -4490,12 +4519,12 @@
     <row r="69" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="17"/>
       <c r="B69" s="53">
-        <v>46</v>
-      </c>
-      <c r="C69" s="69"/>
-      <c r="D69" s="63"/>
+        <v>44</v>
+      </c>
+      <c r="C69" s="122"/>
+      <c r="D69" s="110"/>
       <c r="E69" s="48" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F69" s="43"/>
       <c r="G69" s="26"/>
@@ -4510,7 +4539,7 @@
       <c r="P69" s="26"/>
       <c r="Q69" s="3"/>
       <c r="R69" s="38">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="S69" s="30"/>
       <c r="T69" s="26"/>
@@ -4529,12 +4558,12 @@
     <row r="70" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="17"/>
       <c r="B70" s="53">
-        <v>47</v>
-      </c>
-      <c r="C70" s="69"/>
-      <c r="D70" s="63"/>
+        <v>45</v>
+      </c>
+      <c r="C70" s="122"/>
+      <c r="D70" s="110"/>
       <c r="E70" s="48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F70" s="43"/>
       <c r="G70" s="26"/>
@@ -4549,7 +4578,7 @@
       <c r="P70" s="26"/>
       <c r="Q70" s="3"/>
       <c r="R70" s="38">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="S70" s="30"/>
       <c r="T70" s="26"/>
@@ -4564,17 +4593,16 @@
       <c r="AC70" s="26"/>
       <c r="AD70" s="6"/>
       <c r="AE70" s="10"/>
-      <c r="AG70" s="12"/>
     </row>
     <row r="71" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="17"/>
       <c r="B71" s="53">
-        <v>48</v>
-      </c>
-      <c r="C71" s="69"/>
-      <c r="D71" s="63"/>
+        <v>46</v>
+      </c>
+      <c r="C71" s="122"/>
+      <c r="D71" s="110"/>
       <c r="E71" s="48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F71" s="43"/>
       <c r="G71" s="26"/>
@@ -4589,7 +4617,7 @@
       <c r="P71" s="26"/>
       <c r="Q71" s="3"/>
       <c r="R71" s="38">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="S71" s="30"/>
       <c r="T71" s="26"/>
@@ -4608,423 +4636,420 @@
     <row r="72" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="17"/>
       <c r="B72" s="53">
-        <v>49</v>
-      </c>
-      <c r="C72" s="69"/>
-      <c r="D72" s="63"/>
+        <v>47</v>
+      </c>
+      <c r="C72" s="122"/>
+      <c r="D72" s="110"/>
       <c r="E72" s="48" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="F72" s="43"/>
-      <c r="G72" s="114" t="s">
-        <v>52</v>
-      </c>
-      <c r="H72" s="115"/>
-      <c r="I72" s="116"/>
+      <c r="G72" s="26"/>
+      <c r="H72" s="26"/>
+      <c r="I72" s="6"/>
       <c r="J72" s="30"/>
-      <c r="K72" s="114" t="s">
-        <v>52</v>
-      </c>
-      <c r="L72" s="115"/>
-      <c r="M72" s="116"/>
+      <c r="K72" s="26"/>
+      <c r="L72" s="26"/>
+      <c r="M72" s="6"/>
       <c r="N72" s="30"/>
-      <c r="O72" s="114" t="s">
-        <v>52</v>
-      </c>
-      <c r="P72" s="115"/>
-      <c r="Q72" s="116"/>
+      <c r="O72" s="26"/>
+      <c r="P72" s="26"/>
+      <c r="Q72" s="3"/>
       <c r="R72" s="38">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="S72" s="30"/>
-      <c r="T72" s="114" t="s">
-        <v>52</v>
-      </c>
-      <c r="U72" s="115"/>
-      <c r="V72" s="116"/>
+      <c r="T72" s="26"/>
+      <c r="U72" s="26"/>
+      <c r="V72" s="6"/>
       <c r="W72" s="30"/>
-      <c r="X72" s="114" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y72" s="115"/>
-      <c r="Z72" s="116"/>
+      <c r="X72" s="26"/>
+      <c r="Y72" s="26"/>
+      <c r="Z72" s="6"/>
       <c r="AA72" s="30"/>
-      <c r="AB72" s="114" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC72" s="115"/>
-      <c r="AD72" s="116"/>
+      <c r="AB72" s="26"/>
+      <c r="AC72" s="26"/>
+      <c r="AD72" s="6"/>
       <c r="AE72" s="10"/>
+      <c r="AG72" s="12"/>
     </row>
     <row r="73" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="17"/>
       <c r="B73" s="53">
-        <v>50</v>
-      </c>
-      <c r="C73" s="69"/>
-      <c r="D73" s="63"/>
+        <v>48</v>
+      </c>
+      <c r="C73" s="122"/>
+      <c r="D73" s="110"/>
       <c r="E73" s="48" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="F73" s="43"/>
-      <c r="G73" s="117"/>
-      <c r="H73" s="115"/>
-      <c r="I73" s="116"/>
+      <c r="G73" s="26"/>
+      <c r="H73" s="26"/>
+      <c r="I73" s="6"/>
       <c r="J73" s="30"/>
-      <c r="K73" s="117"/>
-      <c r="L73" s="115"/>
-      <c r="M73" s="116"/>
+      <c r="K73" s="26"/>
+      <c r="L73" s="26"/>
+      <c r="M73" s="6"/>
       <c r="N73" s="30"/>
-      <c r="O73" s="117"/>
-      <c r="P73" s="115"/>
-      <c r="Q73" s="116"/>
+      <c r="O73" s="26"/>
+      <c r="P73" s="26"/>
+      <c r="Q73" s="3"/>
       <c r="R73" s="38">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="S73" s="30"/>
-      <c r="T73" s="117"/>
-      <c r="U73" s="115"/>
-      <c r="V73" s="116"/>
+      <c r="T73" s="26"/>
+      <c r="U73" s="26"/>
+      <c r="V73" s="6"/>
       <c r="W73" s="30"/>
-      <c r="X73" s="117"/>
-      <c r="Y73" s="115"/>
-      <c r="Z73" s="116"/>
+      <c r="X73" s="26"/>
+      <c r="Y73" s="26"/>
+      <c r="Z73" s="6"/>
       <c r="AA73" s="30"/>
-      <c r="AB73" s="117"/>
-      <c r="AC73" s="115"/>
-      <c r="AD73" s="116"/>
+      <c r="AB73" s="26"/>
+      <c r="AC73" s="26"/>
+      <c r="AD73" s="6"/>
       <c r="AE73" s="10"/>
     </row>
     <row r="74" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="17"/>
       <c r="B74" s="53">
-        <v>51</v>
-      </c>
-      <c r="C74" s="69"/>
-      <c r="D74" s="63"/>
+        <v>49</v>
+      </c>
+      <c r="C74" s="122"/>
+      <c r="D74" s="110"/>
       <c r="E74" s="48" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F74" s="43"/>
-      <c r="G74" s="117"/>
-      <c r="H74" s="115"/>
-      <c r="I74" s="116"/>
+      <c r="G74" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="H74" s="64"/>
+      <c r="I74" s="65"/>
       <c r="J74" s="30"/>
-      <c r="K74" s="117"/>
-      <c r="L74" s="115"/>
-      <c r="M74" s="116"/>
+      <c r="K74" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="L74" s="64"/>
+      <c r="M74" s="65"/>
       <c r="N74" s="30"/>
-      <c r="O74" s="117"/>
-      <c r="P74" s="115"/>
-      <c r="Q74" s="116"/>
+      <c r="O74" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="P74" s="64"/>
+      <c r="Q74" s="65"/>
       <c r="R74" s="38">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="S74" s="30"/>
-      <c r="T74" s="117"/>
-      <c r="U74" s="115"/>
-      <c r="V74" s="116"/>
+      <c r="T74" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="U74" s="64"/>
+      <c r="V74" s="65"/>
       <c r="W74" s="30"/>
-      <c r="X74" s="117"/>
-      <c r="Y74" s="115"/>
-      <c r="Z74" s="116"/>
+      <c r="X74" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y74" s="64"/>
+      <c r="Z74" s="65"/>
       <c r="AA74" s="30"/>
-      <c r="AB74" s="117"/>
-      <c r="AC74" s="115"/>
-      <c r="AD74" s="116"/>
+      <c r="AB74" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC74" s="64"/>
+      <c r="AD74" s="65"/>
       <c r="AE74" s="10"/>
     </row>
     <row r="75" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="17"/>
       <c r="B75" s="53">
-        <v>52</v>
-      </c>
-      <c r="C75" s="69"/>
-      <c r="D75" s="63"/>
+        <v>50</v>
+      </c>
+      <c r="C75" s="122"/>
+      <c r="D75" s="110"/>
       <c r="E75" s="48" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F75" s="43"/>
-      <c r="G75" s="117"/>
-      <c r="H75" s="115"/>
-      <c r="I75" s="116"/>
+      <c r="G75" s="66"/>
+      <c r="H75" s="64"/>
+      <c r="I75" s="65"/>
       <c r="J75" s="30"/>
-      <c r="K75" s="117"/>
-      <c r="L75" s="115"/>
-      <c r="M75" s="116"/>
+      <c r="K75" s="66"/>
+      <c r="L75" s="64"/>
+      <c r="M75" s="65"/>
       <c r="N75" s="30"/>
-      <c r="O75" s="117"/>
-      <c r="P75" s="115"/>
-      <c r="Q75" s="116"/>
+      <c r="O75" s="66"/>
+      <c r="P75" s="64"/>
+      <c r="Q75" s="65"/>
       <c r="R75" s="38">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="S75" s="30"/>
-      <c r="T75" s="117"/>
-      <c r="U75" s="115"/>
-      <c r="V75" s="116"/>
+      <c r="T75" s="66"/>
+      <c r="U75" s="64"/>
+      <c r="V75" s="65"/>
       <c r="W75" s="30"/>
-      <c r="X75" s="117"/>
-      <c r="Y75" s="115"/>
-      <c r="Z75" s="116"/>
+      <c r="X75" s="66"/>
+      <c r="Y75" s="64"/>
+      <c r="Z75" s="65"/>
       <c r="AA75" s="30"/>
-      <c r="AB75" s="117"/>
-      <c r="AC75" s="115"/>
-      <c r="AD75" s="116"/>
+      <c r="AB75" s="66"/>
+      <c r="AC75" s="64"/>
+      <c r="AD75" s="65"/>
       <c r="AE75" s="10"/>
     </row>
     <row r="76" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="17"/>
       <c r="B76" s="53">
-        <v>53</v>
-      </c>
-      <c r="C76" s="69"/>
-      <c r="D76" s="63"/>
+        <v>51</v>
+      </c>
+      <c r="C76" s="122"/>
+      <c r="D76" s="110"/>
       <c r="E76" s="48" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F76" s="43"/>
-      <c r="G76" s="117"/>
-      <c r="H76" s="115"/>
-      <c r="I76" s="116"/>
+      <c r="G76" s="66"/>
+      <c r="H76" s="64"/>
+      <c r="I76" s="65"/>
       <c r="J76" s="30"/>
-      <c r="K76" s="117"/>
-      <c r="L76" s="115"/>
-      <c r="M76" s="116"/>
+      <c r="K76" s="66"/>
+      <c r="L76" s="64"/>
+      <c r="M76" s="65"/>
       <c r="N76" s="30"/>
-      <c r="O76" s="117"/>
-      <c r="P76" s="115"/>
-      <c r="Q76" s="116"/>
+      <c r="O76" s="66"/>
+      <c r="P76" s="64"/>
+      <c r="Q76" s="65"/>
       <c r="R76" s="38">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="S76" s="30"/>
-      <c r="T76" s="117"/>
-      <c r="U76" s="115"/>
-      <c r="V76" s="116"/>
+      <c r="T76" s="66"/>
+      <c r="U76" s="64"/>
+      <c r="V76" s="65"/>
       <c r="W76" s="30"/>
-      <c r="X76" s="117"/>
-      <c r="Y76" s="115"/>
-      <c r="Z76" s="116"/>
+      <c r="X76" s="66"/>
+      <c r="Y76" s="64"/>
+      <c r="Z76" s="65"/>
       <c r="AA76" s="30"/>
-      <c r="AB76" s="117"/>
-      <c r="AC76" s="115"/>
-      <c r="AD76" s="116"/>
+      <c r="AB76" s="66"/>
+      <c r="AC76" s="64"/>
+      <c r="AD76" s="65"/>
       <c r="AE76" s="10"/>
     </row>
-    <row r="77" spans="1:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="17"/>
       <c r="B77" s="53">
+        <v>52</v>
+      </c>
+      <c r="C77" s="122"/>
+      <c r="D77" s="110"/>
+      <c r="E77" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="F77" s="43"/>
+      <c r="G77" s="66"/>
+      <c r="H77" s="64"/>
+      <c r="I77" s="65"/>
+      <c r="J77" s="30"/>
+      <c r="K77" s="66"/>
+      <c r="L77" s="64"/>
+      <c r="M77" s="65"/>
+      <c r="N77" s="30"/>
+      <c r="O77" s="66"/>
+      <c r="P77" s="64"/>
+      <c r="Q77" s="65"/>
+      <c r="R77" s="38">
+        <v>214</v>
+      </c>
+      <c r="S77" s="30"/>
+      <c r="T77" s="66"/>
+      <c r="U77" s="64"/>
+      <c r="V77" s="65"/>
+      <c r="W77" s="30"/>
+      <c r="X77" s="66"/>
+      <c r="Y77" s="64"/>
+      <c r="Z77" s="65"/>
+      <c r="AA77" s="30"/>
+      <c r="AB77" s="66"/>
+      <c r="AC77" s="64"/>
+      <c r="AD77" s="65"/>
+      <c r="AE77" s="10"/>
+    </row>
+    <row r="78" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="17"/>
+      <c r="B78" s="53">
+        <v>53</v>
+      </c>
+      <c r="C78" s="122"/>
+      <c r="D78" s="110"/>
+      <c r="E78" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="F78" s="43"/>
+      <c r="G78" s="66"/>
+      <c r="H78" s="64"/>
+      <c r="I78" s="65"/>
+      <c r="J78" s="30"/>
+      <c r="K78" s="66"/>
+      <c r="L78" s="64"/>
+      <c r="M78" s="65"/>
+      <c r="N78" s="30"/>
+      <c r="O78" s="66"/>
+      <c r="P78" s="64"/>
+      <c r="Q78" s="65"/>
+      <c r="R78" s="38">
+        <v>215</v>
+      </c>
+      <c r="S78" s="30"/>
+      <c r="T78" s="66"/>
+      <c r="U78" s="64"/>
+      <c r="V78" s="65"/>
+      <c r="W78" s="30"/>
+      <c r="X78" s="66"/>
+      <c r="Y78" s="64"/>
+      <c r="Z78" s="65"/>
+      <c r="AA78" s="30"/>
+      <c r="AB78" s="66"/>
+      <c r="AC78" s="64"/>
+      <c r="AD78" s="65"/>
+      <c r="AE78" s="10"/>
+    </row>
+    <row r="79" spans="1:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="17"/>
+      <c r="B79" s="53">
         <v>54</v>
       </c>
-      <c r="C77" s="70"/>
-      <c r="D77" s="65"/>
-      <c r="E77" s="48" t="s">
+      <c r="C79" s="123"/>
+      <c r="D79" s="118"/>
+      <c r="E79" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="F77" s="46"/>
-      <c r="G77" s="118"/>
-      <c r="H77" s="119"/>
-      <c r="I77" s="120"/>
-      <c r="J77" s="33"/>
-      <c r="K77" s="118"/>
-      <c r="L77" s="119"/>
-      <c r="M77" s="120"/>
-      <c r="N77" s="33"/>
-      <c r="O77" s="118"/>
-      <c r="P77" s="119"/>
-      <c r="Q77" s="120"/>
-      <c r="R77" s="38">
+      <c r="F79" s="46"/>
+      <c r="G79" s="67"/>
+      <c r="H79" s="68"/>
+      <c r="I79" s="69"/>
+      <c r="J79" s="33"/>
+      <c r="K79" s="67"/>
+      <c r="L79" s="68"/>
+      <c r="M79" s="69"/>
+      <c r="N79" s="33"/>
+      <c r="O79" s="67"/>
+      <c r="P79" s="68"/>
+      <c r="Q79" s="69"/>
+      <c r="R79" s="38">
         <v>216</v>
       </c>
-      <c r="S77" s="33"/>
-      <c r="T77" s="118"/>
-      <c r="U77" s="119"/>
-      <c r="V77" s="120"/>
-      <c r="W77" s="33"/>
-      <c r="X77" s="118"/>
-      <c r="Y77" s="119"/>
-      <c r="Z77" s="120"/>
-      <c r="AA77" s="33"/>
-      <c r="AB77" s="118"/>
-      <c r="AC77" s="119"/>
-      <c r="AD77" s="120"/>
-      <c r="AE77" s="10"/>
-    </row>
-    <row r="78" spans="1:33" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="17"/>
-      <c r="B78" s="52">
-        <v>55</v>
-      </c>
-      <c r="C78" s="66" t="s">
-        <v>25</v>
-      </c>
-      <c r="D78" s="63" t="s">
-        <v>6</v>
-      </c>
-      <c r="E78" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="F78" s="42"/>
-      <c r="G78" s="25"/>
-      <c r="H78" s="25"/>
-      <c r="I78" s="11"/>
-      <c r="J78" s="29"/>
-      <c r="K78" s="25"/>
-      <c r="L78" s="25"/>
-      <c r="M78" s="11"/>
-      <c r="N78" s="29"/>
-      <c r="O78" s="25"/>
-      <c r="P78" s="25"/>
-      <c r="Q78" s="3"/>
-      <c r="R78" s="37">
-        <v>217</v>
-      </c>
-      <c r="S78" s="29"/>
-      <c r="T78" s="25"/>
-      <c r="U78" s="25"/>
-      <c r="V78" s="11"/>
-      <c r="W78" s="29"/>
-      <c r="X78" s="25"/>
-      <c r="Y78" s="25"/>
-      <c r="Z78" s="11"/>
-      <c r="AA78" s="29"/>
-      <c r="AB78" s="25"/>
-      <c r="AC78" s="25"/>
-      <c r="AD78" s="6"/>
-      <c r="AE78" s="10"/>
-    </row>
-    <row r="79" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="17"/>
-      <c r="B79" s="52">
-        <v>56</v>
-      </c>
-      <c r="C79" s="67"/>
-      <c r="D79" s="63"/>
-      <c r="E79" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="F79" s="43"/>
-      <c r="G79" s="26"/>
-      <c r="H79" s="26"/>
-      <c r="I79" s="6"/>
-      <c r="J79" s="30"/>
-      <c r="K79" s="26"/>
-      <c r="L79" s="26"/>
-      <c r="M79" s="6"/>
-      <c r="N79" s="30"/>
-      <c r="O79" s="26"/>
-      <c r="P79" s="26"/>
-      <c r="Q79" s="3"/>
-      <c r="R79" s="38">
-        <v>218</v>
-      </c>
-      <c r="S79" s="30"/>
-      <c r="T79" s="26"/>
-      <c r="U79" s="26"/>
-      <c r="V79" s="6"/>
-      <c r="W79" s="30"/>
-      <c r="X79" s="26"/>
-      <c r="Y79" s="26"/>
-      <c r="Z79" s="6"/>
-      <c r="AA79" s="30"/>
-      <c r="AB79" s="26"/>
-      <c r="AC79" s="26"/>
-      <c r="AD79" s="6"/>
+      <c r="S79" s="33"/>
+      <c r="T79" s="67"/>
+      <c r="U79" s="68"/>
+      <c r="V79" s="69"/>
+      <c r="W79" s="33"/>
+      <c r="X79" s="67"/>
+      <c r="Y79" s="68"/>
+      <c r="Z79" s="69"/>
+      <c r="AA79" s="33"/>
+      <c r="AB79" s="67"/>
+      <c r="AC79" s="68"/>
+      <c r="AD79" s="69"/>
       <c r="AE79" s="10"/>
-      <c r="AF79" s="12"/>
-    </row>
-    <row r="80" spans="1:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:33" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A80" s="17"/>
       <c r="B80" s="52">
-        <v>57</v>
-      </c>
-      <c r="C80" s="67"/>
-      <c r="D80" s="64"/>
-      <c r="E80" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="F80" s="43"/>
-      <c r="G80" s="26"/>
-      <c r="H80" s="26"/>
-      <c r="I80" s="6"/>
-      <c r="J80" s="30"/>
-      <c r="K80" s="26"/>
-      <c r="L80" s="26"/>
-      <c r="M80" s="6"/>
-      <c r="N80" s="30"/>
-      <c r="O80" s="26"/>
-      <c r="P80" s="26"/>
+        <v>55</v>
+      </c>
+      <c r="C80" s="119" t="s">
+        <v>25</v>
+      </c>
+      <c r="D80" s="110" t="s">
+        <v>6</v>
+      </c>
+      <c r="E80" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="F80" s="42"/>
+      <c r="G80" s="25"/>
+      <c r="H80" s="25"/>
+      <c r="I80" s="11"/>
+      <c r="J80" s="29"/>
+      <c r="K80" s="25"/>
+      <c r="L80" s="25"/>
+      <c r="M80" s="11"/>
+      <c r="N80" s="29"/>
+      <c r="O80" s="25"/>
+      <c r="P80" s="25"/>
       <c r="Q80" s="3"/>
-      <c r="R80" s="38">
-        <v>219</v>
-      </c>
-      <c r="S80" s="30"/>
-      <c r="T80" s="26"/>
-      <c r="U80" s="26"/>
-      <c r="V80" s="6"/>
-      <c r="W80" s="30"/>
-      <c r="X80" s="26"/>
-      <c r="Y80" s="26"/>
-      <c r="Z80" s="6"/>
-      <c r="AA80" s="30"/>
-      <c r="AB80" s="26"/>
-      <c r="AC80" s="26"/>
+      <c r="R80" s="37">
+        <v>217</v>
+      </c>
+      <c r="S80" s="29"/>
+      <c r="T80" s="25"/>
+      <c r="U80" s="25"/>
+      <c r="V80" s="11"/>
+      <c r="W80" s="29"/>
+      <c r="X80" s="25"/>
+      <c r="Y80" s="25"/>
+      <c r="Z80" s="11"/>
+      <c r="AA80" s="29"/>
+      <c r="AB80" s="25"/>
+      <c r="AC80" s="25"/>
       <c r="AD80" s="6"/>
       <c r="AE80" s="10"/>
-      <c r="AF80" s="12"/>
     </row>
     <row r="81" spans="1:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="17"/>
       <c r="B81" s="52">
-        <v>58</v>
-      </c>
-      <c r="C81" s="67"/>
-      <c r="D81" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="E81" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="F81" s="45"/>
-      <c r="G81" s="28"/>
-      <c r="H81" s="28"/>
-      <c r="I81" s="7"/>
-      <c r="J81" s="32"/>
-      <c r="K81" s="28"/>
-      <c r="L81" s="28"/>
-      <c r="M81" s="7"/>
-      <c r="N81" s="32"/>
-      <c r="O81" s="28"/>
-      <c r="P81" s="28"/>
-      <c r="Q81" s="5"/>
-      <c r="R81" s="40">
-        <v>220</v>
-      </c>
-      <c r="S81" s="32"/>
-      <c r="T81" s="28"/>
-      <c r="U81" s="28"/>
-      <c r="V81" s="7"/>
-      <c r="W81" s="32"/>
-      <c r="X81" s="28"/>
-      <c r="Y81" s="28"/>
-      <c r="Z81" s="7"/>
-      <c r="AA81" s="32"/>
-      <c r="AB81" s="28"/>
-      <c r="AC81" s="28"/>
-      <c r="AD81" s="7"/>
+        <v>56</v>
+      </c>
+      <c r="C81" s="120"/>
+      <c r="D81" s="110"/>
+      <c r="E81" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="F81" s="43"/>
+      <c r="G81" s="26"/>
+      <c r="H81" s="26"/>
+      <c r="I81" s="6"/>
+      <c r="J81" s="30"/>
+      <c r="K81" s="26"/>
+      <c r="L81" s="26"/>
+      <c r="M81" s="6"/>
+      <c r="N81" s="30"/>
+      <c r="O81" s="26"/>
+      <c r="P81" s="26"/>
+      <c r="Q81" s="3"/>
+      <c r="R81" s="38">
+        <v>218</v>
+      </c>
+      <c r="S81" s="30"/>
+      <c r="T81" s="26"/>
+      <c r="U81" s="26"/>
+      <c r="V81" s="6"/>
+      <c r="W81" s="30"/>
+      <c r="X81" s="26"/>
+      <c r="Y81" s="26"/>
+      <c r="Z81" s="6"/>
+      <c r="AA81" s="30"/>
+      <c r="AB81" s="26"/>
+      <c r="AC81" s="26"/>
+      <c r="AD81" s="6"/>
       <c r="AE81" s="10"/>
       <c r="AF81" s="12"/>
     </row>
-    <row r="82" spans="1:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:32" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="17"/>
       <c r="B82" s="52">
-        <v>59</v>
-      </c>
-      <c r="C82" s="67"/>
-      <c r="D82" s="63"/>
+        <v>57</v>
+      </c>
+      <c r="C82" s="120"/>
+      <c r="D82" s="111"/>
       <c r="E82" s="48" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F82" s="43"/>
       <c r="G82" s="26"/>
@@ -5039,7 +5064,7 @@
       <c r="P82" s="26"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="38">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="S82" s="30"/>
       <c r="T82" s="26"/>
@@ -5059,51 +5084,54 @@
     <row r="83" spans="1:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="17"/>
       <c r="B83" s="52">
-        <v>60</v>
-      </c>
-      <c r="C83" s="67"/>
-      <c r="D83" s="63"/>
-      <c r="E83" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="F83" s="43"/>
-      <c r="G83" s="26"/>
-      <c r="H83" s="26"/>
-      <c r="I83" s="6"/>
-      <c r="J83" s="30"/>
-      <c r="K83" s="26"/>
-      <c r="L83" s="26"/>
-      <c r="M83" s="6"/>
-      <c r="N83" s="30"/>
-      <c r="O83" s="26"/>
-      <c r="P83" s="26"/>
-      <c r="Q83" s="3"/>
-      <c r="R83" s="38">
-        <v>222</v>
-      </c>
-      <c r="S83" s="30"/>
-      <c r="T83" s="26"/>
-      <c r="U83" s="26"/>
-      <c r="V83" s="6"/>
-      <c r="W83" s="30"/>
-      <c r="X83" s="26"/>
-      <c r="Y83" s="26"/>
-      <c r="Z83" s="6"/>
-      <c r="AA83" s="30"/>
-      <c r="AB83" s="26"/>
-      <c r="AC83" s="26"/>
-      <c r="AD83" s="6"/>
+        <v>58</v>
+      </c>
+      <c r="C83" s="120"/>
+      <c r="D83" s="112" t="s">
+        <v>18</v>
+      </c>
+      <c r="E83" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="F83" s="45"/>
+      <c r="G83" s="28"/>
+      <c r="H83" s="28"/>
+      <c r="I83" s="7"/>
+      <c r="J83" s="32"/>
+      <c r="K83" s="28"/>
+      <c r="L83" s="28"/>
+      <c r="M83" s="7"/>
+      <c r="N83" s="32"/>
+      <c r="O83" s="28"/>
+      <c r="P83" s="28"/>
+      <c r="Q83" s="5"/>
+      <c r="R83" s="40">
+        <v>220</v>
+      </c>
+      <c r="S83" s="32"/>
+      <c r="T83" s="28"/>
+      <c r="U83" s="28"/>
+      <c r="V83" s="7"/>
+      <c r="W83" s="32"/>
+      <c r="X83" s="28"/>
+      <c r="Y83" s="28"/>
+      <c r="Z83" s="7"/>
+      <c r="AA83" s="32"/>
+      <c r="AB83" s="28"/>
+      <c r="AC83" s="28"/>
+      <c r="AD83" s="7"/>
       <c r="AE83" s="10"/>
+      <c r="AF83" s="12"/>
     </row>
     <row r="84" spans="1:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="17"/>
       <c r="B84" s="52">
-        <v>61</v>
-      </c>
-      <c r="C84" s="67"/>
-      <c r="D84" s="63"/>
+        <v>59</v>
+      </c>
+      <c r="C84" s="120"/>
+      <c r="D84" s="110"/>
       <c r="E84" s="48" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F84" s="43"/>
       <c r="G84" s="26"/>
@@ -5118,7 +5146,7 @@
       <c r="P84" s="26"/>
       <c r="Q84" s="3"/>
       <c r="R84" s="38">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="S84" s="30"/>
       <c r="T84" s="26"/>
@@ -5133,16 +5161,17 @@
       <c r="AC84" s="26"/>
       <c r="AD84" s="6"/>
       <c r="AE84" s="10"/>
+      <c r="AF84" s="12"/>
     </row>
     <row r="85" spans="1:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="17"/>
       <c r="B85" s="52">
-        <v>62</v>
-      </c>
-      <c r="C85" s="67"/>
-      <c r="D85" s="63"/>
+        <v>60</v>
+      </c>
+      <c r="C85" s="120"/>
+      <c r="D85" s="110"/>
       <c r="E85" s="48" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F85" s="43"/>
       <c r="G85" s="26"/>
@@ -5157,7 +5186,7 @@
       <c r="P85" s="26"/>
       <c r="Q85" s="3"/>
       <c r="R85" s="38">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="S85" s="30"/>
       <c r="T85" s="26"/>
@@ -5176,12 +5205,12 @@
     <row r="86" spans="1:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="17"/>
       <c r="B86" s="52">
-        <v>63</v>
-      </c>
-      <c r="C86" s="67"/>
-      <c r="D86" s="63"/>
+        <v>61</v>
+      </c>
+      <c r="C86" s="120"/>
+      <c r="D86" s="110"/>
       <c r="E86" s="48" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F86" s="43"/>
       <c r="G86" s="26"/>
@@ -5196,7 +5225,7 @@
       <c r="P86" s="26"/>
       <c r="Q86" s="3"/>
       <c r="R86" s="38">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="S86" s="30"/>
       <c r="T86" s="26"/>
@@ -5215,12 +5244,12 @@
     <row r="87" spans="1:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="17"/>
       <c r="B87" s="52">
-        <v>64</v>
-      </c>
-      <c r="C87" s="67"/>
-      <c r="D87" s="63"/>
+        <v>62</v>
+      </c>
+      <c r="C87" s="120"/>
+      <c r="D87" s="110"/>
       <c r="E87" s="48" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F87" s="43"/>
       <c r="G87" s="26"/>
@@ -5235,7 +5264,7 @@
       <c r="P87" s="26"/>
       <c r="Q87" s="3"/>
       <c r="R87" s="38">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="S87" s="30"/>
       <c r="T87" s="26"/>
@@ -5254,12 +5283,12 @@
     <row r="88" spans="1:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="17"/>
       <c r="B88" s="52">
-        <v>65</v>
-      </c>
-      <c r="C88" s="67"/>
-      <c r="D88" s="63"/>
+        <v>63</v>
+      </c>
+      <c r="C88" s="120"/>
+      <c r="D88" s="110"/>
       <c r="E88" s="48" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F88" s="43"/>
       <c r="G88" s="26"/>
@@ -5274,7 +5303,7 @@
       <c r="P88" s="26"/>
       <c r="Q88" s="3"/>
       <c r="R88" s="38">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="S88" s="30"/>
       <c r="T88" s="26"/>
@@ -5293,12 +5322,12 @@
     <row r="89" spans="1:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="17"/>
       <c r="B89" s="52">
-        <v>66</v>
-      </c>
-      <c r="C89" s="67"/>
-      <c r="D89" s="63"/>
+        <v>64</v>
+      </c>
+      <c r="C89" s="120"/>
+      <c r="D89" s="110"/>
       <c r="E89" s="48" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F89" s="43"/>
       <c r="G89" s="26"/>
@@ -5313,7 +5342,7 @@
       <c r="P89" s="26"/>
       <c r="Q89" s="3"/>
       <c r="R89" s="38">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="S89" s="30"/>
       <c r="T89" s="26"/>
@@ -5332,12 +5361,12 @@
     <row r="90" spans="1:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="17"/>
       <c r="B90" s="52">
-        <v>67</v>
-      </c>
-      <c r="C90" s="67"/>
-      <c r="D90" s="63"/>
+        <v>65</v>
+      </c>
+      <c r="C90" s="120"/>
+      <c r="D90" s="110"/>
       <c r="E90" s="48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F90" s="43"/>
       <c r="G90" s="26"/>
@@ -5352,7 +5381,7 @@
       <c r="P90" s="26"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="38">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="S90" s="30"/>
       <c r="T90" s="26"/>
@@ -5371,12 +5400,12 @@
     <row r="91" spans="1:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="17"/>
       <c r="B91" s="52">
-        <v>68</v>
-      </c>
-      <c r="C91" s="67"/>
-      <c r="D91" s="63"/>
+        <v>66</v>
+      </c>
+      <c r="C91" s="120"/>
+      <c r="D91" s="110"/>
       <c r="E91" s="48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F91" s="43"/>
       <c r="G91" s="26"/>
@@ -5391,7 +5420,7 @@
       <c r="P91" s="26"/>
       <c r="Q91" s="3"/>
       <c r="R91" s="38">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="S91" s="30"/>
       <c r="T91" s="26"/>
@@ -5410,377 +5439,377 @@
     <row r="92" spans="1:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="17"/>
       <c r="B92" s="52">
-        <v>69</v>
-      </c>
-      <c r="C92" s="67"/>
-      <c r="D92" s="63"/>
+        <v>67</v>
+      </c>
+      <c r="C92" s="120"/>
+      <c r="D92" s="110"/>
       <c r="E92" s="48" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="F92" s="43"/>
-      <c r="G92" s="114" t="s">
-        <v>52</v>
-      </c>
-      <c r="H92" s="115"/>
-      <c r="I92" s="116"/>
+      <c r="G92" s="26"/>
+      <c r="H92" s="26"/>
+      <c r="I92" s="6"/>
       <c r="J92" s="30"/>
-      <c r="K92" s="114" t="s">
-        <v>52</v>
-      </c>
-      <c r="L92" s="115"/>
-      <c r="M92" s="116"/>
+      <c r="K92" s="26"/>
+      <c r="L92" s="26"/>
+      <c r="M92" s="6"/>
       <c r="N92" s="30"/>
-      <c r="O92" s="114" t="s">
-        <v>52</v>
-      </c>
-      <c r="P92" s="115"/>
-      <c r="Q92" s="116"/>
+      <c r="O92" s="26"/>
+      <c r="P92" s="26"/>
+      <c r="Q92" s="3"/>
       <c r="R92" s="38">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="S92" s="30"/>
-      <c r="T92" s="114" t="s">
-        <v>52</v>
-      </c>
-      <c r="U92" s="115"/>
-      <c r="V92" s="116"/>
+      <c r="T92" s="26"/>
+      <c r="U92" s="26"/>
+      <c r="V92" s="6"/>
       <c r="W92" s="30"/>
-      <c r="X92" s="114" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y92" s="115"/>
-      <c r="Z92" s="116"/>
+      <c r="X92" s="26"/>
+      <c r="Y92" s="26"/>
+      <c r="Z92" s="6"/>
       <c r="AA92" s="30"/>
-      <c r="AB92" s="114" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC92" s="115"/>
-      <c r="AD92" s="116"/>
+      <c r="AB92" s="26"/>
+      <c r="AC92" s="26"/>
+      <c r="AD92" s="6"/>
       <c r="AE92" s="10"/>
     </row>
     <row r="93" spans="1:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="17"/>
       <c r="B93" s="52">
-        <v>70</v>
-      </c>
-      <c r="C93" s="67"/>
-      <c r="D93" s="63"/>
+        <v>68</v>
+      </c>
+      <c r="C93" s="120"/>
+      <c r="D93" s="110"/>
       <c r="E93" s="48" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="F93" s="43"/>
-      <c r="G93" s="117"/>
-      <c r="H93" s="115"/>
-      <c r="I93" s="116"/>
+      <c r="G93" s="26"/>
+      <c r="H93" s="26"/>
+      <c r="I93" s="6"/>
       <c r="J93" s="30"/>
-      <c r="K93" s="117"/>
-      <c r="L93" s="115"/>
-      <c r="M93" s="116"/>
+      <c r="K93" s="26"/>
+      <c r="L93" s="26"/>
+      <c r="M93" s="6"/>
       <c r="N93" s="30"/>
-      <c r="O93" s="117"/>
-      <c r="P93" s="115"/>
-      <c r="Q93" s="116"/>
+      <c r="O93" s="26"/>
+      <c r="P93" s="26"/>
+      <c r="Q93" s="3"/>
       <c r="R93" s="38">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="S93" s="30"/>
-      <c r="T93" s="117"/>
-      <c r="U93" s="115"/>
-      <c r="V93" s="116"/>
+      <c r="T93" s="26"/>
+      <c r="U93" s="26"/>
+      <c r="V93" s="6"/>
       <c r="W93" s="30"/>
-      <c r="X93" s="117"/>
-      <c r="Y93" s="115"/>
-      <c r="Z93" s="116"/>
+      <c r="X93" s="26"/>
+      <c r="Y93" s="26"/>
+      <c r="Z93" s="6"/>
       <c r="AA93" s="30"/>
-      <c r="AB93" s="117"/>
-      <c r="AC93" s="115"/>
-      <c r="AD93" s="116"/>
+      <c r="AB93" s="26"/>
+      <c r="AC93" s="26"/>
+      <c r="AD93" s="6"/>
       <c r="AE93" s="10"/>
     </row>
     <row r="94" spans="1:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="17"/>
       <c r="B94" s="52">
-        <v>71</v>
-      </c>
-      <c r="C94" s="67"/>
-      <c r="D94" s="63"/>
+        <v>69</v>
+      </c>
+      <c r="C94" s="120"/>
+      <c r="D94" s="110"/>
       <c r="E94" s="48" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F94" s="43"/>
-      <c r="G94" s="117"/>
-      <c r="H94" s="115"/>
-      <c r="I94" s="116"/>
+      <c r="G94" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="H94" s="64"/>
+      <c r="I94" s="65"/>
       <c r="J94" s="30"/>
-      <c r="K94" s="117"/>
-      <c r="L94" s="115"/>
-      <c r="M94" s="116"/>
+      <c r="K94" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="L94" s="64"/>
+      <c r="M94" s="65"/>
       <c r="N94" s="30"/>
-      <c r="O94" s="117"/>
-      <c r="P94" s="115"/>
-      <c r="Q94" s="116"/>
+      <c r="O94" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="P94" s="64"/>
+      <c r="Q94" s="65"/>
       <c r="R94" s="38">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="S94" s="30"/>
-      <c r="T94" s="117"/>
-      <c r="U94" s="115"/>
-      <c r="V94" s="116"/>
+      <c r="T94" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="U94" s="64"/>
+      <c r="V94" s="65"/>
       <c r="W94" s="30"/>
-      <c r="X94" s="117"/>
-      <c r="Y94" s="115"/>
-      <c r="Z94" s="116"/>
+      <c r="X94" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y94" s="64"/>
+      <c r="Z94" s="65"/>
       <c r="AA94" s="30"/>
-      <c r="AB94" s="117"/>
-      <c r="AC94" s="115"/>
-      <c r="AD94" s="116"/>
+      <c r="AB94" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC94" s="64"/>
+      <c r="AD94" s="65"/>
       <c r="AE94" s="10"/>
     </row>
     <row r="95" spans="1:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="17"/>
       <c r="B95" s="52">
-        <v>72</v>
-      </c>
-      <c r="C95" s="67"/>
-      <c r="D95" s="63"/>
+        <v>70</v>
+      </c>
+      <c r="C95" s="120"/>
+      <c r="D95" s="110"/>
       <c r="E95" s="48" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F95" s="43"/>
-      <c r="G95" s="117"/>
-      <c r="H95" s="115"/>
-      <c r="I95" s="116"/>
+      <c r="G95" s="66"/>
+      <c r="H95" s="64"/>
+      <c r="I95" s="65"/>
       <c r="J95" s="30"/>
-      <c r="K95" s="117"/>
-      <c r="L95" s="115"/>
-      <c r="M95" s="116"/>
+      <c r="K95" s="66"/>
+      <c r="L95" s="64"/>
+      <c r="M95" s="65"/>
       <c r="N95" s="30"/>
-      <c r="O95" s="117"/>
-      <c r="P95" s="115"/>
-      <c r="Q95" s="116"/>
+      <c r="O95" s="66"/>
+      <c r="P95" s="64"/>
+      <c r="Q95" s="65"/>
       <c r="R95" s="38">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="S95" s="30"/>
-      <c r="T95" s="117"/>
-      <c r="U95" s="115"/>
-      <c r="V95" s="116"/>
+      <c r="T95" s="66"/>
+      <c r="U95" s="64"/>
+      <c r="V95" s="65"/>
       <c r="W95" s="30"/>
-      <c r="X95" s="117"/>
-      <c r="Y95" s="115"/>
-      <c r="Z95" s="116"/>
+      <c r="X95" s="66"/>
+      <c r="Y95" s="64"/>
+      <c r="Z95" s="65"/>
       <c r="AA95" s="30"/>
-      <c r="AB95" s="117"/>
-      <c r="AC95" s="115"/>
-      <c r="AD95" s="116"/>
+      <c r="AB95" s="66"/>
+      <c r="AC95" s="64"/>
+      <c r="AD95" s="65"/>
       <c r="AE95" s="10"/>
     </row>
     <row r="96" spans="1:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="17"/>
       <c r="B96" s="52">
-        <v>73</v>
-      </c>
-      <c r="C96" s="67"/>
-      <c r="D96" s="63"/>
+        <v>71</v>
+      </c>
+      <c r="C96" s="120"/>
+      <c r="D96" s="110"/>
       <c r="E96" s="48" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F96" s="43"/>
-      <c r="G96" s="117"/>
-      <c r="H96" s="115"/>
-      <c r="I96" s="116"/>
+      <c r="G96" s="66"/>
+      <c r="H96" s="64"/>
+      <c r="I96" s="65"/>
       <c r="J96" s="30"/>
-      <c r="K96" s="117"/>
-      <c r="L96" s="115"/>
-      <c r="M96" s="116"/>
+      <c r="K96" s="66"/>
+      <c r="L96" s="64"/>
+      <c r="M96" s="65"/>
       <c r="N96" s="30"/>
-      <c r="O96" s="117"/>
-      <c r="P96" s="115"/>
-      <c r="Q96" s="116"/>
+      <c r="O96" s="66"/>
+      <c r="P96" s="64"/>
+      <c r="Q96" s="65"/>
       <c r="R96" s="38">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="S96" s="30"/>
-      <c r="T96" s="117"/>
-      <c r="U96" s="115"/>
-      <c r="V96" s="116"/>
+      <c r="T96" s="66"/>
+      <c r="U96" s="64"/>
+      <c r="V96" s="65"/>
       <c r="W96" s="30"/>
-      <c r="X96" s="117"/>
-      <c r="Y96" s="115"/>
-      <c r="Z96" s="116"/>
+      <c r="X96" s="66"/>
+      <c r="Y96" s="64"/>
+      <c r="Z96" s="65"/>
       <c r="AA96" s="30"/>
-      <c r="AB96" s="117"/>
-      <c r="AC96" s="115"/>
-      <c r="AD96" s="116"/>
+      <c r="AB96" s="66"/>
+      <c r="AC96" s="64"/>
+      <c r="AD96" s="65"/>
       <c r="AE96" s="10"/>
     </row>
-    <row r="97" spans="1:31" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="17"/>
       <c r="B97" s="52">
-        <v>74</v>
-      </c>
-      <c r="C97" s="67"/>
-      <c r="D97" s="64"/>
-      <c r="E97" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="F97" s="44"/>
-      <c r="G97" s="118"/>
-      <c r="H97" s="119"/>
-      <c r="I97" s="120"/>
-      <c r="J97" s="31"/>
-      <c r="K97" s="118"/>
-      <c r="L97" s="119"/>
-      <c r="M97" s="120"/>
-      <c r="N97" s="31"/>
-      <c r="O97" s="118"/>
-      <c r="P97" s="119"/>
-      <c r="Q97" s="120"/>
+        <v>72</v>
+      </c>
+      <c r="C97" s="120"/>
+      <c r="D97" s="110"/>
+      <c r="E97" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="F97" s="43"/>
+      <c r="G97" s="66"/>
+      <c r="H97" s="64"/>
+      <c r="I97" s="65"/>
+      <c r="J97" s="30"/>
+      <c r="K97" s="66"/>
+      <c r="L97" s="64"/>
+      <c r="M97" s="65"/>
+      <c r="N97" s="30"/>
+      <c r="O97" s="66"/>
+      <c r="P97" s="64"/>
+      <c r="Q97" s="65"/>
       <c r="R97" s="38">
-        <v>236</v>
-      </c>
-      <c r="S97" s="31"/>
-      <c r="T97" s="118"/>
-      <c r="U97" s="119"/>
-      <c r="V97" s="120"/>
-      <c r="W97" s="31"/>
-      <c r="X97" s="118"/>
-      <c r="Y97" s="119"/>
-      <c r="Z97" s="120"/>
-      <c r="AA97" s="31"/>
-      <c r="AB97" s="118"/>
-      <c r="AC97" s="119"/>
-      <c r="AD97" s="120"/>
+        <v>234</v>
+      </c>
+      <c r="S97" s="30"/>
+      <c r="T97" s="66"/>
+      <c r="U97" s="64"/>
+      <c r="V97" s="65"/>
+      <c r="W97" s="30"/>
+      <c r="X97" s="66"/>
+      <c r="Y97" s="64"/>
+      <c r="Z97" s="65"/>
+      <c r="AA97" s="30"/>
+      <c r="AB97" s="66"/>
+      <c r="AC97" s="64"/>
+      <c r="AD97" s="65"/>
       <c r="AE97" s="10"/>
     </row>
     <row r="98" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="17"/>
       <c r="B98" s="52">
-        <v>75</v>
-      </c>
-      <c r="C98" s="67"/>
-      <c r="D98" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="E98" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="F98" s="45"/>
-      <c r="G98" s="28"/>
-      <c r="H98" s="28"/>
-      <c r="I98" s="7"/>
-      <c r="J98" s="32"/>
-      <c r="K98" s="28"/>
-      <c r="L98" s="28"/>
-      <c r="M98" s="7"/>
-      <c r="N98" s="32"/>
-      <c r="O98" s="28"/>
-      <c r="P98" s="28"/>
-      <c r="Q98" s="5"/>
-      <c r="R98" s="40">
-        <v>237</v>
-      </c>
-      <c r="S98" s="32"/>
-      <c r="T98" s="28"/>
-      <c r="U98" s="28"/>
-      <c r="V98" s="7"/>
-      <c r="W98" s="32"/>
-      <c r="X98" s="28"/>
-      <c r="Y98" s="28"/>
-      <c r="Z98" s="7"/>
-      <c r="AA98" s="32"/>
-      <c r="AB98" s="28"/>
-      <c r="AC98" s="28"/>
-      <c r="AD98" s="7"/>
+        <v>73</v>
+      </c>
+      <c r="C98" s="120"/>
+      <c r="D98" s="110"/>
+      <c r="E98" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="F98" s="43"/>
+      <c r="G98" s="66"/>
+      <c r="H98" s="64"/>
+      <c r="I98" s="65"/>
+      <c r="J98" s="30"/>
+      <c r="K98" s="66"/>
+      <c r="L98" s="64"/>
+      <c r="M98" s="65"/>
+      <c r="N98" s="30"/>
+      <c r="O98" s="66"/>
+      <c r="P98" s="64"/>
+      <c r="Q98" s="65"/>
+      <c r="R98" s="38">
+        <v>235</v>
+      </c>
+      <c r="S98" s="30"/>
+      <c r="T98" s="66"/>
+      <c r="U98" s="64"/>
+      <c r="V98" s="65"/>
+      <c r="W98" s="30"/>
+      <c r="X98" s="66"/>
+      <c r="Y98" s="64"/>
+      <c r="Z98" s="65"/>
+      <c r="AA98" s="30"/>
+      <c r="AB98" s="66"/>
+      <c r="AC98" s="64"/>
+      <c r="AD98" s="65"/>
       <c r="AE98" s="10"/>
     </row>
-    <row r="99" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:31" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="17"/>
       <c r="B99" s="52">
-        <v>76</v>
-      </c>
-      <c r="C99" s="67"/>
-      <c r="D99" s="63"/>
-      <c r="E99" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="F99" s="43"/>
-      <c r="G99" s="26"/>
-      <c r="H99" s="26"/>
-      <c r="I99" s="6"/>
-      <c r="J99" s="30"/>
-      <c r="K99" s="26"/>
-      <c r="L99" s="26"/>
-      <c r="M99" s="6"/>
-      <c r="N99" s="30"/>
-      <c r="O99" s="26"/>
-      <c r="P99" s="26"/>
-      <c r="Q99" s="3"/>
+        <v>74</v>
+      </c>
+      <c r="C99" s="120"/>
+      <c r="D99" s="111"/>
+      <c r="E99" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="F99" s="44"/>
+      <c r="G99" s="67"/>
+      <c r="H99" s="68"/>
+      <c r="I99" s="69"/>
+      <c r="J99" s="31"/>
+      <c r="K99" s="67"/>
+      <c r="L99" s="68"/>
+      <c r="M99" s="69"/>
+      <c r="N99" s="31"/>
+      <c r="O99" s="67"/>
+      <c r="P99" s="68"/>
+      <c r="Q99" s="69"/>
       <c r="R99" s="38">
-        <v>238</v>
-      </c>
-      <c r="S99" s="30"/>
-      <c r="T99" s="26"/>
-      <c r="U99" s="26"/>
-      <c r="V99" s="6"/>
-      <c r="W99" s="30"/>
-      <c r="X99" s="26"/>
-      <c r="Y99" s="26"/>
-      <c r="Z99" s="6"/>
-      <c r="AA99" s="30"/>
-      <c r="AB99" s="26"/>
-      <c r="AC99" s="26"/>
-      <c r="AD99" s="6"/>
+        <v>236</v>
+      </c>
+      <c r="S99" s="31"/>
+      <c r="T99" s="67"/>
+      <c r="U99" s="68"/>
+      <c r="V99" s="69"/>
+      <c r="W99" s="31"/>
+      <c r="X99" s="67"/>
+      <c r="Y99" s="68"/>
+      <c r="Z99" s="69"/>
+      <c r="AA99" s="31"/>
+      <c r="AB99" s="67"/>
+      <c r="AC99" s="68"/>
+      <c r="AD99" s="69"/>
       <c r="AE99" s="10"/>
     </row>
     <row r="100" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="17"/>
       <c r="B100" s="52">
-        <v>77</v>
-      </c>
-      <c r="C100" s="67"/>
-      <c r="D100" s="63"/>
-      <c r="E100" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="F100" s="43"/>
-      <c r="G100" s="26"/>
-      <c r="H100" s="26"/>
-      <c r="I100" s="6"/>
-      <c r="J100" s="30"/>
-      <c r="K100" s="26"/>
-      <c r="L100" s="26"/>
-      <c r="M100" s="6"/>
-      <c r="N100" s="30"/>
-      <c r="O100" s="26"/>
-      <c r="P100" s="26"/>
-      <c r="Q100" s="3"/>
-      <c r="R100" s="38">
-        <v>239</v>
-      </c>
-      <c r="S100" s="30"/>
-      <c r="T100" s="26"/>
-      <c r="U100" s="26"/>
-      <c r="V100" s="6"/>
-      <c r="W100" s="30"/>
-      <c r="X100" s="26"/>
-      <c r="Y100" s="26"/>
-      <c r="Z100" s="6"/>
-      <c r="AA100" s="30"/>
-      <c r="AB100" s="26"/>
-      <c r="AC100" s="26"/>
-      <c r="AD100" s="6"/>
+        <v>75</v>
+      </c>
+      <c r="C100" s="120"/>
+      <c r="D100" s="112" t="s">
+        <v>19</v>
+      </c>
+      <c r="E100" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="F100" s="45"/>
+      <c r="G100" s="28"/>
+      <c r="H100" s="28"/>
+      <c r="I100" s="7"/>
+      <c r="J100" s="32"/>
+      <c r="K100" s="28"/>
+      <c r="L100" s="28"/>
+      <c r="M100" s="7"/>
+      <c r="N100" s="32"/>
+      <c r="O100" s="28"/>
+      <c r="P100" s="28"/>
+      <c r="Q100" s="5"/>
+      <c r="R100" s="40">
+        <v>237</v>
+      </c>
+      <c r="S100" s="32"/>
+      <c r="T100" s="28"/>
+      <c r="U100" s="28"/>
+      <c r="V100" s="7"/>
+      <c r="W100" s="32"/>
+      <c r="X100" s="28"/>
+      <c r="Y100" s="28"/>
+      <c r="Z100" s="7"/>
+      <c r="AA100" s="32"/>
+      <c r="AB100" s="28"/>
+      <c r="AC100" s="28"/>
+      <c r="AD100" s="7"/>
       <c r="AE100" s="10"/>
     </row>
     <row r="101" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="17"/>
       <c r="B101" s="52">
-        <v>78</v>
-      </c>
-      <c r="C101" s="67"/>
-      <c r="D101" s="63"/>
+        <v>76</v>
+      </c>
+      <c r="C101" s="120"/>
+      <c r="D101" s="110"/>
       <c r="E101" s="48" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F101" s="43"/>
       <c r="G101" s="26"/>
@@ -5795,7 +5824,7 @@
       <c r="P101" s="26"/>
       <c r="Q101" s="3"/>
       <c r="R101" s="38">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="S101" s="30"/>
       <c r="T101" s="26"/>
@@ -5814,12 +5843,12 @@
     <row r="102" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="17"/>
       <c r="B102" s="52">
-        <v>79</v>
-      </c>
-      <c r="C102" s="67"/>
-      <c r="D102" s="63"/>
+        <v>77</v>
+      </c>
+      <c r="C102" s="120"/>
+      <c r="D102" s="110"/>
       <c r="E102" s="48" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F102" s="43"/>
       <c r="G102" s="26"/>
@@ -5834,7 +5863,7 @@
       <c r="P102" s="26"/>
       <c r="Q102" s="3"/>
       <c r="R102" s="38">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="S102" s="30"/>
       <c r="T102" s="26"/>
@@ -5853,12 +5882,12 @@
     <row r="103" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="17"/>
       <c r="B103" s="52">
-        <v>80</v>
-      </c>
-      <c r="C103" s="67"/>
-      <c r="D103" s="63"/>
+        <v>78</v>
+      </c>
+      <c r="C103" s="120"/>
+      <c r="D103" s="110"/>
       <c r="E103" s="48" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F103" s="43"/>
       <c r="G103" s="26"/>
@@ -5873,7 +5902,7 @@
       <c r="P103" s="26"/>
       <c r="Q103" s="3"/>
       <c r="R103" s="38">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="S103" s="30"/>
       <c r="T103" s="26"/>
@@ -5892,12 +5921,12 @@
     <row r="104" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="17"/>
       <c r="B104" s="52">
-        <v>81</v>
-      </c>
-      <c r="C104" s="67"/>
-      <c r="D104" s="63"/>
+        <v>79</v>
+      </c>
+      <c r="C104" s="120"/>
+      <c r="D104" s="110"/>
       <c r="E104" s="48" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F104" s="43"/>
       <c r="G104" s="26"/>
@@ -5912,7 +5941,7 @@
       <c r="P104" s="26"/>
       <c r="Q104" s="3"/>
       <c r="R104" s="38">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="S104" s="30"/>
       <c r="T104" s="26"/>
@@ -5931,12 +5960,12 @@
     <row r="105" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="17"/>
       <c r="B105" s="52">
-        <v>82</v>
-      </c>
-      <c r="C105" s="67"/>
-      <c r="D105" s="63"/>
+        <v>80</v>
+      </c>
+      <c r="C105" s="120"/>
+      <c r="D105" s="110"/>
       <c r="E105" s="48" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F105" s="43"/>
       <c r="G105" s="26"/>
@@ -5951,7 +5980,7 @@
       <c r="P105" s="26"/>
       <c r="Q105" s="3"/>
       <c r="R105" s="38">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="S105" s="30"/>
       <c r="T105" s="26"/>
@@ -5970,12 +5999,12 @@
     <row r="106" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="17"/>
       <c r="B106" s="52">
-        <v>83</v>
-      </c>
-      <c r="C106" s="67"/>
-      <c r="D106" s="63"/>
+        <v>81</v>
+      </c>
+      <c r="C106" s="120"/>
+      <c r="D106" s="110"/>
       <c r="E106" s="48" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F106" s="43"/>
       <c r="G106" s="26"/>
@@ -5990,7 +6019,7 @@
       <c r="P106" s="26"/>
       <c r="Q106" s="3"/>
       <c r="R106" s="38">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="S106" s="30"/>
       <c r="T106" s="26"/>
@@ -6009,12 +6038,12 @@
     <row r="107" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="17"/>
       <c r="B107" s="52">
-        <v>84</v>
-      </c>
-      <c r="C107" s="67"/>
-      <c r="D107" s="63"/>
+        <v>82</v>
+      </c>
+      <c r="C107" s="120"/>
+      <c r="D107" s="110"/>
       <c r="E107" s="48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F107" s="43"/>
       <c r="G107" s="26"/>
@@ -6029,7 +6058,7 @@
       <c r="P107" s="26"/>
       <c r="Q107" s="3"/>
       <c r="R107" s="38">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="S107" s="30"/>
       <c r="T107" s="26"/>
@@ -6048,12 +6077,12 @@
     <row r="108" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="17"/>
       <c r="B108" s="52">
-        <v>85</v>
-      </c>
-      <c r="C108" s="67"/>
-      <c r="D108" s="63"/>
+        <v>83</v>
+      </c>
+      <c r="C108" s="120"/>
+      <c r="D108" s="110"/>
       <c r="E108" s="48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F108" s="43"/>
       <c r="G108" s="26"/>
@@ -6068,7 +6097,7 @@
       <c r="P108" s="26"/>
       <c r="Q108" s="3"/>
       <c r="R108" s="38">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="S108" s="30"/>
       <c r="T108" s="26"/>
@@ -6087,338 +6116,338 @@
     <row r="109" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="17"/>
       <c r="B109" s="52">
-        <v>86</v>
-      </c>
-      <c r="C109" s="67"/>
-      <c r="D109" s="63"/>
+        <v>84</v>
+      </c>
+      <c r="C109" s="120"/>
+      <c r="D109" s="110"/>
       <c r="E109" s="48" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="F109" s="43"/>
-      <c r="G109" s="114" t="s">
-        <v>52</v>
-      </c>
-      <c r="H109" s="115"/>
-      <c r="I109" s="116"/>
+      <c r="G109" s="26"/>
+      <c r="H109" s="26"/>
+      <c r="I109" s="6"/>
       <c r="J109" s="30"/>
-      <c r="K109" s="114" t="s">
-        <v>52</v>
-      </c>
-      <c r="L109" s="115"/>
-      <c r="M109" s="116"/>
+      <c r="K109" s="26"/>
+      <c r="L109" s="26"/>
+      <c r="M109" s="6"/>
       <c r="N109" s="30"/>
-      <c r="O109" s="114" t="s">
-        <v>52</v>
-      </c>
-      <c r="P109" s="115"/>
-      <c r="Q109" s="116"/>
+      <c r="O109" s="26"/>
+      <c r="P109" s="26"/>
+      <c r="Q109" s="3"/>
       <c r="R109" s="38">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="S109" s="30"/>
-      <c r="T109" s="114" t="s">
-        <v>52</v>
-      </c>
-      <c r="U109" s="115"/>
-      <c r="V109" s="116"/>
+      <c r="T109" s="26"/>
+      <c r="U109" s="26"/>
+      <c r="V109" s="6"/>
       <c r="W109" s="30"/>
-      <c r="X109" s="114" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y109" s="115"/>
-      <c r="Z109" s="116"/>
+      <c r="X109" s="26"/>
+      <c r="Y109" s="26"/>
+      <c r="Z109" s="6"/>
       <c r="AA109" s="30"/>
-      <c r="AB109" s="114" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC109" s="115"/>
-      <c r="AD109" s="116"/>
+      <c r="AB109" s="26"/>
+      <c r="AC109" s="26"/>
+      <c r="AD109" s="6"/>
       <c r="AE109" s="10"/>
     </row>
     <row r="110" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="17"/>
       <c r="B110" s="52">
-        <v>87</v>
-      </c>
-      <c r="C110" s="67"/>
-      <c r="D110" s="63"/>
+        <v>85</v>
+      </c>
+      <c r="C110" s="120"/>
+      <c r="D110" s="110"/>
       <c r="E110" s="48" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="F110" s="43"/>
-      <c r="G110" s="117"/>
-      <c r="H110" s="115"/>
-      <c r="I110" s="116"/>
+      <c r="G110" s="26"/>
+      <c r="H110" s="26"/>
+      <c r="I110" s="6"/>
       <c r="J110" s="30"/>
-      <c r="K110" s="117"/>
-      <c r="L110" s="115"/>
-      <c r="M110" s="116"/>
+      <c r="K110" s="26"/>
+      <c r="L110" s="26"/>
+      <c r="M110" s="6"/>
       <c r="N110" s="30"/>
-      <c r="O110" s="117"/>
-      <c r="P110" s="115"/>
-      <c r="Q110" s="116"/>
+      <c r="O110" s="26"/>
+      <c r="P110" s="26"/>
+      <c r="Q110" s="3"/>
       <c r="R110" s="38">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="S110" s="30"/>
-      <c r="T110" s="117"/>
-      <c r="U110" s="115"/>
-      <c r="V110" s="116"/>
+      <c r="T110" s="26"/>
+      <c r="U110" s="26"/>
+      <c r="V110" s="6"/>
       <c r="W110" s="30"/>
-      <c r="X110" s="117"/>
-      <c r="Y110" s="115"/>
-      <c r="Z110" s="116"/>
+      <c r="X110" s="26"/>
+      <c r="Y110" s="26"/>
+      <c r="Z110" s="6"/>
       <c r="AA110" s="30"/>
-      <c r="AB110" s="117"/>
-      <c r="AC110" s="115"/>
-      <c r="AD110" s="116"/>
+      <c r="AB110" s="26"/>
+      <c r="AC110" s="26"/>
+      <c r="AD110" s="6"/>
       <c r="AE110" s="10"/>
     </row>
     <row r="111" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="17"/>
       <c r="B111" s="52">
-        <v>88</v>
-      </c>
-      <c r="C111" s="67"/>
-      <c r="D111" s="63"/>
+        <v>86</v>
+      </c>
+      <c r="C111" s="120"/>
+      <c r="D111" s="110"/>
       <c r="E111" s="48" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F111" s="43"/>
-      <c r="G111" s="117"/>
-      <c r="H111" s="115"/>
-      <c r="I111" s="116"/>
+      <c r="G111" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="H111" s="64"/>
+      <c r="I111" s="65"/>
       <c r="J111" s="30"/>
-      <c r="K111" s="117"/>
-      <c r="L111" s="115"/>
-      <c r="M111" s="116"/>
+      <c r="K111" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="L111" s="64"/>
+      <c r="M111" s="65"/>
       <c r="N111" s="30"/>
-      <c r="O111" s="117"/>
-      <c r="P111" s="115"/>
-      <c r="Q111" s="116"/>
+      <c r="O111" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="P111" s="64"/>
+      <c r="Q111" s="65"/>
       <c r="R111" s="38">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="S111" s="30"/>
-      <c r="T111" s="117"/>
-      <c r="U111" s="115"/>
-      <c r="V111" s="116"/>
+      <c r="T111" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="U111" s="64"/>
+      <c r="V111" s="65"/>
       <c r="W111" s="30"/>
-      <c r="X111" s="117"/>
-      <c r="Y111" s="115"/>
-      <c r="Z111" s="116"/>
+      <c r="X111" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y111" s="64"/>
+      <c r="Z111" s="65"/>
       <c r="AA111" s="30"/>
-      <c r="AB111" s="117"/>
-      <c r="AC111" s="115"/>
-      <c r="AD111" s="116"/>
+      <c r="AB111" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC111" s="64"/>
+      <c r="AD111" s="65"/>
       <c r="AE111" s="10"/>
     </row>
     <row r="112" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="17"/>
       <c r="B112" s="52">
-        <v>89</v>
-      </c>
-      <c r="C112" s="67"/>
-      <c r="D112" s="63"/>
+        <v>87</v>
+      </c>
+      <c r="C112" s="120"/>
+      <c r="D112" s="110"/>
       <c r="E112" s="48" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F112" s="43"/>
-      <c r="G112" s="117"/>
-      <c r="H112" s="115"/>
-      <c r="I112" s="116"/>
+      <c r="G112" s="66"/>
+      <c r="H112" s="64"/>
+      <c r="I112" s="65"/>
       <c r="J112" s="30"/>
-      <c r="K112" s="117"/>
-      <c r="L112" s="115"/>
-      <c r="M112" s="116"/>
+      <c r="K112" s="66"/>
+      <c r="L112" s="64"/>
+      <c r="M112" s="65"/>
       <c r="N112" s="30"/>
-      <c r="O112" s="117"/>
-      <c r="P112" s="115"/>
-      <c r="Q112" s="116"/>
+      <c r="O112" s="66"/>
+      <c r="P112" s="64"/>
+      <c r="Q112" s="65"/>
       <c r="R112" s="38">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="S112" s="30"/>
-      <c r="T112" s="117"/>
-      <c r="U112" s="115"/>
-      <c r="V112" s="116"/>
+      <c r="T112" s="66"/>
+      <c r="U112" s="64"/>
+      <c r="V112" s="65"/>
       <c r="W112" s="30"/>
-      <c r="X112" s="117"/>
-      <c r="Y112" s="115"/>
-      <c r="Z112" s="116"/>
+      <c r="X112" s="66"/>
+      <c r="Y112" s="64"/>
+      <c r="Z112" s="65"/>
       <c r="AA112" s="30"/>
-      <c r="AB112" s="117"/>
-      <c r="AC112" s="115"/>
-      <c r="AD112" s="116"/>
+      <c r="AB112" s="66"/>
+      <c r="AC112" s="64"/>
+      <c r="AD112" s="65"/>
       <c r="AE112" s="10"/>
     </row>
     <row r="113" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="17"/>
       <c r="B113" s="52">
-        <v>90</v>
-      </c>
-      <c r="C113" s="67"/>
-      <c r="D113" s="63"/>
+        <v>88</v>
+      </c>
+      <c r="C113" s="120"/>
+      <c r="D113" s="110"/>
       <c r="E113" s="48" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F113" s="43"/>
-      <c r="G113" s="117"/>
-      <c r="H113" s="115"/>
-      <c r="I113" s="116"/>
+      <c r="G113" s="66"/>
+      <c r="H113" s="64"/>
+      <c r="I113" s="65"/>
       <c r="J113" s="30"/>
-      <c r="K113" s="117"/>
-      <c r="L113" s="115"/>
-      <c r="M113" s="116"/>
+      <c r="K113" s="66"/>
+      <c r="L113" s="64"/>
+      <c r="M113" s="65"/>
       <c r="N113" s="30"/>
-      <c r="O113" s="117"/>
-      <c r="P113" s="115"/>
-      <c r="Q113" s="116"/>
+      <c r="O113" s="66"/>
+      <c r="P113" s="64"/>
+      <c r="Q113" s="65"/>
       <c r="R113" s="38">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="S113" s="30"/>
-      <c r="T113" s="117"/>
-      <c r="U113" s="115"/>
-      <c r="V113" s="116"/>
+      <c r="T113" s="66"/>
+      <c r="U113" s="64"/>
+      <c r="V113" s="65"/>
       <c r="W113" s="30"/>
-      <c r="X113" s="117"/>
-      <c r="Y113" s="115"/>
-      <c r="Z113" s="116"/>
+      <c r="X113" s="66"/>
+      <c r="Y113" s="64"/>
+      <c r="Z113" s="65"/>
       <c r="AA113" s="30"/>
-      <c r="AB113" s="117"/>
-      <c r="AC113" s="115"/>
-      <c r="AD113" s="116"/>
+      <c r="AB113" s="66"/>
+      <c r="AC113" s="64"/>
+      <c r="AD113" s="65"/>
       <c r="AE113" s="10"/>
     </row>
-    <row r="114" spans="1:31" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="17"/>
       <c r="B114" s="52">
-        <v>91</v>
-      </c>
-      <c r="C114" s="67"/>
-      <c r="D114" s="64"/>
-      <c r="E114" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="F114" s="44"/>
-      <c r="G114" s="118"/>
-      <c r="H114" s="119"/>
-      <c r="I114" s="120"/>
-      <c r="J114" s="31"/>
-      <c r="K114" s="118"/>
-      <c r="L114" s="119"/>
-      <c r="M114" s="120"/>
-      <c r="N114" s="31"/>
-      <c r="O114" s="118"/>
-      <c r="P114" s="119"/>
-      <c r="Q114" s="120"/>
+        <v>89</v>
+      </c>
+      <c r="C114" s="120"/>
+      <c r="D114" s="110"/>
+      <c r="E114" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="F114" s="43"/>
+      <c r="G114" s="66"/>
+      <c r="H114" s="64"/>
+      <c r="I114" s="65"/>
+      <c r="J114" s="30"/>
+      <c r="K114" s="66"/>
+      <c r="L114" s="64"/>
+      <c r="M114" s="65"/>
+      <c r="N114" s="30"/>
+      <c r="O114" s="66"/>
+      <c r="P114" s="64"/>
+      <c r="Q114" s="65"/>
       <c r="R114" s="38">
-        <v>253</v>
-      </c>
-      <c r="S114" s="31"/>
-      <c r="T114" s="118"/>
-      <c r="U114" s="119"/>
-      <c r="V114" s="120"/>
-      <c r="W114" s="31"/>
-      <c r="X114" s="118"/>
-      <c r="Y114" s="119"/>
-      <c r="Z114" s="120"/>
-      <c r="AA114" s="31"/>
-      <c r="AB114" s="118"/>
-      <c r="AC114" s="119"/>
-      <c r="AD114" s="120"/>
+        <v>251</v>
+      </c>
+      <c r="S114" s="30"/>
+      <c r="T114" s="66"/>
+      <c r="U114" s="64"/>
+      <c r="V114" s="65"/>
+      <c r="W114" s="30"/>
+      <c r="X114" s="66"/>
+      <c r="Y114" s="64"/>
+      <c r="Z114" s="65"/>
+      <c r="AA114" s="30"/>
+      <c r="AB114" s="66"/>
+      <c r="AC114" s="64"/>
+      <c r="AD114" s="65"/>
       <c r="AE114" s="10"/>
     </row>
     <row r="115" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="17"/>
       <c r="B115" s="52">
-        <v>92</v>
-      </c>
-      <c r="C115" s="67"/>
-      <c r="D115" s="62" t="s">
-        <v>20</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="C115" s="120"/>
+      <c r="D115" s="110"/>
       <c r="E115" s="48" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="F115" s="43"/>
-      <c r="G115" s="26"/>
-      <c r="H115" s="26"/>
-      <c r="I115" s="6"/>
+      <c r="G115" s="66"/>
+      <c r="H115" s="64"/>
+      <c r="I115" s="65"/>
       <c r="J115" s="30"/>
-      <c r="K115" s="26"/>
-      <c r="L115" s="26"/>
-      <c r="M115" s="6"/>
+      <c r="K115" s="66"/>
+      <c r="L115" s="64"/>
+      <c r="M115" s="65"/>
       <c r="N115" s="30"/>
-      <c r="O115" s="26"/>
-      <c r="P115" s="26"/>
-      <c r="Q115" s="3"/>
-      <c r="R115" s="40">
-        <v>254</v>
+      <c r="O115" s="66"/>
+      <c r="P115" s="64"/>
+      <c r="Q115" s="65"/>
+      <c r="R115" s="38">
+        <v>252</v>
       </c>
       <c r="S115" s="30"/>
-      <c r="T115" s="26"/>
-      <c r="U115" s="26"/>
-      <c r="V115" s="6"/>
+      <c r="T115" s="66"/>
+      <c r="U115" s="64"/>
+      <c r="V115" s="65"/>
       <c r="W115" s="30"/>
-      <c r="X115" s="26"/>
-      <c r="Y115" s="26"/>
-      <c r="Z115" s="6"/>
+      <c r="X115" s="66"/>
+      <c r="Y115" s="64"/>
+      <c r="Z115" s="65"/>
       <c r="AA115" s="30"/>
-      <c r="AB115" s="26"/>
-      <c r="AC115" s="26"/>
-      <c r="AD115" s="6"/>
+      <c r="AB115" s="66"/>
+      <c r="AC115" s="64"/>
+      <c r="AD115" s="65"/>
       <c r="AE115" s="10"/>
     </row>
-    <row r="116" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:31" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="17"/>
       <c r="B116" s="52">
-        <v>93</v>
-      </c>
-      <c r="C116" s="67"/>
-      <c r="D116" s="63"/>
-      <c r="E116" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="F116" s="43"/>
-      <c r="G116" s="26"/>
-      <c r="H116" s="26"/>
-      <c r="I116" s="6"/>
-      <c r="J116" s="30"/>
-      <c r="K116" s="26"/>
-      <c r="L116" s="26"/>
-      <c r="M116" s="6"/>
-      <c r="N116" s="30"/>
-      <c r="O116" s="26"/>
-      <c r="P116" s="26"/>
-      <c r="Q116" s="3"/>
+        <v>91</v>
+      </c>
+      <c r="C116" s="120"/>
+      <c r="D116" s="111"/>
+      <c r="E116" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="F116" s="44"/>
+      <c r="G116" s="67"/>
+      <c r="H116" s="68"/>
+      <c r="I116" s="69"/>
+      <c r="J116" s="31"/>
+      <c r="K116" s="67"/>
+      <c r="L116" s="68"/>
+      <c r="M116" s="69"/>
+      <c r="N116" s="31"/>
+      <c r="O116" s="67"/>
+      <c r="P116" s="68"/>
+      <c r="Q116" s="69"/>
       <c r="R116" s="38">
-        <v>255</v>
-      </c>
-      <c r="S116" s="30"/>
-      <c r="T116" s="26"/>
-      <c r="U116" s="26"/>
-      <c r="V116" s="6"/>
-      <c r="W116" s="30"/>
-      <c r="X116" s="26"/>
-      <c r="Y116" s="26"/>
-      <c r="Z116" s="6"/>
-      <c r="AA116" s="30"/>
-      <c r="AB116" s="26"/>
-      <c r="AC116" s="26"/>
-      <c r="AD116" s="6"/>
+        <v>253</v>
+      </c>
+      <c r="S116" s="31"/>
+      <c r="T116" s="67"/>
+      <c r="U116" s="68"/>
+      <c r="V116" s="69"/>
+      <c r="W116" s="31"/>
+      <c r="X116" s="67"/>
+      <c r="Y116" s="68"/>
+      <c r="Z116" s="69"/>
+      <c r="AA116" s="31"/>
+      <c r="AB116" s="67"/>
+      <c r="AC116" s="68"/>
+      <c r="AD116" s="69"/>
       <c r="AE116" s="10"/>
     </row>
     <row r="117" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="17"/>
       <c r="B117" s="52">
-        <v>94</v>
-      </c>
-      <c r="C117" s="67"/>
-      <c r="D117" s="63"/>
+        <v>92</v>
+      </c>
+      <c r="C117" s="120"/>
+      <c r="D117" s="112" t="s">
+        <v>20</v>
+      </c>
       <c r="E117" s="48" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F117" s="43"/>
       <c r="G117" s="26"/>
@@ -6432,8 +6461,8 @@
       <c r="O117" s="26"/>
       <c r="P117" s="26"/>
       <c r="Q117" s="3"/>
-      <c r="R117" s="38">
-        <v>256</v>
+      <c r="R117" s="40">
+        <v>254</v>
       </c>
       <c r="S117" s="30"/>
       <c r="T117" s="26"/>
@@ -6452,12 +6481,12 @@
     <row r="118" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="17"/>
       <c r="B118" s="52">
-        <v>95</v>
-      </c>
-      <c r="C118" s="67"/>
-      <c r="D118" s="63"/>
+        <v>93</v>
+      </c>
+      <c r="C118" s="120"/>
+      <c r="D118" s="110"/>
       <c r="E118" s="48" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F118" s="43"/>
       <c r="G118" s="26"/>
@@ -6472,7 +6501,7 @@
       <c r="P118" s="26"/>
       <c r="Q118" s="3"/>
       <c r="R118" s="38">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="S118" s="30"/>
       <c r="T118" s="26"/>
@@ -6491,12 +6520,12 @@
     <row r="119" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="17"/>
       <c r="B119" s="52">
-        <v>96</v>
-      </c>
-      <c r="C119" s="67"/>
-      <c r="D119" s="63"/>
+        <v>94</v>
+      </c>
+      <c r="C119" s="120"/>
+      <c r="D119" s="110"/>
       <c r="E119" s="48" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F119" s="43"/>
       <c r="G119" s="26"/>
@@ -6511,7 +6540,7 @@
       <c r="P119" s="26"/>
       <c r="Q119" s="3"/>
       <c r="R119" s="38">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="S119" s="30"/>
       <c r="T119" s="26"/>
@@ -6530,12 +6559,12 @@
     <row r="120" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="17"/>
       <c r="B120" s="52">
-        <v>97</v>
-      </c>
-      <c r="C120" s="67"/>
-      <c r="D120" s="63"/>
+        <v>95</v>
+      </c>
+      <c r="C120" s="120"/>
+      <c r="D120" s="110"/>
       <c r="E120" s="48" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F120" s="43"/>
       <c r="G120" s="26"/>
@@ -6550,7 +6579,7 @@
       <c r="P120" s="26"/>
       <c r="Q120" s="3"/>
       <c r="R120" s="38">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="S120" s="30"/>
       <c r="T120" s="26"/>
@@ -6569,12 +6598,12 @@
     <row r="121" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="17"/>
       <c r="B121" s="52">
-        <v>98</v>
-      </c>
-      <c r="C121" s="67"/>
-      <c r="D121" s="63"/>
+        <v>96</v>
+      </c>
+      <c r="C121" s="120"/>
+      <c r="D121" s="110"/>
       <c r="E121" s="48" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F121" s="43"/>
       <c r="G121" s="26"/>
@@ -6589,7 +6618,7 @@
       <c r="P121" s="26"/>
       <c r="Q121" s="3"/>
       <c r="R121" s="38">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="S121" s="30"/>
       <c r="T121" s="26"/>
@@ -6608,12 +6637,12 @@
     <row r="122" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="17"/>
       <c r="B122" s="52">
-        <v>99</v>
-      </c>
-      <c r="C122" s="67"/>
-      <c r="D122" s="63"/>
+        <v>97</v>
+      </c>
+      <c r="C122" s="120"/>
+      <c r="D122" s="110"/>
       <c r="E122" s="48" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F122" s="43"/>
       <c r="G122" s="26"/>
@@ -6628,7 +6657,7 @@
       <c r="P122" s="26"/>
       <c r="Q122" s="3"/>
       <c r="R122" s="38">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="S122" s="30"/>
       <c r="T122" s="26"/>
@@ -6647,12 +6676,12 @@
     <row r="123" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="17"/>
       <c r="B123" s="52">
-        <v>100</v>
-      </c>
-      <c r="C123" s="67"/>
-      <c r="D123" s="63"/>
+        <v>98</v>
+      </c>
+      <c r="C123" s="120"/>
+      <c r="D123" s="110"/>
       <c r="E123" s="48" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F123" s="43"/>
       <c r="G123" s="26"/>
@@ -6667,7 +6696,7 @@
       <c r="P123" s="26"/>
       <c r="Q123" s="3"/>
       <c r="R123" s="38">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="S123" s="30"/>
       <c r="T123" s="26"/>
@@ -6686,12 +6715,12 @@
     <row r="124" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="17"/>
       <c r="B124" s="52">
-        <v>101</v>
-      </c>
-      <c r="C124" s="67"/>
-      <c r="D124" s="63"/>
+        <v>99</v>
+      </c>
+      <c r="C124" s="120"/>
+      <c r="D124" s="110"/>
       <c r="E124" s="48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F124" s="43"/>
       <c r="G124" s="26"/>
@@ -6706,7 +6735,7 @@
       <c r="P124" s="26"/>
       <c r="Q124" s="3"/>
       <c r="R124" s="38">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="S124" s="30"/>
       <c r="T124" s="26"/>
@@ -6725,12 +6754,12 @@
     <row r="125" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="17"/>
       <c r="B125" s="52">
-        <v>102</v>
-      </c>
-      <c r="C125" s="67"/>
-      <c r="D125" s="63"/>
+        <v>100</v>
+      </c>
+      <c r="C125" s="120"/>
+      <c r="D125" s="110"/>
       <c r="E125" s="48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F125" s="43"/>
       <c r="G125" s="26"/>
@@ -6745,7 +6774,7 @@
       <c r="P125" s="26"/>
       <c r="Q125" s="3"/>
       <c r="R125" s="38">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="S125" s="30"/>
       <c r="T125" s="26"/>
@@ -6764,340 +6793,340 @@
     <row r="126" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="17"/>
       <c r="B126" s="52">
-        <v>103</v>
-      </c>
-      <c r="C126" s="67"/>
-      <c r="D126" s="63"/>
+        <v>101</v>
+      </c>
+      <c r="C126" s="120"/>
+      <c r="D126" s="110"/>
       <c r="E126" s="48" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="F126" s="43"/>
-      <c r="G126" s="114" t="s">
-        <v>52</v>
-      </c>
-      <c r="H126" s="115"/>
-      <c r="I126" s="116"/>
+      <c r="G126" s="26"/>
+      <c r="H126" s="26"/>
+      <c r="I126" s="6"/>
       <c r="J126" s="30"/>
-      <c r="K126" s="114" t="s">
-        <v>52</v>
-      </c>
-      <c r="L126" s="115"/>
-      <c r="M126" s="116"/>
+      <c r="K126" s="26"/>
+      <c r="L126" s="26"/>
+      <c r="M126" s="6"/>
       <c r="N126" s="30"/>
-      <c r="O126" s="114" t="s">
-        <v>52</v>
-      </c>
-      <c r="P126" s="115"/>
-      <c r="Q126" s="116"/>
+      <c r="O126" s="26"/>
+      <c r="P126" s="26"/>
+      <c r="Q126" s="3"/>
       <c r="R126" s="38">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="S126" s="30"/>
-      <c r="T126" s="114" t="s">
-        <v>52</v>
-      </c>
-      <c r="U126" s="115"/>
-      <c r="V126" s="116"/>
+      <c r="T126" s="26"/>
+      <c r="U126" s="26"/>
+      <c r="V126" s="6"/>
       <c r="W126" s="30"/>
-      <c r="X126" s="114" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y126" s="115"/>
-      <c r="Z126" s="116"/>
+      <c r="X126" s="26"/>
+      <c r="Y126" s="26"/>
+      <c r="Z126" s="6"/>
       <c r="AA126" s="30"/>
-      <c r="AB126" s="114" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC126" s="115"/>
-      <c r="AD126" s="116"/>
+      <c r="AB126" s="26"/>
+      <c r="AC126" s="26"/>
+      <c r="AD126" s="6"/>
       <c r="AE126" s="10"/>
     </row>
     <row r="127" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="17"/>
       <c r="B127" s="52">
-        <v>104</v>
-      </c>
-      <c r="C127" s="67"/>
-      <c r="D127" s="63"/>
+        <v>102</v>
+      </c>
+      <c r="C127" s="120"/>
+      <c r="D127" s="110"/>
       <c r="E127" s="48" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="F127" s="43"/>
-      <c r="G127" s="117"/>
-      <c r="H127" s="115"/>
-      <c r="I127" s="116"/>
+      <c r="G127" s="26"/>
+      <c r="H127" s="26"/>
+      <c r="I127" s="6"/>
       <c r="J127" s="30"/>
-      <c r="K127" s="117"/>
-      <c r="L127" s="115"/>
-      <c r="M127" s="116"/>
+      <c r="K127" s="26"/>
+      <c r="L127" s="26"/>
+      <c r="M127" s="6"/>
       <c r="N127" s="30"/>
-      <c r="O127" s="117"/>
-      <c r="P127" s="115"/>
-      <c r="Q127" s="116"/>
+      <c r="O127" s="26"/>
+      <c r="P127" s="26"/>
+      <c r="Q127" s="3"/>
       <c r="R127" s="38">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="S127" s="30"/>
-      <c r="T127" s="117"/>
-      <c r="U127" s="115"/>
-      <c r="V127" s="116"/>
+      <c r="T127" s="26"/>
+      <c r="U127" s="26"/>
+      <c r="V127" s="6"/>
       <c r="W127" s="30"/>
-      <c r="X127" s="117"/>
-      <c r="Y127" s="115"/>
-      <c r="Z127" s="116"/>
+      <c r="X127" s="26"/>
+      <c r="Y127" s="26"/>
+      <c r="Z127" s="6"/>
       <c r="AA127" s="30"/>
-      <c r="AB127" s="117"/>
-      <c r="AC127" s="115"/>
-      <c r="AD127" s="116"/>
+      <c r="AB127" s="26"/>
+      <c r="AC127" s="26"/>
+      <c r="AD127" s="6"/>
       <c r="AE127" s="10"/>
     </row>
     <row r="128" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="17"/>
       <c r="B128" s="52">
-        <v>105</v>
-      </c>
-      <c r="C128" s="67"/>
-      <c r="D128" s="63"/>
+        <v>103</v>
+      </c>
+      <c r="C128" s="120"/>
+      <c r="D128" s="110"/>
       <c r="E128" s="48" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F128" s="43"/>
-      <c r="G128" s="117"/>
-      <c r="H128" s="115"/>
-      <c r="I128" s="116"/>
+      <c r="G128" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="H128" s="64"/>
+      <c r="I128" s="65"/>
       <c r="J128" s="30"/>
-      <c r="K128" s="117"/>
-      <c r="L128" s="115"/>
-      <c r="M128" s="116"/>
+      <c r="K128" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="L128" s="64"/>
+      <c r="M128" s="65"/>
       <c r="N128" s="30"/>
-      <c r="O128" s="117"/>
-      <c r="P128" s="115"/>
-      <c r="Q128" s="116"/>
+      <c r="O128" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="P128" s="64"/>
+      <c r="Q128" s="65"/>
       <c r="R128" s="38">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="S128" s="30"/>
-      <c r="T128" s="117"/>
-      <c r="U128" s="115"/>
-      <c r="V128" s="116"/>
+      <c r="T128" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="U128" s="64"/>
+      <c r="V128" s="65"/>
       <c r="W128" s="30"/>
-      <c r="X128" s="117"/>
-      <c r="Y128" s="115"/>
-      <c r="Z128" s="116"/>
+      <c r="X128" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y128" s="64"/>
+      <c r="Z128" s="65"/>
       <c r="AA128" s="30"/>
-      <c r="AB128" s="117"/>
-      <c r="AC128" s="115"/>
-      <c r="AD128" s="116"/>
+      <c r="AB128" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC128" s="64"/>
+      <c r="AD128" s="65"/>
       <c r="AE128" s="10"/>
     </row>
     <row r="129" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="17"/>
       <c r="B129" s="52">
-        <v>106</v>
-      </c>
-      <c r="C129" s="67"/>
-      <c r="D129" s="63"/>
+        <v>104</v>
+      </c>
+      <c r="C129" s="120"/>
+      <c r="D129" s="110"/>
       <c r="E129" s="48" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F129" s="43"/>
-      <c r="G129" s="117"/>
-      <c r="H129" s="115"/>
-      <c r="I129" s="116"/>
+      <c r="G129" s="66"/>
+      <c r="H129" s="64"/>
+      <c r="I129" s="65"/>
       <c r="J129" s="30"/>
-      <c r="K129" s="117"/>
-      <c r="L129" s="115"/>
-      <c r="M129" s="116"/>
+      <c r="K129" s="66"/>
+      <c r="L129" s="64"/>
+      <c r="M129" s="65"/>
       <c r="N129" s="30"/>
-      <c r="O129" s="117"/>
-      <c r="P129" s="115"/>
-      <c r="Q129" s="116"/>
+      <c r="O129" s="66"/>
+      <c r="P129" s="64"/>
+      <c r="Q129" s="65"/>
       <c r="R129" s="38">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="S129" s="30"/>
-      <c r="T129" s="117"/>
-      <c r="U129" s="115"/>
-      <c r="V129" s="116"/>
+      <c r="T129" s="66"/>
+      <c r="U129" s="64"/>
+      <c r="V129" s="65"/>
       <c r="W129" s="30"/>
-      <c r="X129" s="117"/>
-      <c r="Y129" s="115"/>
-      <c r="Z129" s="116"/>
+      <c r="X129" s="66"/>
+      <c r="Y129" s="64"/>
+      <c r="Z129" s="65"/>
       <c r="AA129" s="30"/>
-      <c r="AB129" s="117"/>
-      <c r="AC129" s="115"/>
-      <c r="AD129" s="116"/>
+      <c r="AB129" s="66"/>
+      <c r="AC129" s="64"/>
+      <c r="AD129" s="65"/>
       <c r="AE129" s="10"/>
     </row>
     <row r="130" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="17"/>
       <c r="B130" s="52">
-        <v>107</v>
-      </c>
-      <c r="C130" s="67"/>
-      <c r="D130" s="63"/>
+        <v>105</v>
+      </c>
+      <c r="C130" s="120"/>
+      <c r="D130" s="110"/>
       <c r="E130" s="48" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F130" s="43"/>
-      <c r="G130" s="117"/>
-      <c r="H130" s="115"/>
-      <c r="I130" s="116"/>
+      <c r="G130" s="66"/>
+      <c r="H130" s="64"/>
+      <c r="I130" s="65"/>
       <c r="J130" s="30"/>
-      <c r="K130" s="117"/>
-      <c r="L130" s="115"/>
-      <c r="M130" s="116"/>
+      <c r="K130" s="66"/>
+      <c r="L130" s="64"/>
+      <c r="M130" s="65"/>
       <c r="N130" s="30"/>
-      <c r="O130" s="117"/>
-      <c r="P130" s="115"/>
-      <c r="Q130" s="116"/>
+      <c r="O130" s="66"/>
+      <c r="P130" s="64"/>
+      <c r="Q130" s="65"/>
       <c r="R130" s="38">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="S130" s="30"/>
-      <c r="T130" s="117"/>
-      <c r="U130" s="115"/>
-      <c r="V130" s="116"/>
+      <c r="T130" s="66"/>
+      <c r="U130" s="64"/>
+      <c r="V130" s="65"/>
       <c r="W130" s="30"/>
-      <c r="X130" s="117"/>
-      <c r="Y130" s="115"/>
-      <c r="Z130" s="116"/>
+      <c r="X130" s="66"/>
+      <c r="Y130" s="64"/>
+      <c r="Z130" s="65"/>
       <c r="AA130" s="30"/>
-      <c r="AB130" s="117"/>
-      <c r="AC130" s="115"/>
-      <c r="AD130" s="116"/>
+      <c r="AB130" s="66"/>
+      <c r="AC130" s="64"/>
+      <c r="AD130" s="65"/>
       <c r="AE130" s="10"/>
     </row>
-    <row r="131" spans="1:31" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="17"/>
       <c r="B131" s="52">
-        <v>108</v>
-      </c>
-      <c r="C131" s="68"/>
-      <c r="D131" s="65"/>
-      <c r="E131" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="F131" s="46"/>
-      <c r="G131" s="118"/>
-      <c r="H131" s="119"/>
-      <c r="I131" s="120"/>
-      <c r="J131" s="33"/>
-      <c r="K131" s="118"/>
-      <c r="L131" s="119"/>
-      <c r="M131" s="120"/>
-      <c r="N131" s="33"/>
-      <c r="O131" s="118"/>
-      <c r="P131" s="119"/>
-      <c r="Q131" s="120"/>
+        <v>106</v>
+      </c>
+      <c r="C131" s="120"/>
+      <c r="D131" s="110"/>
+      <c r="E131" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="F131" s="43"/>
+      <c r="G131" s="66"/>
+      <c r="H131" s="64"/>
+      <c r="I131" s="65"/>
+      <c r="J131" s="30"/>
+      <c r="K131" s="66"/>
+      <c r="L131" s="64"/>
+      <c r="M131" s="65"/>
+      <c r="N131" s="30"/>
+      <c r="O131" s="66"/>
+      <c r="P131" s="64"/>
+      <c r="Q131" s="65"/>
       <c r="R131" s="38">
-        <v>270</v>
-      </c>
-      <c r="S131" s="33"/>
-      <c r="T131" s="118"/>
-      <c r="U131" s="119"/>
-      <c r="V131" s="120"/>
-      <c r="W131" s="33"/>
-      <c r="X131" s="118"/>
-      <c r="Y131" s="119"/>
-      <c r="Z131" s="120"/>
-      <c r="AA131" s="33"/>
-      <c r="AB131" s="118"/>
-      <c r="AC131" s="119"/>
-      <c r="AD131" s="120"/>
+        <v>268</v>
+      </c>
+      <c r="S131" s="30"/>
+      <c r="T131" s="66"/>
+      <c r="U131" s="64"/>
+      <c r="V131" s="65"/>
+      <c r="W131" s="30"/>
+      <c r="X131" s="66"/>
+      <c r="Y131" s="64"/>
+      <c r="Z131" s="65"/>
+      <c r="AA131" s="30"/>
+      <c r="AB131" s="66"/>
+      <c r="AC131" s="64"/>
+      <c r="AD131" s="65"/>
       <c r="AE131" s="10"/>
     </row>
-    <row r="132" spans="1:31" ht="24.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="17"/>
       <c r="B132" s="52">
-        <v>109</v>
-      </c>
-      <c r="C132" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="D132" s="63" t="s">
-        <v>6</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="C132" s="120"/>
+      <c r="D132" s="110"/>
       <c r="E132" s="48" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="F132" s="43"/>
-      <c r="G132" s="26"/>
-      <c r="H132" s="26"/>
-      <c r="I132" s="6"/>
+      <c r="G132" s="66"/>
+      <c r="H132" s="64"/>
+      <c r="I132" s="65"/>
       <c r="J132" s="30"/>
-      <c r="K132" s="26"/>
-      <c r="L132" s="26"/>
-      <c r="M132" s="6"/>
+      <c r="K132" s="66"/>
+      <c r="L132" s="64"/>
+      <c r="M132" s="65"/>
       <c r="N132" s="30"/>
-      <c r="O132" s="26"/>
-      <c r="P132" s="26"/>
-      <c r="Q132" s="3"/>
-      <c r="R132" s="37">
-        <v>271</v>
+      <c r="O132" s="66"/>
+      <c r="P132" s="64"/>
+      <c r="Q132" s="65"/>
+      <c r="R132" s="38">
+        <v>269</v>
       </c>
       <c r="S132" s="30"/>
-      <c r="T132" s="26"/>
-      <c r="U132" s="26"/>
-      <c r="V132" s="6"/>
+      <c r="T132" s="66"/>
+      <c r="U132" s="64"/>
+      <c r="V132" s="65"/>
       <c r="W132" s="30"/>
-      <c r="X132" s="26"/>
-      <c r="Y132" s="26"/>
-      <c r="Z132" s="6"/>
+      <c r="X132" s="66"/>
+      <c r="Y132" s="64"/>
+      <c r="Z132" s="65"/>
       <c r="AA132" s="30"/>
-      <c r="AB132" s="26"/>
-      <c r="AC132" s="26"/>
-      <c r="AD132" s="6"/>
+      <c r="AB132" s="66"/>
+      <c r="AC132" s="64"/>
+      <c r="AD132" s="65"/>
       <c r="AE132" s="10"/>
     </row>
-    <row r="133" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:31" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="17"/>
       <c r="B133" s="52">
-        <v>110</v>
-      </c>
-      <c r="C133" s="67"/>
-      <c r="D133" s="63"/>
-      <c r="E133" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="F133" s="43"/>
-      <c r="G133" s="26"/>
-      <c r="H133" s="26"/>
-      <c r="I133" s="6"/>
-      <c r="J133" s="30"/>
-      <c r="K133" s="26"/>
-      <c r="L133" s="26"/>
-      <c r="M133" s="6"/>
-      <c r="N133" s="30"/>
-      <c r="O133" s="26"/>
-      <c r="P133" s="26"/>
-      <c r="Q133" s="3"/>
+        <v>108</v>
+      </c>
+      <c r="C133" s="121"/>
+      <c r="D133" s="118"/>
+      <c r="E133" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="F133" s="46"/>
+      <c r="G133" s="67"/>
+      <c r="H133" s="68"/>
+      <c r="I133" s="69"/>
+      <c r="J133" s="33"/>
+      <c r="K133" s="67"/>
+      <c r="L133" s="68"/>
+      <c r="M133" s="69"/>
+      <c r="N133" s="33"/>
+      <c r="O133" s="67"/>
+      <c r="P133" s="68"/>
+      <c r="Q133" s="69"/>
       <c r="R133" s="38">
-        <v>272</v>
-      </c>
-      <c r="S133" s="30"/>
-      <c r="T133" s="26"/>
-      <c r="U133" s="26"/>
-      <c r="V133" s="6"/>
-      <c r="W133" s="30"/>
-      <c r="X133" s="26"/>
-      <c r="Y133" s="26"/>
-      <c r="Z133" s="6"/>
-      <c r="AA133" s="30"/>
-      <c r="AB133" s="26"/>
-      <c r="AC133" s="26"/>
-      <c r="AD133" s="6"/>
+        <v>270</v>
+      </c>
+      <c r="S133" s="33"/>
+      <c r="T133" s="67"/>
+      <c r="U133" s="68"/>
+      <c r="V133" s="69"/>
+      <c r="W133" s="33"/>
+      <c r="X133" s="67"/>
+      <c r="Y133" s="68"/>
+      <c r="Z133" s="69"/>
+      <c r="AA133" s="33"/>
+      <c r="AB133" s="67"/>
+      <c r="AC133" s="68"/>
+      <c r="AD133" s="69"/>
       <c r="AE133" s="10"/>
     </row>
-    <row r="134" spans="1:31" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:31" ht="24.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A134" s="17"/>
       <c r="B134" s="52">
-        <v>111</v>
-      </c>
-      <c r="C134" s="67"/>
-      <c r="D134" s="64"/>
+        <v>109</v>
+      </c>
+      <c r="C134" s="120" t="s">
+        <v>26</v>
+      </c>
+      <c r="D134" s="110" t="s">
+        <v>6</v>
+      </c>
       <c r="E134" s="48" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F134" s="43"/>
       <c r="G134" s="26"/>
@@ -7111,8 +7140,8 @@
       <c r="O134" s="26"/>
       <c r="P134" s="26"/>
       <c r="Q134" s="3"/>
-      <c r="R134" s="38">
-        <v>273</v>
+      <c r="R134" s="37">
+        <v>271</v>
       </c>
       <c r="S134" s="30"/>
       <c r="T134" s="26"/>
@@ -7131,53 +7160,51 @@
     <row r="135" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="17"/>
       <c r="B135" s="52">
-        <v>112</v>
-      </c>
-      <c r="C135" s="67"/>
-      <c r="D135" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="E135" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="F135" s="45"/>
-      <c r="G135" s="28"/>
-      <c r="H135" s="28"/>
-      <c r="I135" s="7"/>
-      <c r="J135" s="32"/>
-      <c r="K135" s="28"/>
-      <c r="L135" s="28"/>
-      <c r="M135" s="7"/>
-      <c r="N135" s="32"/>
-      <c r="O135" s="28"/>
-      <c r="P135" s="28"/>
-      <c r="Q135" s="5"/>
-      <c r="R135" s="40">
-        <v>274</v>
-      </c>
-      <c r="S135" s="32"/>
-      <c r="T135" s="28"/>
-      <c r="U135" s="28"/>
-      <c r="V135" s="7"/>
-      <c r="W135" s="32"/>
-      <c r="X135" s="28"/>
-      <c r="Y135" s="28"/>
-      <c r="Z135" s="7"/>
-      <c r="AA135" s="32"/>
-      <c r="AB135" s="28"/>
-      <c r="AC135" s="28"/>
-      <c r="AD135" s="7"/>
+        <v>110</v>
+      </c>
+      <c r="C135" s="120"/>
+      <c r="D135" s="110"/>
+      <c r="E135" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="F135" s="43"/>
+      <c r="G135" s="26"/>
+      <c r="H135" s="26"/>
+      <c r="I135" s="6"/>
+      <c r="J135" s="30"/>
+      <c r="K135" s="26"/>
+      <c r="L135" s="26"/>
+      <c r="M135" s="6"/>
+      <c r="N135" s="30"/>
+      <c r="O135" s="26"/>
+      <c r="P135" s="26"/>
+      <c r="Q135" s="3"/>
+      <c r="R135" s="38">
+        <v>272</v>
+      </c>
+      <c r="S135" s="30"/>
+      <c r="T135" s="26"/>
+      <c r="U135" s="26"/>
+      <c r="V135" s="6"/>
+      <c r="W135" s="30"/>
+      <c r="X135" s="26"/>
+      <c r="Y135" s="26"/>
+      <c r="Z135" s="6"/>
+      <c r="AA135" s="30"/>
+      <c r="AB135" s="26"/>
+      <c r="AC135" s="26"/>
+      <c r="AD135" s="6"/>
       <c r="AE135" s="10"/>
     </row>
-    <row r="136" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:31" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="17"/>
       <c r="B136" s="52">
-        <v>113</v>
-      </c>
-      <c r="C136" s="67"/>
-      <c r="D136" s="63"/>
+        <v>111</v>
+      </c>
+      <c r="C136" s="120"/>
+      <c r="D136" s="111"/>
       <c r="E136" s="48" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F136" s="43"/>
       <c r="G136" s="26"/>
@@ -7192,7 +7219,7 @@
       <c r="P136" s="26"/>
       <c r="Q136" s="3"/>
       <c r="R136" s="38">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="S136" s="30"/>
       <c r="T136" s="26"/>
@@ -7211,51 +7238,53 @@
     <row r="137" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="17"/>
       <c r="B137" s="52">
-        <v>114</v>
-      </c>
-      <c r="C137" s="67"/>
-      <c r="D137" s="63"/>
-      <c r="E137" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="F137" s="43"/>
-      <c r="G137" s="26"/>
-      <c r="H137" s="26"/>
-      <c r="I137" s="6"/>
-      <c r="J137" s="30"/>
-      <c r="K137" s="26"/>
-      <c r="L137" s="26"/>
-      <c r="M137" s="6"/>
-      <c r="N137" s="30"/>
-      <c r="O137" s="26"/>
-      <c r="P137" s="26"/>
-      <c r="Q137" s="3"/>
-      <c r="R137" s="38">
-        <v>276</v>
-      </c>
-      <c r="S137" s="30"/>
-      <c r="T137" s="26"/>
-      <c r="U137" s="26"/>
-      <c r="V137" s="6"/>
-      <c r="W137" s="30"/>
-      <c r="X137" s="26"/>
-      <c r="Y137" s="26"/>
-      <c r="Z137" s="6"/>
-      <c r="AA137" s="30"/>
-      <c r="AB137" s="26"/>
-      <c r="AC137" s="26"/>
-      <c r="AD137" s="6"/>
+        <v>112</v>
+      </c>
+      <c r="C137" s="120"/>
+      <c r="D137" s="112" t="s">
+        <v>18</v>
+      </c>
+      <c r="E137" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="F137" s="45"/>
+      <c r="G137" s="28"/>
+      <c r="H137" s="28"/>
+      <c r="I137" s="7"/>
+      <c r="J137" s="32"/>
+      <c r="K137" s="28"/>
+      <c r="L137" s="28"/>
+      <c r="M137" s="7"/>
+      <c r="N137" s="32"/>
+      <c r="O137" s="28"/>
+      <c r="P137" s="28"/>
+      <c r="Q137" s="5"/>
+      <c r="R137" s="40">
+        <v>274</v>
+      </c>
+      <c r="S137" s="32"/>
+      <c r="T137" s="28"/>
+      <c r="U137" s="28"/>
+      <c r="V137" s="7"/>
+      <c r="W137" s="32"/>
+      <c r="X137" s="28"/>
+      <c r="Y137" s="28"/>
+      <c r="Z137" s="7"/>
+      <c r="AA137" s="32"/>
+      <c r="AB137" s="28"/>
+      <c r="AC137" s="28"/>
+      <c r="AD137" s="7"/>
       <c r="AE137" s="10"/>
     </row>
     <row r="138" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="17"/>
       <c r="B138" s="52">
-        <v>115</v>
-      </c>
-      <c r="C138" s="67"/>
-      <c r="D138" s="63"/>
+        <v>113</v>
+      </c>
+      <c r="C138" s="120"/>
+      <c r="D138" s="110"/>
       <c r="E138" s="48" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F138" s="43"/>
       <c r="G138" s="26"/>
@@ -7270,7 +7299,7 @@
       <c r="P138" s="26"/>
       <c r="Q138" s="3"/>
       <c r="R138" s="38">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="S138" s="30"/>
       <c r="T138" s="26"/>
@@ -7289,12 +7318,12 @@
     <row r="139" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="17"/>
       <c r="B139" s="52">
-        <v>116</v>
-      </c>
-      <c r="C139" s="67"/>
-      <c r="D139" s="63"/>
+        <v>114</v>
+      </c>
+      <c r="C139" s="120"/>
+      <c r="D139" s="110"/>
       <c r="E139" s="48" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F139" s="43"/>
       <c r="G139" s="26"/>
@@ -7309,7 +7338,7 @@
       <c r="P139" s="26"/>
       <c r="Q139" s="3"/>
       <c r="R139" s="38">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="S139" s="30"/>
       <c r="T139" s="26"/>
@@ -7328,12 +7357,12 @@
     <row r="140" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="17"/>
       <c r="B140" s="52">
-        <v>117</v>
-      </c>
-      <c r="C140" s="67"/>
-      <c r="D140" s="63"/>
+        <v>115</v>
+      </c>
+      <c r="C140" s="120"/>
+      <c r="D140" s="110"/>
       <c r="E140" s="48" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F140" s="43"/>
       <c r="G140" s="26"/>
@@ -7348,7 +7377,7 @@
       <c r="P140" s="26"/>
       <c r="Q140" s="3"/>
       <c r="R140" s="38">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="S140" s="30"/>
       <c r="T140" s="26"/>
@@ -7367,12 +7396,12 @@
     <row r="141" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="17"/>
       <c r="B141" s="52">
-        <v>118</v>
-      </c>
-      <c r="C141" s="67"/>
-      <c r="D141" s="63"/>
+        <v>116</v>
+      </c>
+      <c r="C141" s="120"/>
+      <c r="D141" s="110"/>
       <c r="E141" s="48" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F141" s="43"/>
       <c r="G141" s="26"/>
@@ -7387,7 +7416,7 @@
       <c r="P141" s="26"/>
       <c r="Q141" s="3"/>
       <c r="R141" s="38">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="S141" s="30"/>
       <c r="T141" s="26"/>
@@ -7406,12 +7435,12 @@
     <row r="142" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="17"/>
       <c r="B142" s="52">
-        <v>119</v>
-      </c>
-      <c r="C142" s="67"/>
-      <c r="D142" s="63"/>
+        <v>117</v>
+      </c>
+      <c r="C142" s="120"/>
+      <c r="D142" s="110"/>
       <c r="E142" s="48" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F142" s="43"/>
       <c r="G142" s="26"/>
@@ -7426,7 +7455,7 @@
       <c r="P142" s="26"/>
       <c r="Q142" s="3"/>
       <c r="R142" s="38">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="S142" s="30"/>
       <c r="T142" s="26"/>
@@ -7445,12 +7474,12 @@
     <row r="143" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="17"/>
       <c r="B143" s="52">
-        <v>120</v>
-      </c>
-      <c r="C143" s="67"/>
-      <c r="D143" s="63"/>
+        <v>118</v>
+      </c>
+      <c r="C143" s="120"/>
+      <c r="D143" s="110"/>
       <c r="E143" s="48" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F143" s="43"/>
       <c r="G143" s="26"/>
@@ -7465,7 +7494,7 @@
       <c r="P143" s="26"/>
       <c r="Q143" s="3"/>
       <c r="R143" s="38">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S143" s="30"/>
       <c r="T143" s="26"/>
@@ -7484,12 +7513,12 @@
     <row r="144" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="17"/>
       <c r="B144" s="52">
-        <v>121</v>
-      </c>
-      <c r="C144" s="67"/>
-      <c r="D144" s="63"/>
+        <v>119</v>
+      </c>
+      <c r="C144" s="120"/>
+      <c r="D144" s="110"/>
       <c r="E144" s="48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F144" s="43"/>
       <c r="G144" s="26"/>
@@ -7504,7 +7533,7 @@
       <c r="P144" s="26"/>
       <c r="Q144" s="3"/>
       <c r="R144" s="38">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="S144" s="30"/>
       <c r="T144" s="26"/>
@@ -7523,12 +7552,12 @@
     <row r="145" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="17"/>
       <c r="B145" s="52">
-        <v>122</v>
-      </c>
-      <c r="C145" s="67"/>
-      <c r="D145" s="63"/>
+        <v>120</v>
+      </c>
+      <c r="C145" s="120"/>
+      <c r="D145" s="110"/>
       <c r="E145" s="48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F145" s="43"/>
       <c r="G145" s="26"/>
@@ -7543,7 +7572,7 @@
       <c r="P145" s="26"/>
       <c r="Q145" s="3"/>
       <c r="R145" s="38">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="S145" s="30"/>
       <c r="T145" s="26"/>
@@ -7562,377 +7591,377 @@
     <row r="146" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="17"/>
       <c r="B146" s="52">
-        <v>123</v>
-      </c>
-      <c r="C146" s="67"/>
-      <c r="D146" s="63"/>
+        <v>121</v>
+      </c>
+      <c r="C146" s="120"/>
+      <c r="D146" s="110"/>
       <c r="E146" s="48" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="F146" s="43"/>
-      <c r="G146" s="114" t="s">
-        <v>52</v>
-      </c>
-      <c r="H146" s="115"/>
-      <c r="I146" s="116"/>
+      <c r="G146" s="26"/>
+      <c r="H146" s="26"/>
+      <c r="I146" s="6"/>
       <c r="J146" s="30"/>
-      <c r="K146" s="114" t="s">
-        <v>52</v>
-      </c>
-      <c r="L146" s="115"/>
-      <c r="M146" s="116"/>
+      <c r="K146" s="26"/>
+      <c r="L146" s="26"/>
+      <c r="M146" s="6"/>
       <c r="N146" s="30"/>
-      <c r="O146" s="114" t="s">
-        <v>52</v>
-      </c>
-      <c r="P146" s="115"/>
-      <c r="Q146" s="116"/>
+      <c r="O146" s="26"/>
+      <c r="P146" s="26"/>
+      <c r="Q146" s="3"/>
       <c r="R146" s="38">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="S146" s="30"/>
-      <c r="T146" s="114" t="s">
-        <v>52</v>
-      </c>
-      <c r="U146" s="115"/>
-      <c r="V146" s="116"/>
+      <c r="T146" s="26"/>
+      <c r="U146" s="26"/>
+      <c r="V146" s="6"/>
       <c r="W146" s="30"/>
-      <c r="X146" s="114" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y146" s="115"/>
-      <c r="Z146" s="116"/>
+      <c r="X146" s="26"/>
+      <c r="Y146" s="26"/>
+      <c r="Z146" s="6"/>
       <c r="AA146" s="30"/>
-      <c r="AB146" s="114" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC146" s="115"/>
-      <c r="AD146" s="116"/>
+      <c r="AB146" s="26"/>
+      <c r="AC146" s="26"/>
+      <c r="AD146" s="6"/>
       <c r="AE146" s="10"/>
     </row>
     <row r="147" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="17"/>
       <c r="B147" s="52">
-        <v>124</v>
-      </c>
-      <c r="C147" s="67"/>
-      <c r="D147" s="63"/>
+        <v>122</v>
+      </c>
+      <c r="C147" s="120"/>
+      <c r="D147" s="110"/>
       <c r="E147" s="48" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="F147" s="43"/>
-      <c r="G147" s="117"/>
-      <c r="H147" s="115"/>
-      <c r="I147" s="116"/>
+      <c r="G147" s="26"/>
+      <c r="H147" s="26"/>
+      <c r="I147" s="6"/>
       <c r="J147" s="30"/>
-      <c r="K147" s="117"/>
-      <c r="L147" s="115"/>
-      <c r="M147" s="116"/>
+      <c r="K147" s="26"/>
+      <c r="L147" s="26"/>
+      <c r="M147" s="6"/>
       <c r="N147" s="30"/>
-      <c r="O147" s="117"/>
-      <c r="P147" s="115"/>
-      <c r="Q147" s="116"/>
+      <c r="O147" s="26"/>
+      <c r="P147" s="26"/>
+      <c r="Q147" s="3"/>
       <c r="R147" s="38">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="S147" s="30"/>
-      <c r="T147" s="117"/>
-      <c r="U147" s="115"/>
-      <c r="V147" s="116"/>
+      <c r="T147" s="26"/>
+      <c r="U147" s="26"/>
+      <c r="V147" s="6"/>
       <c r="W147" s="30"/>
-      <c r="X147" s="117"/>
-      <c r="Y147" s="115"/>
-      <c r="Z147" s="116"/>
+      <c r="X147" s="26"/>
+      <c r="Y147" s="26"/>
+      <c r="Z147" s="6"/>
       <c r="AA147" s="30"/>
-      <c r="AB147" s="117"/>
-      <c r="AC147" s="115"/>
-      <c r="AD147" s="116"/>
+      <c r="AB147" s="26"/>
+      <c r="AC147" s="26"/>
+      <c r="AD147" s="6"/>
       <c r="AE147" s="10"/>
     </row>
     <row r="148" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="17"/>
       <c r="B148" s="52">
-        <v>125</v>
-      </c>
-      <c r="C148" s="67"/>
-      <c r="D148" s="63"/>
+        <v>123</v>
+      </c>
+      <c r="C148" s="120"/>
+      <c r="D148" s="110"/>
       <c r="E148" s="48" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F148" s="43"/>
-      <c r="G148" s="117"/>
-      <c r="H148" s="115"/>
-      <c r="I148" s="116"/>
+      <c r="G148" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="H148" s="64"/>
+      <c r="I148" s="65"/>
       <c r="J148" s="30"/>
-      <c r="K148" s="117"/>
-      <c r="L148" s="115"/>
-      <c r="M148" s="116"/>
+      <c r="K148" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="L148" s="64"/>
+      <c r="M148" s="65"/>
       <c r="N148" s="30"/>
-      <c r="O148" s="117"/>
-      <c r="P148" s="115"/>
-      <c r="Q148" s="116"/>
+      <c r="O148" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="P148" s="64"/>
+      <c r="Q148" s="65"/>
       <c r="R148" s="38">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="S148" s="30"/>
-      <c r="T148" s="117"/>
-      <c r="U148" s="115"/>
-      <c r="V148" s="116"/>
+      <c r="T148" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="U148" s="64"/>
+      <c r="V148" s="65"/>
       <c r="W148" s="30"/>
-      <c r="X148" s="117"/>
-      <c r="Y148" s="115"/>
-      <c r="Z148" s="116"/>
+      <c r="X148" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y148" s="64"/>
+      <c r="Z148" s="65"/>
       <c r="AA148" s="30"/>
-      <c r="AB148" s="117"/>
-      <c r="AC148" s="115"/>
-      <c r="AD148" s="116"/>
+      <c r="AB148" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC148" s="64"/>
+      <c r="AD148" s="65"/>
       <c r="AE148" s="10"/>
     </row>
     <row r="149" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="17"/>
       <c r="B149" s="52">
-        <v>126</v>
-      </c>
-      <c r="C149" s="67"/>
-      <c r="D149" s="63"/>
+        <v>124</v>
+      </c>
+      <c r="C149" s="120"/>
+      <c r="D149" s="110"/>
       <c r="E149" s="48" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F149" s="43"/>
-      <c r="G149" s="117"/>
-      <c r="H149" s="115"/>
-      <c r="I149" s="116"/>
+      <c r="G149" s="66"/>
+      <c r="H149" s="64"/>
+      <c r="I149" s="65"/>
       <c r="J149" s="30"/>
-      <c r="K149" s="117"/>
-      <c r="L149" s="115"/>
-      <c r="M149" s="116"/>
+      <c r="K149" s="66"/>
+      <c r="L149" s="64"/>
+      <c r="M149" s="65"/>
       <c r="N149" s="30"/>
-      <c r="O149" s="117"/>
-      <c r="P149" s="115"/>
-      <c r="Q149" s="116"/>
+      <c r="O149" s="66"/>
+      <c r="P149" s="64"/>
+      <c r="Q149" s="65"/>
       <c r="R149" s="38">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="S149" s="30"/>
-      <c r="T149" s="117"/>
-      <c r="U149" s="115"/>
-      <c r="V149" s="116"/>
+      <c r="T149" s="66"/>
+      <c r="U149" s="64"/>
+      <c r="V149" s="65"/>
       <c r="W149" s="30"/>
-      <c r="X149" s="117"/>
-      <c r="Y149" s="115"/>
-      <c r="Z149" s="116"/>
+      <c r="X149" s="66"/>
+      <c r="Y149" s="64"/>
+      <c r="Z149" s="65"/>
       <c r="AA149" s="30"/>
-      <c r="AB149" s="117"/>
-      <c r="AC149" s="115"/>
-      <c r="AD149" s="116"/>
+      <c r="AB149" s="66"/>
+      <c r="AC149" s="64"/>
+      <c r="AD149" s="65"/>
       <c r="AE149" s="10"/>
     </row>
     <row r="150" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="17"/>
       <c r="B150" s="52">
-        <v>127</v>
-      </c>
-      <c r="C150" s="67"/>
-      <c r="D150" s="63"/>
+        <v>125</v>
+      </c>
+      <c r="C150" s="120"/>
+      <c r="D150" s="110"/>
       <c r="E150" s="48" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F150" s="43"/>
-      <c r="G150" s="117"/>
-      <c r="H150" s="115"/>
-      <c r="I150" s="116"/>
+      <c r="G150" s="66"/>
+      <c r="H150" s="64"/>
+      <c r="I150" s="65"/>
       <c r="J150" s="30"/>
-      <c r="K150" s="117"/>
-      <c r="L150" s="115"/>
-      <c r="M150" s="116"/>
+      <c r="K150" s="66"/>
+      <c r="L150" s="64"/>
+      <c r="M150" s="65"/>
       <c r="N150" s="30"/>
-      <c r="O150" s="117"/>
-      <c r="P150" s="115"/>
-      <c r="Q150" s="116"/>
+      <c r="O150" s="66"/>
+      <c r="P150" s="64"/>
+      <c r="Q150" s="65"/>
       <c r="R150" s="38">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="S150" s="30"/>
-      <c r="T150" s="117"/>
-      <c r="U150" s="115"/>
-      <c r="V150" s="116"/>
+      <c r="T150" s="66"/>
+      <c r="U150" s="64"/>
+      <c r="V150" s="65"/>
       <c r="W150" s="30"/>
-      <c r="X150" s="117"/>
-      <c r="Y150" s="115"/>
-      <c r="Z150" s="116"/>
+      <c r="X150" s="66"/>
+      <c r="Y150" s="64"/>
+      <c r="Z150" s="65"/>
       <c r="AA150" s="30"/>
-      <c r="AB150" s="117"/>
-      <c r="AC150" s="115"/>
-      <c r="AD150" s="116"/>
+      <c r="AB150" s="66"/>
+      <c r="AC150" s="64"/>
+      <c r="AD150" s="65"/>
       <c r="AE150" s="10"/>
     </row>
-    <row r="151" spans="1:31" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="17"/>
       <c r="B151" s="52">
-        <v>128</v>
-      </c>
-      <c r="C151" s="67"/>
-      <c r="D151" s="64"/>
-      <c r="E151" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="F151" s="44"/>
-      <c r="G151" s="118"/>
-      <c r="H151" s="119"/>
-      <c r="I151" s="120"/>
-      <c r="J151" s="31"/>
-      <c r="K151" s="118"/>
-      <c r="L151" s="119"/>
-      <c r="M151" s="120"/>
-      <c r="N151" s="31"/>
-      <c r="O151" s="118"/>
-      <c r="P151" s="119"/>
-      <c r="Q151" s="120"/>
+        <v>126</v>
+      </c>
+      <c r="C151" s="120"/>
+      <c r="D151" s="110"/>
+      <c r="E151" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="F151" s="43"/>
+      <c r="G151" s="66"/>
+      <c r="H151" s="64"/>
+      <c r="I151" s="65"/>
+      <c r="J151" s="30"/>
+      <c r="K151" s="66"/>
+      <c r="L151" s="64"/>
+      <c r="M151" s="65"/>
+      <c r="N151" s="30"/>
+      <c r="O151" s="66"/>
+      <c r="P151" s="64"/>
+      <c r="Q151" s="65"/>
       <c r="R151" s="38">
-        <v>290</v>
-      </c>
-      <c r="S151" s="31"/>
-      <c r="T151" s="118"/>
-      <c r="U151" s="119"/>
-      <c r="V151" s="120"/>
-      <c r="W151" s="31"/>
-      <c r="X151" s="118"/>
-      <c r="Y151" s="119"/>
-      <c r="Z151" s="120"/>
-      <c r="AA151" s="31"/>
-      <c r="AB151" s="118"/>
-      <c r="AC151" s="119"/>
-      <c r="AD151" s="120"/>
+        <v>288</v>
+      </c>
+      <c r="S151" s="30"/>
+      <c r="T151" s="66"/>
+      <c r="U151" s="64"/>
+      <c r="V151" s="65"/>
+      <c r="W151" s="30"/>
+      <c r="X151" s="66"/>
+      <c r="Y151" s="64"/>
+      <c r="Z151" s="65"/>
+      <c r="AA151" s="30"/>
+      <c r="AB151" s="66"/>
+      <c r="AC151" s="64"/>
+      <c r="AD151" s="65"/>
       <c r="AE151" s="10"/>
     </row>
     <row r="152" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="17"/>
       <c r="B152" s="52">
-        <v>129</v>
-      </c>
-      <c r="C152" s="67"/>
-      <c r="D152" s="62" t="s">
-        <v>19</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="C152" s="120"/>
+      <c r="D152" s="110"/>
       <c r="E152" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="F152" s="45"/>
-      <c r="G152" s="28"/>
-      <c r="H152" s="28"/>
-      <c r="I152" s="7"/>
-      <c r="J152" s="32"/>
-      <c r="K152" s="28"/>
-      <c r="L152" s="28"/>
-      <c r="M152" s="7"/>
-      <c r="N152" s="32"/>
-      <c r="O152" s="28"/>
-      <c r="P152" s="28"/>
-      <c r="Q152" s="5"/>
-      <c r="R152" s="40">
-        <v>291</v>
-      </c>
-      <c r="S152" s="32"/>
-      <c r="T152" s="28"/>
-      <c r="U152" s="28"/>
-      <c r="V152" s="7"/>
-      <c r="W152" s="32"/>
-      <c r="X152" s="28"/>
-      <c r="Y152" s="28"/>
-      <c r="Z152" s="7"/>
-      <c r="AA152" s="32"/>
-      <c r="AB152" s="28"/>
-      <c r="AC152" s="28"/>
-      <c r="AD152" s="7"/>
+        <v>40</v>
+      </c>
+      <c r="F152" s="43"/>
+      <c r="G152" s="66"/>
+      <c r="H152" s="64"/>
+      <c r="I152" s="65"/>
+      <c r="J152" s="30"/>
+      <c r="K152" s="66"/>
+      <c r="L152" s="64"/>
+      <c r="M152" s="65"/>
+      <c r="N152" s="30"/>
+      <c r="O152" s="66"/>
+      <c r="P152" s="64"/>
+      <c r="Q152" s="65"/>
+      <c r="R152" s="38">
+        <v>289</v>
+      </c>
+      <c r="S152" s="30"/>
+      <c r="T152" s="66"/>
+      <c r="U152" s="64"/>
+      <c r="V152" s="65"/>
+      <c r="W152" s="30"/>
+      <c r="X152" s="66"/>
+      <c r="Y152" s="64"/>
+      <c r="Z152" s="65"/>
+      <c r="AA152" s="30"/>
+      <c r="AB152" s="66"/>
+      <c r="AC152" s="64"/>
+      <c r="AD152" s="65"/>
       <c r="AE152" s="10"/>
     </row>
-    <row r="153" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:31" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="17"/>
       <c r="B153" s="52">
-        <v>130</v>
-      </c>
-      <c r="C153" s="67"/>
-      <c r="D153" s="63"/>
-      <c r="E153" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="F153" s="43"/>
-      <c r="G153" s="26"/>
-      <c r="H153" s="26"/>
-      <c r="I153" s="6"/>
-      <c r="J153" s="30"/>
-      <c r="K153" s="26"/>
-      <c r="L153" s="26"/>
-      <c r="M153" s="6"/>
-      <c r="N153" s="30"/>
-      <c r="O153" s="26"/>
-      <c r="P153" s="26"/>
-      <c r="Q153" s="3"/>
+        <v>128</v>
+      </c>
+      <c r="C153" s="120"/>
+      <c r="D153" s="111"/>
+      <c r="E153" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="F153" s="44"/>
+      <c r="G153" s="67"/>
+      <c r="H153" s="68"/>
+      <c r="I153" s="69"/>
+      <c r="J153" s="31"/>
+      <c r="K153" s="67"/>
+      <c r="L153" s="68"/>
+      <c r="M153" s="69"/>
+      <c r="N153" s="31"/>
+      <c r="O153" s="67"/>
+      <c r="P153" s="68"/>
+      <c r="Q153" s="69"/>
       <c r="R153" s="38">
-        <v>292</v>
-      </c>
-      <c r="S153" s="30"/>
-      <c r="T153" s="26"/>
-      <c r="U153" s="26"/>
-      <c r="V153" s="6"/>
-      <c r="W153" s="30"/>
-      <c r="X153" s="26"/>
-      <c r="Y153" s="26"/>
-      <c r="Z153" s="6"/>
-      <c r="AA153" s="30"/>
-      <c r="AB153" s="26"/>
-      <c r="AC153" s="26"/>
-      <c r="AD153" s="6"/>
+        <v>290</v>
+      </c>
+      <c r="S153" s="31"/>
+      <c r="T153" s="67"/>
+      <c r="U153" s="68"/>
+      <c r="V153" s="69"/>
+      <c r="W153" s="31"/>
+      <c r="X153" s="67"/>
+      <c r="Y153" s="68"/>
+      <c r="Z153" s="69"/>
+      <c r="AA153" s="31"/>
+      <c r="AB153" s="67"/>
+      <c r="AC153" s="68"/>
+      <c r="AD153" s="69"/>
       <c r="AE153" s="10"/>
     </row>
     <row r="154" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="17"/>
       <c r="B154" s="52">
-        <v>131</v>
-      </c>
-      <c r="C154" s="67"/>
-      <c r="D154" s="63"/>
+        <v>129</v>
+      </c>
+      <c r="C154" s="120"/>
+      <c r="D154" s="112" t="s">
+        <v>19</v>
+      </c>
       <c r="E154" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="F154" s="43"/>
-      <c r="G154" s="26"/>
-      <c r="H154" s="26"/>
-      <c r="I154" s="6"/>
-      <c r="J154" s="30"/>
-      <c r="K154" s="26"/>
-      <c r="L154" s="26"/>
-      <c r="M154" s="6"/>
-      <c r="N154" s="30"/>
-      <c r="O154" s="26"/>
-      <c r="P154" s="26"/>
-      <c r="Q154" s="3"/>
-      <c r="R154" s="38">
-        <v>293</v>
-      </c>
-      <c r="S154" s="30"/>
-      <c r="T154" s="26"/>
-      <c r="U154" s="26"/>
-      <c r="V154" s="6"/>
-      <c r="W154" s="30"/>
-      <c r="X154" s="26"/>
-      <c r="Y154" s="26"/>
-      <c r="Z154" s="6"/>
-      <c r="AA154" s="30"/>
-      <c r="AB154" s="26"/>
-      <c r="AC154" s="26"/>
-      <c r="AD154" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F154" s="45"/>
+      <c r="G154" s="28"/>
+      <c r="H154" s="28"/>
+      <c r="I154" s="7"/>
+      <c r="J154" s="32"/>
+      <c r="K154" s="28"/>
+      <c r="L154" s="28"/>
+      <c r="M154" s="7"/>
+      <c r="N154" s="32"/>
+      <c r="O154" s="28"/>
+      <c r="P154" s="28"/>
+      <c r="Q154" s="5"/>
+      <c r="R154" s="40">
+        <v>291</v>
+      </c>
+      <c r="S154" s="32"/>
+      <c r="T154" s="28"/>
+      <c r="U154" s="28"/>
+      <c r="V154" s="7"/>
+      <c r="W154" s="32"/>
+      <c r="X154" s="28"/>
+      <c r="Y154" s="28"/>
+      <c r="Z154" s="7"/>
+      <c r="AA154" s="32"/>
+      <c r="AB154" s="28"/>
+      <c r="AC154" s="28"/>
+      <c r="AD154" s="7"/>
       <c r="AE154" s="10"/>
     </row>
     <row r="155" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="17"/>
       <c r="B155" s="52">
-        <v>132</v>
-      </c>
-      <c r="C155" s="67"/>
-      <c r="D155" s="63"/>
+        <v>130</v>
+      </c>
+      <c r="C155" s="120"/>
+      <c r="D155" s="110"/>
       <c r="E155" s="48" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F155" s="43"/>
       <c r="G155" s="26"/>
@@ -7947,7 +7976,7 @@
       <c r="P155" s="26"/>
       <c r="Q155" s="3"/>
       <c r="R155" s="38">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="S155" s="30"/>
       <c r="T155" s="26"/>
@@ -7966,12 +7995,12 @@
     <row r="156" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="17"/>
       <c r="B156" s="52">
-        <v>133</v>
-      </c>
-      <c r="C156" s="67"/>
-      <c r="D156" s="63"/>
+        <v>131</v>
+      </c>
+      <c r="C156" s="120"/>
+      <c r="D156" s="110"/>
       <c r="E156" s="48" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F156" s="43"/>
       <c r="G156" s="26"/>
@@ -7986,7 +8015,7 @@
       <c r="P156" s="26"/>
       <c r="Q156" s="3"/>
       <c r="R156" s="38">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="S156" s="30"/>
       <c r="T156" s="26"/>
@@ -8005,12 +8034,12 @@
     <row r="157" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="17"/>
       <c r="B157" s="52">
-        <v>134</v>
-      </c>
-      <c r="C157" s="67"/>
-      <c r="D157" s="63"/>
+        <v>132</v>
+      </c>
+      <c r="C157" s="120"/>
+      <c r="D157" s="110"/>
       <c r="E157" s="48" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F157" s="43"/>
       <c r="G157" s="26"/>
@@ -8025,7 +8054,7 @@
       <c r="P157" s="26"/>
       <c r="Q157" s="3"/>
       <c r="R157" s="38">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="S157" s="30"/>
       <c r="T157" s="26"/>
@@ -8044,12 +8073,12 @@
     <row r="158" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="17"/>
       <c r="B158" s="52">
-        <v>135</v>
-      </c>
-      <c r="C158" s="67"/>
-      <c r="D158" s="63"/>
+        <v>133</v>
+      </c>
+      <c r="C158" s="120"/>
+      <c r="D158" s="110"/>
       <c r="E158" s="48" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F158" s="43"/>
       <c r="G158" s="26"/>
@@ -8064,7 +8093,7 @@
       <c r="P158" s="26"/>
       <c r="Q158" s="3"/>
       <c r="R158" s="38">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="S158" s="30"/>
       <c r="T158" s="26"/>
@@ -8083,12 +8112,12 @@
     <row r="159" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="17"/>
       <c r="B159" s="52">
-        <v>136</v>
-      </c>
-      <c r="C159" s="67"/>
-      <c r="D159" s="63"/>
+        <v>134</v>
+      </c>
+      <c r="C159" s="120"/>
+      <c r="D159" s="110"/>
       <c r="E159" s="48" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F159" s="43"/>
       <c r="G159" s="26"/>
@@ -8103,7 +8132,7 @@
       <c r="P159" s="26"/>
       <c r="Q159" s="3"/>
       <c r="R159" s="38">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="S159" s="30"/>
       <c r="T159" s="26"/>
@@ -8122,12 +8151,12 @@
     <row r="160" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="17"/>
       <c r="B160" s="52">
-        <v>137</v>
-      </c>
-      <c r="C160" s="67"/>
-      <c r="D160" s="63"/>
+        <v>135</v>
+      </c>
+      <c r="C160" s="120"/>
+      <c r="D160" s="110"/>
       <c r="E160" s="48" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F160" s="43"/>
       <c r="G160" s="26"/>
@@ -8142,7 +8171,7 @@
       <c r="P160" s="26"/>
       <c r="Q160" s="3"/>
       <c r="R160" s="38">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="S160" s="30"/>
       <c r="T160" s="26"/>
@@ -8161,12 +8190,12 @@
     <row r="161" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="17"/>
       <c r="B161" s="52">
-        <v>138</v>
-      </c>
-      <c r="C161" s="67"/>
-      <c r="D161" s="63"/>
+        <v>136</v>
+      </c>
+      <c r="C161" s="120"/>
+      <c r="D161" s="110"/>
       <c r="E161" s="48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F161" s="43"/>
       <c r="G161" s="26"/>
@@ -8181,7 +8210,7 @@
       <c r="P161" s="26"/>
       <c r="Q161" s="3"/>
       <c r="R161" s="38">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="S161" s="30"/>
       <c r="T161" s="26"/>
@@ -8200,12 +8229,12 @@
     <row r="162" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="17"/>
       <c r="B162" s="52">
-        <v>139</v>
-      </c>
-      <c r="C162" s="67"/>
-      <c r="D162" s="63"/>
+        <v>137</v>
+      </c>
+      <c r="C162" s="120"/>
+      <c r="D162" s="110"/>
       <c r="E162" s="48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F162" s="43"/>
       <c r="G162" s="26"/>
@@ -8220,7 +8249,7 @@
       <c r="P162" s="26"/>
       <c r="Q162" s="3"/>
       <c r="R162" s="38">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="S162" s="30"/>
       <c r="T162" s="26"/>
@@ -8239,338 +8268,338 @@
     <row r="163" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="17"/>
       <c r="B163" s="52">
-        <v>140</v>
-      </c>
-      <c r="C163" s="67"/>
-      <c r="D163" s="63"/>
+        <v>138</v>
+      </c>
+      <c r="C163" s="120"/>
+      <c r="D163" s="110"/>
       <c r="E163" s="48" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="F163" s="43"/>
-      <c r="G163" s="114" t="s">
-        <v>52</v>
-      </c>
-      <c r="H163" s="115"/>
-      <c r="I163" s="116"/>
+      <c r="G163" s="26"/>
+      <c r="H163" s="26"/>
+      <c r="I163" s="6"/>
       <c r="J163" s="30"/>
-      <c r="K163" s="114" t="s">
-        <v>52</v>
-      </c>
-      <c r="L163" s="115"/>
-      <c r="M163" s="116"/>
+      <c r="K163" s="26"/>
+      <c r="L163" s="26"/>
+      <c r="M163" s="6"/>
       <c r="N163" s="30"/>
-      <c r="O163" s="114" t="s">
-        <v>52</v>
-      </c>
-      <c r="P163" s="115"/>
-      <c r="Q163" s="116"/>
+      <c r="O163" s="26"/>
+      <c r="P163" s="26"/>
+      <c r="Q163" s="3"/>
       <c r="R163" s="38">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="S163" s="30"/>
-      <c r="T163" s="114" t="s">
-        <v>52</v>
-      </c>
-      <c r="U163" s="115"/>
-      <c r="V163" s="116"/>
+      <c r="T163" s="26"/>
+      <c r="U163" s="26"/>
+      <c r="V163" s="6"/>
       <c r="W163" s="30"/>
-      <c r="X163" s="114" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y163" s="115"/>
-      <c r="Z163" s="116"/>
+      <c r="X163" s="26"/>
+      <c r="Y163" s="26"/>
+      <c r="Z163" s="6"/>
       <c r="AA163" s="30"/>
-      <c r="AB163" s="114" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC163" s="115"/>
-      <c r="AD163" s="116"/>
+      <c r="AB163" s="26"/>
+      <c r="AC163" s="26"/>
+      <c r="AD163" s="6"/>
       <c r="AE163" s="10"/>
     </row>
     <row r="164" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="17"/>
       <c r="B164" s="52">
-        <v>141</v>
-      </c>
-      <c r="C164" s="67"/>
-      <c r="D164" s="63"/>
+        <v>139</v>
+      </c>
+      <c r="C164" s="120"/>
+      <c r="D164" s="110"/>
       <c r="E164" s="48" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="F164" s="43"/>
-      <c r="G164" s="117"/>
-      <c r="H164" s="115"/>
-      <c r="I164" s="116"/>
+      <c r="G164" s="26"/>
+      <c r="H164" s="26"/>
+      <c r="I164" s="6"/>
       <c r="J164" s="30"/>
-      <c r="K164" s="117"/>
-      <c r="L164" s="115"/>
-      <c r="M164" s="116"/>
+      <c r="K164" s="26"/>
+      <c r="L164" s="26"/>
+      <c r="M164" s="6"/>
       <c r="N164" s="30"/>
-      <c r="O164" s="117"/>
-      <c r="P164" s="115"/>
-      <c r="Q164" s="116"/>
+      <c r="O164" s="26"/>
+      <c r="P164" s="26"/>
+      <c r="Q164" s="3"/>
       <c r="R164" s="38">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="S164" s="30"/>
-      <c r="T164" s="117"/>
-      <c r="U164" s="115"/>
-      <c r="V164" s="116"/>
+      <c r="T164" s="26"/>
+      <c r="U164" s="26"/>
+      <c r="V164" s="6"/>
       <c r="W164" s="30"/>
-      <c r="X164" s="117"/>
-      <c r="Y164" s="115"/>
-      <c r="Z164" s="116"/>
+      <c r="X164" s="26"/>
+      <c r="Y164" s="26"/>
+      <c r="Z164" s="6"/>
       <c r="AA164" s="30"/>
-      <c r="AB164" s="117"/>
-      <c r="AC164" s="115"/>
-      <c r="AD164" s="116"/>
+      <c r="AB164" s="26"/>
+      <c r="AC164" s="26"/>
+      <c r="AD164" s="6"/>
       <c r="AE164" s="10"/>
     </row>
     <row r="165" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="17"/>
       <c r="B165" s="52">
-        <v>142</v>
-      </c>
-      <c r="C165" s="67"/>
-      <c r="D165" s="63"/>
+        <v>140</v>
+      </c>
+      <c r="C165" s="120"/>
+      <c r="D165" s="110"/>
       <c r="E165" s="48" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F165" s="43"/>
-      <c r="G165" s="117"/>
-      <c r="H165" s="115"/>
-      <c r="I165" s="116"/>
+      <c r="G165" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="H165" s="64"/>
+      <c r="I165" s="65"/>
       <c r="J165" s="30"/>
-      <c r="K165" s="117"/>
-      <c r="L165" s="115"/>
-      <c r="M165" s="116"/>
+      <c r="K165" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="L165" s="64"/>
+      <c r="M165" s="65"/>
       <c r="N165" s="30"/>
-      <c r="O165" s="117"/>
-      <c r="P165" s="115"/>
-      <c r="Q165" s="116"/>
+      <c r="O165" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="P165" s="64"/>
+      <c r="Q165" s="65"/>
       <c r="R165" s="38">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="S165" s="30"/>
-      <c r="T165" s="117"/>
-      <c r="U165" s="115"/>
-      <c r="V165" s="116"/>
+      <c r="T165" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="U165" s="64"/>
+      <c r="V165" s="65"/>
       <c r="W165" s="30"/>
-      <c r="X165" s="117"/>
-      <c r="Y165" s="115"/>
-      <c r="Z165" s="116"/>
+      <c r="X165" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y165" s="64"/>
+      <c r="Z165" s="65"/>
       <c r="AA165" s="30"/>
-      <c r="AB165" s="117"/>
-      <c r="AC165" s="115"/>
-      <c r="AD165" s="116"/>
+      <c r="AB165" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC165" s="64"/>
+      <c r="AD165" s="65"/>
       <c r="AE165" s="10"/>
     </row>
     <row r="166" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="17"/>
       <c r="B166" s="52">
-        <v>143</v>
-      </c>
-      <c r="C166" s="67"/>
-      <c r="D166" s="63"/>
+        <v>141</v>
+      </c>
+      <c r="C166" s="120"/>
+      <c r="D166" s="110"/>
       <c r="E166" s="48" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F166" s="43"/>
-      <c r="G166" s="117"/>
-      <c r="H166" s="115"/>
-      <c r="I166" s="116"/>
+      <c r="G166" s="66"/>
+      <c r="H166" s="64"/>
+      <c r="I166" s="65"/>
       <c r="J166" s="30"/>
-      <c r="K166" s="117"/>
-      <c r="L166" s="115"/>
-      <c r="M166" s="116"/>
+      <c r="K166" s="66"/>
+      <c r="L166" s="64"/>
+      <c r="M166" s="65"/>
       <c r="N166" s="30"/>
-      <c r="O166" s="117"/>
-      <c r="P166" s="115"/>
-      <c r="Q166" s="116"/>
+      <c r="O166" s="66"/>
+      <c r="P166" s="64"/>
+      <c r="Q166" s="65"/>
       <c r="R166" s="38">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="S166" s="30"/>
-      <c r="T166" s="117"/>
-      <c r="U166" s="115"/>
-      <c r="V166" s="116"/>
+      <c r="T166" s="66"/>
+      <c r="U166" s="64"/>
+      <c r="V166" s="65"/>
       <c r="W166" s="30"/>
-      <c r="X166" s="117"/>
-      <c r="Y166" s="115"/>
-      <c r="Z166" s="116"/>
+      <c r="X166" s="66"/>
+      <c r="Y166" s="64"/>
+      <c r="Z166" s="65"/>
       <c r="AA166" s="30"/>
-      <c r="AB166" s="117"/>
-      <c r="AC166" s="115"/>
-      <c r="AD166" s="116"/>
+      <c r="AB166" s="66"/>
+      <c r="AC166" s="64"/>
+      <c r="AD166" s="65"/>
       <c r="AE166" s="10"/>
     </row>
     <row r="167" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="17"/>
       <c r="B167" s="52">
-        <v>144</v>
-      </c>
-      <c r="C167" s="67"/>
-      <c r="D167" s="63"/>
+        <v>142</v>
+      </c>
+      <c r="C167" s="120"/>
+      <c r="D167" s="110"/>
       <c r="E167" s="48" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F167" s="43"/>
-      <c r="G167" s="117"/>
-      <c r="H167" s="115"/>
-      <c r="I167" s="116"/>
+      <c r="G167" s="66"/>
+      <c r="H167" s="64"/>
+      <c r="I167" s="65"/>
       <c r="J167" s="30"/>
-      <c r="K167" s="117"/>
-      <c r="L167" s="115"/>
-      <c r="M167" s="116"/>
+      <c r="K167" s="66"/>
+      <c r="L167" s="64"/>
+      <c r="M167" s="65"/>
       <c r="N167" s="30"/>
-      <c r="O167" s="117"/>
-      <c r="P167" s="115"/>
-      <c r="Q167" s="116"/>
+      <c r="O167" s="66"/>
+      <c r="P167" s="64"/>
+      <c r="Q167" s="65"/>
       <c r="R167" s="38">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="S167" s="30"/>
-      <c r="T167" s="117"/>
-      <c r="U167" s="115"/>
-      <c r="V167" s="116"/>
+      <c r="T167" s="66"/>
+      <c r="U167" s="64"/>
+      <c r="V167" s="65"/>
       <c r="W167" s="30"/>
-      <c r="X167" s="117"/>
-      <c r="Y167" s="115"/>
-      <c r="Z167" s="116"/>
+      <c r="X167" s="66"/>
+      <c r="Y167" s="64"/>
+      <c r="Z167" s="65"/>
       <c r="AA167" s="30"/>
-      <c r="AB167" s="117"/>
-      <c r="AC167" s="115"/>
-      <c r="AD167" s="116"/>
+      <c r="AB167" s="66"/>
+      <c r="AC167" s="64"/>
+      <c r="AD167" s="65"/>
       <c r="AE167" s="10"/>
     </row>
-    <row r="168" spans="1:31" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="17"/>
       <c r="B168" s="52">
-        <v>145</v>
-      </c>
-      <c r="C168" s="67"/>
-      <c r="D168" s="64"/>
-      <c r="E168" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="F168" s="44"/>
-      <c r="G168" s="118"/>
-      <c r="H168" s="119"/>
-      <c r="I168" s="120"/>
-      <c r="J168" s="31"/>
-      <c r="K168" s="118"/>
-      <c r="L168" s="119"/>
-      <c r="M168" s="120"/>
-      <c r="N168" s="31"/>
-      <c r="O168" s="118"/>
-      <c r="P168" s="119"/>
-      <c r="Q168" s="120"/>
+        <v>143</v>
+      </c>
+      <c r="C168" s="120"/>
+      <c r="D168" s="110"/>
+      <c r="E168" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="F168" s="43"/>
+      <c r="G168" s="66"/>
+      <c r="H168" s="64"/>
+      <c r="I168" s="65"/>
+      <c r="J168" s="30"/>
+      <c r="K168" s="66"/>
+      <c r="L168" s="64"/>
+      <c r="M168" s="65"/>
+      <c r="N168" s="30"/>
+      <c r="O168" s="66"/>
+      <c r="P168" s="64"/>
+      <c r="Q168" s="65"/>
       <c r="R168" s="38">
-        <v>307</v>
-      </c>
-      <c r="S168" s="31"/>
-      <c r="T168" s="118"/>
-      <c r="U168" s="119"/>
-      <c r="V168" s="120"/>
-      <c r="W168" s="31"/>
-      <c r="X168" s="118"/>
-      <c r="Y168" s="119"/>
-      <c r="Z168" s="120"/>
-      <c r="AA168" s="31"/>
-      <c r="AB168" s="118"/>
-      <c r="AC168" s="119"/>
-      <c r="AD168" s="120"/>
+        <v>305</v>
+      </c>
+      <c r="S168" s="30"/>
+      <c r="T168" s="66"/>
+      <c r="U168" s="64"/>
+      <c r="V168" s="65"/>
+      <c r="W168" s="30"/>
+      <c r="X168" s="66"/>
+      <c r="Y168" s="64"/>
+      <c r="Z168" s="65"/>
+      <c r="AA168" s="30"/>
+      <c r="AB168" s="66"/>
+      <c r="AC168" s="64"/>
+      <c r="AD168" s="65"/>
       <c r="AE168" s="10"/>
     </row>
     <row r="169" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="17"/>
       <c r="B169" s="52">
-        <v>146</v>
-      </c>
-      <c r="C169" s="67"/>
-      <c r="D169" s="62" t="s">
-        <v>20</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="C169" s="120"/>
+      <c r="D169" s="110"/>
       <c r="E169" s="48" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="F169" s="43"/>
-      <c r="G169" s="26"/>
-      <c r="H169" s="26"/>
-      <c r="I169" s="6"/>
+      <c r="G169" s="66"/>
+      <c r="H169" s="64"/>
+      <c r="I169" s="65"/>
       <c r="J169" s="30"/>
-      <c r="K169" s="26"/>
-      <c r="L169" s="26"/>
-      <c r="M169" s="6"/>
+      <c r="K169" s="66"/>
+      <c r="L169" s="64"/>
+      <c r="M169" s="65"/>
       <c r="N169" s="30"/>
-      <c r="O169" s="26"/>
-      <c r="P169" s="26"/>
-      <c r="Q169" s="3"/>
-      <c r="R169" s="40">
-        <v>308</v>
+      <c r="O169" s="66"/>
+      <c r="P169" s="64"/>
+      <c r="Q169" s="65"/>
+      <c r="R169" s="38">
+        <v>306</v>
       </c>
       <c r="S169" s="30"/>
-      <c r="T169" s="26"/>
-      <c r="U169" s="26"/>
-      <c r="V169" s="6"/>
+      <c r="T169" s="66"/>
+      <c r="U169" s="64"/>
+      <c r="V169" s="65"/>
       <c r="W169" s="30"/>
-      <c r="X169" s="26"/>
-      <c r="Y169" s="26"/>
-      <c r="Z169" s="6"/>
+      <c r="X169" s="66"/>
+      <c r="Y169" s="64"/>
+      <c r="Z169" s="65"/>
       <c r="AA169" s="30"/>
-      <c r="AB169" s="26"/>
-      <c r="AC169" s="26"/>
-      <c r="AD169" s="6"/>
+      <c r="AB169" s="66"/>
+      <c r="AC169" s="64"/>
+      <c r="AD169" s="65"/>
       <c r="AE169" s="10"/>
     </row>
-    <row r="170" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:31" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="17"/>
       <c r="B170" s="52">
-        <v>147</v>
-      </c>
-      <c r="C170" s="67"/>
-      <c r="D170" s="63"/>
-      <c r="E170" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="F170" s="43"/>
-      <c r="G170" s="26"/>
-      <c r="H170" s="26"/>
-      <c r="I170" s="6"/>
-      <c r="J170" s="30"/>
-      <c r="K170" s="26"/>
-      <c r="L170" s="26"/>
-      <c r="M170" s="6"/>
-      <c r="N170" s="30"/>
-      <c r="O170" s="26"/>
-      <c r="P170" s="26"/>
-      <c r="Q170" s="3"/>
+        <v>145</v>
+      </c>
+      <c r="C170" s="120"/>
+      <c r="D170" s="111"/>
+      <c r="E170" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="F170" s="44"/>
+      <c r="G170" s="67"/>
+      <c r="H170" s="68"/>
+      <c r="I170" s="69"/>
+      <c r="J170" s="31"/>
+      <c r="K170" s="67"/>
+      <c r="L170" s="68"/>
+      <c r="M170" s="69"/>
+      <c r="N170" s="31"/>
+      <c r="O170" s="67"/>
+      <c r="P170" s="68"/>
+      <c r="Q170" s="69"/>
       <c r="R170" s="38">
-        <v>309</v>
-      </c>
-      <c r="S170" s="30"/>
-      <c r="T170" s="26"/>
-      <c r="U170" s="26"/>
-      <c r="V170" s="6"/>
-      <c r="W170" s="30"/>
-      <c r="X170" s="26"/>
-      <c r="Y170" s="26"/>
-      <c r="Z170" s="6"/>
-      <c r="AA170" s="30"/>
-      <c r="AB170" s="26"/>
-      <c r="AC170" s="26"/>
-      <c r="AD170" s="6"/>
+        <v>307</v>
+      </c>
+      <c r="S170" s="31"/>
+      <c r="T170" s="67"/>
+      <c r="U170" s="68"/>
+      <c r="V170" s="69"/>
+      <c r="W170" s="31"/>
+      <c r="X170" s="67"/>
+      <c r="Y170" s="68"/>
+      <c r="Z170" s="69"/>
+      <c r="AA170" s="31"/>
+      <c r="AB170" s="67"/>
+      <c r="AC170" s="68"/>
+      <c r="AD170" s="69"/>
       <c r="AE170" s="10"/>
     </row>
     <row r="171" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="17"/>
       <c r="B171" s="52">
-        <v>148</v>
-      </c>
-      <c r="C171" s="67"/>
-      <c r="D171" s="63"/>
+        <v>146</v>
+      </c>
+      <c r="C171" s="120"/>
+      <c r="D171" s="112" t="s">
+        <v>20</v>
+      </c>
       <c r="E171" s="48" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F171" s="43"/>
       <c r="G171" s="26"/>
@@ -8584,8 +8613,8 @@
       <c r="O171" s="26"/>
       <c r="P171" s="26"/>
       <c r="Q171" s="3"/>
-      <c r="R171" s="38">
-        <v>310</v>
+      <c r="R171" s="40">
+        <v>308</v>
       </c>
       <c r="S171" s="30"/>
       <c r="T171" s="26"/>
@@ -8604,12 +8633,12 @@
     <row r="172" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="17"/>
       <c r="B172" s="52">
-        <v>149</v>
-      </c>
-      <c r="C172" s="67"/>
-      <c r="D172" s="63"/>
+        <v>147</v>
+      </c>
+      <c r="C172" s="120"/>
+      <c r="D172" s="110"/>
       <c r="E172" s="48" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F172" s="43"/>
       <c r="G172" s="26"/>
@@ -8624,7 +8653,7 @@
       <c r="P172" s="26"/>
       <c r="Q172" s="3"/>
       <c r="R172" s="38">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="S172" s="30"/>
       <c r="T172" s="26"/>
@@ -8643,12 +8672,12 @@
     <row r="173" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="17"/>
       <c r="B173" s="52">
-        <v>150</v>
-      </c>
-      <c r="C173" s="67"/>
-      <c r="D173" s="63"/>
+        <v>148</v>
+      </c>
+      <c r="C173" s="120"/>
+      <c r="D173" s="110"/>
       <c r="E173" s="48" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F173" s="43"/>
       <c r="G173" s="26"/>
@@ -8663,7 +8692,7 @@
       <c r="P173" s="26"/>
       <c r="Q173" s="3"/>
       <c r="R173" s="38">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="S173" s="30"/>
       <c r="T173" s="26"/>
@@ -8682,12 +8711,12 @@
     <row r="174" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="17"/>
       <c r="B174" s="52">
-        <v>151</v>
-      </c>
-      <c r="C174" s="67"/>
-      <c r="D174" s="63"/>
+        <v>149</v>
+      </c>
+      <c r="C174" s="120"/>
+      <c r="D174" s="110"/>
       <c r="E174" s="48" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F174" s="43"/>
       <c r="G174" s="26"/>
@@ -8702,7 +8731,7 @@
       <c r="P174" s="26"/>
       <c r="Q174" s="3"/>
       <c r="R174" s="38">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="S174" s="30"/>
       <c r="T174" s="26"/>
@@ -8721,12 +8750,12 @@
     <row r="175" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="17"/>
       <c r="B175" s="52">
-        <v>152</v>
-      </c>
-      <c r="C175" s="67"/>
-      <c r="D175" s="63"/>
+        <v>150</v>
+      </c>
+      <c r="C175" s="120"/>
+      <c r="D175" s="110"/>
       <c r="E175" s="48" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F175" s="43"/>
       <c r="G175" s="26"/>
@@ -8741,7 +8770,7 @@
       <c r="P175" s="26"/>
       <c r="Q175" s="3"/>
       <c r="R175" s="38">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="S175" s="30"/>
       <c r="T175" s="26"/>
@@ -8760,12 +8789,12 @@
     <row r="176" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="17"/>
       <c r="B176" s="52">
-        <v>153</v>
-      </c>
-      <c r="C176" s="67"/>
-      <c r="D176" s="63"/>
+        <v>151</v>
+      </c>
+      <c r="C176" s="120"/>
+      <c r="D176" s="110"/>
       <c r="E176" s="48" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F176" s="43"/>
       <c r="G176" s="26"/>
@@ -8780,7 +8809,7 @@
       <c r="P176" s="26"/>
       <c r="Q176" s="3"/>
       <c r="R176" s="38">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="S176" s="30"/>
       <c r="T176" s="26"/>
@@ -8799,12 +8828,12 @@
     <row r="177" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="17"/>
       <c r="B177" s="52">
-        <v>154</v>
-      </c>
-      <c r="C177" s="67"/>
-      <c r="D177" s="63"/>
+        <v>152</v>
+      </c>
+      <c r="C177" s="120"/>
+      <c r="D177" s="110"/>
       <c r="E177" s="48" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F177" s="43"/>
       <c r="G177" s="26"/>
@@ -8819,7 +8848,7 @@
       <c r="P177" s="26"/>
       <c r="Q177" s="3"/>
       <c r="R177" s="38">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="S177" s="30"/>
       <c r="T177" s="26"/>
@@ -8838,12 +8867,12 @@
     <row r="178" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="17"/>
       <c r="B178" s="52">
-        <v>155</v>
-      </c>
-      <c r="C178" s="67"/>
-      <c r="D178" s="63"/>
+        <v>153</v>
+      </c>
+      <c r="C178" s="120"/>
+      <c r="D178" s="110"/>
       <c r="E178" s="48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F178" s="43"/>
       <c r="G178" s="26"/>
@@ -8858,7 +8887,7 @@
       <c r="P178" s="26"/>
       <c r="Q178" s="3"/>
       <c r="R178" s="38">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="S178" s="30"/>
       <c r="T178" s="26"/>
@@ -8877,12 +8906,12 @@
     <row r="179" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="17"/>
       <c r="B179" s="52">
-        <v>156</v>
-      </c>
-      <c r="C179" s="67"/>
-      <c r="D179" s="63"/>
+        <v>154</v>
+      </c>
+      <c r="C179" s="120"/>
+      <c r="D179" s="110"/>
       <c r="E179" s="48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F179" s="43"/>
       <c r="G179" s="26"/>
@@ -8897,7 +8926,7 @@
       <c r="P179" s="26"/>
       <c r="Q179" s="3"/>
       <c r="R179" s="38">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="S179" s="30"/>
       <c r="T179" s="26"/>
@@ -8916,358 +8945,437 @@
     <row r="180" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="17"/>
       <c r="B180" s="52">
-        <v>157</v>
-      </c>
-      <c r="C180" s="67"/>
-      <c r="D180" s="63"/>
+        <v>155</v>
+      </c>
+      <c r="C180" s="120"/>
+      <c r="D180" s="110"/>
       <c r="E180" s="48" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="F180" s="43"/>
-      <c r="G180" s="114" t="s">
-        <v>52</v>
-      </c>
-      <c r="H180" s="115"/>
-      <c r="I180" s="116"/>
+      <c r="G180" s="26"/>
+      <c r="H180" s="26"/>
+      <c r="I180" s="6"/>
       <c r="J180" s="30"/>
-      <c r="K180" s="114" t="s">
-        <v>52</v>
-      </c>
-      <c r="L180" s="115"/>
-      <c r="M180" s="116"/>
+      <c r="K180" s="26"/>
+      <c r="L180" s="26"/>
+      <c r="M180" s="6"/>
       <c r="N180" s="30"/>
-      <c r="O180" s="114" t="s">
-        <v>52</v>
-      </c>
-      <c r="P180" s="115"/>
-      <c r="Q180" s="116"/>
+      <c r="O180" s="26"/>
+      <c r="P180" s="26"/>
+      <c r="Q180" s="3"/>
       <c r="R180" s="38">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="S180" s="30"/>
-      <c r="T180" s="114" t="s">
-        <v>52</v>
-      </c>
-      <c r="U180" s="115"/>
-      <c r="V180" s="116"/>
+      <c r="T180" s="26"/>
+      <c r="U180" s="26"/>
+      <c r="V180" s="6"/>
       <c r="W180" s="30"/>
-      <c r="X180" s="114" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y180" s="115"/>
-      <c r="Z180" s="116"/>
+      <c r="X180" s="26"/>
+      <c r="Y180" s="26"/>
+      <c r="Z180" s="6"/>
       <c r="AA180" s="30"/>
-      <c r="AB180" s="114" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC180" s="115"/>
-      <c r="AD180" s="116"/>
+      <c r="AB180" s="26"/>
+      <c r="AC180" s="26"/>
+      <c r="AD180" s="6"/>
       <c r="AE180" s="10"/>
     </row>
     <row r="181" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="17"/>
       <c r="B181" s="52">
-        <v>158</v>
-      </c>
-      <c r="C181" s="67"/>
-      <c r="D181" s="63"/>
+        <v>156</v>
+      </c>
+      <c r="C181" s="120"/>
+      <c r="D181" s="110"/>
       <c r="E181" s="48" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="F181" s="43"/>
-      <c r="G181" s="117"/>
-      <c r="H181" s="115"/>
-      <c r="I181" s="116"/>
+      <c r="G181" s="26"/>
+      <c r="H181" s="26"/>
+      <c r="I181" s="6"/>
       <c r="J181" s="30"/>
-      <c r="K181" s="117"/>
-      <c r="L181" s="115"/>
-      <c r="M181" s="116"/>
+      <c r="K181" s="26"/>
+      <c r="L181" s="26"/>
+      <c r="M181" s="6"/>
       <c r="N181" s="30"/>
-      <c r="O181" s="117"/>
-      <c r="P181" s="115"/>
-      <c r="Q181" s="116"/>
+      <c r="O181" s="26"/>
+      <c r="P181" s="26"/>
+      <c r="Q181" s="3"/>
       <c r="R181" s="38">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="S181" s="30"/>
-      <c r="T181" s="117"/>
-      <c r="U181" s="115"/>
-      <c r="V181" s="116"/>
+      <c r="T181" s="26"/>
+      <c r="U181" s="26"/>
+      <c r="V181" s="6"/>
       <c r="W181" s="30"/>
-      <c r="X181" s="117"/>
-      <c r="Y181" s="115"/>
-      <c r="Z181" s="116"/>
+      <c r="X181" s="26"/>
+      <c r="Y181" s="26"/>
+      <c r="Z181" s="6"/>
       <c r="AA181" s="30"/>
-      <c r="AB181" s="117"/>
-      <c r="AC181" s="115"/>
-      <c r="AD181" s="116"/>
+      <c r="AB181" s="26"/>
+      <c r="AC181" s="26"/>
+      <c r="AD181" s="6"/>
       <c r="AE181" s="10"/>
     </row>
     <row r="182" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="17"/>
       <c r="B182" s="52">
-        <v>159</v>
-      </c>
-      <c r="C182" s="67"/>
-      <c r="D182" s="63"/>
+        <v>157</v>
+      </c>
+      <c r="C182" s="120"/>
+      <c r="D182" s="110"/>
       <c r="E182" s="48" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F182" s="43"/>
-      <c r="G182" s="117"/>
-      <c r="H182" s="115"/>
-      <c r="I182" s="116"/>
+      <c r="G182" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="H182" s="64"/>
+      <c r="I182" s="65"/>
       <c r="J182" s="30"/>
-      <c r="K182" s="117"/>
-      <c r="L182" s="115"/>
-      <c r="M182" s="116"/>
+      <c r="K182" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="L182" s="64"/>
+      <c r="M182" s="65"/>
       <c r="N182" s="30"/>
-      <c r="O182" s="117"/>
-      <c r="P182" s="115"/>
-      <c r="Q182" s="116"/>
+      <c r="O182" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="P182" s="64"/>
+      <c r="Q182" s="65"/>
       <c r="R182" s="38">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="S182" s="30"/>
-      <c r="T182" s="117"/>
-      <c r="U182" s="115"/>
-      <c r="V182" s="116"/>
+      <c r="T182" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="U182" s="64"/>
+      <c r="V182" s="65"/>
       <c r="W182" s="30"/>
-      <c r="X182" s="117"/>
-      <c r="Y182" s="115"/>
-      <c r="Z182" s="116"/>
+      <c r="X182" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y182" s="64"/>
+      <c r="Z182" s="65"/>
       <c r="AA182" s="30"/>
-      <c r="AB182" s="117"/>
-      <c r="AC182" s="115"/>
-      <c r="AD182" s="116"/>
+      <c r="AB182" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC182" s="64"/>
+      <c r="AD182" s="65"/>
       <c r="AE182" s="10"/>
     </row>
     <row r="183" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="17"/>
       <c r="B183" s="52">
-        <v>160</v>
-      </c>
-      <c r="C183" s="67"/>
-      <c r="D183" s="63"/>
+        <v>158</v>
+      </c>
+      <c r="C183" s="120"/>
+      <c r="D183" s="110"/>
       <c r="E183" s="48" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F183" s="43"/>
-      <c r="G183" s="117"/>
-      <c r="H183" s="115"/>
-      <c r="I183" s="116"/>
+      <c r="G183" s="66"/>
+      <c r="H183" s="64"/>
+      <c r="I183" s="65"/>
       <c r="J183" s="30"/>
-      <c r="K183" s="117"/>
-      <c r="L183" s="115"/>
-      <c r="M183" s="116"/>
+      <c r="K183" s="66"/>
+      <c r="L183" s="64"/>
+      <c r="M183" s="65"/>
       <c r="N183" s="30"/>
-      <c r="O183" s="117"/>
-      <c r="P183" s="115"/>
-      <c r="Q183" s="116"/>
+      <c r="O183" s="66"/>
+      <c r="P183" s="64"/>
+      <c r="Q183" s="65"/>
       <c r="R183" s="38">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="S183" s="30"/>
-      <c r="T183" s="117"/>
-      <c r="U183" s="115"/>
-      <c r="V183" s="116"/>
+      <c r="T183" s="66"/>
+      <c r="U183" s="64"/>
+      <c r="V183" s="65"/>
       <c r="W183" s="30"/>
-      <c r="X183" s="117"/>
-      <c r="Y183" s="115"/>
-      <c r="Z183" s="116"/>
+      <c r="X183" s="66"/>
+      <c r="Y183" s="64"/>
+      <c r="Z183" s="65"/>
       <c r="AA183" s="30"/>
-      <c r="AB183" s="117"/>
-      <c r="AC183" s="115"/>
-      <c r="AD183" s="116"/>
+      <c r="AB183" s="66"/>
+      <c r="AC183" s="64"/>
+      <c r="AD183" s="65"/>
       <c r="AE183" s="10"/>
     </row>
     <row r="184" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="17"/>
       <c r="B184" s="52">
-        <v>161</v>
-      </c>
-      <c r="C184" s="67"/>
-      <c r="D184" s="63"/>
+        <v>159</v>
+      </c>
+      <c r="C184" s="120"/>
+      <c r="D184" s="110"/>
       <c r="E184" s="48" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F184" s="43"/>
-      <c r="G184" s="117"/>
-      <c r="H184" s="115"/>
-      <c r="I184" s="116"/>
+      <c r="G184" s="66"/>
+      <c r="H184" s="64"/>
+      <c r="I184" s="65"/>
       <c r="J184" s="30"/>
-      <c r="K184" s="117"/>
-      <c r="L184" s="115"/>
-      <c r="M184" s="116"/>
+      <c r="K184" s="66"/>
+      <c r="L184" s="64"/>
+      <c r="M184" s="65"/>
       <c r="N184" s="30"/>
-      <c r="O184" s="117"/>
-      <c r="P184" s="115"/>
-      <c r="Q184" s="116"/>
+      <c r="O184" s="66"/>
+      <c r="P184" s="64"/>
+      <c r="Q184" s="65"/>
       <c r="R184" s="38">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="S184" s="30"/>
-      <c r="T184" s="117"/>
-      <c r="U184" s="115"/>
-      <c r="V184" s="116"/>
+      <c r="T184" s="66"/>
+      <c r="U184" s="64"/>
+      <c r="V184" s="65"/>
       <c r="W184" s="30"/>
-      <c r="X184" s="117"/>
-      <c r="Y184" s="115"/>
-      <c r="Z184" s="116"/>
+      <c r="X184" s="66"/>
+      <c r="Y184" s="64"/>
+      <c r="Z184" s="65"/>
       <c r="AA184" s="30"/>
-      <c r="AB184" s="117"/>
-      <c r="AC184" s="115"/>
-      <c r="AD184" s="116"/>
+      <c r="AB184" s="66"/>
+      <c r="AC184" s="64"/>
+      <c r="AD184" s="65"/>
       <c r="AE184" s="10"/>
     </row>
-    <row r="185" spans="1:31" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="17"/>
       <c r="B185" s="52">
+        <v>160</v>
+      </c>
+      <c r="C185" s="120"/>
+      <c r="D185" s="110"/>
+      <c r="E185" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="F185" s="43"/>
+      <c r="G185" s="66"/>
+      <c r="H185" s="64"/>
+      <c r="I185" s="65"/>
+      <c r="J185" s="30"/>
+      <c r="K185" s="66"/>
+      <c r="L185" s="64"/>
+      <c r="M185" s="65"/>
+      <c r="N185" s="30"/>
+      <c r="O185" s="66"/>
+      <c r="P185" s="64"/>
+      <c r="Q185" s="65"/>
+      <c r="R185" s="38">
+        <v>322</v>
+      </c>
+      <c r="S185" s="30"/>
+      <c r="T185" s="66"/>
+      <c r="U185" s="64"/>
+      <c r="V185" s="65"/>
+      <c r="W185" s="30"/>
+      <c r="X185" s="66"/>
+      <c r="Y185" s="64"/>
+      <c r="Z185" s="65"/>
+      <c r="AA185" s="30"/>
+      <c r="AB185" s="66"/>
+      <c r="AC185" s="64"/>
+      <c r="AD185" s="65"/>
+      <c r="AE185" s="10"/>
+    </row>
+    <row r="186" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="17"/>
+      <c r="B186" s="52">
+        <v>161</v>
+      </c>
+      <c r="C186" s="120"/>
+      <c r="D186" s="110"/>
+      <c r="E186" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="F186" s="43"/>
+      <c r="G186" s="66"/>
+      <c r="H186" s="64"/>
+      <c r="I186" s="65"/>
+      <c r="J186" s="30"/>
+      <c r="K186" s="66"/>
+      <c r="L186" s="64"/>
+      <c r="M186" s="65"/>
+      <c r="N186" s="30"/>
+      <c r="O186" s="66"/>
+      <c r="P186" s="64"/>
+      <c r="Q186" s="65"/>
+      <c r="R186" s="38">
+        <v>323</v>
+      </c>
+      <c r="S186" s="30"/>
+      <c r="T186" s="66"/>
+      <c r="U186" s="64"/>
+      <c r="V186" s="65"/>
+      <c r="W186" s="30"/>
+      <c r="X186" s="66"/>
+      <c r="Y186" s="64"/>
+      <c r="Z186" s="65"/>
+      <c r="AA186" s="30"/>
+      <c r="AB186" s="66"/>
+      <c r="AC186" s="64"/>
+      <c r="AD186" s="65"/>
+      <c r="AE186" s="10"/>
+    </row>
+    <row r="187" spans="1:31" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="17"/>
+      <c r="B187" s="52">
         <v>162</v>
       </c>
-      <c r="C185" s="68"/>
-      <c r="D185" s="65"/>
-      <c r="E185" s="51" t="s">
+      <c r="C187" s="121"/>
+      <c r="D187" s="118"/>
+      <c r="E187" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="F185" s="46"/>
-      <c r="G185" s="118"/>
-      <c r="H185" s="119"/>
-      <c r="I185" s="120"/>
-      <c r="J185" s="33"/>
-      <c r="K185" s="118"/>
-      <c r="L185" s="119"/>
-      <c r="M185" s="120"/>
-      <c r="N185" s="33"/>
-      <c r="O185" s="118"/>
-      <c r="P185" s="119"/>
-      <c r="Q185" s="120"/>
-      <c r="R185" s="41">
+      <c r="F187" s="46"/>
+      <c r="G187" s="67"/>
+      <c r="H187" s="68"/>
+      <c r="I187" s="69"/>
+      <c r="J187" s="33"/>
+      <c r="K187" s="67"/>
+      <c r="L187" s="68"/>
+      <c r="M187" s="69"/>
+      <c r="N187" s="33"/>
+      <c r="O187" s="67"/>
+      <c r="P187" s="68"/>
+      <c r="Q187" s="69"/>
+      <c r="R187" s="41">
         <v>324</v>
       </c>
-      <c r="S185" s="33"/>
-      <c r="T185" s="118"/>
-      <c r="U185" s="119"/>
-      <c r="V185" s="120"/>
-      <c r="W185" s="33"/>
-      <c r="X185" s="118"/>
-      <c r="Y185" s="119"/>
-      <c r="Z185" s="120"/>
-      <c r="AA185" s="33"/>
-      <c r="AB185" s="118"/>
-      <c r="AC185" s="119"/>
-      <c r="AD185" s="120"/>
-      <c r="AE185" s="10"/>
-    </row>
-    <row r="186" spans="1:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B186" s="13"/>
-      <c r="E186" s="13"/>
-      <c r="R186" s="13"/>
-    </row>
-    <row r="188" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="C188" s="12"/>
-      <c r="AC188" s="12"/>
-    </row>
-    <row r="189" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="AC189" s="12"/>
-    </row>
-    <row r="192" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="J192" s="12"/>
+      <c r="S187" s="33"/>
+      <c r="T187" s="67"/>
+      <c r="U187" s="68"/>
+      <c r="V187" s="69"/>
+      <c r="W187" s="33"/>
+      <c r="X187" s="67"/>
+      <c r="Y187" s="68"/>
+      <c r="Z187" s="69"/>
+      <c r="AA187" s="33"/>
+      <c r="AB187" s="67"/>
+      <c r="AC187" s="68"/>
+      <c r="AD187" s="69"/>
+      <c r="AE187" s="10"/>
+    </row>
+    <row r="188" spans="1:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B188" s="13"/>
+      <c r="E188" s="13"/>
+      <c r="R188" s="13"/>
+    </row>
+    <row r="190" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="C190" s="12"/>
+      <c r="AC190" s="12"/>
+    </row>
+    <row r="191" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AC191" s="12"/>
+    </row>
+    <row r="194" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J194" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="92">
-    <mergeCell ref="AB163:AD168"/>
-    <mergeCell ref="G180:I185"/>
-    <mergeCell ref="K180:M185"/>
-    <mergeCell ref="O180:Q185"/>
-    <mergeCell ref="T180:V185"/>
-    <mergeCell ref="X180:Z185"/>
-    <mergeCell ref="AB180:AD185"/>
-    <mergeCell ref="G163:I168"/>
-    <mergeCell ref="K163:M168"/>
-    <mergeCell ref="O163:Q168"/>
-    <mergeCell ref="T163:V168"/>
-    <mergeCell ref="X163:Z168"/>
-    <mergeCell ref="AB126:AD131"/>
-    <mergeCell ref="G146:I151"/>
-    <mergeCell ref="K146:M151"/>
-    <mergeCell ref="O146:Q151"/>
-    <mergeCell ref="T146:V151"/>
-    <mergeCell ref="X146:Z151"/>
-    <mergeCell ref="AB146:AD151"/>
-    <mergeCell ref="G126:I131"/>
-    <mergeCell ref="K126:M131"/>
-    <mergeCell ref="O126:Q131"/>
-    <mergeCell ref="T126:V131"/>
-    <mergeCell ref="X126:Z131"/>
-    <mergeCell ref="AB92:AD97"/>
-    <mergeCell ref="G109:I114"/>
-    <mergeCell ref="K109:M114"/>
-    <mergeCell ref="O109:Q114"/>
-    <mergeCell ref="T109:V114"/>
-    <mergeCell ref="X109:Z114"/>
-    <mergeCell ref="AB109:AD114"/>
-    <mergeCell ref="G92:I97"/>
-    <mergeCell ref="K92:M97"/>
-    <mergeCell ref="O92:Q97"/>
-    <mergeCell ref="T92:V97"/>
-    <mergeCell ref="X92:Z97"/>
-    <mergeCell ref="AB55:AD60"/>
-    <mergeCell ref="G72:I77"/>
-    <mergeCell ref="K72:M77"/>
-    <mergeCell ref="O72:Q77"/>
-    <mergeCell ref="T72:V77"/>
-    <mergeCell ref="X72:Z77"/>
-    <mergeCell ref="AB72:AD77"/>
-    <mergeCell ref="G55:I60"/>
-    <mergeCell ref="K55:M60"/>
-    <mergeCell ref="O55:Q60"/>
-    <mergeCell ref="T55:V60"/>
-    <mergeCell ref="X55:Z60"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B19:AD19"/>
+  <mergeCells count="93">
+    <mergeCell ref="D154:D170"/>
+    <mergeCell ref="D171:D187"/>
+    <mergeCell ref="C80:C133"/>
+    <mergeCell ref="C134:C187"/>
+    <mergeCell ref="D46:D62"/>
+    <mergeCell ref="D63:D79"/>
+    <mergeCell ref="C26:C79"/>
+    <mergeCell ref="D80:D82"/>
+    <mergeCell ref="D83:D99"/>
+    <mergeCell ref="D100:D116"/>
+    <mergeCell ref="D117:D133"/>
+    <mergeCell ref="D134:D136"/>
+    <mergeCell ref="D137:D153"/>
+    <mergeCell ref="AF2:AL30"/>
+    <mergeCell ref="S23:AD23"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="D29:D45"/>
+    <mergeCell ref="F23:Q23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="N24:Q24"/>
+    <mergeCell ref="F9:S9"/>
+    <mergeCell ref="G40:I45"/>
+    <mergeCell ref="K40:M45"/>
+    <mergeCell ref="O40:Q45"/>
+    <mergeCell ref="T40:V45"/>
+    <mergeCell ref="X40:Z45"/>
+    <mergeCell ref="AB40:AD45"/>
+    <mergeCell ref="F15:K15"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B21:AD21"/>
     <mergeCell ref="Z2:AD2"/>
     <mergeCell ref="E2:S2"/>
-    <mergeCell ref="W22:Z22"/>
-    <mergeCell ref="AA22:AD22"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="R22:R23"/>
+    <mergeCell ref="W24:Z24"/>
+    <mergeCell ref="AA24:AD24"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="R24:R25"/>
     <mergeCell ref="F10:S10"/>
     <mergeCell ref="F11:S11"/>
     <mergeCell ref="F12:S12"/>
     <mergeCell ref="F13:S13"/>
-    <mergeCell ref="S22:V22"/>
-    <mergeCell ref="E17:J17"/>
-    <mergeCell ref="AF2:AL28"/>
-    <mergeCell ref="S21:AD21"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="D27:D43"/>
-    <mergeCell ref="F21:Q21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="N22:Q22"/>
-    <mergeCell ref="F9:S9"/>
-    <mergeCell ref="G38:I43"/>
-    <mergeCell ref="K38:M43"/>
-    <mergeCell ref="O38:Q43"/>
-    <mergeCell ref="T38:V43"/>
-    <mergeCell ref="X38:Z43"/>
-    <mergeCell ref="AB38:AD43"/>
-    <mergeCell ref="D152:D168"/>
-    <mergeCell ref="D169:D185"/>
-    <mergeCell ref="C78:C131"/>
-    <mergeCell ref="C132:C185"/>
-    <mergeCell ref="D44:D60"/>
-    <mergeCell ref="D61:D77"/>
-    <mergeCell ref="C24:C77"/>
-    <mergeCell ref="D78:D80"/>
-    <mergeCell ref="D81:D97"/>
-    <mergeCell ref="D98:D114"/>
-    <mergeCell ref="D115:D131"/>
-    <mergeCell ref="D132:D134"/>
-    <mergeCell ref="D135:D151"/>
+    <mergeCell ref="S24:V24"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="AB57:AD62"/>
+    <mergeCell ref="G74:I79"/>
+    <mergeCell ref="K74:M79"/>
+    <mergeCell ref="O74:Q79"/>
+    <mergeCell ref="T74:V79"/>
+    <mergeCell ref="X74:Z79"/>
+    <mergeCell ref="AB74:AD79"/>
+    <mergeCell ref="G57:I62"/>
+    <mergeCell ref="K57:M62"/>
+    <mergeCell ref="O57:Q62"/>
+    <mergeCell ref="T57:V62"/>
+    <mergeCell ref="X57:Z62"/>
+    <mergeCell ref="AB94:AD99"/>
+    <mergeCell ref="G111:I116"/>
+    <mergeCell ref="K111:M116"/>
+    <mergeCell ref="O111:Q116"/>
+    <mergeCell ref="T111:V116"/>
+    <mergeCell ref="X111:Z116"/>
+    <mergeCell ref="AB111:AD116"/>
+    <mergeCell ref="G94:I99"/>
+    <mergeCell ref="K94:M99"/>
+    <mergeCell ref="O94:Q99"/>
+    <mergeCell ref="T94:V99"/>
+    <mergeCell ref="X94:Z99"/>
+    <mergeCell ref="AB128:AD133"/>
+    <mergeCell ref="G148:I153"/>
+    <mergeCell ref="K148:M153"/>
+    <mergeCell ref="O148:Q153"/>
+    <mergeCell ref="T148:V153"/>
+    <mergeCell ref="X148:Z153"/>
+    <mergeCell ref="AB148:AD153"/>
+    <mergeCell ref="G128:I133"/>
+    <mergeCell ref="K128:M133"/>
+    <mergeCell ref="O128:Q133"/>
+    <mergeCell ref="T128:V133"/>
+    <mergeCell ref="X128:Z133"/>
+    <mergeCell ref="AB165:AD170"/>
+    <mergeCell ref="G182:I187"/>
+    <mergeCell ref="K182:M187"/>
+    <mergeCell ref="O182:Q187"/>
+    <mergeCell ref="T182:V187"/>
+    <mergeCell ref="X182:Z187"/>
+    <mergeCell ref="AB182:AD187"/>
+    <mergeCell ref="G165:I170"/>
+    <mergeCell ref="K165:M170"/>
+    <mergeCell ref="O165:Q170"/>
+    <mergeCell ref="T165:V170"/>
+    <mergeCell ref="X165:Z170"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Results_Grid_Template.xlsx
+++ b/Results_Grid_Template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20386"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B987FCA-1E40-4BE1-9E8D-FAB7536BB2DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B7187D-9B46-4D84-BDD8-026F7220EDEB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -148,6 +148,46 @@
     <t>kernelPCA (sigmoid) + SelectKBest (Cramer)</t>
   </si>
   <si>
+    <t xml:space="preserve">Transformation Order -&gt;  </t>
+  </si>
+  <si>
+    <t>Linear</t>
+  </si>
+  <si>
+    <t>RBF</t>
+  </si>
+  <si>
+    <t>Poly</t>
+  </si>
+  <si>
+    <t>Sigmoid</t>
+  </si>
+  <si>
+    <t>GRID SEARCH CROSS-VALIDATION SCOREBOARD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List of Grid search parameters -&gt;  </t>
+  </si>
+  <si>
+    <t>| Configuration          Data split by feature -&gt;
+V                                                      SVM kernels -&gt;</t>
+  </si>
+  <si>
+    <t>Data split by feature:</t>
+  </si>
+  <si>
+    <t>No non-linear SVM kernel if non-linear feature transformation is applied</t>
+  </si>
+  <si>
+    <t>Total: 162 variations per order, equalling 324 runs in total.</t>
+  </si>
+  <si>
+    <t>Near-constant continuous threshold:</t>
+  </si>
+  <si>
+    <t>Target feature:</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -157,7 +197,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>My Grid Search CV parameters and ranges:
+      <t>My Grid Search CV parameters and ranges: [EXAMPLE]
 SVM</t>
     </r>
     <r>
@@ -298,49 +338,9 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-k_neighbors_smote: [2, 3, 5]
+k_neighbors_smote: [5]
 </t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Transformation Order -&gt;  </t>
-  </si>
-  <si>
-    <t>Linear</t>
-  </si>
-  <si>
-    <t>RBF</t>
-  </si>
-  <si>
-    <t>Poly</t>
-  </si>
-  <si>
-    <t>Sigmoid</t>
-  </si>
-  <si>
-    <t>GRID SEARCH CROSS-VALIDATION SCOREBOARD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List of Grid search parameters -&gt;  </t>
-  </si>
-  <si>
-    <t>| Configuration          Data split by feature -&gt;
-V                                                      SVM kernels -&gt;</t>
-  </si>
-  <si>
-    <t>Data split by feature:</t>
-  </si>
-  <si>
-    <t>No non-linear SVM kernel if non-linear feature transformation is applied</t>
-  </si>
-  <si>
-    <t>Total: 162 variations per order, equalling 324 runs in total.</t>
-  </si>
-  <si>
-    <t>Near-constant continuous threshold:</t>
-  </si>
-  <si>
-    <t>Target feature:</t>
   </si>
 </sst>
 </file>
@@ -1591,6 +1591,96 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1612,6 +1702,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1645,12 +1741,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1698,96 +1788,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2071,8 +2071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL194"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Z11" sqref="Z11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2089,120 +2089,120 @@
   <sheetData>
     <row r="1" spans="5:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="5:38" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E2" s="78" t="s">
+      <c r="E2" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="80"/>
-      <c r="Z2" s="75" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA2" s="76"/>
-      <c r="AB2" s="76"/>
-      <c r="AC2" s="76"/>
-      <c r="AD2" s="77"/>
-      <c r="AF2" s="99" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG2" s="100"/>
-      <c r="AH2" s="100"/>
-      <c r="AI2" s="100"/>
-      <c r="AJ2" s="100"/>
-      <c r="AK2" s="100"/>
-      <c r="AL2" s="101"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="112"/>
+      <c r="Z2" s="107" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA2" s="108"/>
+      <c r="AB2" s="108"/>
+      <c r="AC2" s="108"/>
+      <c r="AD2" s="109"/>
+      <c r="AF2" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG2" s="76"/>
+      <c r="AH2" s="76"/>
+      <c r="AI2" s="76"/>
+      <c r="AJ2" s="76"/>
+      <c r="AK2" s="76"/>
+      <c r="AL2" s="77"/>
     </row>
     <row r="3" spans="5:38" x14ac:dyDescent="0.25">
-      <c r="AF3" s="102"/>
-      <c r="AG3" s="103"/>
-      <c r="AH3" s="103"/>
-      <c r="AI3" s="103"/>
-      <c r="AJ3" s="103"/>
-      <c r="AK3" s="103"/>
-      <c r="AL3" s="104"/>
+      <c r="AF3" s="78"/>
+      <c r="AG3" s="79"/>
+      <c r="AH3" s="79"/>
+      <c r="AI3" s="79"/>
+      <c r="AJ3" s="79"/>
+      <c r="AK3" s="79"/>
+      <c r="AL3" s="80"/>
     </row>
     <row r="4" spans="5:38" x14ac:dyDescent="0.25">
-      <c r="AF4" s="102"/>
-      <c r="AG4" s="103"/>
-      <c r="AH4" s="103"/>
-      <c r="AI4" s="103"/>
-      <c r="AJ4" s="103"/>
-      <c r="AK4" s="103"/>
-      <c r="AL4" s="104"/>
+      <c r="AF4" s="78"/>
+      <c r="AG4" s="79"/>
+      <c r="AH4" s="79"/>
+      <c r="AI4" s="79"/>
+      <c r="AJ4" s="79"/>
+      <c r="AK4" s="79"/>
+      <c r="AL4" s="80"/>
     </row>
     <row r="5" spans="5:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E5" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="AF5" s="102"/>
-      <c r="AG5" s="103"/>
-      <c r="AH5" s="103"/>
-      <c r="AI5" s="103"/>
-      <c r="AJ5" s="103"/>
-      <c r="AK5" s="103"/>
-      <c r="AL5" s="104"/>
+      <c r="AF5" s="78"/>
+      <c r="AG5" s="79"/>
+      <c r="AH5" s="79"/>
+      <c r="AI5" s="79"/>
+      <c r="AJ5" s="79"/>
+      <c r="AK5" s="79"/>
+      <c r="AL5" s="80"/>
     </row>
     <row r="6" spans="5:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E6" s="2"/>
-      <c r="AF6" s="102"/>
-      <c r="AG6" s="103"/>
-      <c r="AH6" s="103"/>
-      <c r="AI6" s="103"/>
-      <c r="AJ6" s="103"/>
-      <c r="AK6" s="103"/>
-      <c r="AL6" s="104"/>
+      <c r="AF6" s="78"/>
+      <c r="AG6" s="79"/>
+      <c r="AH6" s="79"/>
+      <c r="AI6" s="79"/>
+      <c r="AJ6" s="79"/>
+      <c r="AK6" s="79"/>
+      <c r="AL6" s="80"/>
     </row>
     <row r="7" spans="5:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E7" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="AF7" s="102"/>
-      <c r="AG7" s="103"/>
-      <c r="AH7" s="103"/>
-      <c r="AI7" s="103"/>
-      <c r="AJ7" s="103"/>
-      <c r="AK7" s="103"/>
-      <c r="AL7" s="104"/>
+      <c r="AF7" s="78"/>
+      <c r="AG7" s="79"/>
+      <c r="AH7" s="79"/>
+      <c r="AI7" s="79"/>
+      <c r="AJ7" s="79"/>
+      <c r="AK7" s="79"/>
+      <c r="AL7" s="80"/>
     </row>
     <row r="8" spans="5:38" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E8" s="9"/>
-      <c r="AF8" s="102"/>
-      <c r="AG8" s="103"/>
-      <c r="AH8" s="103"/>
-      <c r="AI8" s="103"/>
-      <c r="AJ8" s="103"/>
-      <c r="AK8" s="103"/>
-      <c r="AL8" s="104"/>
+      <c r="AF8" s="78"/>
+      <c r="AG8" s="79"/>
+      <c r="AH8" s="79"/>
+      <c r="AI8" s="79"/>
+      <c r="AJ8" s="79"/>
+      <c r="AK8" s="79"/>
+      <c r="AL8" s="80"/>
     </row>
     <row r="9" spans="5:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E9" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="116"/>
-      <c r="M9" s="116"/>
-      <c r="N9" s="116"/>
-      <c r="O9" s="116"/>
-      <c r="P9" s="116"/>
-      <c r="Q9" s="116"/>
-      <c r="R9" s="116"/>
-      <c r="S9" s="117"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="91"/>
+      <c r="I9" s="91"/>
+      <c r="J9" s="91"/>
+      <c r="K9" s="91"/>
+      <c r="L9" s="91"/>
+      <c r="M9" s="91"/>
+      <c r="N9" s="91"/>
+      <c r="O9" s="91"/>
+      <c r="P9" s="91"/>
+      <c r="Q9" s="91"/>
+      <c r="R9" s="91"/>
+      <c r="S9" s="92"/>
       <c r="T9" s="16"/>
       <c r="U9" s="16"/>
       <c r="V9" s="16"/>
@@ -2212,32 +2212,32 @@
       <c r="Z9" s="16"/>
       <c r="AA9" s="16"/>
       <c r="AB9" s="16"/>
-      <c r="AF9" s="102"/>
-      <c r="AG9" s="103"/>
-      <c r="AH9" s="103"/>
-      <c r="AI9" s="103"/>
-      <c r="AJ9" s="103"/>
-      <c r="AK9" s="103"/>
-      <c r="AL9" s="104"/>
+      <c r="AF9" s="78"/>
+      <c r="AG9" s="79"/>
+      <c r="AH9" s="79"/>
+      <c r="AI9" s="79"/>
+      <c r="AJ9" s="79"/>
+      <c r="AK9" s="79"/>
+      <c r="AL9" s="80"/>
     </row>
     <row r="10" spans="5:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E10" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="92"/>
-      <c r="G10" s="92"/>
-      <c r="H10" s="92"/>
-      <c r="I10" s="92"/>
-      <c r="J10" s="92"/>
-      <c r="K10" s="92"/>
-      <c r="L10" s="92"/>
-      <c r="M10" s="92"/>
-      <c r="N10" s="92"/>
-      <c r="O10" s="92"/>
-      <c r="P10" s="92"/>
-      <c r="Q10" s="92"/>
-      <c r="R10" s="92"/>
-      <c r="S10" s="93"/>
+      <c r="F10" s="122"/>
+      <c r="G10" s="122"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="122"/>
+      <c r="K10" s="122"/>
+      <c r="L10" s="122"/>
+      <c r="M10" s="122"/>
+      <c r="N10" s="122"/>
+      <c r="O10" s="122"/>
+      <c r="P10" s="122"/>
+      <c r="Q10" s="122"/>
+      <c r="R10" s="122"/>
+      <c r="S10" s="123"/>
       <c r="T10" s="16"/>
       <c r="U10" s="16"/>
       <c r="V10" s="16"/>
@@ -2247,32 +2247,32 @@
       <c r="Z10" s="16"/>
       <c r="AA10" s="16"/>
       <c r="AB10" s="16"/>
-      <c r="AF10" s="102"/>
-      <c r="AG10" s="103"/>
-      <c r="AH10" s="103"/>
-      <c r="AI10" s="103"/>
-      <c r="AJ10" s="103"/>
-      <c r="AK10" s="103"/>
-      <c r="AL10" s="104"/>
+      <c r="AF10" s="78"/>
+      <c r="AG10" s="79"/>
+      <c r="AH10" s="79"/>
+      <c r="AI10" s="79"/>
+      <c r="AJ10" s="79"/>
+      <c r="AK10" s="79"/>
+      <c r="AL10" s="80"/>
     </row>
     <row r="11" spans="5:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E11" s="60" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="92"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="92"/>
-      <c r="I11" s="92"/>
-      <c r="J11" s="92"/>
-      <c r="K11" s="92"/>
-      <c r="L11" s="92"/>
-      <c r="M11" s="92"/>
-      <c r="N11" s="92"/>
-      <c r="O11" s="92"/>
-      <c r="P11" s="92"/>
-      <c r="Q11" s="92"/>
-      <c r="R11" s="92"/>
-      <c r="S11" s="93"/>
+        <v>53</v>
+      </c>
+      <c r="F11" s="122"/>
+      <c r="G11" s="122"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="122"/>
+      <c r="J11" s="122"/>
+      <c r="K11" s="122"/>
+      <c r="L11" s="122"/>
+      <c r="M11" s="122"/>
+      <c r="N11" s="122"/>
+      <c r="O11" s="122"/>
+      <c r="P11" s="122"/>
+      <c r="Q11" s="122"/>
+      <c r="R11" s="122"/>
+      <c r="S11" s="123"/>
       <c r="T11" s="16"/>
       <c r="U11" s="16"/>
       <c r="V11" s="16"/>
@@ -2282,32 +2282,32 @@
       <c r="Z11" s="16"/>
       <c r="AA11" s="16"/>
       <c r="AB11" s="16"/>
-      <c r="AF11" s="102"/>
-      <c r="AG11" s="103"/>
-      <c r="AH11" s="103"/>
-      <c r="AI11" s="103"/>
-      <c r="AJ11" s="103"/>
-      <c r="AK11" s="103"/>
-      <c r="AL11" s="104"/>
+      <c r="AF11" s="78"/>
+      <c r="AG11" s="79"/>
+      <c r="AH11" s="79"/>
+      <c r="AI11" s="79"/>
+      <c r="AJ11" s="79"/>
+      <c r="AK11" s="79"/>
+      <c r="AL11" s="80"/>
     </row>
     <row r="12" spans="5:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E12" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="92"/>
-      <c r="G12" s="92"/>
-      <c r="H12" s="92"/>
-      <c r="I12" s="92"/>
-      <c r="J12" s="92"/>
-      <c r="K12" s="92"/>
-      <c r="L12" s="92"/>
-      <c r="M12" s="92"/>
-      <c r="N12" s="92"/>
-      <c r="O12" s="92"/>
-      <c r="P12" s="92"/>
-      <c r="Q12" s="92"/>
-      <c r="R12" s="92"/>
-      <c r="S12" s="93"/>
+      <c r="F12" s="122"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="122"/>
+      <c r="J12" s="122"/>
+      <c r="K12" s="122"/>
+      <c r="L12" s="122"/>
+      <c r="M12" s="122"/>
+      <c r="N12" s="122"/>
+      <c r="O12" s="122"/>
+      <c r="P12" s="122"/>
+      <c r="Q12" s="122"/>
+      <c r="R12" s="122"/>
+      <c r="S12" s="123"/>
       <c r="T12" s="16"/>
       <c r="U12" s="16"/>
       <c r="V12" s="16"/>
@@ -2317,32 +2317,32 @@
       <c r="Z12" s="16"/>
       <c r="AA12" s="16"/>
       <c r="AB12" s="16"/>
-      <c r="AF12" s="102"/>
-      <c r="AG12" s="103"/>
-      <c r="AH12" s="103"/>
-      <c r="AI12" s="103"/>
-      <c r="AJ12" s="103"/>
-      <c r="AK12" s="103"/>
-      <c r="AL12" s="104"/>
+      <c r="AF12" s="78"/>
+      <c r="AG12" s="79"/>
+      <c r="AH12" s="79"/>
+      <c r="AI12" s="79"/>
+      <c r="AJ12" s="79"/>
+      <c r="AK12" s="79"/>
+      <c r="AL12" s="80"/>
     </row>
     <row r="13" spans="5:38" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E13" s="61" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="94"/>
-      <c r="G13" s="94"/>
-      <c r="H13" s="94"/>
-      <c r="I13" s="94"/>
-      <c r="J13" s="94"/>
-      <c r="K13" s="94"/>
-      <c r="L13" s="94"/>
-      <c r="M13" s="94"/>
-      <c r="N13" s="94"/>
-      <c r="O13" s="94"/>
-      <c r="P13" s="94"/>
-      <c r="Q13" s="94"/>
-      <c r="R13" s="94"/>
-      <c r="S13" s="95"/>
+        <v>50</v>
+      </c>
+      <c r="F13" s="124"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="124"/>
+      <c r="I13" s="124"/>
+      <c r="J13" s="124"/>
+      <c r="K13" s="124"/>
+      <c r="L13" s="124"/>
+      <c r="M13" s="124"/>
+      <c r="N13" s="124"/>
+      <c r="O13" s="124"/>
+      <c r="P13" s="124"/>
+      <c r="Q13" s="124"/>
+      <c r="R13" s="124"/>
+      <c r="S13" s="125"/>
       <c r="T13" s="16"/>
       <c r="U13" s="16"/>
       <c r="V13" s="16"/>
@@ -2352,30 +2352,30 @@
       <c r="Z13" s="16"/>
       <c r="AA13" s="16"/>
       <c r="AB13" s="16"/>
-      <c r="AF13" s="102"/>
-      <c r="AG13" s="103"/>
-      <c r="AH13" s="103"/>
-      <c r="AI13" s="103"/>
-      <c r="AJ13" s="103"/>
-      <c r="AK13" s="103"/>
-      <c r="AL13" s="104"/>
+      <c r="AF13" s="78"/>
+      <c r="AG13" s="79"/>
+      <c r="AH13" s="79"/>
+      <c r="AI13" s="79"/>
+      <c r="AJ13" s="79"/>
+      <c r="AK13" s="79"/>
+      <c r="AL13" s="80"/>
     </row>
     <row r="14" spans="5:38" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E14" s="124"/>
-      <c r="F14" s="125"/>
-      <c r="G14" s="125"/>
-      <c r="H14" s="125"/>
-      <c r="I14" s="125"/>
-      <c r="J14" s="125"/>
-      <c r="K14" s="125"/>
-      <c r="L14" s="125"/>
-      <c r="M14" s="125"/>
-      <c r="N14" s="125"/>
-      <c r="O14" s="125"/>
-      <c r="P14" s="125"/>
-      <c r="Q14" s="125"/>
-      <c r="R14" s="125"/>
-      <c r="S14" s="125"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="64"/>
+      <c r="O14" s="64"/>
+      <c r="P14" s="64"/>
+      <c r="Q14" s="64"/>
+      <c r="R14" s="64"/>
+      <c r="S14" s="64"/>
       <c r="T14" s="16"/>
       <c r="U14" s="16"/>
       <c r="V14" s="16"/>
@@ -2385,32 +2385,32 @@
       <c r="Z14" s="16"/>
       <c r="AA14" s="16"/>
       <c r="AB14" s="16"/>
-      <c r="AF14" s="102"/>
-      <c r="AG14" s="103"/>
-      <c r="AH14" s="103"/>
-      <c r="AI14" s="103"/>
-      <c r="AJ14" s="103"/>
-      <c r="AK14" s="103"/>
-      <c r="AL14" s="104"/>
+      <c r="AF14" s="78"/>
+      <c r="AG14" s="79"/>
+      <c r="AH14" s="79"/>
+      <c r="AI14" s="79"/>
+      <c r="AJ14" s="79"/>
+      <c r="AK14" s="79"/>
+      <c r="AL14" s="80"/>
     </row>
     <row r="15" spans="5:38" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E15" s="126" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="127"/>
-      <c r="G15" s="127"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="127"/>
-      <c r="J15" s="127"/>
-      <c r="K15" s="128"/>
-      <c r="L15" s="125"/>
-      <c r="M15" s="125"/>
-      <c r="N15" s="125"/>
-      <c r="O15" s="125"/>
-      <c r="P15" s="125"/>
-      <c r="Q15" s="125"/>
-      <c r="R15" s="125"/>
-      <c r="S15" s="125"/>
+      <c r="E15" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="100"/>
+      <c r="G15" s="100"/>
+      <c r="H15" s="100"/>
+      <c r="I15" s="100"/>
+      <c r="J15" s="100"/>
+      <c r="K15" s="101"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="64"/>
+      <c r="P15" s="64"/>
+      <c r="Q15" s="64"/>
+      <c r="R15" s="64"/>
+      <c r="S15" s="64"/>
       <c r="T15" s="16"/>
       <c r="U15" s="16"/>
       <c r="V15" s="16"/>
@@ -2420,125 +2420,125 @@
       <c r="Z15" s="16"/>
       <c r="AA15" s="16"/>
       <c r="AB15" s="16"/>
-      <c r="AF15" s="102"/>
-      <c r="AG15" s="103"/>
-      <c r="AH15" s="103"/>
-      <c r="AI15" s="103"/>
-      <c r="AJ15" s="103"/>
-      <c r="AK15" s="103"/>
-      <c r="AL15" s="104"/>
+      <c r="AF15" s="78"/>
+      <c r="AG15" s="79"/>
+      <c r="AH15" s="79"/>
+      <c r="AI15" s="79"/>
+      <c r="AJ15" s="79"/>
+      <c r="AK15" s="79"/>
+      <c r="AL15" s="80"/>
     </row>
     <row r="16" spans="5:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E16" s="9"/>
-      <c r="AF16" s="102"/>
-      <c r="AG16" s="103"/>
-      <c r="AH16" s="103"/>
-      <c r="AI16" s="103"/>
-      <c r="AJ16" s="103"/>
-      <c r="AK16" s="103"/>
-      <c r="AL16" s="104"/>
+      <c r="AF16" s="78"/>
+      <c r="AG16" s="79"/>
+      <c r="AH16" s="79"/>
+      <c r="AI16" s="79"/>
+      <c r="AJ16" s="79"/>
+      <c r="AK16" s="79"/>
+      <c r="AL16" s="80"/>
     </row>
     <row r="17" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E17" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="AF17" s="102"/>
-      <c r="AG17" s="103"/>
-      <c r="AH17" s="103"/>
-      <c r="AI17" s="103"/>
-      <c r="AJ17" s="103"/>
-      <c r="AK17" s="103"/>
-      <c r="AL17" s="104"/>
+      <c r="AF17" s="78"/>
+      <c r="AG17" s="79"/>
+      <c r="AH17" s="79"/>
+      <c r="AI17" s="79"/>
+      <c r="AJ17" s="79"/>
+      <c r="AK17" s="79"/>
+      <c r="AL17" s="80"/>
     </row>
     <row r="18" spans="1:38" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E18" s="9"/>
-      <c r="AF18" s="102"/>
-      <c r="AG18" s="103"/>
-      <c r="AH18" s="103"/>
-      <c r="AI18" s="103"/>
-      <c r="AJ18" s="103"/>
-      <c r="AK18" s="103"/>
-      <c r="AL18" s="104"/>
+      <c r="AF18" s="78"/>
+      <c r="AG18" s="79"/>
+      <c r="AH18" s="79"/>
+      <c r="AI18" s="79"/>
+      <c r="AJ18" s="79"/>
+      <c r="AK18" s="79"/>
+      <c r="AL18" s="80"/>
     </row>
     <row r="19" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C19" s="1"/>
-      <c r="E19" s="96" t="s">
-        <v>53</v>
-      </c>
-      <c r="F19" s="97"/>
-      <c r="G19" s="97"/>
-      <c r="H19" s="97"/>
-      <c r="I19" s="97"/>
-      <c r="J19" s="98"/>
-      <c r="AF19" s="102"/>
-      <c r="AG19" s="103"/>
-      <c r="AH19" s="103"/>
-      <c r="AI19" s="103"/>
-      <c r="AJ19" s="103"/>
-      <c r="AK19" s="103"/>
-      <c r="AL19" s="104"/>
+      <c r="E19" s="126" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="127"/>
+      <c r="G19" s="127"/>
+      <c r="H19" s="127"/>
+      <c r="I19" s="127"/>
+      <c r="J19" s="128"/>
+      <c r="AF19" s="78"/>
+      <c r="AG19" s="79"/>
+      <c r="AH19" s="79"/>
+      <c r="AI19" s="79"/>
+      <c r="AJ19" s="79"/>
+      <c r="AK19" s="79"/>
+      <c r="AL19" s="80"/>
     </row>
     <row r="20" spans="1:38" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C20" s="1"/>
       <c r="E20" s="9"/>
       <c r="M20" s="12"/>
       <c r="Q20" s="12"/>
-      <c r="AF20" s="102"/>
-      <c r="AG20" s="103"/>
-      <c r="AH20" s="103"/>
-      <c r="AI20" s="103"/>
-      <c r="AJ20" s="103"/>
-      <c r="AK20" s="103"/>
-      <c r="AL20" s="104"/>
+      <c r="AF20" s="78"/>
+      <c r="AG20" s="79"/>
+      <c r="AH20" s="79"/>
+      <c r="AI20" s="79"/>
+      <c r="AJ20" s="79"/>
+      <c r="AK20" s="79"/>
+      <c r="AL20" s="80"/>
     </row>
     <row r="21" spans="1:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="72" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="73"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="73"/>
-      <c r="I21" s="73"/>
-      <c r="J21" s="73"/>
-      <c r="K21" s="73"/>
-      <c r="L21" s="73"/>
-      <c r="M21" s="73"/>
-      <c r="N21" s="73"/>
-      <c r="O21" s="73"/>
-      <c r="P21" s="73"/>
-      <c r="Q21" s="73"/>
-      <c r="R21" s="73"/>
-      <c r="S21" s="73"/>
-      <c r="T21" s="73"/>
-      <c r="U21" s="73"/>
-      <c r="V21" s="73"/>
-      <c r="W21" s="73"/>
-      <c r="X21" s="73"/>
-      <c r="Y21" s="73"/>
-      <c r="Z21" s="73"/>
-      <c r="AA21" s="73"/>
-      <c r="AB21" s="73"/>
-      <c r="AC21" s="73"/>
-      <c r="AD21" s="74"/>
-      <c r="AF21" s="102"/>
-      <c r="AG21" s="103"/>
-      <c r="AH21" s="103"/>
-      <c r="AI21" s="103"/>
-      <c r="AJ21" s="103"/>
-      <c r="AK21" s="103"/>
-      <c r="AL21" s="104"/>
+      <c r="B21" s="104" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="105"/>
+      <c r="D21" s="105"/>
+      <c r="E21" s="105"/>
+      <c r="F21" s="105"/>
+      <c r="G21" s="105"/>
+      <c r="H21" s="105"/>
+      <c r="I21" s="105"/>
+      <c r="J21" s="105"/>
+      <c r="K21" s="105"/>
+      <c r="L21" s="105"/>
+      <c r="M21" s="105"/>
+      <c r="N21" s="105"/>
+      <c r="O21" s="105"/>
+      <c r="P21" s="105"/>
+      <c r="Q21" s="105"/>
+      <c r="R21" s="105"/>
+      <c r="S21" s="105"/>
+      <c r="T21" s="105"/>
+      <c r="U21" s="105"/>
+      <c r="V21" s="105"/>
+      <c r="W21" s="105"/>
+      <c r="X21" s="105"/>
+      <c r="Y21" s="105"/>
+      <c r="Z21" s="105"/>
+      <c r="AA21" s="105"/>
+      <c r="AB21" s="105"/>
+      <c r="AC21" s="105"/>
+      <c r="AD21" s="106"/>
+      <c r="AF21" s="78"/>
+      <c r="AG21" s="79"/>
+      <c r="AH21" s="79"/>
+      <c r="AI21" s="79"/>
+      <c r="AJ21" s="79"/>
+      <c r="AK21" s="79"/>
+      <c r="AL21" s="80"/>
     </row>
     <row r="22" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AF22" s="102"/>
-      <c r="AG22" s="103"/>
-      <c r="AH22" s="103"/>
-      <c r="AI22" s="103"/>
-      <c r="AJ22" s="103"/>
-      <c r="AK22" s="103"/>
-      <c r="AL22" s="104"/>
+      <c r="AF22" s="78"/>
+      <c r="AG22" s="79"/>
+      <c r="AH22" s="79"/>
+      <c r="AI22" s="79"/>
+      <c r="AJ22" s="79"/>
+      <c r="AK22" s="79"/>
+      <c r="AL22" s="80"/>
     </row>
     <row r="23" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="17"/>
@@ -2546,203 +2546,203 @@
       <c r="C23" s="55"/>
       <c r="D23" s="56"/>
       <c r="E23" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" s="84" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" s="84"/>
+      <c r="H23" s="84"/>
+      <c r="I23" s="84"/>
+      <c r="J23" s="84"/>
+      <c r="K23" s="84"/>
+      <c r="L23" s="84"/>
+      <c r="M23" s="84"/>
+      <c r="N23" s="84"/>
+      <c r="O23" s="84"/>
+      <c r="P23" s="84"/>
+      <c r="Q23" s="84"/>
+      <c r="R23" s="62"/>
+      <c r="S23" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="T23" s="84"/>
+      <c r="U23" s="84"/>
+      <c r="V23" s="84"/>
+      <c r="W23" s="84"/>
+      <c r="X23" s="84"/>
+      <c r="Y23" s="84"/>
+      <c r="Z23" s="84"/>
+      <c r="AA23" s="84"/>
+      <c r="AB23" s="84"/>
+      <c r="AC23" s="84"/>
+      <c r="AD23" s="85"/>
+      <c r="AE23" s="15"/>
+      <c r="AF23" s="78"/>
+      <c r="AG23" s="79"/>
+      <c r="AH23" s="79"/>
+      <c r="AI23" s="79"/>
+      <c r="AJ23" s="79"/>
+      <c r="AK23" s="79"/>
+      <c r="AL23" s="80"/>
+    </row>
+    <row r="24" spans="1:38" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="102" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="114" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="116" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="118" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" s="86" t="s">
+        <v>2</v>
+      </c>
+      <c r="G24" s="87"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="88"/>
+      <c r="J24" s="89" t="s">
+        <v>3</v>
+      </c>
+      <c r="K24" s="90"/>
+      <c r="L24" s="90"/>
+      <c r="M24" s="90"/>
+      <c r="N24" s="86" t="s">
+        <v>4</v>
+      </c>
+      <c r="O24" s="87"/>
+      <c r="P24" s="87"/>
+      <c r="Q24" s="88"/>
+      <c r="R24" s="120" t="s">
+        <v>33</v>
+      </c>
+      <c r="S24" s="90" t="s">
+        <v>2</v>
+      </c>
+      <c r="T24" s="90"/>
+      <c r="U24" s="90"/>
+      <c r="V24" s="113"/>
+      <c r="W24" s="89" t="s">
+        <v>3</v>
+      </c>
+      <c r="X24" s="90"/>
+      <c r="Y24" s="90"/>
+      <c r="Z24" s="113"/>
+      <c r="AA24" s="89" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB24" s="90"/>
+      <c r="AC24" s="90"/>
+      <c r="AD24" s="90"/>
+      <c r="AE24" s="34"/>
+      <c r="AF24" s="78"/>
+      <c r="AG24" s="79"/>
+      <c r="AH24" s="79"/>
+      <c r="AI24" s="79"/>
+      <c r="AJ24" s="79"/>
+      <c r="AK24" s="79"/>
+      <c r="AL24" s="80"/>
+    </row>
+    <row r="25" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="103"/>
+      <c r="C25" s="115"/>
+      <c r="D25" s="117"/>
+      <c r="E25" s="119"/>
+      <c r="F25" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="F23" s="108" t="s">
-        <v>34</v>
-      </c>
-      <c r="G23" s="108"/>
-      <c r="H23" s="108"/>
-      <c r="I23" s="108"/>
-      <c r="J23" s="108"/>
-      <c r="K23" s="108"/>
-      <c r="L23" s="108"/>
-      <c r="M23" s="108"/>
-      <c r="N23" s="108"/>
-      <c r="O23" s="108"/>
-      <c r="P23" s="108"/>
-      <c r="Q23" s="108"/>
-      <c r="R23" s="62"/>
-      <c r="S23" s="108" t="s">
-        <v>35</v>
-      </c>
-      <c r="T23" s="108"/>
-      <c r="U23" s="108"/>
-      <c r="V23" s="108"/>
-      <c r="W23" s="108"/>
-      <c r="X23" s="108"/>
-      <c r="Y23" s="108"/>
-      <c r="Z23" s="108"/>
-      <c r="AA23" s="108"/>
-      <c r="AB23" s="108"/>
-      <c r="AC23" s="108"/>
-      <c r="AD23" s="109"/>
-      <c r="AE23" s="15"/>
-      <c r="AF23" s="102"/>
-      <c r="AG23" s="103"/>
-      <c r="AH23" s="103"/>
-      <c r="AI23" s="103"/>
-      <c r="AJ23" s="103"/>
-      <c r="AK23" s="103"/>
-      <c r="AL23" s="104"/>
-    </row>
-    <row r="24" spans="1:38" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="70" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="84" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="86" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="88" t="s">
-        <v>50</v>
-      </c>
-      <c r="F24" s="113" t="s">
-        <v>2</v>
-      </c>
-      <c r="G24" s="114"/>
-      <c r="H24" s="114"/>
-      <c r="I24" s="115"/>
-      <c r="J24" s="81" t="s">
-        <v>3</v>
-      </c>
-      <c r="K24" s="82"/>
-      <c r="L24" s="82"/>
-      <c r="M24" s="82"/>
-      <c r="N24" s="113" t="s">
-        <v>4</v>
-      </c>
-      <c r="O24" s="114"/>
-      <c r="P24" s="114"/>
-      <c r="Q24" s="115"/>
-      <c r="R24" s="90" t="s">
-        <v>33</v>
-      </c>
-      <c r="S24" s="82" t="s">
-        <v>2</v>
-      </c>
-      <c r="T24" s="82"/>
-      <c r="U24" s="82"/>
-      <c r="V24" s="83"/>
-      <c r="W24" s="81" t="s">
-        <v>3</v>
-      </c>
-      <c r="X24" s="82"/>
-      <c r="Y24" s="82"/>
-      <c r="Z24" s="83"/>
-      <c r="AA24" s="81" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB24" s="82"/>
-      <c r="AC24" s="82"/>
-      <c r="AD24" s="82"/>
-      <c r="AE24" s="34"/>
-      <c r="AF24" s="102"/>
-      <c r="AG24" s="103"/>
-      <c r="AH24" s="103"/>
-      <c r="AI24" s="103"/>
-      <c r="AJ24" s="103"/>
-      <c r="AK24" s="103"/>
-      <c r="AL24" s="104"/>
-    </row>
-    <row r="25" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="71"/>
-      <c r="C25" s="85"/>
-      <c r="D25" s="87"/>
-      <c r="E25" s="89"/>
-      <c r="F25" s="24" t="s">
+      <c r="G25" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="G25" s="21" t="s">
+      <c r="H25" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="H25" s="21" t="s">
+      <c r="I25" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="I25" s="22" t="s">
-        <v>47</v>
-      </c>
       <c r="J25" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="K25" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="K25" s="21" t="s">
+      <c r="L25" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="L25" s="21" t="s">
+      <c r="M25" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="M25" s="22" t="s">
-        <v>47</v>
-      </c>
       <c r="N25" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="O25" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="O25" s="21" t="s">
+      <c r="P25" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="P25" s="21" t="s">
+      <c r="Q25" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="Q25" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="R25" s="91"/>
+      <c r="R25" s="121"/>
       <c r="S25" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="T25" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="T25" s="18" t="s">
+      <c r="U25" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="U25" s="23" t="s">
+      <c r="V25" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="V25" s="20" t="s">
-        <v>47</v>
-      </c>
       <c r="W25" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="X25" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="X25" s="18" t="s">
+      <c r="Y25" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="Y25" s="21" t="s">
+      <c r="Z25" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="Z25" s="22" t="s">
-        <v>47</v>
-      </c>
       <c r="AA25" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB25" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="AB25" s="21" t="s">
+      <c r="AC25" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="AC25" s="21" t="s">
+      <c r="AD25" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="AD25" s="21" t="s">
-        <v>47</v>
-      </c>
       <c r="AE25" s="34"/>
-      <c r="AF25" s="102"/>
-      <c r="AG25" s="103"/>
-      <c r="AH25" s="103"/>
-      <c r="AI25" s="103"/>
-      <c r="AJ25" s="103"/>
-      <c r="AK25" s="103"/>
-      <c r="AL25" s="104"/>
+      <c r="AF25" s="78"/>
+      <c r="AG25" s="79"/>
+      <c r="AH25" s="79"/>
+      <c r="AI25" s="79"/>
+      <c r="AJ25" s="79"/>
+      <c r="AK25" s="79"/>
+      <c r="AL25" s="80"/>
     </row>
     <row r="26" spans="1:38" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A26" s="17"/>
       <c r="B26" s="52">
         <v>1</v>
       </c>
-      <c r="C26" s="122" t="s">
+      <c r="C26" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="110" t="s">
+      <c r="D26" s="67" t="s">
         <v>6</v>
       </c>
       <c r="E26" s="47" t="s">
@@ -2776,21 +2776,21 @@
       <c r="AC26" s="25"/>
       <c r="AD26" s="6"/>
       <c r="AE26" s="10"/>
-      <c r="AF26" s="102"/>
-      <c r="AG26" s="103"/>
-      <c r="AH26" s="103"/>
-      <c r="AI26" s="103"/>
-      <c r="AJ26" s="103"/>
-      <c r="AK26" s="103"/>
-      <c r="AL26" s="104"/>
+      <c r="AF26" s="78"/>
+      <c r="AG26" s="79"/>
+      <c r="AH26" s="79"/>
+      <c r="AI26" s="79"/>
+      <c r="AJ26" s="79"/>
+      <c r="AK26" s="79"/>
+      <c r="AL26" s="80"/>
     </row>
     <row r="27" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17"/>
       <c r="B27" s="53">
         <v>2</v>
       </c>
-      <c r="C27" s="122"/>
-      <c r="D27" s="110"/>
+      <c r="C27" s="73"/>
+      <c r="D27" s="67"/>
       <c r="E27" s="48" t="s">
         <v>8</v>
       </c>
@@ -2822,21 +2822,21 @@
       <c r="AC27" s="26"/>
       <c r="AD27" s="6"/>
       <c r="AE27" s="10"/>
-      <c r="AF27" s="102"/>
-      <c r="AG27" s="103"/>
-      <c r="AH27" s="103"/>
-      <c r="AI27" s="103"/>
-      <c r="AJ27" s="103"/>
-      <c r="AK27" s="103"/>
-      <c r="AL27" s="104"/>
+      <c r="AF27" s="78"/>
+      <c r="AG27" s="79"/>
+      <c r="AH27" s="79"/>
+      <c r="AI27" s="79"/>
+      <c r="AJ27" s="79"/>
+      <c r="AK27" s="79"/>
+      <c r="AL27" s="80"/>
     </row>
     <row r="28" spans="1:38" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="17"/>
       <c r="B28" s="53">
         <v>3</v>
       </c>
-      <c r="C28" s="122"/>
-      <c r="D28" s="111"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="68"/>
       <c r="E28" s="49" t="s">
         <v>9</v>
       </c>
@@ -2868,21 +2868,21 @@
       <c r="AC28" s="27"/>
       <c r="AD28" s="8"/>
       <c r="AE28" s="10"/>
-      <c r="AF28" s="102"/>
-      <c r="AG28" s="103"/>
-      <c r="AH28" s="103"/>
-      <c r="AI28" s="103"/>
-      <c r="AJ28" s="103"/>
-      <c r="AK28" s="103"/>
-      <c r="AL28" s="104"/>
+      <c r="AF28" s="78"/>
+      <c r="AG28" s="79"/>
+      <c r="AH28" s="79"/>
+      <c r="AI28" s="79"/>
+      <c r="AJ28" s="79"/>
+      <c r="AK28" s="79"/>
+      <c r="AL28" s="80"/>
     </row>
     <row r="29" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17"/>
       <c r="B29" s="53">
         <v>4</v>
       </c>
-      <c r="C29" s="122"/>
-      <c r="D29" s="112" t="s">
+      <c r="C29" s="73"/>
+      <c r="D29" s="66" t="s">
         <v>18</v>
       </c>
       <c r="E29" s="48" t="s">
@@ -2916,21 +2916,21 @@
       <c r="AC29" s="26"/>
       <c r="AD29" s="6"/>
       <c r="AE29" s="10"/>
-      <c r="AF29" s="102"/>
-      <c r="AG29" s="103"/>
-      <c r="AH29" s="103"/>
-      <c r="AI29" s="103"/>
-      <c r="AJ29" s="103"/>
-      <c r="AK29" s="103"/>
-      <c r="AL29" s="104"/>
+      <c r="AF29" s="78"/>
+      <c r="AG29" s="79"/>
+      <c r="AH29" s="79"/>
+      <c r="AI29" s="79"/>
+      <c r="AJ29" s="79"/>
+      <c r="AK29" s="79"/>
+      <c r="AL29" s="80"/>
     </row>
     <row r="30" spans="1:38" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="17"/>
       <c r="B30" s="53">
         <v>5</v>
       </c>
-      <c r="C30" s="122"/>
-      <c r="D30" s="110"/>
+      <c r="C30" s="73"/>
+      <c r="D30" s="67"/>
       <c r="E30" s="48" t="s">
         <v>13</v>
       </c>
@@ -2962,21 +2962,21 @@
       <c r="AC30" s="26"/>
       <c r="AD30" s="6"/>
       <c r="AE30" s="10"/>
-      <c r="AF30" s="105"/>
-      <c r="AG30" s="106"/>
-      <c r="AH30" s="106"/>
-      <c r="AI30" s="106"/>
-      <c r="AJ30" s="106"/>
-      <c r="AK30" s="106"/>
-      <c r="AL30" s="107"/>
+      <c r="AF30" s="81"/>
+      <c r="AG30" s="82"/>
+      <c r="AH30" s="82"/>
+      <c r="AI30" s="82"/>
+      <c r="AJ30" s="82"/>
+      <c r="AK30" s="82"/>
+      <c r="AL30" s="83"/>
     </row>
     <row r="31" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="17"/>
       <c r="B31" s="53">
         <v>6</v>
       </c>
-      <c r="C31" s="122"/>
-      <c r="D31" s="110"/>
+      <c r="C31" s="73"/>
+      <c r="D31" s="67"/>
       <c r="E31" s="48" t="s">
         <v>10</v>
       </c>
@@ -3021,8 +3021,8 @@
       <c r="B32" s="53">
         <v>7</v>
       </c>
-      <c r="C32" s="122"/>
-      <c r="D32" s="110"/>
+      <c r="C32" s="73"/>
+      <c r="D32" s="67"/>
       <c r="E32" s="48" t="s">
         <v>11</v>
       </c>
@@ -3067,8 +3067,8 @@
       <c r="B33" s="53">
         <v>8</v>
       </c>
-      <c r="C33" s="122"/>
-      <c r="D33" s="110"/>
+      <c r="C33" s="73"/>
+      <c r="D33" s="67"/>
       <c r="E33" s="48" t="s">
         <v>21</v>
       </c>
@@ -3113,8 +3113,8 @@
       <c r="B34" s="53">
         <v>9</v>
       </c>
-      <c r="C34" s="122"/>
-      <c r="D34" s="110"/>
+      <c r="C34" s="73"/>
+      <c r="D34" s="67"/>
       <c r="E34" s="48" t="s">
         <v>22</v>
       </c>
@@ -3159,8 +3159,8 @@
       <c r="B35" s="53">
         <v>10</v>
       </c>
-      <c r="C35" s="122"/>
-      <c r="D35" s="110"/>
+      <c r="C35" s="73"/>
+      <c r="D35" s="67"/>
       <c r="E35" s="48" t="s">
         <v>23</v>
       </c>
@@ -3205,8 +3205,8 @@
       <c r="B36" s="53">
         <v>11</v>
       </c>
-      <c r="C36" s="122"/>
-      <c r="D36" s="110"/>
+      <c r="C36" s="73"/>
+      <c r="D36" s="67"/>
       <c r="E36" s="48" t="s">
         <v>14</v>
       </c>
@@ -3244,8 +3244,8 @@
       <c r="B37" s="53">
         <v>12</v>
       </c>
-      <c r="C37" s="122"/>
-      <c r="D37" s="110"/>
+      <c r="C37" s="73"/>
+      <c r="D37" s="67"/>
       <c r="E37" s="48" t="s">
         <v>16</v>
       </c>
@@ -3283,8 +3283,8 @@
       <c r="B38" s="53">
         <v>13</v>
       </c>
-      <c r="C38" s="122"/>
-      <c r="D38" s="110"/>
+      <c r="C38" s="73"/>
+      <c r="D38" s="67"/>
       <c r="E38" s="48" t="s">
         <v>15</v>
       </c>
@@ -3323,8 +3323,8 @@
       <c r="B39" s="53">
         <v>14</v>
       </c>
-      <c r="C39" s="122"/>
-      <c r="D39" s="110"/>
+      <c r="C39" s="73"/>
+      <c r="D39" s="67"/>
       <c r="E39" s="48" t="s">
         <v>17</v>
       </c>
@@ -3362,50 +3362,50 @@
       <c r="B40" s="53">
         <v>15</v>
       </c>
-      <c r="C40" s="122"/>
-      <c r="D40" s="110"/>
+      <c r="C40" s="73"/>
+      <c r="D40" s="67"/>
       <c r="E40" s="48" t="s">
         <v>36</v>
       </c>
       <c r="F40" s="43"/>
-      <c r="G40" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="H40" s="64"/>
-      <c r="I40" s="65"/>
+      <c r="G40" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="H40" s="94"/>
+      <c r="I40" s="95"/>
       <c r="J40" s="30"/>
-      <c r="K40" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="L40" s="64"/>
-      <c r="M40" s="65"/>
+      <c r="K40" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="L40" s="94"/>
+      <c r="M40" s="95"/>
       <c r="N40" s="30"/>
-      <c r="O40" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="P40" s="64"/>
-      <c r="Q40" s="65"/>
+      <c r="O40" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="P40" s="94"/>
+      <c r="Q40" s="95"/>
       <c r="R40" s="38">
         <v>177</v>
       </c>
       <c r="S40" s="30"/>
-      <c r="T40" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="U40" s="64"/>
-      <c r="V40" s="65"/>
+      <c r="T40" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="U40" s="94"/>
+      <c r="V40" s="95"/>
       <c r="W40" s="30"/>
-      <c r="X40" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y40" s="64"/>
-      <c r="Z40" s="65"/>
+      <c r="X40" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y40" s="94"/>
+      <c r="Z40" s="95"/>
       <c r="AA40" s="30"/>
-      <c r="AB40" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC40" s="64"/>
-      <c r="AD40" s="65"/>
+      <c r="AB40" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC40" s="94"/>
+      <c r="AD40" s="95"/>
       <c r="AE40" s="10"/>
     </row>
     <row r="41" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3413,38 +3413,38 @@
       <c r="B41" s="53">
         <v>16</v>
       </c>
-      <c r="C41" s="122"/>
-      <c r="D41" s="110"/>
+      <c r="C41" s="73"/>
+      <c r="D41" s="67"/>
       <c r="E41" s="48" t="s">
         <v>37</v>
       </c>
       <c r="F41" s="43"/>
-      <c r="G41" s="66"/>
-      <c r="H41" s="64"/>
-      <c r="I41" s="65"/>
+      <c r="G41" s="96"/>
+      <c r="H41" s="94"/>
+      <c r="I41" s="95"/>
       <c r="J41" s="30"/>
-      <c r="K41" s="66"/>
-      <c r="L41" s="64"/>
-      <c r="M41" s="65"/>
+      <c r="K41" s="96"/>
+      <c r="L41" s="94"/>
+      <c r="M41" s="95"/>
       <c r="N41" s="30"/>
-      <c r="O41" s="66"/>
-      <c r="P41" s="64"/>
-      <c r="Q41" s="65"/>
+      <c r="O41" s="96"/>
+      <c r="P41" s="94"/>
+      <c r="Q41" s="95"/>
       <c r="R41" s="38">
         <v>178</v>
       </c>
       <c r="S41" s="30"/>
-      <c r="T41" s="66"/>
-      <c r="U41" s="64"/>
-      <c r="V41" s="65"/>
+      <c r="T41" s="96"/>
+      <c r="U41" s="94"/>
+      <c r="V41" s="95"/>
       <c r="W41" s="30"/>
-      <c r="X41" s="66"/>
-      <c r="Y41" s="64"/>
-      <c r="Z41" s="65"/>
+      <c r="X41" s="96"/>
+      <c r="Y41" s="94"/>
+      <c r="Z41" s="95"/>
       <c r="AA41" s="30"/>
-      <c r="AB41" s="66"/>
-      <c r="AC41" s="64"/>
-      <c r="AD41" s="65"/>
+      <c r="AB41" s="96"/>
+      <c r="AC41" s="94"/>
+      <c r="AD41" s="95"/>
       <c r="AE41" s="10"/>
     </row>
     <row r="42" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3452,38 +3452,38 @@
       <c r="B42" s="53">
         <v>17</v>
       </c>
-      <c r="C42" s="122"/>
-      <c r="D42" s="110"/>
+      <c r="C42" s="73"/>
+      <c r="D42" s="67"/>
       <c r="E42" s="48" t="s">
         <v>38</v>
       </c>
       <c r="F42" s="43"/>
-      <c r="G42" s="66"/>
-      <c r="H42" s="64"/>
-      <c r="I42" s="65"/>
+      <c r="G42" s="96"/>
+      <c r="H42" s="94"/>
+      <c r="I42" s="95"/>
       <c r="J42" s="30"/>
-      <c r="K42" s="66"/>
-      <c r="L42" s="64"/>
-      <c r="M42" s="65"/>
+      <c r="K42" s="96"/>
+      <c r="L42" s="94"/>
+      <c r="M42" s="95"/>
       <c r="N42" s="30"/>
-      <c r="O42" s="66"/>
-      <c r="P42" s="64"/>
-      <c r="Q42" s="65"/>
+      <c r="O42" s="96"/>
+      <c r="P42" s="94"/>
+      <c r="Q42" s="95"/>
       <c r="R42" s="38">
         <v>179</v>
       </c>
       <c r="S42" s="30"/>
-      <c r="T42" s="66"/>
-      <c r="U42" s="64"/>
-      <c r="V42" s="65"/>
+      <c r="T42" s="96"/>
+      <c r="U42" s="94"/>
+      <c r="V42" s="95"/>
       <c r="W42" s="30"/>
-      <c r="X42" s="66"/>
-      <c r="Y42" s="64"/>
-      <c r="Z42" s="65"/>
+      <c r="X42" s="96"/>
+      <c r="Y42" s="94"/>
+      <c r="Z42" s="95"/>
       <c r="AA42" s="30"/>
-      <c r="AB42" s="66"/>
-      <c r="AC42" s="64"/>
-      <c r="AD42" s="65"/>
+      <c r="AB42" s="96"/>
+      <c r="AC42" s="94"/>
+      <c r="AD42" s="95"/>
       <c r="AE42" s="10"/>
     </row>
     <row r="43" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3491,38 +3491,38 @@
       <c r="B43" s="53">
         <v>18</v>
       </c>
-      <c r="C43" s="122"/>
-      <c r="D43" s="110"/>
+      <c r="C43" s="73"/>
+      <c r="D43" s="67"/>
       <c r="E43" s="48" t="s">
         <v>39</v>
       </c>
       <c r="F43" s="43"/>
-      <c r="G43" s="66"/>
-      <c r="H43" s="64"/>
-      <c r="I43" s="65"/>
+      <c r="G43" s="96"/>
+      <c r="H43" s="94"/>
+      <c r="I43" s="95"/>
       <c r="J43" s="30"/>
-      <c r="K43" s="66"/>
-      <c r="L43" s="64"/>
-      <c r="M43" s="65"/>
+      <c r="K43" s="96"/>
+      <c r="L43" s="94"/>
+      <c r="M43" s="95"/>
       <c r="N43" s="30"/>
-      <c r="O43" s="66"/>
-      <c r="P43" s="64"/>
-      <c r="Q43" s="65"/>
+      <c r="O43" s="96"/>
+      <c r="P43" s="94"/>
+      <c r="Q43" s="95"/>
       <c r="R43" s="38">
         <v>180</v>
       </c>
       <c r="S43" s="30"/>
-      <c r="T43" s="66"/>
-      <c r="U43" s="64"/>
-      <c r="V43" s="65"/>
+      <c r="T43" s="96"/>
+      <c r="U43" s="94"/>
+      <c r="V43" s="95"/>
       <c r="W43" s="30"/>
-      <c r="X43" s="66"/>
-      <c r="Y43" s="64"/>
-      <c r="Z43" s="65"/>
+      <c r="X43" s="96"/>
+      <c r="Y43" s="94"/>
+      <c r="Z43" s="95"/>
       <c r="AA43" s="30"/>
-      <c r="AB43" s="66"/>
-      <c r="AC43" s="64"/>
-      <c r="AD43" s="65"/>
+      <c r="AB43" s="96"/>
+      <c r="AC43" s="94"/>
+      <c r="AD43" s="95"/>
       <c r="AE43" s="10"/>
     </row>
     <row r="44" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3530,38 +3530,38 @@
       <c r="B44" s="53">
         <v>19</v>
       </c>
-      <c r="C44" s="122"/>
-      <c r="D44" s="110"/>
+      <c r="C44" s="73"/>
+      <c r="D44" s="67"/>
       <c r="E44" s="48" t="s">
         <v>40</v>
       </c>
       <c r="F44" s="43"/>
-      <c r="G44" s="66"/>
-      <c r="H44" s="64"/>
-      <c r="I44" s="65"/>
+      <c r="G44" s="96"/>
+      <c r="H44" s="94"/>
+      <c r="I44" s="95"/>
       <c r="J44" s="30"/>
-      <c r="K44" s="66"/>
-      <c r="L44" s="64"/>
-      <c r="M44" s="65"/>
+      <c r="K44" s="96"/>
+      <c r="L44" s="94"/>
+      <c r="M44" s="95"/>
       <c r="N44" s="30"/>
-      <c r="O44" s="66"/>
-      <c r="P44" s="64"/>
-      <c r="Q44" s="65"/>
+      <c r="O44" s="96"/>
+      <c r="P44" s="94"/>
+      <c r="Q44" s="95"/>
       <c r="R44" s="38">
         <v>181</v>
       </c>
       <c r="S44" s="30"/>
-      <c r="T44" s="66"/>
-      <c r="U44" s="64"/>
-      <c r="V44" s="65"/>
+      <c r="T44" s="96"/>
+      <c r="U44" s="94"/>
+      <c r="V44" s="95"/>
       <c r="W44" s="30"/>
-      <c r="X44" s="66"/>
-      <c r="Y44" s="64"/>
-      <c r="Z44" s="65"/>
+      <c r="X44" s="96"/>
+      <c r="Y44" s="94"/>
+      <c r="Z44" s="95"/>
       <c r="AA44" s="30"/>
-      <c r="AB44" s="66"/>
-      <c r="AC44" s="64"/>
-      <c r="AD44" s="65"/>
+      <c r="AB44" s="96"/>
+      <c r="AC44" s="94"/>
+      <c r="AD44" s="95"/>
       <c r="AE44" s="10"/>
     </row>
     <row r="45" spans="1:38" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3569,38 +3569,38 @@
       <c r="B45" s="53">
         <v>20</v>
       </c>
-      <c r="C45" s="122"/>
-      <c r="D45" s="111"/>
+      <c r="C45" s="73"/>
+      <c r="D45" s="68"/>
       <c r="E45" s="48" t="s">
         <v>41</v>
       </c>
       <c r="F45" s="44"/>
-      <c r="G45" s="67"/>
-      <c r="H45" s="68"/>
-      <c r="I45" s="69"/>
+      <c r="G45" s="97"/>
+      <c r="H45" s="98"/>
+      <c r="I45" s="99"/>
       <c r="J45" s="31"/>
-      <c r="K45" s="67"/>
-      <c r="L45" s="68"/>
-      <c r="M45" s="69"/>
+      <c r="K45" s="97"/>
+      <c r="L45" s="98"/>
+      <c r="M45" s="99"/>
       <c r="N45" s="31"/>
-      <c r="O45" s="67"/>
-      <c r="P45" s="68"/>
-      <c r="Q45" s="69"/>
+      <c r="O45" s="97"/>
+      <c r="P45" s="98"/>
+      <c r="Q45" s="99"/>
       <c r="R45" s="38">
         <v>182</v>
       </c>
       <c r="S45" s="30"/>
-      <c r="T45" s="67"/>
-      <c r="U45" s="68"/>
-      <c r="V45" s="69"/>
+      <c r="T45" s="97"/>
+      <c r="U45" s="98"/>
+      <c r="V45" s="99"/>
       <c r="W45" s="30"/>
-      <c r="X45" s="67"/>
-      <c r="Y45" s="68"/>
-      <c r="Z45" s="69"/>
+      <c r="X45" s="97"/>
+      <c r="Y45" s="98"/>
+      <c r="Z45" s="99"/>
       <c r="AA45" s="30"/>
-      <c r="AB45" s="67"/>
-      <c r="AC45" s="68"/>
-      <c r="AD45" s="69"/>
+      <c r="AB45" s="97"/>
+      <c r="AC45" s="98"/>
+      <c r="AD45" s="99"/>
       <c r="AE45" s="10"/>
     </row>
     <row r="46" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3608,8 +3608,8 @@
       <c r="B46" s="53">
         <v>21</v>
       </c>
-      <c r="C46" s="122"/>
-      <c r="D46" s="112" t="s">
+      <c r="C46" s="73"/>
+      <c r="D46" s="66" t="s">
         <v>19</v>
       </c>
       <c r="E46" s="50" t="s">
@@ -3649,8 +3649,8 @@
       <c r="B47" s="53">
         <v>22</v>
       </c>
-      <c r="C47" s="122"/>
-      <c r="D47" s="110"/>
+      <c r="C47" s="73"/>
+      <c r="D47" s="67"/>
       <c r="E47" s="48" t="s">
         <v>13</v>
       </c>
@@ -3688,8 +3688,8 @@
       <c r="B48" s="53">
         <v>23</v>
       </c>
-      <c r="C48" s="122"/>
-      <c r="D48" s="110"/>
+      <c r="C48" s="73"/>
+      <c r="D48" s="67"/>
       <c r="E48" s="48" t="s">
         <v>10</v>
       </c>
@@ -3727,8 +3727,8 @@
       <c r="B49" s="53">
         <v>24</v>
       </c>
-      <c r="C49" s="122"/>
-      <c r="D49" s="110"/>
+      <c r="C49" s="73"/>
+      <c r="D49" s="67"/>
       <c r="E49" s="48" t="s">
         <v>11</v>
       </c>
@@ -3766,8 +3766,8 @@
       <c r="B50" s="53">
         <v>25</v>
       </c>
-      <c r="C50" s="122"/>
-      <c r="D50" s="110"/>
+      <c r="C50" s="73"/>
+      <c r="D50" s="67"/>
       <c r="E50" s="48" t="s">
         <v>21</v>
       </c>
@@ -3805,8 +3805,8 @@
       <c r="B51" s="53">
         <v>26</v>
       </c>
-      <c r="C51" s="122"/>
-      <c r="D51" s="110"/>
+      <c r="C51" s="73"/>
+      <c r="D51" s="67"/>
       <c r="E51" s="48" t="s">
         <v>22</v>
       </c>
@@ -3844,8 +3844,8 @@
       <c r="B52" s="53">
         <v>27</v>
       </c>
-      <c r="C52" s="122"/>
-      <c r="D52" s="110"/>
+      <c r="C52" s="73"/>
+      <c r="D52" s="67"/>
       <c r="E52" s="48" t="s">
         <v>23</v>
       </c>
@@ -3883,8 +3883,8 @@
       <c r="B53" s="53">
         <v>28</v>
       </c>
-      <c r="C53" s="122"/>
-      <c r="D53" s="110"/>
+      <c r="C53" s="73"/>
+      <c r="D53" s="67"/>
       <c r="E53" s="48" t="s">
         <v>14</v>
       </c>
@@ -3922,8 +3922,8 @@
       <c r="B54" s="53">
         <v>29</v>
       </c>
-      <c r="C54" s="122"/>
-      <c r="D54" s="110"/>
+      <c r="C54" s="73"/>
+      <c r="D54" s="67"/>
       <c r="E54" s="48" t="s">
         <v>16</v>
       </c>
@@ -3961,8 +3961,8 @@
       <c r="B55" s="53">
         <v>30</v>
       </c>
-      <c r="C55" s="122"/>
-      <c r="D55" s="110"/>
+      <c r="C55" s="73"/>
+      <c r="D55" s="67"/>
       <c r="E55" s="48" t="s">
         <v>15</v>
       </c>
@@ -4000,8 +4000,8 @@
       <c r="B56" s="53">
         <v>31</v>
       </c>
-      <c r="C56" s="122"/>
-      <c r="D56" s="110"/>
+      <c r="C56" s="73"/>
+      <c r="D56" s="67"/>
       <c r="E56" s="48" t="s">
         <v>17</v>
       </c>
@@ -4039,50 +4039,50 @@
       <c r="B57" s="53">
         <v>32</v>
       </c>
-      <c r="C57" s="122"/>
-      <c r="D57" s="110"/>
+      <c r="C57" s="73"/>
+      <c r="D57" s="67"/>
       <c r="E57" s="48" t="s">
         <v>36</v>
       </c>
       <c r="F57" s="43"/>
-      <c r="G57" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="H57" s="64"/>
-      <c r="I57" s="65"/>
+      <c r="G57" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="H57" s="94"/>
+      <c r="I57" s="95"/>
       <c r="J57" s="30"/>
-      <c r="K57" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="L57" s="64"/>
-      <c r="M57" s="65"/>
+      <c r="K57" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="L57" s="94"/>
+      <c r="M57" s="95"/>
       <c r="N57" s="30"/>
-      <c r="O57" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="P57" s="64"/>
-      <c r="Q57" s="65"/>
+      <c r="O57" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="P57" s="94"/>
+      <c r="Q57" s="95"/>
       <c r="R57" s="38">
         <v>194</v>
       </c>
       <c r="S57" s="30"/>
-      <c r="T57" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="U57" s="64"/>
-      <c r="V57" s="65"/>
+      <c r="T57" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="U57" s="94"/>
+      <c r="V57" s="95"/>
       <c r="W57" s="30"/>
-      <c r="X57" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y57" s="64"/>
-      <c r="Z57" s="65"/>
+      <c r="X57" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y57" s="94"/>
+      <c r="Z57" s="95"/>
       <c r="AA57" s="30"/>
-      <c r="AB57" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC57" s="64"/>
-      <c r="AD57" s="65"/>
+      <c r="AB57" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC57" s="94"/>
+      <c r="AD57" s="95"/>
       <c r="AE57" s="10"/>
     </row>
     <row r="58" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4090,38 +4090,38 @@
       <c r="B58" s="53">
         <v>33</v>
       </c>
-      <c r="C58" s="122"/>
-      <c r="D58" s="110"/>
+      <c r="C58" s="73"/>
+      <c r="D58" s="67"/>
       <c r="E58" s="48" t="s">
         <v>37</v>
       </c>
       <c r="F58" s="43"/>
-      <c r="G58" s="66"/>
-      <c r="H58" s="64"/>
-      <c r="I58" s="65"/>
+      <c r="G58" s="96"/>
+      <c r="H58" s="94"/>
+      <c r="I58" s="95"/>
       <c r="J58" s="30"/>
-      <c r="K58" s="66"/>
-      <c r="L58" s="64"/>
-      <c r="M58" s="65"/>
+      <c r="K58" s="96"/>
+      <c r="L58" s="94"/>
+      <c r="M58" s="95"/>
       <c r="N58" s="30"/>
-      <c r="O58" s="66"/>
-      <c r="P58" s="64"/>
-      <c r="Q58" s="65"/>
+      <c r="O58" s="96"/>
+      <c r="P58" s="94"/>
+      <c r="Q58" s="95"/>
       <c r="R58" s="38">
         <v>195</v>
       </c>
       <c r="S58" s="30"/>
-      <c r="T58" s="66"/>
-      <c r="U58" s="64"/>
-      <c r="V58" s="65"/>
+      <c r="T58" s="96"/>
+      <c r="U58" s="94"/>
+      <c r="V58" s="95"/>
       <c r="W58" s="30"/>
-      <c r="X58" s="66"/>
-      <c r="Y58" s="64"/>
-      <c r="Z58" s="65"/>
+      <c r="X58" s="96"/>
+      <c r="Y58" s="94"/>
+      <c r="Z58" s="95"/>
       <c r="AA58" s="30"/>
-      <c r="AB58" s="66"/>
-      <c r="AC58" s="64"/>
-      <c r="AD58" s="65"/>
+      <c r="AB58" s="96"/>
+      <c r="AC58" s="94"/>
+      <c r="AD58" s="95"/>
       <c r="AE58" s="10"/>
     </row>
     <row r="59" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4129,38 +4129,38 @@
       <c r="B59" s="53">
         <v>34</v>
       </c>
-      <c r="C59" s="122"/>
-      <c r="D59" s="110"/>
+      <c r="C59" s="73"/>
+      <c r="D59" s="67"/>
       <c r="E59" s="48" t="s">
         <v>38</v>
       </c>
       <c r="F59" s="43"/>
-      <c r="G59" s="66"/>
-      <c r="H59" s="64"/>
-      <c r="I59" s="65"/>
+      <c r="G59" s="96"/>
+      <c r="H59" s="94"/>
+      <c r="I59" s="95"/>
       <c r="J59" s="30"/>
-      <c r="K59" s="66"/>
-      <c r="L59" s="64"/>
-      <c r="M59" s="65"/>
+      <c r="K59" s="96"/>
+      <c r="L59" s="94"/>
+      <c r="M59" s="95"/>
       <c r="N59" s="30"/>
-      <c r="O59" s="66"/>
-      <c r="P59" s="64"/>
-      <c r="Q59" s="65"/>
+      <c r="O59" s="96"/>
+      <c r="P59" s="94"/>
+      <c r="Q59" s="95"/>
       <c r="R59" s="38">
         <v>196</v>
       </c>
       <c r="S59" s="30"/>
-      <c r="T59" s="66"/>
-      <c r="U59" s="64"/>
-      <c r="V59" s="65"/>
+      <c r="T59" s="96"/>
+      <c r="U59" s="94"/>
+      <c r="V59" s="95"/>
       <c r="W59" s="30"/>
-      <c r="X59" s="66"/>
-      <c r="Y59" s="64"/>
-      <c r="Z59" s="65"/>
+      <c r="X59" s="96"/>
+      <c r="Y59" s="94"/>
+      <c r="Z59" s="95"/>
       <c r="AA59" s="30"/>
-      <c r="AB59" s="66"/>
-      <c r="AC59" s="64"/>
-      <c r="AD59" s="65"/>
+      <c r="AB59" s="96"/>
+      <c r="AC59" s="94"/>
+      <c r="AD59" s="95"/>
       <c r="AE59" s="10"/>
     </row>
     <row r="60" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4168,38 +4168,38 @@
       <c r="B60" s="53">
         <v>35</v>
       </c>
-      <c r="C60" s="122"/>
-      <c r="D60" s="110"/>
+      <c r="C60" s="73"/>
+      <c r="D60" s="67"/>
       <c r="E60" s="48" t="s">
         <v>39</v>
       </c>
       <c r="F60" s="43"/>
-      <c r="G60" s="66"/>
-      <c r="H60" s="64"/>
-      <c r="I60" s="65"/>
+      <c r="G60" s="96"/>
+      <c r="H60" s="94"/>
+      <c r="I60" s="95"/>
       <c r="J60" s="30"/>
-      <c r="K60" s="66"/>
-      <c r="L60" s="64"/>
-      <c r="M60" s="65"/>
+      <c r="K60" s="96"/>
+      <c r="L60" s="94"/>
+      <c r="M60" s="95"/>
       <c r="N60" s="30"/>
-      <c r="O60" s="66"/>
-      <c r="P60" s="64"/>
-      <c r="Q60" s="65"/>
+      <c r="O60" s="96"/>
+      <c r="P60" s="94"/>
+      <c r="Q60" s="95"/>
       <c r="R60" s="38">
         <v>197</v>
       </c>
       <c r="S60" s="30"/>
-      <c r="T60" s="66"/>
-      <c r="U60" s="64"/>
-      <c r="V60" s="65"/>
+      <c r="T60" s="96"/>
+      <c r="U60" s="94"/>
+      <c r="V60" s="95"/>
       <c r="W60" s="30"/>
-      <c r="X60" s="66"/>
-      <c r="Y60" s="64"/>
-      <c r="Z60" s="65"/>
+      <c r="X60" s="96"/>
+      <c r="Y60" s="94"/>
+      <c r="Z60" s="95"/>
       <c r="AA60" s="30"/>
-      <c r="AB60" s="66"/>
-      <c r="AC60" s="64"/>
-      <c r="AD60" s="65"/>
+      <c r="AB60" s="96"/>
+      <c r="AC60" s="94"/>
+      <c r="AD60" s="95"/>
       <c r="AE60" s="10"/>
     </row>
     <row r="61" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4207,38 +4207,38 @@
       <c r="B61" s="53">
         <v>36</v>
       </c>
-      <c r="C61" s="122"/>
-      <c r="D61" s="110"/>
+      <c r="C61" s="73"/>
+      <c r="D61" s="67"/>
       <c r="E61" s="48" t="s">
         <v>40</v>
       </c>
       <c r="F61" s="43"/>
-      <c r="G61" s="66"/>
-      <c r="H61" s="64"/>
-      <c r="I61" s="65"/>
+      <c r="G61" s="96"/>
+      <c r="H61" s="94"/>
+      <c r="I61" s="95"/>
       <c r="J61" s="30"/>
-      <c r="K61" s="66"/>
-      <c r="L61" s="64"/>
-      <c r="M61" s="65"/>
+      <c r="K61" s="96"/>
+      <c r="L61" s="94"/>
+      <c r="M61" s="95"/>
       <c r="N61" s="30"/>
-      <c r="O61" s="66"/>
-      <c r="P61" s="64"/>
-      <c r="Q61" s="65"/>
+      <c r="O61" s="96"/>
+      <c r="P61" s="94"/>
+      <c r="Q61" s="95"/>
       <c r="R61" s="38">
         <v>198</v>
       </c>
       <c r="S61" s="30"/>
-      <c r="T61" s="66"/>
-      <c r="U61" s="64"/>
-      <c r="V61" s="65"/>
+      <c r="T61" s="96"/>
+      <c r="U61" s="94"/>
+      <c r="V61" s="95"/>
       <c r="W61" s="30"/>
-      <c r="X61" s="66"/>
-      <c r="Y61" s="64"/>
-      <c r="Z61" s="65"/>
+      <c r="X61" s="96"/>
+      <c r="Y61" s="94"/>
+      <c r="Z61" s="95"/>
       <c r="AA61" s="30"/>
-      <c r="AB61" s="66"/>
-      <c r="AC61" s="64"/>
-      <c r="AD61" s="65"/>
+      <c r="AB61" s="96"/>
+      <c r="AC61" s="94"/>
+      <c r="AD61" s="95"/>
       <c r="AE61" s="10"/>
     </row>
     <row r="62" spans="1:31" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4246,38 +4246,38 @@
       <c r="B62" s="53">
         <v>37</v>
       </c>
-      <c r="C62" s="122"/>
-      <c r="D62" s="111"/>
+      <c r="C62" s="73"/>
+      <c r="D62" s="68"/>
       <c r="E62" s="48" t="s">
         <v>41</v>
       </c>
       <c r="F62" s="44"/>
-      <c r="G62" s="67"/>
-      <c r="H62" s="68"/>
-      <c r="I62" s="69"/>
+      <c r="G62" s="97"/>
+      <c r="H62" s="98"/>
+      <c r="I62" s="99"/>
       <c r="J62" s="31"/>
-      <c r="K62" s="67"/>
-      <c r="L62" s="68"/>
-      <c r="M62" s="69"/>
+      <c r="K62" s="97"/>
+      <c r="L62" s="98"/>
+      <c r="M62" s="99"/>
       <c r="N62" s="31"/>
-      <c r="O62" s="67"/>
-      <c r="P62" s="68"/>
-      <c r="Q62" s="69"/>
+      <c r="O62" s="97"/>
+      <c r="P62" s="98"/>
+      <c r="Q62" s="99"/>
       <c r="R62" s="38">
         <v>199</v>
       </c>
       <c r="S62" s="31"/>
-      <c r="T62" s="67"/>
-      <c r="U62" s="68"/>
-      <c r="V62" s="69"/>
+      <c r="T62" s="97"/>
+      <c r="U62" s="98"/>
+      <c r="V62" s="99"/>
       <c r="W62" s="31"/>
-      <c r="X62" s="67"/>
-      <c r="Y62" s="68"/>
-      <c r="Z62" s="69"/>
+      <c r="X62" s="97"/>
+      <c r="Y62" s="98"/>
+      <c r="Z62" s="99"/>
       <c r="AA62" s="31"/>
-      <c r="AB62" s="67"/>
-      <c r="AC62" s="68"/>
-      <c r="AD62" s="69"/>
+      <c r="AB62" s="97"/>
+      <c r="AC62" s="98"/>
+      <c r="AD62" s="99"/>
       <c r="AE62" s="10"/>
     </row>
     <row r="63" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4285,8 +4285,8 @@
       <c r="B63" s="53">
         <v>38</v>
       </c>
-      <c r="C63" s="122"/>
-      <c r="D63" s="112" t="s">
+      <c r="C63" s="73"/>
+      <c r="D63" s="66" t="s">
         <v>20</v>
       </c>
       <c r="E63" s="50" t="s">
@@ -4326,8 +4326,8 @@
       <c r="B64" s="53">
         <v>39</v>
       </c>
-      <c r="C64" s="122"/>
-      <c r="D64" s="110"/>
+      <c r="C64" s="73"/>
+      <c r="D64" s="67"/>
       <c r="E64" s="48" t="s">
         <v>13</v>
       </c>
@@ -4365,8 +4365,8 @@
       <c r="B65" s="53">
         <v>40</v>
       </c>
-      <c r="C65" s="122"/>
-      <c r="D65" s="110"/>
+      <c r="C65" s="73"/>
+      <c r="D65" s="67"/>
       <c r="E65" s="48" t="s">
         <v>10</v>
       </c>
@@ -4404,8 +4404,8 @@
       <c r="B66" s="53">
         <v>41</v>
       </c>
-      <c r="C66" s="122"/>
-      <c r="D66" s="110"/>
+      <c r="C66" s="73"/>
+      <c r="D66" s="67"/>
       <c r="E66" s="48" t="s">
         <v>11</v>
       </c>
@@ -4443,8 +4443,8 @@
       <c r="B67" s="53">
         <v>42</v>
       </c>
-      <c r="C67" s="122"/>
-      <c r="D67" s="110"/>
+      <c r="C67" s="73"/>
+      <c r="D67" s="67"/>
       <c r="E67" s="48" t="s">
         <v>21</v>
       </c>
@@ -4482,8 +4482,8 @@
       <c r="B68" s="53">
         <v>43</v>
       </c>
-      <c r="C68" s="122"/>
-      <c r="D68" s="110"/>
+      <c r="C68" s="73"/>
+      <c r="D68" s="67"/>
       <c r="E68" s="48" t="s">
         <v>22</v>
       </c>
@@ -4521,8 +4521,8 @@
       <c r="B69" s="53">
         <v>44</v>
       </c>
-      <c r="C69" s="122"/>
-      <c r="D69" s="110"/>
+      <c r="C69" s="73"/>
+      <c r="D69" s="67"/>
       <c r="E69" s="48" t="s">
         <v>23</v>
       </c>
@@ -4560,8 +4560,8 @@
       <c r="B70" s="53">
         <v>45</v>
       </c>
-      <c r="C70" s="122"/>
-      <c r="D70" s="110"/>
+      <c r="C70" s="73"/>
+      <c r="D70" s="67"/>
       <c r="E70" s="48" t="s">
         <v>14</v>
       </c>
@@ -4599,8 +4599,8 @@
       <c r="B71" s="53">
         <v>46</v>
       </c>
-      <c r="C71" s="122"/>
-      <c r="D71" s="110"/>
+      <c r="C71" s="73"/>
+      <c r="D71" s="67"/>
       <c r="E71" s="48" t="s">
         <v>16</v>
       </c>
@@ -4638,8 +4638,8 @@
       <c r="B72" s="53">
         <v>47</v>
       </c>
-      <c r="C72" s="122"/>
-      <c r="D72" s="110"/>
+      <c r="C72" s="73"/>
+      <c r="D72" s="67"/>
       <c r="E72" s="48" t="s">
         <v>15</v>
       </c>
@@ -4678,8 +4678,8 @@
       <c r="B73" s="53">
         <v>48</v>
       </c>
-      <c r="C73" s="122"/>
-      <c r="D73" s="110"/>
+      <c r="C73" s="73"/>
+      <c r="D73" s="67"/>
       <c r="E73" s="48" t="s">
         <v>17</v>
       </c>
@@ -4717,50 +4717,50 @@
       <c r="B74" s="53">
         <v>49</v>
       </c>
-      <c r="C74" s="122"/>
-      <c r="D74" s="110"/>
+      <c r="C74" s="73"/>
+      <c r="D74" s="67"/>
       <c r="E74" s="48" t="s">
         <v>36</v>
       </c>
       <c r="F74" s="43"/>
-      <c r="G74" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="H74" s="64"/>
-      <c r="I74" s="65"/>
+      <c r="G74" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="H74" s="94"/>
+      <c r="I74" s="95"/>
       <c r="J74" s="30"/>
-      <c r="K74" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="L74" s="64"/>
-      <c r="M74" s="65"/>
+      <c r="K74" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="L74" s="94"/>
+      <c r="M74" s="95"/>
       <c r="N74" s="30"/>
-      <c r="O74" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="P74" s="64"/>
-      <c r="Q74" s="65"/>
+      <c r="O74" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="P74" s="94"/>
+      <c r="Q74" s="95"/>
       <c r="R74" s="38">
         <v>211</v>
       </c>
       <c r="S74" s="30"/>
-      <c r="T74" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="U74" s="64"/>
-      <c r="V74" s="65"/>
+      <c r="T74" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="U74" s="94"/>
+      <c r="V74" s="95"/>
       <c r="W74" s="30"/>
-      <c r="X74" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y74" s="64"/>
-      <c r="Z74" s="65"/>
+      <c r="X74" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y74" s="94"/>
+      <c r="Z74" s="95"/>
       <c r="AA74" s="30"/>
-      <c r="AB74" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC74" s="64"/>
-      <c r="AD74" s="65"/>
+      <c r="AB74" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC74" s="94"/>
+      <c r="AD74" s="95"/>
       <c r="AE74" s="10"/>
     </row>
     <row r="75" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4768,38 +4768,38 @@
       <c r="B75" s="53">
         <v>50</v>
       </c>
-      <c r="C75" s="122"/>
-      <c r="D75" s="110"/>
+      <c r="C75" s="73"/>
+      <c r="D75" s="67"/>
       <c r="E75" s="48" t="s">
         <v>37</v>
       </c>
       <c r="F75" s="43"/>
-      <c r="G75" s="66"/>
-      <c r="H75" s="64"/>
-      <c r="I75" s="65"/>
+      <c r="G75" s="96"/>
+      <c r="H75" s="94"/>
+      <c r="I75" s="95"/>
       <c r="J75" s="30"/>
-      <c r="K75" s="66"/>
-      <c r="L75" s="64"/>
-      <c r="M75" s="65"/>
+      <c r="K75" s="96"/>
+      <c r="L75" s="94"/>
+      <c r="M75" s="95"/>
       <c r="N75" s="30"/>
-      <c r="O75" s="66"/>
-      <c r="P75" s="64"/>
-      <c r="Q75" s="65"/>
+      <c r="O75" s="96"/>
+      <c r="P75" s="94"/>
+      <c r="Q75" s="95"/>
       <c r="R75" s="38">
         <v>212</v>
       </c>
       <c r="S75" s="30"/>
-      <c r="T75" s="66"/>
-      <c r="U75" s="64"/>
-      <c r="V75" s="65"/>
+      <c r="T75" s="96"/>
+      <c r="U75" s="94"/>
+      <c r="V75" s="95"/>
       <c r="W75" s="30"/>
-      <c r="X75" s="66"/>
-      <c r="Y75" s="64"/>
-      <c r="Z75" s="65"/>
+      <c r="X75" s="96"/>
+      <c r="Y75" s="94"/>
+      <c r="Z75" s="95"/>
       <c r="AA75" s="30"/>
-      <c r="AB75" s="66"/>
-      <c r="AC75" s="64"/>
-      <c r="AD75" s="65"/>
+      <c r="AB75" s="96"/>
+      <c r="AC75" s="94"/>
+      <c r="AD75" s="95"/>
       <c r="AE75" s="10"/>
     </row>
     <row r="76" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4807,38 +4807,38 @@
       <c r="B76" s="53">
         <v>51</v>
       </c>
-      <c r="C76" s="122"/>
-      <c r="D76" s="110"/>
+      <c r="C76" s="73"/>
+      <c r="D76" s="67"/>
       <c r="E76" s="48" t="s">
         <v>38</v>
       </c>
       <c r="F76" s="43"/>
-      <c r="G76" s="66"/>
-      <c r="H76" s="64"/>
-      <c r="I76" s="65"/>
+      <c r="G76" s="96"/>
+      <c r="H76" s="94"/>
+      <c r="I76" s="95"/>
       <c r="J76" s="30"/>
-      <c r="K76" s="66"/>
-      <c r="L76" s="64"/>
-      <c r="M76" s="65"/>
+      <c r="K76" s="96"/>
+      <c r="L76" s="94"/>
+      <c r="M76" s="95"/>
       <c r="N76" s="30"/>
-      <c r="O76" s="66"/>
-      <c r="P76" s="64"/>
-      <c r="Q76" s="65"/>
+      <c r="O76" s="96"/>
+      <c r="P76" s="94"/>
+      <c r="Q76" s="95"/>
       <c r="R76" s="38">
         <v>213</v>
       </c>
       <c r="S76" s="30"/>
-      <c r="T76" s="66"/>
-      <c r="U76" s="64"/>
-      <c r="V76" s="65"/>
+      <c r="T76" s="96"/>
+      <c r="U76" s="94"/>
+      <c r="V76" s="95"/>
       <c r="W76" s="30"/>
-      <c r="X76" s="66"/>
-      <c r="Y76" s="64"/>
-      <c r="Z76" s="65"/>
+      <c r="X76" s="96"/>
+      <c r="Y76" s="94"/>
+      <c r="Z76" s="95"/>
       <c r="AA76" s="30"/>
-      <c r="AB76" s="66"/>
-      <c r="AC76" s="64"/>
-      <c r="AD76" s="65"/>
+      <c r="AB76" s="96"/>
+      <c r="AC76" s="94"/>
+      <c r="AD76" s="95"/>
       <c r="AE76" s="10"/>
     </row>
     <row r="77" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4846,38 +4846,38 @@
       <c r="B77" s="53">
         <v>52</v>
       </c>
-      <c r="C77" s="122"/>
-      <c r="D77" s="110"/>
+      <c r="C77" s="73"/>
+      <c r="D77" s="67"/>
       <c r="E77" s="48" t="s">
         <v>39</v>
       </c>
       <c r="F77" s="43"/>
-      <c r="G77" s="66"/>
-      <c r="H77" s="64"/>
-      <c r="I77" s="65"/>
+      <c r="G77" s="96"/>
+      <c r="H77" s="94"/>
+      <c r="I77" s="95"/>
       <c r="J77" s="30"/>
-      <c r="K77" s="66"/>
-      <c r="L77" s="64"/>
-      <c r="M77" s="65"/>
+      <c r="K77" s="96"/>
+      <c r="L77" s="94"/>
+      <c r="M77" s="95"/>
       <c r="N77" s="30"/>
-      <c r="O77" s="66"/>
-      <c r="P77" s="64"/>
-      <c r="Q77" s="65"/>
+      <c r="O77" s="96"/>
+      <c r="P77" s="94"/>
+      <c r="Q77" s="95"/>
       <c r="R77" s="38">
         <v>214</v>
       </c>
       <c r="S77" s="30"/>
-      <c r="T77" s="66"/>
-      <c r="U77" s="64"/>
-      <c r="V77" s="65"/>
+      <c r="T77" s="96"/>
+      <c r="U77" s="94"/>
+      <c r="V77" s="95"/>
       <c r="W77" s="30"/>
-      <c r="X77" s="66"/>
-      <c r="Y77" s="64"/>
-      <c r="Z77" s="65"/>
+      <c r="X77" s="96"/>
+      <c r="Y77" s="94"/>
+      <c r="Z77" s="95"/>
       <c r="AA77" s="30"/>
-      <c r="AB77" s="66"/>
-      <c r="AC77" s="64"/>
-      <c r="AD77" s="65"/>
+      <c r="AB77" s="96"/>
+      <c r="AC77" s="94"/>
+      <c r="AD77" s="95"/>
       <c r="AE77" s="10"/>
     </row>
     <row r="78" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4885,38 +4885,38 @@
       <c r="B78" s="53">
         <v>53</v>
       </c>
-      <c r="C78" s="122"/>
-      <c r="D78" s="110"/>
+      <c r="C78" s="73"/>
+      <c r="D78" s="67"/>
       <c r="E78" s="48" t="s">
         <v>40</v>
       </c>
       <c r="F78" s="43"/>
-      <c r="G78" s="66"/>
-      <c r="H78" s="64"/>
-      <c r="I78" s="65"/>
+      <c r="G78" s="96"/>
+      <c r="H78" s="94"/>
+      <c r="I78" s="95"/>
       <c r="J78" s="30"/>
-      <c r="K78" s="66"/>
-      <c r="L78" s="64"/>
-      <c r="M78" s="65"/>
+      <c r="K78" s="96"/>
+      <c r="L78" s="94"/>
+      <c r="M78" s="95"/>
       <c r="N78" s="30"/>
-      <c r="O78" s="66"/>
-      <c r="P78" s="64"/>
-      <c r="Q78" s="65"/>
+      <c r="O78" s="96"/>
+      <c r="P78" s="94"/>
+      <c r="Q78" s="95"/>
       <c r="R78" s="38">
         <v>215</v>
       </c>
       <c r="S78" s="30"/>
-      <c r="T78" s="66"/>
-      <c r="U78" s="64"/>
-      <c r="V78" s="65"/>
+      <c r="T78" s="96"/>
+      <c r="U78" s="94"/>
+      <c r="V78" s="95"/>
       <c r="W78" s="30"/>
-      <c r="X78" s="66"/>
-      <c r="Y78" s="64"/>
-      <c r="Z78" s="65"/>
+      <c r="X78" s="96"/>
+      <c r="Y78" s="94"/>
+      <c r="Z78" s="95"/>
       <c r="AA78" s="30"/>
-      <c r="AB78" s="66"/>
-      <c r="AC78" s="64"/>
-      <c r="AD78" s="65"/>
+      <c r="AB78" s="96"/>
+      <c r="AC78" s="94"/>
+      <c r="AD78" s="95"/>
       <c r="AE78" s="10"/>
     </row>
     <row r="79" spans="1:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4924,38 +4924,38 @@
       <c r="B79" s="53">
         <v>54</v>
       </c>
-      <c r="C79" s="123"/>
-      <c r="D79" s="118"/>
+      <c r="C79" s="74"/>
+      <c r="D79" s="69"/>
       <c r="E79" s="48" t="s">
         <v>41</v>
       </c>
       <c r="F79" s="46"/>
-      <c r="G79" s="67"/>
-      <c r="H79" s="68"/>
-      <c r="I79" s="69"/>
+      <c r="G79" s="97"/>
+      <c r="H79" s="98"/>
+      <c r="I79" s="99"/>
       <c r="J79" s="33"/>
-      <c r="K79" s="67"/>
-      <c r="L79" s="68"/>
-      <c r="M79" s="69"/>
+      <c r="K79" s="97"/>
+      <c r="L79" s="98"/>
+      <c r="M79" s="99"/>
       <c r="N79" s="33"/>
-      <c r="O79" s="67"/>
-      <c r="P79" s="68"/>
-      <c r="Q79" s="69"/>
+      <c r="O79" s="97"/>
+      <c r="P79" s="98"/>
+      <c r="Q79" s="99"/>
       <c r="R79" s="38">
         <v>216</v>
       </c>
       <c r="S79" s="33"/>
-      <c r="T79" s="67"/>
-      <c r="U79" s="68"/>
-      <c r="V79" s="69"/>
+      <c r="T79" s="97"/>
+      <c r="U79" s="98"/>
+      <c r="V79" s="99"/>
       <c r="W79" s="33"/>
-      <c r="X79" s="67"/>
-      <c r="Y79" s="68"/>
-      <c r="Z79" s="69"/>
+      <c r="X79" s="97"/>
+      <c r="Y79" s="98"/>
+      <c r="Z79" s="99"/>
       <c r="AA79" s="33"/>
-      <c r="AB79" s="67"/>
-      <c r="AC79" s="68"/>
-      <c r="AD79" s="69"/>
+      <c r="AB79" s="97"/>
+      <c r="AC79" s="98"/>
+      <c r="AD79" s="99"/>
       <c r="AE79" s="10"/>
     </row>
     <row r="80" spans="1:33" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -4963,10 +4963,10 @@
       <c r="B80" s="52">
         <v>55</v>
       </c>
-      <c r="C80" s="119" t="s">
+      <c r="C80" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="D80" s="110" t="s">
+      <c r="D80" s="67" t="s">
         <v>6</v>
       </c>
       <c r="E80" s="47" t="s">
@@ -5006,8 +5006,8 @@
       <c r="B81" s="52">
         <v>56</v>
       </c>
-      <c r="C81" s="120"/>
-      <c r="D81" s="110"/>
+      <c r="C81" s="71"/>
+      <c r="D81" s="67"/>
       <c r="E81" s="48" t="s">
         <v>8</v>
       </c>
@@ -5046,8 +5046,8 @@
       <c r="B82" s="52">
         <v>57</v>
       </c>
-      <c r="C82" s="120"/>
-      <c r="D82" s="111"/>
+      <c r="C82" s="71"/>
+      <c r="D82" s="68"/>
       <c r="E82" s="48" t="s">
         <v>9</v>
       </c>
@@ -5086,8 +5086,8 @@
       <c r="B83" s="52">
         <v>58</v>
       </c>
-      <c r="C83" s="120"/>
-      <c r="D83" s="112" t="s">
+      <c r="C83" s="71"/>
+      <c r="D83" s="66" t="s">
         <v>18</v>
       </c>
       <c r="E83" s="50" t="s">
@@ -5128,8 +5128,8 @@
       <c r="B84" s="52">
         <v>59</v>
       </c>
-      <c r="C84" s="120"/>
-      <c r="D84" s="110"/>
+      <c r="C84" s="71"/>
+      <c r="D84" s="67"/>
       <c r="E84" s="48" t="s">
         <v>13</v>
       </c>
@@ -5168,8 +5168,8 @@
       <c r="B85" s="52">
         <v>60</v>
       </c>
-      <c r="C85" s="120"/>
-      <c r="D85" s="110"/>
+      <c r="C85" s="71"/>
+      <c r="D85" s="67"/>
       <c r="E85" s="48" t="s">
         <v>10</v>
       </c>
@@ -5207,8 +5207,8 @@
       <c r="B86" s="52">
         <v>61</v>
       </c>
-      <c r="C86" s="120"/>
-      <c r="D86" s="110"/>
+      <c r="C86" s="71"/>
+      <c r="D86" s="67"/>
       <c r="E86" s="48" t="s">
         <v>11</v>
       </c>
@@ -5246,8 +5246,8 @@
       <c r="B87" s="52">
         <v>62</v>
       </c>
-      <c r="C87" s="120"/>
-      <c r="D87" s="110"/>
+      <c r="C87" s="71"/>
+      <c r="D87" s="67"/>
       <c r="E87" s="48" t="s">
         <v>21</v>
       </c>
@@ -5285,8 +5285,8 @@
       <c r="B88" s="52">
         <v>63</v>
       </c>
-      <c r="C88" s="120"/>
-      <c r="D88" s="110"/>
+      <c r="C88" s="71"/>
+      <c r="D88" s="67"/>
       <c r="E88" s="48" t="s">
         <v>22</v>
       </c>
@@ -5324,8 +5324,8 @@
       <c r="B89" s="52">
         <v>64</v>
       </c>
-      <c r="C89" s="120"/>
-      <c r="D89" s="110"/>
+      <c r="C89" s="71"/>
+      <c r="D89" s="67"/>
       <c r="E89" s="48" t="s">
         <v>23</v>
       </c>
@@ -5363,8 +5363,8 @@
       <c r="B90" s="52">
         <v>65</v>
       </c>
-      <c r="C90" s="120"/>
-      <c r="D90" s="110"/>
+      <c r="C90" s="71"/>
+      <c r="D90" s="67"/>
       <c r="E90" s="48" t="s">
         <v>14</v>
       </c>
@@ -5402,8 +5402,8 @@
       <c r="B91" s="52">
         <v>66</v>
       </c>
-      <c r="C91" s="120"/>
-      <c r="D91" s="110"/>
+      <c r="C91" s="71"/>
+      <c r="D91" s="67"/>
       <c r="E91" s="48" t="s">
         <v>16</v>
       </c>
@@ -5441,8 +5441,8 @@
       <c r="B92" s="52">
         <v>67</v>
       </c>
-      <c r="C92" s="120"/>
-      <c r="D92" s="110"/>
+      <c r="C92" s="71"/>
+      <c r="D92" s="67"/>
       <c r="E92" s="48" t="s">
         <v>15</v>
       </c>
@@ -5480,8 +5480,8 @@
       <c r="B93" s="52">
         <v>68</v>
       </c>
-      <c r="C93" s="120"/>
-      <c r="D93" s="110"/>
+      <c r="C93" s="71"/>
+      <c r="D93" s="67"/>
       <c r="E93" s="48" t="s">
         <v>17</v>
       </c>
@@ -5519,50 +5519,50 @@
       <c r="B94" s="52">
         <v>69</v>
       </c>
-      <c r="C94" s="120"/>
-      <c r="D94" s="110"/>
+      <c r="C94" s="71"/>
+      <c r="D94" s="67"/>
       <c r="E94" s="48" t="s">
         <v>36</v>
       </c>
       <c r="F94" s="43"/>
-      <c r="G94" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="H94" s="64"/>
-      <c r="I94" s="65"/>
+      <c r="G94" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="H94" s="94"/>
+      <c r="I94" s="95"/>
       <c r="J94" s="30"/>
-      <c r="K94" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="L94" s="64"/>
-      <c r="M94" s="65"/>
+      <c r="K94" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="L94" s="94"/>
+      <c r="M94" s="95"/>
       <c r="N94" s="30"/>
-      <c r="O94" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="P94" s="64"/>
-      <c r="Q94" s="65"/>
+      <c r="O94" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="P94" s="94"/>
+      <c r="Q94" s="95"/>
       <c r="R94" s="38">
         <v>231</v>
       </c>
       <c r="S94" s="30"/>
-      <c r="T94" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="U94" s="64"/>
-      <c r="V94" s="65"/>
+      <c r="T94" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="U94" s="94"/>
+      <c r="V94" s="95"/>
       <c r="W94" s="30"/>
-      <c r="X94" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y94" s="64"/>
-      <c r="Z94" s="65"/>
+      <c r="X94" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y94" s="94"/>
+      <c r="Z94" s="95"/>
       <c r="AA94" s="30"/>
-      <c r="AB94" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC94" s="64"/>
-      <c r="AD94" s="65"/>
+      <c r="AB94" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC94" s="94"/>
+      <c r="AD94" s="95"/>
       <c r="AE94" s="10"/>
     </row>
     <row r="95" spans="1:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5570,38 +5570,38 @@
       <c r="B95" s="52">
         <v>70</v>
       </c>
-      <c r="C95" s="120"/>
-      <c r="D95" s="110"/>
+      <c r="C95" s="71"/>
+      <c r="D95" s="67"/>
       <c r="E95" s="48" t="s">
         <v>37</v>
       </c>
       <c r="F95" s="43"/>
-      <c r="G95" s="66"/>
-      <c r="H95" s="64"/>
-      <c r="I95" s="65"/>
+      <c r="G95" s="96"/>
+      <c r="H95" s="94"/>
+      <c r="I95" s="95"/>
       <c r="J95" s="30"/>
-      <c r="K95" s="66"/>
-      <c r="L95" s="64"/>
-      <c r="M95" s="65"/>
+      <c r="K95" s="96"/>
+      <c r="L95" s="94"/>
+      <c r="M95" s="95"/>
       <c r="N95" s="30"/>
-      <c r="O95" s="66"/>
-      <c r="P95" s="64"/>
-      <c r="Q95" s="65"/>
+      <c r="O95" s="96"/>
+      <c r="P95" s="94"/>
+      <c r="Q95" s="95"/>
       <c r="R95" s="38">
         <v>232</v>
       </c>
       <c r="S95" s="30"/>
-      <c r="T95" s="66"/>
-      <c r="U95" s="64"/>
-      <c r="V95" s="65"/>
+      <c r="T95" s="96"/>
+      <c r="U95" s="94"/>
+      <c r="V95" s="95"/>
       <c r="W95" s="30"/>
-      <c r="X95" s="66"/>
-      <c r="Y95" s="64"/>
-      <c r="Z95" s="65"/>
+      <c r="X95" s="96"/>
+      <c r="Y95" s="94"/>
+      <c r="Z95" s="95"/>
       <c r="AA95" s="30"/>
-      <c r="AB95" s="66"/>
-      <c r="AC95" s="64"/>
-      <c r="AD95" s="65"/>
+      <c r="AB95" s="96"/>
+      <c r="AC95" s="94"/>
+      <c r="AD95" s="95"/>
       <c r="AE95" s="10"/>
     </row>
     <row r="96" spans="1:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5609,38 +5609,38 @@
       <c r="B96" s="52">
         <v>71</v>
       </c>
-      <c r="C96" s="120"/>
-      <c r="D96" s="110"/>
+      <c r="C96" s="71"/>
+      <c r="D96" s="67"/>
       <c r="E96" s="48" t="s">
         <v>38</v>
       </c>
       <c r="F96" s="43"/>
-      <c r="G96" s="66"/>
-      <c r="H96" s="64"/>
-      <c r="I96" s="65"/>
+      <c r="G96" s="96"/>
+      <c r="H96" s="94"/>
+      <c r="I96" s="95"/>
       <c r="J96" s="30"/>
-      <c r="K96" s="66"/>
-      <c r="L96" s="64"/>
-      <c r="M96" s="65"/>
+      <c r="K96" s="96"/>
+      <c r="L96" s="94"/>
+      <c r="M96" s="95"/>
       <c r="N96" s="30"/>
-      <c r="O96" s="66"/>
-      <c r="P96" s="64"/>
-      <c r="Q96" s="65"/>
+      <c r="O96" s="96"/>
+      <c r="P96" s="94"/>
+      <c r="Q96" s="95"/>
       <c r="R96" s="38">
         <v>233</v>
       </c>
       <c r="S96" s="30"/>
-      <c r="T96" s="66"/>
-      <c r="U96" s="64"/>
-      <c r="V96" s="65"/>
+      <c r="T96" s="96"/>
+      <c r="U96" s="94"/>
+      <c r="V96" s="95"/>
       <c r="W96" s="30"/>
-      <c r="X96" s="66"/>
-      <c r="Y96" s="64"/>
-      <c r="Z96" s="65"/>
+      <c r="X96" s="96"/>
+      <c r="Y96" s="94"/>
+      <c r="Z96" s="95"/>
       <c r="AA96" s="30"/>
-      <c r="AB96" s="66"/>
-      <c r="AC96" s="64"/>
-      <c r="AD96" s="65"/>
+      <c r="AB96" s="96"/>
+      <c r="AC96" s="94"/>
+      <c r="AD96" s="95"/>
       <c r="AE96" s="10"/>
     </row>
     <row r="97" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5648,38 +5648,38 @@
       <c r="B97" s="52">
         <v>72</v>
       </c>
-      <c r="C97" s="120"/>
-      <c r="D97" s="110"/>
+      <c r="C97" s="71"/>
+      <c r="D97" s="67"/>
       <c r="E97" s="48" t="s">
         <v>39</v>
       </c>
       <c r="F97" s="43"/>
-      <c r="G97" s="66"/>
-      <c r="H97" s="64"/>
-      <c r="I97" s="65"/>
+      <c r="G97" s="96"/>
+      <c r="H97" s="94"/>
+      <c r="I97" s="95"/>
       <c r="J97" s="30"/>
-      <c r="K97" s="66"/>
-      <c r="L97" s="64"/>
-      <c r="M97" s="65"/>
+      <c r="K97" s="96"/>
+      <c r="L97" s="94"/>
+      <c r="M97" s="95"/>
       <c r="N97" s="30"/>
-      <c r="O97" s="66"/>
-      <c r="P97" s="64"/>
-      <c r="Q97" s="65"/>
+      <c r="O97" s="96"/>
+      <c r="P97" s="94"/>
+      <c r="Q97" s="95"/>
       <c r="R97" s="38">
         <v>234</v>
       </c>
       <c r="S97" s="30"/>
-      <c r="T97" s="66"/>
-      <c r="U97" s="64"/>
-      <c r="V97" s="65"/>
+      <c r="T97" s="96"/>
+      <c r="U97" s="94"/>
+      <c r="V97" s="95"/>
       <c r="W97" s="30"/>
-      <c r="X97" s="66"/>
-      <c r="Y97" s="64"/>
-      <c r="Z97" s="65"/>
+      <c r="X97" s="96"/>
+      <c r="Y97" s="94"/>
+      <c r="Z97" s="95"/>
       <c r="AA97" s="30"/>
-      <c r="AB97" s="66"/>
-      <c r="AC97" s="64"/>
-      <c r="AD97" s="65"/>
+      <c r="AB97" s="96"/>
+      <c r="AC97" s="94"/>
+      <c r="AD97" s="95"/>
       <c r="AE97" s="10"/>
     </row>
     <row r="98" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5687,38 +5687,38 @@
       <c r="B98" s="52">
         <v>73</v>
       </c>
-      <c r="C98" s="120"/>
-      <c r="D98" s="110"/>
+      <c r="C98" s="71"/>
+      <c r="D98" s="67"/>
       <c r="E98" s="48" t="s">
         <v>40</v>
       </c>
       <c r="F98" s="43"/>
-      <c r="G98" s="66"/>
-      <c r="H98" s="64"/>
-      <c r="I98" s="65"/>
+      <c r="G98" s="96"/>
+      <c r="H98" s="94"/>
+      <c r="I98" s="95"/>
       <c r="J98" s="30"/>
-      <c r="K98" s="66"/>
-      <c r="L98" s="64"/>
-      <c r="M98" s="65"/>
+      <c r="K98" s="96"/>
+      <c r="L98" s="94"/>
+      <c r="M98" s="95"/>
       <c r="N98" s="30"/>
-      <c r="O98" s="66"/>
-      <c r="P98" s="64"/>
-      <c r="Q98" s="65"/>
+      <c r="O98" s="96"/>
+      <c r="P98" s="94"/>
+      <c r="Q98" s="95"/>
       <c r="R98" s="38">
         <v>235</v>
       </c>
       <c r="S98" s="30"/>
-      <c r="T98" s="66"/>
-      <c r="U98" s="64"/>
-      <c r="V98" s="65"/>
+      <c r="T98" s="96"/>
+      <c r="U98" s="94"/>
+      <c r="V98" s="95"/>
       <c r="W98" s="30"/>
-      <c r="X98" s="66"/>
-      <c r="Y98" s="64"/>
-      <c r="Z98" s="65"/>
+      <c r="X98" s="96"/>
+      <c r="Y98" s="94"/>
+      <c r="Z98" s="95"/>
       <c r="AA98" s="30"/>
-      <c r="AB98" s="66"/>
-      <c r="AC98" s="64"/>
-      <c r="AD98" s="65"/>
+      <c r="AB98" s="96"/>
+      <c r="AC98" s="94"/>
+      <c r="AD98" s="95"/>
       <c r="AE98" s="10"/>
     </row>
     <row r="99" spans="1:31" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5726,38 +5726,38 @@
       <c r="B99" s="52">
         <v>74</v>
       </c>
-      <c r="C99" s="120"/>
-      <c r="D99" s="111"/>
+      <c r="C99" s="71"/>
+      <c r="D99" s="68"/>
       <c r="E99" s="49" t="s">
         <v>41</v>
       </c>
       <c r="F99" s="44"/>
-      <c r="G99" s="67"/>
-      <c r="H99" s="68"/>
-      <c r="I99" s="69"/>
+      <c r="G99" s="97"/>
+      <c r="H99" s="98"/>
+      <c r="I99" s="99"/>
       <c r="J99" s="31"/>
-      <c r="K99" s="67"/>
-      <c r="L99" s="68"/>
-      <c r="M99" s="69"/>
+      <c r="K99" s="97"/>
+      <c r="L99" s="98"/>
+      <c r="M99" s="99"/>
       <c r="N99" s="31"/>
-      <c r="O99" s="67"/>
-      <c r="P99" s="68"/>
-      <c r="Q99" s="69"/>
+      <c r="O99" s="97"/>
+      <c r="P99" s="98"/>
+      <c r="Q99" s="99"/>
       <c r="R99" s="38">
         <v>236</v>
       </c>
       <c r="S99" s="31"/>
-      <c r="T99" s="67"/>
-      <c r="U99" s="68"/>
-      <c r="V99" s="69"/>
+      <c r="T99" s="97"/>
+      <c r="U99" s="98"/>
+      <c r="V99" s="99"/>
       <c r="W99" s="31"/>
-      <c r="X99" s="67"/>
-      <c r="Y99" s="68"/>
-      <c r="Z99" s="69"/>
+      <c r="X99" s="97"/>
+      <c r="Y99" s="98"/>
+      <c r="Z99" s="99"/>
       <c r="AA99" s="31"/>
-      <c r="AB99" s="67"/>
-      <c r="AC99" s="68"/>
-      <c r="AD99" s="69"/>
+      <c r="AB99" s="97"/>
+      <c r="AC99" s="98"/>
+      <c r="AD99" s="99"/>
       <c r="AE99" s="10"/>
     </row>
     <row r="100" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5765,8 +5765,8 @@
       <c r="B100" s="52">
         <v>75</v>
       </c>
-      <c r="C100" s="120"/>
-      <c r="D100" s="112" t="s">
+      <c r="C100" s="71"/>
+      <c r="D100" s="66" t="s">
         <v>19</v>
       </c>
       <c r="E100" s="50" t="s">
@@ -5806,8 +5806,8 @@
       <c r="B101" s="52">
         <v>76</v>
       </c>
-      <c r="C101" s="120"/>
-      <c r="D101" s="110"/>
+      <c r="C101" s="71"/>
+      <c r="D101" s="67"/>
       <c r="E101" s="48" t="s">
         <v>13</v>
       </c>
@@ -5845,8 +5845,8 @@
       <c r="B102" s="52">
         <v>77</v>
       </c>
-      <c r="C102" s="120"/>
-      <c r="D102" s="110"/>
+      <c r="C102" s="71"/>
+      <c r="D102" s="67"/>
       <c r="E102" s="48" t="s">
         <v>10</v>
       </c>
@@ -5884,8 +5884,8 @@
       <c r="B103" s="52">
         <v>78</v>
       </c>
-      <c r="C103" s="120"/>
-      <c r="D103" s="110"/>
+      <c r="C103" s="71"/>
+      <c r="D103" s="67"/>
       <c r="E103" s="48" t="s">
         <v>11</v>
       </c>
@@ -5923,8 +5923,8 @@
       <c r="B104" s="52">
         <v>79</v>
       </c>
-      <c r="C104" s="120"/>
-      <c r="D104" s="110"/>
+      <c r="C104" s="71"/>
+      <c r="D104" s="67"/>
       <c r="E104" s="48" t="s">
         <v>21</v>
       </c>
@@ -5962,8 +5962,8 @@
       <c r="B105" s="52">
         <v>80</v>
       </c>
-      <c r="C105" s="120"/>
-      <c r="D105" s="110"/>
+      <c r="C105" s="71"/>
+      <c r="D105" s="67"/>
       <c r="E105" s="48" t="s">
         <v>22</v>
       </c>
@@ -6001,8 +6001,8 @@
       <c r="B106" s="52">
         <v>81</v>
       </c>
-      <c r="C106" s="120"/>
-      <c r="D106" s="110"/>
+      <c r="C106" s="71"/>
+      <c r="D106" s="67"/>
       <c r="E106" s="48" t="s">
         <v>23</v>
       </c>
@@ -6040,8 +6040,8 @@
       <c r="B107" s="52">
         <v>82</v>
       </c>
-      <c r="C107" s="120"/>
-      <c r="D107" s="110"/>
+      <c r="C107" s="71"/>
+      <c r="D107" s="67"/>
       <c r="E107" s="48" t="s">
         <v>14</v>
       </c>
@@ -6079,8 +6079,8 @@
       <c r="B108" s="52">
         <v>83</v>
       </c>
-      <c r="C108" s="120"/>
-      <c r="D108" s="110"/>
+      <c r="C108" s="71"/>
+      <c r="D108" s="67"/>
       <c r="E108" s="48" t="s">
         <v>16</v>
       </c>
@@ -6118,8 +6118,8 @@
       <c r="B109" s="52">
         <v>84</v>
       </c>
-      <c r="C109" s="120"/>
-      <c r="D109" s="110"/>
+      <c r="C109" s="71"/>
+      <c r="D109" s="67"/>
       <c r="E109" s="48" t="s">
         <v>15</v>
       </c>
@@ -6157,8 +6157,8 @@
       <c r="B110" s="52">
         <v>85</v>
       </c>
-      <c r="C110" s="120"/>
-      <c r="D110" s="110"/>
+      <c r="C110" s="71"/>
+      <c r="D110" s="67"/>
       <c r="E110" s="48" t="s">
         <v>17</v>
       </c>
@@ -6196,50 +6196,50 @@
       <c r="B111" s="52">
         <v>86</v>
       </c>
-      <c r="C111" s="120"/>
-      <c r="D111" s="110"/>
+      <c r="C111" s="71"/>
+      <c r="D111" s="67"/>
       <c r="E111" s="48" t="s">
         <v>36</v>
       </c>
       <c r="F111" s="43"/>
-      <c r="G111" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="H111" s="64"/>
-      <c r="I111" s="65"/>
+      <c r="G111" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="H111" s="94"/>
+      <c r="I111" s="95"/>
       <c r="J111" s="30"/>
-      <c r="K111" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="L111" s="64"/>
-      <c r="M111" s="65"/>
+      <c r="K111" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="L111" s="94"/>
+      <c r="M111" s="95"/>
       <c r="N111" s="30"/>
-      <c r="O111" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="P111" s="64"/>
-      <c r="Q111" s="65"/>
+      <c r="O111" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="P111" s="94"/>
+      <c r="Q111" s="95"/>
       <c r="R111" s="38">
         <v>248</v>
       </c>
       <c r="S111" s="30"/>
-      <c r="T111" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="U111" s="64"/>
-      <c r="V111" s="65"/>
+      <c r="T111" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="U111" s="94"/>
+      <c r="V111" s="95"/>
       <c r="W111" s="30"/>
-      <c r="X111" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y111" s="64"/>
-      <c r="Z111" s="65"/>
+      <c r="X111" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y111" s="94"/>
+      <c r="Z111" s="95"/>
       <c r="AA111" s="30"/>
-      <c r="AB111" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC111" s="64"/>
-      <c r="AD111" s="65"/>
+      <c r="AB111" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC111" s="94"/>
+      <c r="AD111" s="95"/>
       <c r="AE111" s="10"/>
     </row>
     <row r="112" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6247,38 +6247,38 @@
       <c r="B112" s="52">
         <v>87</v>
       </c>
-      <c r="C112" s="120"/>
-      <c r="D112" s="110"/>
+      <c r="C112" s="71"/>
+      <c r="D112" s="67"/>
       <c r="E112" s="48" t="s">
         <v>37</v>
       </c>
       <c r="F112" s="43"/>
-      <c r="G112" s="66"/>
-      <c r="H112" s="64"/>
-      <c r="I112" s="65"/>
+      <c r="G112" s="96"/>
+      <c r="H112" s="94"/>
+      <c r="I112" s="95"/>
       <c r="J112" s="30"/>
-      <c r="K112" s="66"/>
-      <c r="L112" s="64"/>
-      <c r="M112" s="65"/>
+      <c r="K112" s="96"/>
+      <c r="L112" s="94"/>
+      <c r="M112" s="95"/>
       <c r="N112" s="30"/>
-      <c r="O112" s="66"/>
-      <c r="P112" s="64"/>
-      <c r="Q112" s="65"/>
+      <c r="O112" s="96"/>
+      <c r="P112" s="94"/>
+      <c r="Q112" s="95"/>
       <c r="R112" s="38">
         <v>249</v>
       </c>
       <c r="S112" s="30"/>
-      <c r="T112" s="66"/>
-      <c r="U112" s="64"/>
-      <c r="V112" s="65"/>
+      <c r="T112" s="96"/>
+      <c r="U112" s="94"/>
+      <c r="V112" s="95"/>
       <c r="W112" s="30"/>
-      <c r="X112" s="66"/>
-      <c r="Y112" s="64"/>
-      <c r="Z112" s="65"/>
+      <c r="X112" s="96"/>
+      <c r="Y112" s="94"/>
+      <c r="Z112" s="95"/>
       <c r="AA112" s="30"/>
-      <c r="AB112" s="66"/>
-      <c r="AC112" s="64"/>
-      <c r="AD112" s="65"/>
+      <c r="AB112" s="96"/>
+      <c r="AC112" s="94"/>
+      <c r="AD112" s="95"/>
       <c r="AE112" s="10"/>
     </row>
     <row r="113" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6286,38 +6286,38 @@
       <c r="B113" s="52">
         <v>88</v>
       </c>
-      <c r="C113" s="120"/>
-      <c r="D113" s="110"/>
+      <c r="C113" s="71"/>
+      <c r="D113" s="67"/>
       <c r="E113" s="48" t="s">
         <v>38</v>
       </c>
       <c r="F113" s="43"/>
-      <c r="G113" s="66"/>
-      <c r="H113" s="64"/>
-      <c r="I113" s="65"/>
+      <c r="G113" s="96"/>
+      <c r="H113" s="94"/>
+      <c r="I113" s="95"/>
       <c r="J113" s="30"/>
-      <c r="K113" s="66"/>
-      <c r="L113" s="64"/>
-      <c r="M113" s="65"/>
+      <c r="K113" s="96"/>
+      <c r="L113" s="94"/>
+      <c r="M113" s="95"/>
       <c r="N113" s="30"/>
-      <c r="O113" s="66"/>
-      <c r="P113" s="64"/>
-      <c r="Q113" s="65"/>
+      <c r="O113" s="96"/>
+      <c r="P113" s="94"/>
+      <c r="Q113" s="95"/>
       <c r="R113" s="38">
         <v>250</v>
       </c>
       <c r="S113" s="30"/>
-      <c r="T113" s="66"/>
-      <c r="U113" s="64"/>
-      <c r="V113" s="65"/>
+      <c r="T113" s="96"/>
+      <c r="U113" s="94"/>
+      <c r="V113" s="95"/>
       <c r="W113" s="30"/>
-      <c r="X113" s="66"/>
-      <c r="Y113" s="64"/>
-      <c r="Z113" s="65"/>
+      <c r="X113" s="96"/>
+      <c r="Y113" s="94"/>
+      <c r="Z113" s="95"/>
       <c r="AA113" s="30"/>
-      <c r="AB113" s="66"/>
-      <c r="AC113" s="64"/>
-      <c r="AD113" s="65"/>
+      <c r="AB113" s="96"/>
+      <c r="AC113" s="94"/>
+      <c r="AD113" s="95"/>
       <c r="AE113" s="10"/>
     </row>
     <row r="114" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6325,38 +6325,38 @@
       <c r="B114" s="52">
         <v>89</v>
       </c>
-      <c r="C114" s="120"/>
-      <c r="D114" s="110"/>
+      <c r="C114" s="71"/>
+      <c r="D114" s="67"/>
       <c r="E114" s="48" t="s">
         <v>39</v>
       </c>
       <c r="F114" s="43"/>
-      <c r="G114" s="66"/>
-      <c r="H114" s="64"/>
-      <c r="I114" s="65"/>
+      <c r="G114" s="96"/>
+      <c r="H114" s="94"/>
+      <c r="I114" s="95"/>
       <c r="J114" s="30"/>
-      <c r="K114" s="66"/>
-      <c r="L114" s="64"/>
-      <c r="M114" s="65"/>
+      <c r="K114" s="96"/>
+      <c r="L114" s="94"/>
+      <c r="M114" s="95"/>
       <c r="N114" s="30"/>
-      <c r="O114" s="66"/>
-      <c r="P114" s="64"/>
-      <c r="Q114" s="65"/>
+      <c r="O114" s="96"/>
+      <c r="P114" s="94"/>
+      <c r="Q114" s="95"/>
       <c r="R114" s="38">
         <v>251</v>
       </c>
       <c r="S114" s="30"/>
-      <c r="T114" s="66"/>
-      <c r="U114" s="64"/>
-      <c r="V114" s="65"/>
+      <c r="T114" s="96"/>
+      <c r="U114" s="94"/>
+      <c r="V114" s="95"/>
       <c r="W114" s="30"/>
-      <c r="X114" s="66"/>
-      <c r="Y114" s="64"/>
-      <c r="Z114" s="65"/>
+      <c r="X114" s="96"/>
+      <c r="Y114" s="94"/>
+      <c r="Z114" s="95"/>
       <c r="AA114" s="30"/>
-      <c r="AB114" s="66"/>
-      <c r="AC114" s="64"/>
-      <c r="AD114" s="65"/>
+      <c r="AB114" s="96"/>
+      <c r="AC114" s="94"/>
+      <c r="AD114" s="95"/>
       <c r="AE114" s="10"/>
     </row>
     <row r="115" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6364,38 +6364,38 @@
       <c r="B115" s="52">
         <v>90</v>
       </c>
-      <c r="C115" s="120"/>
-      <c r="D115" s="110"/>
+      <c r="C115" s="71"/>
+      <c r="D115" s="67"/>
       <c r="E115" s="48" t="s">
         <v>40</v>
       </c>
       <c r="F115" s="43"/>
-      <c r="G115" s="66"/>
-      <c r="H115" s="64"/>
-      <c r="I115" s="65"/>
+      <c r="G115" s="96"/>
+      <c r="H115" s="94"/>
+      <c r="I115" s="95"/>
       <c r="J115" s="30"/>
-      <c r="K115" s="66"/>
-      <c r="L115" s="64"/>
-      <c r="M115" s="65"/>
+      <c r="K115" s="96"/>
+      <c r="L115" s="94"/>
+      <c r="M115" s="95"/>
       <c r="N115" s="30"/>
-      <c r="O115" s="66"/>
-      <c r="P115" s="64"/>
-      <c r="Q115" s="65"/>
+      <c r="O115" s="96"/>
+      <c r="P115" s="94"/>
+      <c r="Q115" s="95"/>
       <c r="R115" s="38">
         <v>252</v>
       </c>
       <c r="S115" s="30"/>
-      <c r="T115" s="66"/>
-      <c r="U115" s="64"/>
-      <c r="V115" s="65"/>
+      <c r="T115" s="96"/>
+      <c r="U115" s="94"/>
+      <c r="V115" s="95"/>
       <c r="W115" s="30"/>
-      <c r="X115" s="66"/>
-      <c r="Y115" s="64"/>
-      <c r="Z115" s="65"/>
+      <c r="X115" s="96"/>
+      <c r="Y115" s="94"/>
+      <c r="Z115" s="95"/>
       <c r="AA115" s="30"/>
-      <c r="AB115" s="66"/>
-      <c r="AC115" s="64"/>
-      <c r="AD115" s="65"/>
+      <c r="AB115" s="96"/>
+      <c r="AC115" s="94"/>
+      <c r="AD115" s="95"/>
       <c r="AE115" s="10"/>
     </row>
     <row r="116" spans="1:31" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6403,38 +6403,38 @@
       <c r="B116" s="52">
         <v>91</v>
       </c>
-      <c r="C116" s="120"/>
-      <c r="D116" s="111"/>
+      <c r="C116" s="71"/>
+      <c r="D116" s="68"/>
       <c r="E116" s="49" t="s">
         <v>41</v>
       </c>
       <c r="F116" s="44"/>
-      <c r="G116" s="67"/>
-      <c r="H116" s="68"/>
-      <c r="I116" s="69"/>
+      <c r="G116" s="97"/>
+      <c r="H116" s="98"/>
+      <c r="I116" s="99"/>
       <c r="J116" s="31"/>
-      <c r="K116" s="67"/>
-      <c r="L116" s="68"/>
-      <c r="M116" s="69"/>
+      <c r="K116" s="97"/>
+      <c r="L116" s="98"/>
+      <c r="M116" s="99"/>
       <c r="N116" s="31"/>
-      <c r="O116" s="67"/>
-      <c r="P116" s="68"/>
-      <c r="Q116" s="69"/>
+      <c r="O116" s="97"/>
+      <c r="P116" s="98"/>
+      <c r="Q116" s="99"/>
       <c r="R116" s="38">
         <v>253</v>
       </c>
       <c r="S116" s="31"/>
-      <c r="T116" s="67"/>
-      <c r="U116" s="68"/>
-      <c r="V116" s="69"/>
+      <c r="T116" s="97"/>
+      <c r="U116" s="98"/>
+      <c r="V116" s="99"/>
       <c r="W116" s="31"/>
-      <c r="X116" s="67"/>
-      <c r="Y116" s="68"/>
-      <c r="Z116" s="69"/>
+      <c r="X116" s="97"/>
+      <c r="Y116" s="98"/>
+      <c r="Z116" s="99"/>
       <c r="AA116" s="31"/>
-      <c r="AB116" s="67"/>
-      <c r="AC116" s="68"/>
-      <c r="AD116" s="69"/>
+      <c r="AB116" s="97"/>
+      <c r="AC116" s="98"/>
+      <c r="AD116" s="99"/>
       <c r="AE116" s="10"/>
     </row>
     <row r="117" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6442,8 +6442,8 @@
       <c r="B117" s="52">
         <v>92</v>
       </c>
-      <c r="C117" s="120"/>
-      <c r="D117" s="112" t="s">
+      <c r="C117" s="71"/>
+      <c r="D117" s="66" t="s">
         <v>20</v>
       </c>
       <c r="E117" s="48" t="s">
@@ -6483,8 +6483,8 @@
       <c r="B118" s="52">
         <v>93</v>
       </c>
-      <c r="C118" s="120"/>
-      <c r="D118" s="110"/>
+      <c r="C118" s="71"/>
+      <c r="D118" s="67"/>
       <c r="E118" s="48" t="s">
         <v>13</v>
       </c>
@@ -6522,8 +6522,8 @@
       <c r="B119" s="52">
         <v>94</v>
       </c>
-      <c r="C119" s="120"/>
-      <c r="D119" s="110"/>
+      <c r="C119" s="71"/>
+      <c r="D119" s="67"/>
       <c r="E119" s="48" t="s">
         <v>10</v>
       </c>
@@ -6561,8 +6561,8 @@
       <c r="B120" s="52">
         <v>95</v>
       </c>
-      <c r="C120" s="120"/>
-      <c r="D120" s="110"/>
+      <c r="C120" s="71"/>
+      <c r="D120" s="67"/>
       <c r="E120" s="48" t="s">
         <v>11</v>
       </c>
@@ -6600,8 +6600,8 @@
       <c r="B121" s="52">
         <v>96</v>
       </c>
-      <c r="C121" s="120"/>
-      <c r="D121" s="110"/>
+      <c r="C121" s="71"/>
+      <c r="D121" s="67"/>
       <c r="E121" s="48" t="s">
         <v>21</v>
       </c>
@@ -6639,8 +6639,8 @@
       <c r="B122" s="52">
         <v>97</v>
       </c>
-      <c r="C122" s="120"/>
-      <c r="D122" s="110"/>
+      <c r="C122" s="71"/>
+      <c r="D122" s="67"/>
       <c r="E122" s="48" t="s">
         <v>22</v>
       </c>
@@ -6678,8 +6678,8 @@
       <c r="B123" s="52">
         <v>98</v>
       </c>
-      <c r="C123" s="120"/>
-      <c r="D123" s="110"/>
+      <c r="C123" s="71"/>
+      <c r="D123" s="67"/>
       <c r="E123" s="48" t="s">
         <v>23</v>
       </c>
@@ -6717,8 +6717,8 @@
       <c r="B124" s="52">
         <v>99</v>
       </c>
-      <c r="C124" s="120"/>
-      <c r="D124" s="110"/>
+      <c r="C124" s="71"/>
+      <c r="D124" s="67"/>
       <c r="E124" s="48" t="s">
         <v>14</v>
       </c>
@@ -6756,8 +6756,8 @@
       <c r="B125" s="52">
         <v>100</v>
       </c>
-      <c r="C125" s="120"/>
-      <c r="D125" s="110"/>
+      <c r="C125" s="71"/>
+      <c r="D125" s="67"/>
       <c r="E125" s="48" t="s">
         <v>16</v>
       </c>
@@ -6795,8 +6795,8 @@
       <c r="B126" s="52">
         <v>101</v>
       </c>
-      <c r="C126" s="120"/>
-      <c r="D126" s="110"/>
+      <c r="C126" s="71"/>
+      <c r="D126" s="67"/>
       <c r="E126" s="48" t="s">
         <v>15</v>
       </c>
@@ -6834,8 +6834,8 @@
       <c r="B127" s="52">
         <v>102</v>
       </c>
-      <c r="C127" s="120"/>
-      <c r="D127" s="110"/>
+      <c r="C127" s="71"/>
+      <c r="D127" s="67"/>
       <c r="E127" s="48" t="s">
         <v>17</v>
       </c>
@@ -6873,50 +6873,50 @@
       <c r="B128" s="52">
         <v>103</v>
       </c>
-      <c r="C128" s="120"/>
-      <c r="D128" s="110"/>
+      <c r="C128" s="71"/>
+      <c r="D128" s="67"/>
       <c r="E128" s="48" t="s">
         <v>36</v>
       </c>
       <c r="F128" s="43"/>
-      <c r="G128" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="H128" s="64"/>
-      <c r="I128" s="65"/>
+      <c r="G128" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="H128" s="94"/>
+      <c r="I128" s="95"/>
       <c r="J128" s="30"/>
-      <c r="K128" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="L128" s="64"/>
-      <c r="M128" s="65"/>
+      <c r="K128" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="L128" s="94"/>
+      <c r="M128" s="95"/>
       <c r="N128" s="30"/>
-      <c r="O128" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="P128" s="64"/>
-      <c r="Q128" s="65"/>
+      <c r="O128" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="P128" s="94"/>
+      <c r="Q128" s="95"/>
       <c r="R128" s="38">
         <v>265</v>
       </c>
       <c r="S128" s="30"/>
-      <c r="T128" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="U128" s="64"/>
-      <c r="V128" s="65"/>
+      <c r="T128" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="U128" s="94"/>
+      <c r="V128" s="95"/>
       <c r="W128" s="30"/>
-      <c r="X128" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y128" s="64"/>
-      <c r="Z128" s="65"/>
+      <c r="X128" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y128" s="94"/>
+      <c r="Z128" s="95"/>
       <c r="AA128" s="30"/>
-      <c r="AB128" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC128" s="64"/>
-      <c r="AD128" s="65"/>
+      <c r="AB128" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC128" s="94"/>
+      <c r="AD128" s="95"/>
       <c r="AE128" s="10"/>
     </row>
     <row r="129" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6924,38 +6924,38 @@
       <c r="B129" s="52">
         <v>104</v>
       </c>
-      <c r="C129" s="120"/>
-      <c r="D129" s="110"/>
+      <c r="C129" s="71"/>
+      <c r="D129" s="67"/>
       <c r="E129" s="48" t="s">
         <v>37</v>
       </c>
       <c r="F129" s="43"/>
-      <c r="G129" s="66"/>
-      <c r="H129" s="64"/>
-      <c r="I129" s="65"/>
+      <c r="G129" s="96"/>
+      <c r="H129" s="94"/>
+      <c r="I129" s="95"/>
       <c r="J129" s="30"/>
-      <c r="K129" s="66"/>
-      <c r="L129" s="64"/>
-      <c r="M129" s="65"/>
+      <c r="K129" s="96"/>
+      <c r="L129" s="94"/>
+      <c r="M129" s="95"/>
       <c r="N129" s="30"/>
-      <c r="O129" s="66"/>
-      <c r="P129" s="64"/>
-      <c r="Q129" s="65"/>
+      <c r="O129" s="96"/>
+      <c r="P129" s="94"/>
+      <c r="Q129" s="95"/>
       <c r="R129" s="38">
         <v>266</v>
       </c>
       <c r="S129" s="30"/>
-      <c r="T129" s="66"/>
-      <c r="U129" s="64"/>
-      <c r="V129" s="65"/>
+      <c r="T129" s="96"/>
+      <c r="U129" s="94"/>
+      <c r="V129" s="95"/>
       <c r="W129" s="30"/>
-      <c r="X129" s="66"/>
-      <c r="Y129" s="64"/>
-      <c r="Z129" s="65"/>
+      <c r="X129" s="96"/>
+      <c r="Y129" s="94"/>
+      <c r="Z129" s="95"/>
       <c r="AA129" s="30"/>
-      <c r="AB129" s="66"/>
-      <c r="AC129" s="64"/>
-      <c r="AD129" s="65"/>
+      <c r="AB129" s="96"/>
+      <c r="AC129" s="94"/>
+      <c r="AD129" s="95"/>
       <c r="AE129" s="10"/>
     </row>
     <row r="130" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6963,38 +6963,38 @@
       <c r="B130" s="52">
         <v>105</v>
       </c>
-      <c r="C130" s="120"/>
-      <c r="D130" s="110"/>
+      <c r="C130" s="71"/>
+      <c r="D130" s="67"/>
       <c r="E130" s="48" t="s">
         <v>38</v>
       </c>
       <c r="F130" s="43"/>
-      <c r="G130" s="66"/>
-      <c r="H130" s="64"/>
-      <c r="I130" s="65"/>
+      <c r="G130" s="96"/>
+      <c r="H130" s="94"/>
+      <c r="I130" s="95"/>
       <c r="J130" s="30"/>
-      <c r="K130" s="66"/>
-      <c r="L130" s="64"/>
-      <c r="M130" s="65"/>
+      <c r="K130" s="96"/>
+      <c r="L130" s="94"/>
+      <c r="M130" s="95"/>
       <c r="N130" s="30"/>
-      <c r="O130" s="66"/>
-      <c r="P130" s="64"/>
-      <c r="Q130" s="65"/>
+      <c r="O130" s="96"/>
+      <c r="P130" s="94"/>
+      <c r="Q130" s="95"/>
       <c r="R130" s="38">
         <v>267</v>
       </c>
       <c r="S130" s="30"/>
-      <c r="T130" s="66"/>
-      <c r="U130" s="64"/>
-      <c r="V130" s="65"/>
+      <c r="T130" s="96"/>
+      <c r="U130" s="94"/>
+      <c r="V130" s="95"/>
       <c r="W130" s="30"/>
-      <c r="X130" s="66"/>
-      <c r="Y130" s="64"/>
-      <c r="Z130" s="65"/>
+      <c r="X130" s="96"/>
+      <c r="Y130" s="94"/>
+      <c r="Z130" s="95"/>
       <c r="AA130" s="30"/>
-      <c r="AB130" s="66"/>
-      <c r="AC130" s="64"/>
-      <c r="AD130" s="65"/>
+      <c r="AB130" s="96"/>
+      <c r="AC130" s="94"/>
+      <c r="AD130" s="95"/>
       <c r="AE130" s="10"/>
     </row>
     <row r="131" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7002,38 +7002,38 @@
       <c r="B131" s="52">
         <v>106</v>
       </c>
-      <c r="C131" s="120"/>
-      <c r="D131" s="110"/>
+      <c r="C131" s="71"/>
+      <c r="D131" s="67"/>
       <c r="E131" s="48" t="s">
         <v>39</v>
       </c>
       <c r="F131" s="43"/>
-      <c r="G131" s="66"/>
-      <c r="H131" s="64"/>
-      <c r="I131" s="65"/>
+      <c r="G131" s="96"/>
+      <c r="H131" s="94"/>
+      <c r="I131" s="95"/>
       <c r="J131" s="30"/>
-      <c r="K131" s="66"/>
-      <c r="L131" s="64"/>
-      <c r="M131" s="65"/>
+      <c r="K131" s="96"/>
+      <c r="L131" s="94"/>
+      <c r="M131" s="95"/>
       <c r="N131" s="30"/>
-      <c r="O131" s="66"/>
-      <c r="P131" s="64"/>
-      <c r="Q131" s="65"/>
+      <c r="O131" s="96"/>
+      <c r="P131" s="94"/>
+      <c r="Q131" s="95"/>
       <c r="R131" s="38">
         <v>268</v>
       </c>
       <c r="S131" s="30"/>
-      <c r="T131" s="66"/>
-      <c r="U131" s="64"/>
-      <c r="V131" s="65"/>
+      <c r="T131" s="96"/>
+      <c r="U131" s="94"/>
+      <c r="V131" s="95"/>
       <c r="W131" s="30"/>
-      <c r="X131" s="66"/>
-      <c r="Y131" s="64"/>
-      <c r="Z131" s="65"/>
+      <c r="X131" s="96"/>
+      <c r="Y131" s="94"/>
+      <c r="Z131" s="95"/>
       <c r="AA131" s="30"/>
-      <c r="AB131" s="66"/>
-      <c r="AC131" s="64"/>
-      <c r="AD131" s="65"/>
+      <c r="AB131" s="96"/>
+      <c r="AC131" s="94"/>
+      <c r="AD131" s="95"/>
       <c r="AE131" s="10"/>
     </row>
     <row r="132" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7041,38 +7041,38 @@
       <c r="B132" s="52">
         <v>107</v>
       </c>
-      <c r="C132" s="120"/>
-      <c r="D132" s="110"/>
+      <c r="C132" s="71"/>
+      <c r="D132" s="67"/>
       <c r="E132" s="48" t="s">
         <v>40</v>
       </c>
       <c r="F132" s="43"/>
-      <c r="G132" s="66"/>
-      <c r="H132" s="64"/>
-      <c r="I132" s="65"/>
+      <c r="G132" s="96"/>
+      <c r="H132" s="94"/>
+      <c r="I132" s="95"/>
       <c r="J132" s="30"/>
-      <c r="K132" s="66"/>
-      <c r="L132" s="64"/>
-      <c r="M132" s="65"/>
+      <c r="K132" s="96"/>
+      <c r="L132" s="94"/>
+      <c r="M132" s="95"/>
       <c r="N132" s="30"/>
-      <c r="O132" s="66"/>
-      <c r="P132" s="64"/>
-      <c r="Q132" s="65"/>
+      <c r="O132" s="96"/>
+      <c r="P132" s="94"/>
+      <c r="Q132" s="95"/>
       <c r="R132" s="38">
         <v>269</v>
       </c>
       <c r="S132" s="30"/>
-      <c r="T132" s="66"/>
-      <c r="U132" s="64"/>
-      <c r="V132" s="65"/>
+      <c r="T132" s="96"/>
+      <c r="U132" s="94"/>
+      <c r="V132" s="95"/>
       <c r="W132" s="30"/>
-      <c r="X132" s="66"/>
-      <c r="Y132" s="64"/>
-      <c r="Z132" s="65"/>
+      <c r="X132" s="96"/>
+      <c r="Y132" s="94"/>
+      <c r="Z132" s="95"/>
       <c r="AA132" s="30"/>
-      <c r="AB132" s="66"/>
-      <c r="AC132" s="64"/>
-      <c r="AD132" s="65"/>
+      <c r="AB132" s="96"/>
+      <c r="AC132" s="94"/>
+      <c r="AD132" s="95"/>
       <c r="AE132" s="10"/>
     </row>
     <row r="133" spans="1:31" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7080,38 +7080,38 @@
       <c r="B133" s="52">
         <v>108</v>
       </c>
-      <c r="C133" s="121"/>
-      <c r="D133" s="118"/>
+      <c r="C133" s="72"/>
+      <c r="D133" s="69"/>
       <c r="E133" s="51" t="s">
         <v>41</v>
       </c>
       <c r="F133" s="46"/>
-      <c r="G133" s="67"/>
-      <c r="H133" s="68"/>
-      <c r="I133" s="69"/>
+      <c r="G133" s="97"/>
+      <c r="H133" s="98"/>
+      <c r="I133" s="99"/>
       <c r="J133" s="33"/>
-      <c r="K133" s="67"/>
-      <c r="L133" s="68"/>
-      <c r="M133" s="69"/>
+      <c r="K133" s="97"/>
+      <c r="L133" s="98"/>
+      <c r="M133" s="99"/>
       <c r="N133" s="33"/>
-      <c r="O133" s="67"/>
-      <c r="P133" s="68"/>
-      <c r="Q133" s="69"/>
+      <c r="O133" s="97"/>
+      <c r="P133" s="98"/>
+      <c r="Q133" s="99"/>
       <c r="R133" s="38">
         <v>270</v>
       </c>
       <c r="S133" s="33"/>
-      <c r="T133" s="67"/>
-      <c r="U133" s="68"/>
-      <c r="V133" s="69"/>
+      <c r="T133" s="97"/>
+      <c r="U133" s="98"/>
+      <c r="V133" s="99"/>
       <c r="W133" s="33"/>
-      <c r="X133" s="67"/>
-      <c r="Y133" s="68"/>
-      <c r="Z133" s="69"/>
+      <c r="X133" s="97"/>
+      <c r="Y133" s="98"/>
+      <c r="Z133" s="99"/>
       <c r="AA133" s="33"/>
-      <c r="AB133" s="67"/>
-      <c r="AC133" s="68"/>
-      <c r="AD133" s="69"/>
+      <c r="AB133" s="97"/>
+      <c r="AC133" s="98"/>
+      <c r="AD133" s="99"/>
       <c r="AE133" s="10"/>
     </row>
     <row r="134" spans="1:31" ht="24.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -7119,10 +7119,10 @@
       <c r="B134" s="52">
         <v>109</v>
       </c>
-      <c r="C134" s="120" t="s">
+      <c r="C134" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="D134" s="110" t="s">
+      <c r="D134" s="67" t="s">
         <v>6</v>
       </c>
       <c r="E134" s="48" t="s">
@@ -7162,8 +7162,8 @@
       <c r="B135" s="52">
         <v>110</v>
       </c>
-      <c r="C135" s="120"/>
-      <c r="D135" s="110"/>
+      <c r="C135" s="71"/>
+      <c r="D135" s="67"/>
       <c r="E135" s="48" t="s">
         <v>8</v>
       </c>
@@ -7201,8 +7201,8 @@
       <c r="B136" s="52">
         <v>111</v>
       </c>
-      <c r="C136" s="120"/>
-      <c r="D136" s="111"/>
+      <c r="C136" s="71"/>
+      <c r="D136" s="68"/>
       <c r="E136" s="48" t="s">
         <v>9</v>
       </c>
@@ -7240,8 +7240,8 @@
       <c r="B137" s="52">
         <v>112</v>
       </c>
-      <c r="C137" s="120"/>
-      <c r="D137" s="112" t="s">
+      <c r="C137" s="71"/>
+      <c r="D137" s="66" t="s">
         <v>18</v>
       </c>
       <c r="E137" s="50" t="s">
@@ -7281,8 +7281,8 @@
       <c r="B138" s="52">
         <v>113</v>
       </c>
-      <c r="C138" s="120"/>
-      <c r="D138" s="110"/>
+      <c r="C138" s="71"/>
+      <c r="D138" s="67"/>
       <c r="E138" s="48" t="s">
         <v>13</v>
       </c>
@@ -7320,8 +7320,8 @@
       <c r="B139" s="52">
         <v>114</v>
       </c>
-      <c r="C139" s="120"/>
-      <c r="D139" s="110"/>
+      <c r="C139" s="71"/>
+      <c r="D139" s="67"/>
       <c r="E139" s="48" t="s">
         <v>10</v>
       </c>
@@ -7359,8 +7359,8 @@
       <c r="B140" s="52">
         <v>115</v>
       </c>
-      <c r="C140" s="120"/>
-      <c r="D140" s="110"/>
+      <c r="C140" s="71"/>
+      <c r="D140" s="67"/>
       <c r="E140" s="48" t="s">
         <v>11</v>
       </c>
@@ -7398,8 +7398,8 @@
       <c r="B141" s="52">
         <v>116</v>
       </c>
-      <c r="C141" s="120"/>
-      <c r="D141" s="110"/>
+      <c r="C141" s="71"/>
+      <c r="D141" s="67"/>
       <c r="E141" s="48" t="s">
         <v>21</v>
       </c>
@@ -7437,8 +7437,8 @@
       <c r="B142" s="52">
         <v>117</v>
       </c>
-      <c r="C142" s="120"/>
-      <c r="D142" s="110"/>
+      <c r="C142" s="71"/>
+      <c r="D142" s="67"/>
       <c r="E142" s="48" t="s">
         <v>22</v>
       </c>
@@ -7476,8 +7476,8 @@
       <c r="B143" s="52">
         <v>118</v>
       </c>
-      <c r="C143" s="120"/>
-      <c r="D143" s="110"/>
+      <c r="C143" s="71"/>
+      <c r="D143" s="67"/>
       <c r="E143" s="48" t="s">
         <v>23</v>
       </c>
@@ -7515,8 +7515,8 @@
       <c r="B144" s="52">
         <v>119</v>
       </c>
-      <c r="C144" s="120"/>
-      <c r="D144" s="110"/>
+      <c r="C144" s="71"/>
+      <c r="D144" s="67"/>
       <c r="E144" s="48" t="s">
         <v>14</v>
       </c>
@@ -7554,8 +7554,8 @@
       <c r="B145" s="52">
         <v>120</v>
       </c>
-      <c r="C145" s="120"/>
-      <c r="D145" s="110"/>
+      <c r="C145" s="71"/>
+      <c r="D145" s="67"/>
       <c r="E145" s="48" t="s">
         <v>16</v>
       </c>
@@ -7593,8 +7593,8 @@
       <c r="B146" s="52">
         <v>121</v>
       </c>
-      <c r="C146" s="120"/>
-      <c r="D146" s="110"/>
+      <c r="C146" s="71"/>
+      <c r="D146" s="67"/>
       <c r="E146" s="48" t="s">
         <v>15</v>
       </c>
@@ -7632,8 +7632,8 @@
       <c r="B147" s="52">
         <v>122</v>
       </c>
-      <c r="C147" s="120"/>
-      <c r="D147" s="110"/>
+      <c r="C147" s="71"/>
+      <c r="D147" s="67"/>
       <c r="E147" s="48" t="s">
         <v>17</v>
       </c>
@@ -7671,50 +7671,50 @@
       <c r="B148" s="52">
         <v>123</v>
       </c>
-      <c r="C148" s="120"/>
-      <c r="D148" s="110"/>
+      <c r="C148" s="71"/>
+      <c r="D148" s="67"/>
       <c r="E148" s="48" t="s">
         <v>36</v>
       </c>
       <c r="F148" s="43"/>
-      <c r="G148" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="H148" s="64"/>
-      <c r="I148" s="65"/>
+      <c r="G148" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="H148" s="94"/>
+      <c r="I148" s="95"/>
       <c r="J148" s="30"/>
-      <c r="K148" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="L148" s="64"/>
-      <c r="M148" s="65"/>
+      <c r="K148" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="L148" s="94"/>
+      <c r="M148" s="95"/>
       <c r="N148" s="30"/>
-      <c r="O148" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="P148" s="64"/>
-      <c r="Q148" s="65"/>
+      <c r="O148" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="P148" s="94"/>
+      <c r="Q148" s="95"/>
       <c r="R148" s="38">
         <v>285</v>
       </c>
       <c r="S148" s="30"/>
-      <c r="T148" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="U148" s="64"/>
-      <c r="V148" s="65"/>
+      <c r="T148" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="U148" s="94"/>
+      <c r="V148" s="95"/>
       <c r="W148" s="30"/>
-      <c r="X148" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y148" s="64"/>
-      <c r="Z148" s="65"/>
+      <c r="X148" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y148" s="94"/>
+      <c r="Z148" s="95"/>
       <c r="AA148" s="30"/>
-      <c r="AB148" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC148" s="64"/>
-      <c r="AD148" s="65"/>
+      <c r="AB148" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC148" s="94"/>
+      <c r="AD148" s="95"/>
       <c r="AE148" s="10"/>
     </row>
     <row r="149" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7722,38 +7722,38 @@
       <c r="B149" s="52">
         <v>124</v>
       </c>
-      <c r="C149" s="120"/>
-      <c r="D149" s="110"/>
+      <c r="C149" s="71"/>
+      <c r="D149" s="67"/>
       <c r="E149" s="48" t="s">
         <v>37</v>
       </c>
       <c r="F149" s="43"/>
-      <c r="G149" s="66"/>
-      <c r="H149" s="64"/>
-      <c r="I149" s="65"/>
+      <c r="G149" s="96"/>
+      <c r="H149" s="94"/>
+      <c r="I149" s="95"/>
       <c r="J149" s="30"/>
-      <c r="K149" s="66"/>
-      <c r="L149" s="64"/>
-      <c r="M149" s="65"/>
+      <c r="K149" s="96"/>
+      <c r="L149" s="94"/>
+      <c r="M149" s="95"/>
       <c r="N149" s="30"/>
-      <c r="O149" s="66"/>
-      <c r="P149" s="64"/>
-      <c r="Q149" s="65"/>
+      <c r="O149" s="96"/>
+      <c r="P149" s="94"/>
+      <c r="Q149" s="95"/>
       <c r="R149" s="38">
         <v>286</v>
       </c>
       <c r="S149" s="30"/>
-      <c r="T149" s="66"/>
-      <c r="U149" s="64"/>
-      <c r="V149" s="65"/>
+      <c r="T149" s="96"/>
+      <c r="U149" s="94"/>
+      <c r="V149" s="95"/>
       <c r="W149" s="30"/>
-      <c r="X149" s="66"/>
-      <c r="Y149" s="64"/>
-      <c r="Z149" s="65"/>
+      <c r="X149" s="96"/>
+      <c r="Y149" s="94"/>
+      <c r="Z149" s="95"/>
       <c r="AA149" s="30"/>
-      <c r="AB149" s="66"/>
-      <c r="AC149" s="64"/>
-      <c r="AD149" s="65"/>
+      <c r="AB149" s="96"/>
+      <c r="AC149" s="94"/>
+      <c r="AD149" s="95"/>
       <c r="AE149" s="10"/>
     </row>
     <row r="150" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7761,38 +7761,38 @@
       <c r="B150" s="52">
         <v>125</v>
       </c>
-      <c r="C150" s="120"/>
-      <c r="D150" s="110"/>
+      <c r="C150" s="71"/>
+      <c r="D150" s="67"/>
       <c r="E150" s="48" t="s">
         <v>38</v>
       </c>
       <c r="F150" s="43"/>
-      <c r="G150" s="66"/>
-      <c r="H150" s="64"/>
-      <c r="I150" s="65"/>
+      <c r="G150" s="96"/>
+      <c r="H150" s="94"/>
+      <c r="I150" s="95"/>
       <c r="J150" s="30"/>
-      <c r="K150" s="66"/>
-      <c r="L150" s="64"/>
-      <c r="M150" s="65"/>
+      <c r="K150" s="96"/>
+      <c r="L150" s="94"/>
+      <c r="M150" s="95"/>
       <c r="N150" s="30"/>
-      <c r="O150" s="66"/>
-      <c r="P150" s="64"/>
-      <c r="Q150" s="65"/>
+      <c r="O150" s="96"/>
+      <c r="P150" s="94"/>
+      <c r="Q150" s="95"/>
       <c r="R150" s="38">
         <v>287</v>
       </c>
       <c r="S150" s="30"/>
-      <c r="T150" s="66"/>
-      <c r="U150" s="64"/>
-      <c r="V150" s="65"/>
+      <c r="T150" s="96"/>
+      <c r="U150" s="94"/>
+      <c r="V150" s="95"/>
       <c r="W150" s="30"/>
-      <c r="X150" s="66"/>
-      <c r="Y150" s="64"/>
-      <c r="Z150" s="65"/>
+      <c r="X150" s="96"/>
+      <c r="Y150" s="94"/>
+      <c r="Z150" s="95"/>
       <c r="AA150" s="30"/>
-      <c r="AB150" s="66"/>
-      <c r="AC150" s="64"/>
-      <c r="AD150" s="65"/>
+      <c r="AB150" s="96"/>
+      <c r="AC150" s="94"/>
+      <c r="AD150" s="95"/>
       <c r="AE150" s="10"/>
     </row>
     <row r="151" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7800,38 +7800,38 @@
       <c r="B151" s="52">
         <v>126</v>
       </c>
-      <c r="C151" s="120"/>
-      <c r="D151" s="110"/>
+      <c r="C151" s="71"/>
+      <c r="D151" s="67"/>
       <c r="E151" s="48" t="s">
         <v>39</v>
       </c>
       <c r="F151" s="43"/>
-      <c r="G151" s="66"/>
-      <c r="H151" s="64"/>
-      <c r="I151" s="65"/>
+      <c r="G151" s="96"/>
+      <c r="H151" s="94"/>
+      <c r="I151" s="95"/>
       <c r="J151" s="30"/>
-      <c r="K151" s="66"/>
-      <c r="L151" s="64"/>
-      <c r="M151" s="65"/>
+      <c r="K151" s="96"/>
+      <c r="L151" s="94"/>
+      <c r="M151" s="95"/>
       <c r="N151" s="30"/>
-      <c r="O151" s="66"/>
-      <c r="P151" s="64"/>
-      <c r="Q151" s="65"/>
+      <c r="O151" s="96"/>
+      <c r="P151" s="94"/>
+      <c r="Q151" s="95"/>
       <c r="R151" s="38">
         <v>288</v>
       </c>
       <c r="S151" s="30"/>
-      <c r="T151" s="66"/>
-      <c r="U151" s="64"/>
-      <c r="V151" s="65"/>
+      <c r="T151" s="96"/>
+      <c r="U151" s="94"/>
+      <c r="V151" s="95"/>
       <c r="W151" s="30"/>
-      <c r="X151" s="66"/>
-      <c r="Y151" s="64"/>
-      <c r="Z151" s="65"/>
+      <c r="X151" s="96"/>
+      <c r="Y151" s="94"/>
+      <c r="Z151" s="95"/>
       <c r="AA151" s="30"/>
-      <c r="AB151" s="66"/>
-      <c r="AC151" s="64"/>
-      <c r="AD151" s="65"/>
+      <c r="AB151" s="96"/>
+      <c r="AC151" s="94"/>
+      <c r="AD151" s="95"/>
       <c r="AE151" s="10"/>
     </row>
     <row r="152" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7839,38 +7839,38 @@
       <c r="B152" s="52">
         <v>127</v>
       </c>
-      <c r="C152" s="120"/>
-      <c r="D152" s="110"/>
+      <c r="C152" s="71"/>
+      <c r="D152" s="67"/>
       <c r="E152" s="48" t="s">
         <v>40</v>
       </c>
       <c r="F152" s="43"/>
-      <c r="G152" s="66"/>
-      <c r="H152" s="64"/>
-      <c r="I152" s="65"/>
+      <c r="G152" s="96"/>
+      <c r="H152" s="94"/>
+      <c r="I152" s="95"/>
       <c r="J152" s="30"/>
-      <c r="K152" s="66"/>
-      <c r="L152" s="64"/>
-      <c r="M152" s="65"/>
+      <c r="K152" s="96"/>
+      <c r="L152" s="94"/>
+      <c r="M152" s="95"/>
       <c r="N152" s="30"/>
-      <c r="O152" s="66"/>
-      <c r="P152" s="64"/>
-      <c r="Q152" s="65"/>
+      <c r="O152" s="96"/>
+      <c r="P152" s="94"/>
+      <c r="Q152" s="95"/>
       <c r="R152" s="38">
         <v>289</v>
       </c>
       <c r="S152" s="30"/>
-      <c r="T152" s="66"/>
-      <c r="U152" s="64"/>
-      <c r="V152" s="65"/>
+      <c r="T152" s="96"/>
+      <c r="U152" s="94"/>
+      <c r="V152" s="95"/>
       <c r="W152" s="30"/>
-      <c r="X152" s="66"/>
-      <c r="Y152" s="64"/>
-      <c r="Z152" s="65"/>
+      <c r="X152" s="96"/>
+      <c r="Y152" s="94"/>
+      <c r="Z152" s="95"/>
       <c r="AA152" s="30"/>
-      <c r="AB152" s="66"/>
-      <c r="AC152" s="64"/>
-      <c r="AD152" s="65"/>
+      <c r="AB152" s="96"/>
+      <c r="AC152" s="94"/>
+      <c r="AD152" s="95"/>
       <c r="AE152" s="10"/>
     </row>
     <row r="153" spans="1:31" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7878,38 +7878,38 @@
       <c r="B153" s="52">
         <v>128</v>
       </c>
-      <c r="C153" s="120"/>
-      <c r="D153" s="111"/>
+      <c r="C153" s="71"/>
+      <c r="D153" s="68"/>
       <c r="E153" s="49" t="s">
         <v>41</v>
       </c>
       <c r="F153" s="44"/>
-      <c r="G153" s="67"/>
-      <c r="H153" s="68"/>
-      <c r="I153" s="69"/>
+      <c r="G153" s="97"/>
+      <c r="H153" s="98"/>
+      <c r="I153" s="99"/>
       <c r="J153" s="31"/>
-      <c r="K153" s="67"/>
-      <c r="L153" s="68"/>
-      <c r="M153" s="69"/>
+      <c r="K153" s="97"/>
+      <c r="L153" s="98"/>
+      <c r="M153" s="99"/>
       <c r="N153" s="31"/>
-      <c r="O153" s="67"/>
-      <c r="P153" s="68"/>
-      <c r="Q153" s="69"/>
+      <c r="O153" s="97"/>
+      <c r="P153" s="98"/>
+      <c r="Q153" s="99"/>
       <c r="R153" s="38">
         <v>290</v>
       </c>
       <c r="S153" s="31"/>
-      <c r="T153" s="67"/>
-      <c r="U153" s="68"/>
-      <c r="V153" s="69"/>
+      <c r="T153" s="97"/>
+      <c r="U153" s="98"/>
+      <c r="V153" s="99"/>
       <c r="W153" s="31"/>
-      <c r="X153" s="67"/>
-      <c r="Y153" s="68"/>
-      <c r="Z153" s="69"/>
+      <c r="X153" s="97"/>
+      <c r="Y153" s="98"/>
+      <c r="Z153" s="99"/>
       <c r="AA153" s="31"/>
-      <c r="AB153" s="67"/>
-      <c r="AC153" s="68"/>
-      <c r="AD153" s="69"/>
+      <c r="AB153" s="97"/>
+      <c r="AC153" s="98"/>
+      <c r="AD153" s="99"/>
       <c r="AE153" s="10"/>
     </row>
     <row r="154" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7917,8 +7917,8 @@
       <c r="B154" s="52">
         <v>129</v>
       </c>
-      <c r="C154" s="120"/>
-      <c r="D154" s="112" t="s">
+      <c r="C154" s="71"/>
+      <c r="D154" s="66" t="s">
         <v>19</v>
       </c>
       <c r="E154" s="48" t="s">
@@ -7958,8 +7958,8 @@
       <c r="B155" s="52">
         <v>130</v>
       </c>
-      <c r="C155" s="120"/>
-      <c r="D155" s="110"/>
+      <c r="C155" s="71"/>
+      <c r="D155" s="67"/>
       <c r="E155" s="48" t="s">
         <v>13</v>
       </c>
@@ -7997,8 +7997,8 @@
       <c r="B156" s="52">
         <v>131</v>
       </c>
-      <c r="C156" s="120"/>
-      <c r="D156" s="110"/>
+      <c r="C156" s="71"/>
+      <c r="D156" s="67"/>
       <c r="E156" s="48" t="s">
         <v>10</v>
       </c>
@@ -8036,8 +8036,8 @@
       <c r="B157" s="52">
         <v>132</v>
       </c>
-      <c r="C157" s="120"/>
-      <c r="D157" s="110"/>
+      <c r="C157" s="71"/>
+      <c r="D157" s="67"/>
       <c r="E157" s="48" t="s">
         <v>11</v>
       </c>
@@ -8075,8 +8075,8 @@
       <c r="B158" s="52">
         <v>133</v>
       </c>
-      <c r="C158" s="120"/>
-      <c r="D158" s="110"/>
+      <c r="C158" s="71"/>
+      <c r="D158" s="67"/>
       <c r="E158" s="48" t="s">
         <v>21</v>
       </c>
@@ -8114,8 +8114,8 @@
       <c r="B159" s="52">
         <v>134</v>
       </c>
-      <c r="C159" s="120"/>
-      <c r="D159" s="110"/>
+      <c r="C159" s="71"/>
+      <c r="D159" s="67"/>
       <c r="E159" s="48" t="s">
         <v>22</v>
       </c>
@@ -8153,8 +8153,8 @@
       <c r="B160" s="52">
         <v>135</v>
       </c>
-      <c r="C160" s="120"/>
-      <c r="D160" s="110"/>
+      <c r="C160" s="71"/>
+      <c r="D160" s="67"/>
       <c r="E160" s="48" t="s">
         <v>23</v>
       </c>
@@ -8192,8 +8192,8 @@
       <c r="B161" s="52">
         <v>136</v>
       </c>
-      <c r="C161" s="120"/>
-      <c r="D161" s="110"/>
+      <c r="C161" s="71"/>
+      <c r="D161" s="67"/>
       <c r="E161" s="48" t="s">
         <v>14</v>
       </c>
@@ -8231,8 +8231,8 @@
       <c r="B162" s="52">
         <v>137</v>
       </c>
-      <c r="C162" s="120"/>
-      <c r="D162" s="110"/>
+      <c r="C162" s="71"/>
+      <c r="D162" s="67"/>
       <c r="E162" s="48" t="s">
         <v>16</v>
       </c>
@@ -8270,8 +8270,8 @@
       <c r="B163" s="52">
         <v>138</v>
       </c>
-      <c r="C163" s="120"/>
-      <c r="D163" s="110"/>
+      <c r="C163" s="71"/>
+      <c r="D163" s="67"/>
       <c r="E163" s="48" t="s">
         <v>15</v>
       </c>
@@ -8309,8 +8309,8 @@
       <c r="B164" s="52">
         <v>139</v>
       </c>
-      <c r="C164" s="120"/>
-      <c r="D164" s="110"/>
+      <c r="C164" s="71"/>
+      <c r="D164" s="67"/>
       <c r="E164" s="48" t="s">
         <v>17</v>
       </c>
@@ -8348,50 +8348,50 @@
       <c r="B165" s="52">
         <v>140</v>
       </c>
-      <c r="C165" s="120"/>
-      <c r="D165" s="110"/>
+      <c r="C165" s="71"/>
+      <c r="D165" s="67"/>
       <c r="E165" s="48" t="s">
         <v>36</v>
       </c>
       <c r="F165" s="43"/>
-      <c r="G165" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="H165" s="64"/>
-      <c r="I165" s="65"/>
+      <c r="G165" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="H165" s="94"/>
+      <c r="I165" s="95"/>
       <c r="J165" s="30"/>
-      <c r="K165" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="L165" s="64"/>
-      <c r="M165" s="65"/>
+      <c r="K165" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="L165" s="94"/>
+      <c r="M165" s="95"/>
       <c r="N165" s="30"/>
-      <c r="O165" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="P165" s="64"/>
-      <c r="Q165" s="65"/>
+      <c r="O165" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="P165" s="94"/>
+      <c r="Q165" s="95"/>
       <c r="R165" s="38">
         <v>302</v>
       </c>
       <c r="S165" s="30"/>
-      <c r="T165" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="U165" s="64"/>
-      <c r="V165" s="65"/>
+      <c r="T165" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="U165" s="94"/>
+      <c r="V165" s="95"/>
       <c r="W165" s="30"/>
-      <c r="X165" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y165" s="64"/>
-      <c r="Z165" s="65"/>
+      <c r="X165" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y165" s="94"/>
+      <c r="Z165" s="95"/>
       <c r="AA165" s="30"/>
-      <c r="AB165" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC165" s="64"/>
-      <c r="AD165" s="65"/>
+      <c r="AB165" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC165" s="94"/>
+      <c r="AD165" s="95"/>
       <c r="AE165" s="10"/>
     </row>
     <row r="166" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8399,38 +8399,38 @@
       <c r="B166" s="52">
         <v>141</v>
       </c>
-      <c r="C166" s="120"/>
-      <c r="D166" s="110"/>
+      <c r="C166" s="71"/>
+      <c r="D166" s="67"/>
       <c r="E166" s="48" t="s">
         <v>37</v>
       </c>
       <c r="F166" s="43"/>
-      <c r="G166" s="66"/>
-      <c r="H166" s="64"/>
-      <c r="I166" s="65"/>
+      <c r="G166" s="96"/>
+      <c r="H166" s="94"/>
+      <c r="I166" s="95"/>
       <c r="J166" s="30"/>
-      <c r="K166" s="66"/>
-      <c r="L166" s="64"/>
-      <c r="M166" s="65"/>
+      <c r="K166" s="96"/>
+      <c r="L166" s="94"/>
+      <c r="M166" s="95"/>
       <c r="N166" s="30"/>
-      <c r="O166" s="66"/>
-      <c r="P166" s="64"/>
-      <c r="Q166" s="65"/>
+      <c r="O166" s="96"/>
+      <c r="P166" s="94"/>
+      <c r="Q166" s="95"/>
       <c r="R166" s="38">
         <v>303</v>
       </c>
       <c r="S166" s="30"/>
-      <c r="T166" s="66"/>
-      <c r="U166" s="64"/>
-      <c r="V166" s="65"/>
+      <c r="T166" s="96"/>
+      <c r="U166" s="94"/>
+      <c r="V166" s="95"/>
       <c r="W166" s="30"/>
-      <c r="X166" s="66"/>
-      <c r="Y166" s="64"/>
-      <c r="Z166" s="65"/>
+      <c r="X166" s="96"/>
+      <c r="Y166" s="94"/>
+      <c r="Z166" s="95"/>
       <c r="AA166" s="30"/>
-      <c r="AB166" s="66"/>
-      <c r="AC166" s="64"/>
-      <c r="AD166" s="65"/>
+      <c r="AB166" s="96"/>
+      <c r="AC166" s="94"/>
+      <c r="AD166" s="95"/>
       <c r="AE166" s="10"/>
     </row>
     <row r="167" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8438,38 +8438,38 @@
       <c r="B167" s="52">
         <v>142</v>
       </c>
-      <c r="C167" s="120"/>
-      <c r="D167" s="110"/>
+      <c r="C167" s="71"/>
+      <c r="D167" s="67"/>
       <c r="E167" s="48" t="s">
         <v>38</v>
       </c>
       <c r="F167" s="43"/>
-      <c r="G167" s="66"/>
-      <c r="H167" s="64"/>
-      <c r="I167" s="65"/>
+      <c r="G167" s="96"/>
+      <c r="H167" s="94"/>
+      <c r="I167" s="95"/>
       <c r="J167" s="30"/>
-      <c r="K167" s="66"/>
-      <c r="L167" s="64"/>
-      <c r="M167" s="65"/>
+      <c r="K167" s="96"/>
+      <c r="L167" s="94"/>
+      <c r="M167" s="95"/>
       <c r="N167" s="30"/>
-      <c r="O167" s="66"/>
-      <c r="P167" s="64"/>
-      <c r="Q167" s="65"/>
+      <c r="O167" s="96"/>
+      <c r="P167" s="94"/>
+      <c r="Q167" s="95"/>
       <c r="R167" s="38">
         <v>304</v>
       </c>
       <c r="S167" s="30"/>
-      <c r="T167" s="66"/>
-      <c r="U167" s="64"/>
-      <c r="V167" s="65"/>
+      <c r="T167" s="96"/>
+      <c r="U167" s="94"/>
+      <c r="V167" s="95"/>
       <c r="W167" s="30"/>
-      <c r="X167" s="66"/>
-      <c r="Y167" s="64"/>
-      <c r="Z167" s="65"/>
+      <c r="X167" s="96"/>
+      <c r="Y167" s="94"/>
+      <c r="Z167" s="95"/>
       <c r="AA167" s="30"/>
-      <c r="AB167" s="66"/>
-      <c r="AC167" s="64"/>
-      <c r="AD167" s="65"/>
+      <c r="AB167" s="96"/>
+      <c r="AC167" s="94"/>
+      <c r="AD167" s="95"/>
       <c r="AE167" s="10"/>
     </row>
     <row r="168" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8477,38 +8477,38 @@
       <c r="B168" s="52">
         <v>143</v>
       </c>
-      <c r="C168" s="120"/>
-      <c r="D168" s="110"/>
+      <c r="C168" s="71"/>
+      <c r="D168" s="67"/>
       <c r="E168" s="48" t="s">
         <v>39</v>
       </c>
       <c r="F168" s="43"/>
-      <c r="G168" s="66"/>
-      <c r="H168" s="64"/>
-      <c r="I168" s="65"/>
+      <c r="G168" s="96"/>
+      <c r="H168" s="94"/>
+      <c r="I168" s="95"/>
       <c r="J168" s="30"/>
-      <c r="K168" s="66"/>
-      <c r="L168" s="64"/>
-      <c r="M168" s="65"/>
+      <c r="K168" s="96"/>
+      <c r="L168" s="94"/>
+      <c r="M168" s="95"/>
       <c r="N168" s="30"/>
-      <c r="O168" s="66"/>
-      <c r="P168" s="64"/>
-      <c r="Q168" s="65"/>
+      <c r="O168" s="96"/>
+      <c r="P168" s="94"/>
+      <c r="Q168" s="95"/>
       <c r="R168" s="38">
         <v>305</v>
       </c>
       <c r="S168" s="30"/>
-      <c r="T168" s="66"/>
-      <c r="U168" s="64"/>
-      <c r="V168" s="65"/>
+      <c r="T168" s="96"/>
+      <c r="U168" s="94"/>
+      <c r="V168" s="95"/>
       <c r="W168" s="30"/>
-      <c r="X168" s="66"/>
-      <c r="Y168" s="64"/>
-      <c r="Z168" s="65"/>
+      <c r="X168" s="96"/>
+      <c r="Y168" s="94"/>
+      <c r="Z168" s="95"/>
       <c r="AA168" s="30"/>
-      <c r="AB168" s="66"/>
-      <c r="AC168" s="64"/>
-      <c r="AD168" s="65"/>
+      <c r="AB168" s="96"/>
+      <c r="AC168" s="94"/>
+      <c r="AD168" s="95"/>
       <c r="AE168" s="10"/>
     </row>
     <row r="169" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8516,38 +8516,38 @@
       <c r="B169" s="52">
         <v>144</v>
       </c>
-      <c r="C169" s="120"/>
-      <c r="D169" s="110"/>
+      <c r="C169" s="71"/>
+      <c r="D169" s="67"/>
       <c r="E169" s="48" t="s">
         <v>40</v>
       </c>
       <c r="F169" s="43"/>
-      <c r="G169" s="66"/>
-      <c r="H169" s="64"/>
-      <c r="I169" s="65"/>
+      <c r="G169" s="96"/>
+      <c r="H169" s="94"/>
+      <c r="I169" s="95"/>
       <c r="J169" s="30"/>
-      <c r="K169" s="66"/>
-      <c r="L169" s="64"/>
-      <c r="M169" s="65"/>
+      <c r="K169" s="96"/>
+      <c r="L169" s="94"/>
+      <c r="M169" s="95"/>
       <c r="N169" s="30"/>
-      <c r="O169" s="66"/>
-      <c r="P169" s="64"/>
-      <c r="Q169" s="65"/>
+      <c r="O169" s="96"/>
+      <c r="P169" s="94"/>
+      <c r="Q169" s="95"/>
       <c r="R169" s="38">
         <v>306</v>
       </c>
       <c r="S169" s="30"/>
-      <c r="T169" s="66"/>
-      <c r="U169" s="64"/>
-      <c r="V169" s="65"/>
+      <c r="T169" s="96"/>
+      <c r="U169" s="94"/>
+      <c r="V169" s="95"/>
       <c r="W169" s="30"/>
-      <c r="X169" s="66"/>
-      <c r="Y169" s="64"/>
-      <c r="Z169" s="65"/>
+      <c r="X169" s="96"/>
+      <c r="Y169" s="94"/>
+      <c r="Z169" s="95"/>
       <c r="AA169" s="30"/>
-      <c r="AB169" s="66"/>
-      <c r="AC169" s="64"/>
-      <c r="AD169" s="65"/>
+      <c r="AB169" s="96"/>
+      <c r="AC169" s="94"/>
+      <c r="AD169" s="95"/>
       <c r="AE169" s="10"/>
     </row>
     <row r="170" spans="1:31" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8555,38 +8555,38 @@
       <c r="B170" s="52">
         <v>145</v>
       </c>
-      <c r="C170" s="120"/>
-      <c r="D170" s="111"/>
+      <c r="C170" s="71"/>
+      <c r="D170" s="68"/>
       <c r="E170" s="49" t="s">
         <v>41</v>
       </c>
       <c r="F170" s="44"/>
-      <c r="G170" s="67"/>
-      <c r="H170" s="68"/>
-      <c r="I170" s="69"/>
+      <c r="G170" s="97"/>
+      <c r="H170" s="98"/>
+      <c r="I170" s="99"/>
       <c r="J170" s="31"/>
-      <c r="K170" s="67"/>
-      <c r="L170" s="68"/>
-      <c r="M170" s="69"/>
+      <c r="K170" s="97"/>
+      <c r="L170" s="98"/>
+      <c r="M170" s="99"/>
       <c r="N170" s="31"/>
-      <c r="O170" s="67"/>
-      <c r="P170" s="68"/>
-      <c r="Q170" s="69"/>
+      <c r="O170" s="97"/>
+      <c r="P170" s="98"/>
+      <c r="Q170" s="99"/>
       <c r="R170" s="38">
         <v>307</v>
       </c>
       <c r="S170" s="31"/>
-      <c r="T170" s="67"/>
-      <c r="U170" s="68"/>
-      <c r="V170" s="69"/>
+      <c r="T170" s="97"/>
+      <c r="U170" s="98"/>
+      <c r="V170" s="99"/>
       <c r="W170" s="31"/>
-      <c r="X170" s="67"/>
-      <c r="Y170" s="68"/>
-      <c r="Z170" s="69"/>
+      <c r="X170" s="97"/>
+      <c r="Y170" s="98"/>
+      <c r="Z170" s="99"/>
       <c r="AA170" s="31"/>
-      <c r="AB170" s="67"/>
-      <c r="AC170" s="68"/>
-      <c r="AD170" s="69"/>
+      <c r="AB170" s="97"/>
+      <c r="AC170" s="98"/>
+      <c r="AD170" s="99"/>
       <c r="AE170" s="10"/>
     </row>
     <row r="171" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8594,8 +8594,8 @@
       <c r="B171" s="52">
         <v>146</v>
       </c>
-      <c r="C171" s="120"/>
-      <c r="D171" s="112" t="s">
+      <c r="C171" s="71"/>
+      <c r="D171" s="66" t="s">
         <v>20</v>
       </c>
       <c r="E171" s="48" t="s">
@@ -8635,8 +8635,8 @@
       <c r="B172" s="52">
         <v>147</v>
       </c>
-      <c r="C172" s="120"/>
-      <c r="D172" s="110"/>
+      <c r="C172" s="71"/>
+      <c r="D172" s="67"/>
       <c r="E172" s="48" t="s">
         <v>13</v>
       </c>
@@ -8674,8 +8674,8 @@
       <c r="B173" s="52">
         <v>148</v>
       </c>
-      <c r="C173" s="120"/>
-      <c r="D173" s="110"/>
+      <c r="C173" s="71"/>
+      <c r="D173" s="67"/>
       <c r="E173" s="48" t="s">
         <v>10</v>
       </c>
@@ -8713,8 +8713,8 @@
       <c r="B174" s="52">
         <v>149</v>
       </c>
-      <c r="C174" s="120"/>
-      <c r="D174" s="110"/>
+      <c r="C174" s="71"/>
+      <c r="D174" s="67"/>
       <c r="E174" s="48" t="s">
         <v>11</v>
       </c>
@@ -8752,8 +8752,8 @@
       <c r="B175" s="52">
         <v>150</v>
       </c>
-      <c r="C175" s="120"/>
-      <c r="D175" s="110"/>
+      <c r="C175" s="71"/>
+      <c r="D175" s="67"/>
       <c r="E175" s="48" t="s">
         <v>21</v>
       </c>
@@ -8791,8 +8791,8 @@
       <c r="B176" s="52">
         <v>151</v>
       </c>
-      <c r="C176" s="120"/>
-      <c r="D176" s="110"/>
+      <c r="C176" s="71"/>
+      <c r="D176" s="67"/>
       <c r="E176" s="48" t="s">
         <v>22</v>
       </c>
@@ -8830,8 +8830,8 @@
       <c r="B177" s="52">
         <v>152</v>
       </c>
-      <c r="C177" s="120"/>
-      <c r="D177" s="110"/>
+      <c r="C177" s="71"/>
+      <c r="D177" s="67"/>
       <c r="E177" s="48" t="s">
         <v>23</v>
       </c>
@@ -8869,8 +8869,8 @@
       <c r="B178" s="52">
         <v>153</v>
       </c>
-      <c r="C178" s="120"/>
-      <c r="D178" s="110"/>
+      <c r="C178" s="71"/>
+      <c r="D178" s="67"/>
       <c r="E178" s="48" t="s">
         <v>14</v>
       </c>
@@ -8908,8 +8908,8 @@
       <c r="B179" s="52">
         <v>154</v>
       </c>
-      <c r="C179" s="120"/>
-      <c r="D179" s="110"/>
+      <c r="C179" s="71"/>
+      <c r="D179" s="67"/>
       <c r="E179" s="48" t="s">
         <v>16</v>
       </c>
@@ -8947,8 +8947,8 @@
       <c r="B180" s="52">
         <v>155</v>
       </c>
-      <c r="C180" s="120"/>
-      <c r="D180" s="110"/>
+      <c r="C180" s="71"/>
+      <c r="D180" s="67"/>
       <c r="E180" s="48" t="s">
         <v>15</v>
       </c>
@@ -8986,8 +8986,8 @@
       <c r="B181" s="52">
         <v>156</v>
       </c>
-      <c r="C181" s="120"/>
-      <c r="D181" s="110"/>
+      <c r="C181" s="71"/>
+      <c r="D181" s="67"/>
       <c r="E181" s="48" t="s">
         <v>17</v>
       </c>
@@ -9025,50 +9025,50 @@
       <c r="B182" s="52">
         <v>157</v>
       </c>
-      <c r="C182" s="120"/>
-      <c r="D182" s="110"/>
+      <c r="C182" s="71"/>
+      <c r="D182" s="67"/>
       <c r="E182" s="48" t="s">
         <v>36</v>
       </c>
       <c r="F182" s="43"/>
-      <c r="G182" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="H182" s="64"/>
-      <c r="I182" s="65"/>
+      <c r="G182" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="H182" s="94"/>
+      <c r="I182" s="95"/>
       <c r="J182" s="30"/>
-      <c r="K182" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="L182" s="64"/>
-      <c r="M182" s="65"/>
+      <c r="K182" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="L182" s="94"/>
+      <c r="M182" s="95"/>
       <c r="N182" s="30"/>
-      <c r="O182" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="P182" s="64"/>
-      <c r="Q182" s="65"/>
+      <c r="O182" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="P182" s="94"/>
+      <c r="Q182" s="95"/>
       <c r="R182" s="38">
         <v>319</v>
       </c>
       <c r="S182" s="30"/>
-      <c r="T182" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="U182" s="64"/>
-      <c r="V182" s="65"/>
+      <c r="T182" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="U182" s="94"/>
+      <c r="V182" s="95"/>
       <c r="W182" s="30"/>
-      <c r="X182" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y182" s="64"/>
-      <c r="Z182" s="65"/>
+      <c r="X182" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y182" s="94"/>
+      <c r="Z182" s="95"/>
       <c r="AA182" s="30"/>
-      <c r="AB182" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC182" s="64"/>
-      <c r="AD182" s="65"/>
+      <c r="AB182" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC182" s="94"/>
+      <c r="AD182" s="95"/>
       <c r="AE182" s="10"/>
     </row>
     <row r="183" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9076,38 +9076,38 @@
       <c r="B183" s="52">
         <v>158</v>
       </c>
-      <c r="C183" s="120"/>
-      <c r="D183" s="110"/>
+      <c r="C183" s="71"/>
+      <c r="D183" s="67"/>
       <c r="E183" s="48" t="s">
         <v>37</v>
       </c>
       <c r="F183" s="43"/>
-      <c r="G183" s="66"/>
-      <c r="H183" s="64"/>
-      <c r="I183" s="65"/>
+      <c r="G183" s="96"/>
+      <c r="H183" s="94"/>
+      <c r="I183" s="95"/>
       <c r="J183" s="30"/>
-      <c r="K183" s="66"/>
-      <c r="L183" s="64"/>
-      <c r="M183" s="65"/>
+      <c r="K183" s="96"/>
+      <c r="L183" s="94"/>
+      <c r="M183" s="95"/>
       <c r="N183" s="30"/>
-      <c r="O183" s="66"/>
-      <c r="P183" s="64"/>
-      <c r="Q183" s="65"/>
+      <c r="O183" s="96"/>
+      <c r="P183" s="94"/>
+      <c r="Q183" s="95"/>
       <c r="R183" s="38">
         <v>320</v>
       </c>
       <c r="S183" s="30"/>
-      <c r="T183" s="66"/>
-      <c r="U183" s="64"/>
-      <c r="V183" s="65"/>
+      <c r="T183" s="96"/>
+      <c r="U183" s="94"/>
+      <c r="V183" s="95"/>
       <c r="W183" s="30"/>
-      <c r="X183" s="66"/>
-      <c r="Y183" s="64"/>
-      <c r="Z183" s="65"/>
+      <c r="X183" s="96"/>
+      <c r="Y183" s="94"/>
+      <c r="Z183" s="95"/>
       <c r="AA183" s="30"/>
-      <c r="AB183" s="66"/>
-      <c r="AC183" s="64"/>
-      <c r="AD183" s="65"/>
+      <c r="AB183" s="96"/>
+      <c r="AC183" s="94"/>
+      <c r="AD183" s="95"/>
       <c r="AE183" s="10"/>
     </row>
     <row r="184" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9115,38 +9115,38 @@
       <c r="B184" s="52">
         <v>159</v>
       </c>
-      <c r="C184" s="120"/>
-      <c r="D184" s="110"/>
+      <c r="C184" s="71"/>
+      <c r="D184" s="67"/>
       <c r="E184" s="48" t="s">
         <v>38</v>
       </c>
       <c r="F184" s="43"/>
-      <c r="G184" s="66"/>
-      <c r="H184" s="64"/>
-      <c r="I184" s="65"/>
+      <c r="G184" s="96"/>
+      <c r="H184" s="94"/>
+      <c r="I184" s="95"/>
       <c r="J184" s="30"/>
-      <c r="K184" s="66"/>
-      <c r="L184" s="64"/>
-      <c r="M184" s="65"/>
+      <c r="K184" s="96"/>
+      <c r="L184" s="94"/>
+      <c r="M184" s="95"/>
       <c r="N184" s="30"/>
-      <c r="O184" s="66"/>
-      <c r="P184" s="64"/>
-      <c r="Q184" s="65"/>
+      <c r="O184" s="96"/>
+      <c r="P184" s="94"/>
+      <c r="Q184" s="95"/>
       <c r="R184" s="38">
         <v>321</v>
       </c>
       <c r="S184" s="30"/>
-      <c r="T184" s="66"/>
-      <c r="U184" s="64"/>
-      <c r="V184" s="65"/>
+      <c r="T184" s="96"/>
+      <c r="U184" s="94"/>
+      <c r="V184" s="95"/>
       <c r="W184" s="30"/>
-      <c r="X184" s="66"/>
-      <c r="Y184" s="64"/>
-      <c r="Z184" s="65"/>
+      <c r="X184" s="96"/>
+      <c r="Y184" s="94"/>
+      <c r="Z184" s="95"/>
       <c r="AA184" s="30"/>
-      <c r="AB184" s="66"/>
-      <c r="AC184" s="64"/>
-      <c r="AD184" s="65"/>
+      <c r="AB184" s="96"/>
+      <c r="AC184" s="94"/>
+      <c r="AD184" s="95"/>
       <c r="AE184" s="10"/>
     </row>
     <row r="185" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9154,38 +9154,38 @@
       <c r="B185" s="52">
         <v>160</v>
       </c>
-      <c r="C185" s="120"/>
-      <c r="D185" s="110"/>
+      <c r="C185" s="71"/>
+      <c r="D185" s="67"/>
       <c r="E185" s="48" t="s">
         <v>39</v>
       </c>
       <c r="F185" s="43"/>
-      <c r="G185" s="66"/>
-      <c r="H185" s="64"/>
-      <c r="I185" s="65"/>
+      <c r="G185" s="96"/>
+      <c r="H185" s="94"/>
+      <c r="I185" s="95"/>
       <c r="J185" s="30"/>
-      <c r="K185" s="66"/>
-      <c r="L185" s="64"/>
-      <c r="M185" s="65"/>
+      <c r="K185" s="96"/>
+      <c r="L185" s="94"/>
+      <c r="M185" s="95"/>
       <c r="N185" s="30"/>
-      <c r="O185" s="66"/>
-      <c r="P185" s="64"/>
-      <c r="Q185" s="65"/>
+      <c r="O185" s="96"/>
+      <c r="P185" s="94"/>
+      <c r="Q185" s="95"/>
       <c r="R185" s="38">
         <v>322</v>
       </c>
       <c r="S185" s="30"/>
-      <c r="T185" s="66"/>
-      <c r="U185" s="64"/>
-      <c r="V185" s="65"/>
+      <c r="T185" s="96"/>
+      <c r="U185" s="94"/>
+      <c r="V185" s="95"/>
       <c r="W185" s="30"/>
-      <c r="X185" s="66"/>
-      <c r="Y185" s="64"/>
-      <c r="Z185" s="65"/>
+      <c r="X185" s="96"/>
+      <c r="Y185" s="94"/>
+      <c r="Z185" s="95"/>
       <c r="AA185" s="30"/>
-      <c r="AB185" s="66"/>
-      <c r="AC185" s="64"/>
-      <c r="AD185" s="65"/>
+      <c r="AB185" s="96"/>
+      <c r="AC185" s="94"/>
+      <c r="AD185" s="95"/>
       <c r="AE185" s="10"/>
     </row>
     <row r="186" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9193,38 +9193,38 @@
       <c r="B186" s="52">
         <v>161</v>
       </c>
-      <c r="C186" s="120"/>
-      <c r="D186" s="110"/>
+      <c r="C186" s="71"/>
+      <c r="D186" s="67"/>
       <c r="E186" s="48" t="s">
         <v>40</v>
       </c>
       <c r="F186" s="43"/>
-      <c r="G186" s="66"/>
-      <c r="H186" s="64"/>
-      <c r="I186" s="65"/>
+      <c r="G186" s="96"/>
+      <c r="H186" s="94"/>
+      <c r="I186" s="95"/>
       <c r="J186" s="30"/>
-      <c r="K186" s="66"/>
-      <c r="L186" s="64"/>
-      <c r="M186" s="65"/>
+      <c r="K186" s="96"/>
+      <c r="L186" s="94"/>
+      <c r="M186" s="95"/>
       <c r="N186" s="30"/>
-      <c r="O186" s="66"/>
-      <c r="P186" s="64"/>
-      <c r="Q186" s="65"/>
+      <c r="O186" s="96"/>
+      <c r="P186" s="94"/>
+      <c r="Q186" s="95"/>
       <c r="R186" s="38">
         <v>323</v>
       </c>
       <c r="S186" s="30"/>
-      <c r="T186" s="66"/>
-      <c r="U186" s="64"/>
-      <c r="V186" s="65"/>
+      <c r="T186" s="96"/>
+      <c r="U186" s="94"/>
+      <c r="V186" s="95"/>
       <c r="W186" s="30"/>
-      <c r="X186" s="66"/>
-      <c r="Y186" s="64"/>
-      <c r="Z186" s="65"/>
+      <c r="X186" s="96"/>
+      <c r="Y186" s="94"/>
+      <c r="Z186" s="95"/>
       <c r="AA186" s="30"/>
-      <c r="AB186" s="66"/>
-      <c r="AC186" s="64"/>
-      <c r="AD186" s="65"/>
+      <c r="AB186" s="96"/>
+      <c r="AC186" s="94"/>
+      <c r="AD186" s="95"/>
       <c r="AE186" s="10"/>
     </row>
     <row r="187" spans="1:31" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9232,38 +9232,38 @@
       <c r="B187" s="52">
         <v>162</v>
       </c>
-      <c r="C187" s="121"/>
-      <c r="D187" s="118"/>
+      <c r="C187" s="72"/>
+      <c r="D187" s="69"/>
       <c r="E187" s="51" t="s">
         <v>41</v>
       </c>
       <c r="F187" s="46"/>
-      <c r="G187" s="67"/>
-      <c r="H187" s="68"/>
-      <c r="I187" s="69"/>
+      <c r="G187" s="97"/>
+      <c r="H187" s="98"/>
+      <c r="I187" s="99"/>
       <c r="J187" s="33"/>
-      <c r="K187" s="67"/>
-      <c r="L187" s="68"/>
-      <c r="M187" s="69"/>
+      <c r="K187" s="97"/>
+      <c r="L187" s="98"/>
+      <c r="M187" s="99"/>
       <c r="N187" s="33"/>
-      <c r="O187" s="67"/>
-      <c r="P187" s="68"/>
-      <c r="Q187" s="69"/>
+      <c r="O187" s="97"/>
+      <c r="P187" s="98"/>
+      <c r="Q187" s="99"/>
       <c r="R187" s="41">
         <v>324</v>
       </c>
       <c r="S187" s="33"/>
-      <c r="T187" s="67"/>
-      <c r="U187" s="68"/>
-      <c r="V187" s="69"/>
+      <c r="T187" s="97"/>
+      <c r="U187" s="98"/>
+      <c r="V187" s="99"/>
       <c r="W187" s="33"/>
-      <c r="X187" s="67"/>
-      <c r="Y187" s="68"/>
-      <c r="Z187" s="69"/>
+      <c r="X187" s="97"/>
+      <c r="Y187" s="98"/>
+      <c r="Z187" s="99"/>
       <c r="AA187" s="33"/>
-      <c r="AB187" s="67"/>
-      <c r="AC187" s="68"/>
-      <c r="AD187" s="69"/>
+      <c r="AB187" s="97"/>
+      <c r="AC187" s="98"/>
+      <c r="AD187" s="99"/>
       <c r="AE187" s="10"/>
     </row>
     <row r="188" spans="1:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -9283,19 +9283,70 @@
     </row>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="D154:D170"/>
-    <mergeCell ref="D171:D187"/>
-    <mergeCell ref="C80:C133"/>
-    <mergeCell ref="C134:C187"/>
-    <mergeCell ref="D46:D62"/>
-    <mergeCell ref="D63:D79"/>
-    <mergeCell ref="C26:C79"/>
-    <mergeCell ref="D80:D82"/>
-    <mergeCell ref="D83:D99"/>
-    <mergeCell ref="D100:D116"/>
-    <mergeCell ref="D117:D133"/>
-    <mergeCell ref="D134:D136"/>
-    <mergeCell ref="D137:D153"/>
+    <mergeCell ref="AB165:AD170"/>
+    <mergeCell ref="G182:I187"/>
+    <mergeCell ref="K182:M187"/>
+    <mergeCell ref="O182:Q187"/>
+    <mergeCell ref="T182:V187"/>
+    <mergeCell ref="X182:Z187"/>
+    <mergeCell ref="AB182:AD187"/>
+    <mergeCell ref="G165:I170"/>
+    <mergeCell ref="K165:M170"/>
+    <mergeCell ref="O165:Q170"/>
+    <mergeCell ref="T165:V170"/>
+    <mergeCell ref="X165:Z170"/>
+    <mergeCell ref="AB128:AD133"/>
+    <mergeCell ref="G148:I153"/>
+    <mergeCell ref="K148:M153"/>
+    <mergeCell ref="O148:Q153"/>
+    <mergeCell ref="T148:V153"/>
+    <mergeCell ref="X148:Z153"/>
+    <mergeCell ref="AB148:AD153"/>
+    <mergeCell ref="G128:I133"/>
+    <mergeCell ref="K128:M133"/>
+    <mergeCell ref="O128:Q133"/>
+    <mergeCell ref="T128:V133"/>
+    <mergeCell ref="X128:Z133"/>
+    <mergeCell ref="AB94:AD99"/>
+    <mergeCell ref="G111:I116"/>
+    <mergeCell ref="K111:M116"/>
+    <mergeCell ref="O111:Q116"/>
+    <mergeCell ref="T111:V116"/>
+    <mergeCell ref="X111:Z116"/>
+    <mergeCell ref="AB111:AD116"/>
+    <mergeCell ref="G94:I99"/>
+    <mergeCell ref="K94:M99"/>
+    <mergeCell ref="O94:Q99"/>
+    <mergeCell ref="T94:V99"/>
+    <mergeCell ref="X94:Z99"/>
+    <mergeCell ref="AB57:AD62"/>
+    <mergeCell ref="G74:I79"/>
+    <mergeCell ref="K74:M79"/>
+    <mergeCell ref="O74:Q79"/>
+    <mergeCell ref="T74:V79"/>
+    <mergeCell ref="X74:Z79"/>
+    <mergeCell ref="AB74:AD79"/>
+    <mergeCell ref="G57:I62"/>
+    <mergeCell ref="K57:M62"/>
+    <mergeCell ref="O57:Q62"/>
+    <mergeCell ref="T57:V62"/>
+    <mergeCell ref="X57:Z62"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B21:AD21"/>
+    <mergeCell ref="Z2:AD2"/>
+    <mergeCell ref="E2:S2"/>
+    <mergeCell ref="W24:Z24"/>
+    <mergeCell ref="AA24:AD24"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="F10:S10"/>
+    <mergeCell ref="F11:S11"/>
+    <mergeCell ref="F12:S12"/>
+    <mergeCell ref="F13:S13"/>
+    <mergeCell ref="S24:V24"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="AF2:AL30"/>
     <mergeCell ref="S23:AD23"/>
     <mergeCell ref="D26:D28"/>
@@ -9312,70 +9363,19 @@
     <mergeCell ref="X40:Z45"/>
     <mergeCell ref="AB40:AD45"/>
     <mergeCell ref="F15:K15"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B21:AD21"/>
-    <mergeCell ref="Z2:AD2"/>
-    <mergeCell ref="E2:S2"/>
-    <mergeCell ref="W24:Z24"/>
-    <mergeCell ref="AA24:AD24"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="R24:R25"/>
-    <mergeCell ref="F10:S10"/>
-    <mergeCell ref="F11:S11"/>
-    <mergeCell ref="F12:S12"/>
-    <mergeCell ref="F13:S13"/>
-    <mergeCell ref="S24:V24"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="AB57:AD62"/>
-    <mergeCell ref="G74:I79"/>
-    <mergeCell ref="K74:M79"/>
-    <mergeCell ref="O74:Q79"/>
-    <mergeCell ref="T74:V79"/>
-    <mergeCell ref="X74:Z79"/>
-    <mergeCell ref="AB74:AD79"/>
-    <mergeCell ref="G57:I62"/>
-    <mergeCell ref="K57:M62"/>
-    <mergeCell ref="O57:Q62"/>
-    <mergeCell ref="T57:V62"/>
-    <mergeCell ref="X57:Z62"/>
-    <mergeCell ref="AB94:AD99"/>
-    <mergeCell ref="G111:I116"/>
-    <mergeCell ref="K111:M116"/>
-    <mergeCell ref="O111:Q116"/>
-    <mergeCell ref="T111:V116"/>
-    <mergeCell ref="X111:Z116"/>
-    <mergeCell ref="AB111:AD116"/>
-    <mergeCell ref="G94:I99"/>
-    <mergeCell ref="K94:M99"/>
-    <mergeCell ref="O94:Q99"/>
-    <mergeCell ref="T94:V99"/>
-    <mergeCell ref="X94:Z99"/>
-    <mergeCell ref="AB128:AD133"/>
-    <mergeCell ref="G148:I153"/>
-    <mergeCell ref="K148:M153"/>
-    <mergeCell ref="O148:Q153"/>
-    <mergeCell ref="T148:V153"/>
-    <mergeCell ref="X148:Z153"/>
-    <mergeCell ref="AB148:AD153"/>
-    <mergeCell ref="G128:I133"/>
-    <mergeCell ref="K128:M133"/>
-    <mergeCell ref="O128:Q133"/>
-    <mergeCell ref="T128:V133"/>
-    <mergeCell ref="X128:Z133"/>
-    <mergeCell ref="AB165:AD170"/>
-    <mergeCell ref="G182:I187"/>
-    <mergeCell ref="K182:M187"/>
-    <mergeCell ref="O182:Q187"/>
-    <mergeCell ref="T182:V187"/>
-    <mergeCell ref="X182:Z187"/>
-    <mergeCell ref="AB182:AD187"/>
-    <mergeCell ref="G165:I170"/>
-    <mergeCell ref="K165:M170"/>
-    <mergeCell ref="O165:Q170"/>
-    <mergeCell ref="T165:V170"/>
-    <mergeCell ref="X165:Z170"/>
+    <mergeCell ref="D154:D170"/>
+    <mergeCell ref="D171:D187"/>
+    <mergeCell ref="C80:C133"/>
+    <mergeCell ref="C134:C187"/>
+    <mergeCell ref="D46:D62"/>
+    <mergeCell ref="D63:D79"/>
+    <mergeCell ref="C26:C79"/>
+    <mergeCell ref="D80:D82"/>
+    <mergeCell ref="D83:D99"/>
+    <mergeCell ref="D100:D116"/>
+    <mergeCell ref="D117:D133"/>
+    <mergeCell ref="D134:D136"/>
+    <mergeCell ref="D137:D153"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
